--- a/RcOnline/base.xlsx
+++ b/RcOnline/base.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>Id</t>
   </si>
@@ -77,28 +77,19 @@
     <t>Не загружен справочник НСИ 16</t>
   </si>
   <si>
-    <t>Найдено 1 ЛС в ГИС ЖКХ (обл Свердловская,г Сухой Лог,ул Артиллеристов,28)</t>
-  </si>
-  <si>
-    <t>Не найден аккаунт для кап. ремонта в ГИС ЖКХ</t>
+    <t>Найдено 0 ПУ в ГИС ЖКХ (обл Свердловская,г Сухой Лог,ул Рябиновая,20)</t>
   </si>
   <si>
     <t>Не загружен справочник НСИ 50 (Жил. услуги)</t>
   </si>
   <si>
-    <t>Выполняю выгрузку начислений в ГИС ЖКХ для компании ООО "Белокалитвинская УК"</t>
-  </si>
-  <si>
-    <t>Найдено 0 ЛС в ГИС ЖКХ (обл Свердловская,г Заречный,ул Ленинградская,12А)</t>
+    <t>ПД выгружен успешно</t>
   </si>
   <si>
     <t>Выполняю выгрузку начислений в ГИС ЖКХ для компании ТСЖ "Спортивная 7"</t>
   </si>
   <si>
-    <t>Выполняю выгрузку начислений в ГИС ЖКХ для компании МУП "ГУЖКХ"</t>
-  </si>
-  <si>
-    <t>Выполняю выгрузку начислений в ГИС ЖКХ для компании ООО УК Жилфонд</t>
+    <t>Не найдены услуги в ГИС ЖКХ: 'Вывоз ЖБО, ТБО'</t>
   </si>
   <si>
     <t>Компания</t>
@@ -391,7 +382,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="16">
+  <numFmts count="20">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
@@ -500,33 +495,33 @@
   <sheetData>
     <row r="1" ht="12.8" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" ht="12.8">
       <c r="A2" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D2" s="7">
         <v>441</v>
@@ -540,13 +535,13 @@
     </row>
     <row r="3" ht="12.8">
       <c r="A3" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D3" s="7">
         <v>444</v>
@@ -560,13 +555,13 @@
     </row>
     <row r="4" ht="12.8">
       <c r="A4" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D4" s="7">
         <v>445</v>
@@ -574,7 +569,7 @@
     </row>
     <row r="5" ht="12.8">
       <c r="A5" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B5" s="7">
         <v>1116674008098</v>
@@ -594,7 +589,7 @@
     </row>
     <row r="6" ht="12.8">
       <c r="A6" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B6" s="7">
         <v>1047405001049</v>
@@ -611,7 +606,7 @@
     </row>
     <row r="7" ht="23.95">
       <c r="A7" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B7" s="7">
         <v>5117401000129</v>
@@ -631,7 +626,7 @@
     </row>
     <row r="8" ht="12.8">
       <c r="A8" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B8" s="7">
         <v>1113668050704</v>
@@ -648,7 +643,7 @@
     </row>
     <row r="9" ht="12.8">
       <c r="A9" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B9" s="7">
         <v>1123668013370</v>
@@ -668,7 +663,7 @@
     </row>
     <row r="10" ht="23.95">
       <c r="A10" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B10" s="7">
         <v>1057420008590</v>
@@ -688,7 +683,7 @@
     </row>
     <row r="11" ht="12.8">
       <c r="A11" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B11" s="7">
         <v>1057421013055</v>
@@ -708,7 +703,7 @@
     </row>
     <row r="12" ht="12.8">
       <c r="A12" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B12" s="7">
         <v>1067203121810</v>
@@ -728,7 +723,7 @@
     </row>
     <row r="13" ht="12.8">
       <c r="A13" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B13" s="7">
         <v>1057421012923</v>
@@ -748,7 +743,7 @@
     </row>
     <row r="14" ht="12.8">
       <c r="A14" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B14" s="7">
         <v>1134704001310</v>
@@ -768,7 +763,7 @@
     </row>
     <row r="15" ht="12.8">
       <c r="A15" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B15" s="7">
         <v>1107232034777</v>
@@ -788,7 +783,7 @@
     </row>
     <row r="16" ht="12.8">
       <c r="A16" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B16" s="7">
         <v>1156658040879</v>
@@ -808,7 +803,7 @@
     </row>
     <row r="17" ht="12.8">
       <c r="A17" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B17" s="7">
         <v>1107456001840</v>
@@ -828,7 +823,7 @@
     </row>
     <row r="18" ht="12.8">
       <c r="A18" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B18" s="7">
         <v>1067438009231</v>
@@ -848,7 +843,7 @@
     </row>
     <row r="19" ht="23.85">
       <c r="A19" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B19" s="7">
         <v>1087232009094</v>
@@ -868,7 +863,7 @@
     </row>
     <row r="20" ht="12.8">
       <c r="A20" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B20" s="7">
         <v>1067203024778</v>
@@ -888,7 +883,7 @@
     </row>
     <row r="21" ht="12.8">
       <c r="A21" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B21" s="7">
         <v>1037200551277</v>
@@ -908,7 +903,7 @@
     </row>
     <row r="22" ht="12.8">
       <c r="A22" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B22" s="7">
         <v>1037200601690</v>
@@ -928,7 +923,7 @@
     </row>
     <row r="23" ht="12.8">
       <c r="A23" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B23" s="7">
         <v>1037200588787</v>
@@ -948,7 +943,7 @@
     </row>
     <row r="24" ht="12.8">
       <c r="A24" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B24" s="7">
         <v>1065032016928</v>
@@ -968,7 +963,7 @@
     </row>
     <row r="25" ht="12.8">
       <c r="A25" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B25" s="7">
         <v>1036602185290</v>
@@ -988,7 +983,7 @@
     </row>
     <row r="26" ht="12.8">
       <c r="A26" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B26" s="7">
         <v>1066142015587</v>
@@ -1008,7 +1003,7 @@
     </row>
     <row r="27" ht="23.85">
       <c r="A27" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B27" s="7">
         <v>1156623000214</v>
@@ -1028,7 +1023,7 @@
     </row>
     <row r="28" ht="12.8">
       <c r="A28" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B28" s="7">
         <v>1096623000429</v>
@@ -1045,7 +1040,7 @@
     </row>
     <row r="29" ht="12.8">
       <c r="A29" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B29" s="7">
         <v>1106623001319</v>
@@ -1065,7 +1060,7 @@
     </row>
     <row r="30" ht="12.8">
       <c r="A30" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B30" s="7">
         <v>1096623001310</v>
@@ -1085,7 +1080,7 @@
     </row>
     <row r="31" ht="12.8">
       <c r="A31" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B31" s="7">
         <v>1096623009163</v>
@@ -1105,7 +1100,7 @@
     </row>
     <row r="32" ht="12.8">
       <c r="A32" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B32" s="7">
         <v>1069623031576</v>
@@ -1125,7 +1120,7 @@
     </row>
     <row r="33" ht="12.8">
       <c r="A33" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B33" s="7">
         <v>1146623006100</v>
@@ -1145,7 +1140,7 @@
     </row>
     <row r="34" ht="12.8">
       <c r="A34" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B34" s="7">
         <v>1096623000286</v>
@@ -1165,7 +1160,7 @@
     </row>
     <row r="35" ht="12.8">
       <c r="A35" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B35" s="7">
         <v>1155050005703</v>
@@ -1185,7 +1180,7 @@
     </row>
     <row r="36" ht="12.8">
       <c r="A36" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B36" s="7">
         <v>1106639001028</v>
@@ -1205,7 +1200,7 @@
     </row>
     <row r="37" ht="12.8">
       <c r="A37" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B37" s="7">
         <v>1106639000973</v>
@@ -1225,7 +1220,7 @@
     </row>
     <row r="38" ht="23.85">
       <c r="A38" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B38" s="7">
         <v>1156658098266</v>
@@ -1245,7 +1240,7 @@
     </row>
     <row r="39" ht="23.95">
       <c r="A39" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B39" s="7">
         <v>1156658098266</v>
@@ -1253,10 +1248,13 @@
       <c r="C39" s="7">
         <v>167</v>
       </c>
+      <c r="D39" s="0">
+        <v>643</v>
+      </c>
     </row>
     <row r="40" ht="23.95">
       <c r="A40" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B40" s="7">
         <v>1156658098266</v>
@@ -1270,7 +1268,7 @@
     </row>
     <row r="41" ht="23.95">
       <c r="A41" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B41" s="7">
         <v>1156658098266</v>
@@ -1284,7 +1282,7 @@
     </row>
     <row r="42" ht="23.95">
       <c r="A42" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B42" s="7">
         <v>1156658098266</v>
@@ -1298,7 +1296,7 @@
     </row>
     <row r="43" ht="12.8">
       <c r="A43" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B43" s="7">
         <v>1156658098266</v>
@@ -1309,7 +1307,7 @@
     </row>
     <row r="44" ht="12.8">
       <c r="A44" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B44" s="7">
         <v>1156658098266</v>
@@ -1320,7 +1318,7 @@
     </row>
     <row r="45" ht="12.8">
       <c r="A45" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B45" s="7">
         <v>1156658098266</v>
@@ -1331,7 +1329,7 @@
     </row>
     <row r="46" ht="12.8">
       <c r="A46" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B46" s="7">
         <v>1156658098266</v>
@@ -1342,7 +1340,7 @@
     </row>
     <row r="47" ht="23.95">
       <c r="A47" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B47" s="7">
         <v>1156658098266</v>
@@ -1356,7 +1354,7 @@
     </row>
     <row r="48" ht="12.8">
       <c r="A48" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B48" s="7">
         <v>1156658098266</v>
@@ -1367,7 +1365,7 @@
     </row>
     <row r="49" ht="23.95">
       <c r="A49" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B49" s="7">
         <v>1156658098266</v>
@@ -1378,7 +1376,7 @@
     </row>
     <row r="50" ht="23.95">
       <c r="A50" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B50" s="7">
         <v>1156658098266</v>
@@ -1389,7 +1387,7 @@
     </row>
     <row r="51" ht="12.8">
       <c r="A51" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B51" s="7">
         <v>1106639000962</v>
@@ -1409,7 +1407,7 @@
     </row>
     <row r="52" ht="12.8">
       <c r="A52" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B52" s="7">
         <v>1106639000896</v>
@@ -1429,7 +1427,7 @@
     </row>
     <row r="53" ht="12.8">
       <c r="A53" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B53" s="7">
         <v>1106639000907</v>
@@ -1449,7 +1447,7 @@
     </row>
     <row r="54" ht="12.8">
       <c r="A54" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B54" s="7">
         <v>1106639000951</v>
@@ -1469,7 +1467,7 @@
     </row>
     <row r="55" ht="12.8">
       <c r="A55" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B55" s="7">
         <v>1146683001420</v>
@@ -1489,7 +1487,7 @@
     </row>
     <row r="56" ht="12.8">
       <c r="A56" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B56" s="7">
         <v>1116671011050</v>
@@ -1509,7 +1507,7 @@
     </row>
     <row r="57" ht="12.8">
       <c r="A57" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B57" s="7">
         <v>1069639010660</v>
@@ -1529,7 +1527,7 @@
     </row>
     <row r="58" ht="12.8">
       <c r="A58" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B58" s="7">
         <v>1027200842811</v>
@@ -1549,7 +1547,7 @@
     </row>
     <row r="59" ht="12.8">
       <c r="A59" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B59" s="7">
         <v>1027200871818</v>
@@ -1569,7 +1567,7 @@
     </row>
     <row r="60" ht="12.8">
       <c r="A60" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B60" s="7">
         <v>1077203003195</v>
@@ -1589,7 +1587,7 @@
     </row>
     <row r="61" ht="12.8">
       <c r="A61" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B61" s="7">
         <v>1087232040466</v>
@@ -1609,7 +1607,7 @@
     </row>
     <row r="62" ht="12.8">
       <c r="A62" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B62" s="7">
         <v>1047200675884</v>
@@ -1629,7 +1627,7 @@
     </row>
     <row r="63" ht="23.85">
       <c r="A63" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B63" s="7">
         <v>1147232021881</v>
@@ -1649,7 +1647,7 @@
     </row>
     <row r="64" ht="12.8">
       <c r="A64" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B64" s="7">
         <v>1077200004122</v>
@@ -1669,7 +1667,7 @@
     </row>
     <row r="65" ht="12.8">
       <c r="A65" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B65" s="7">
         <v>1147232017580</v>
@@ -1689,7 +1687,7 @@
     </row>
     <row r="66" ht="12.8">
       <c r="A66" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B66" s="7">
         <v>1087232040697</v>
@@ -1709,7 +1707,7 @@
     </row>
     <row r="67" ht="12.8">
       <c r="A67" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B67" s="7">
         <v>1116674014270</v>
@@ -1729,7 +1727,7 @@
     </row>
     <row r="68" ht="12.8">
       <c r="A68" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B68" s="7">
         <v>1141828000710</v>
@@ -1746,7 +1744,7 @@
     </row>
     <row r="69" ht="12.8">
       <c r="A69" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B69" s="7">
         <v>1046601020157</v>
@@ -1766,7 +1764,7 @@
     </row>
     <row r="70" ht="12.8">
       <c r="A70" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B70" s="7">
         <v>1086639001481</v>
@@ -1786,7 +1784,7 @@
     </row>
     <row r="71" ht="12.8">
       <c r="A71" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B71" s="7">
         <v>1147232040196</v>
@@ -1806,7 +1804,7 @@
     </row>
     <row r="72" ht="12.8">
       <c r="A72" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B72" s="7">
         <v>1167232056551</v>
@@ -1826,7 +1824,7 @@
     </row>
     <row r="73" ht="12.8">
       <c r="A73" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B73" s="7">
         <v>1157232026137</v>
@@ -1843,7 +1841,7 @@
     </row>
     <row r="74" ht="12.8">
       <c r="A74" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B74" s="7">
         <v>1107232017595</v>
@@ -1863,7 +1861,7 @@
     </row>
     <row r="75" ht="12.8">
       <c r="A75" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B75" s="7">
         <v>1027200836464</v>
@@ -1883,7 +1881,7 @@
     </row>
     <row r="76" ht="12.8">
       <c r="A76" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B76" s="7">
         <v>1069633012008</v>
@@ -1900,7 +1898,7 @@
     </row>
     <row r="77" ht="12.8">
       <c r="A77" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B77" s="7">
         <v>1096607000159</v>
@@ -1917,7 +1915,7 @@
     </row>
     <row r="78" ht="12.8">
       <c r="A78" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B78" s="7">
         <v>1146623005913</v>
@@ -1937,7 +1935,7 @@
     </row>
     <row r="79" ht="12.8">
       <c r="A79" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B79" s="7">
         <v>1026600785430</v>
@@ -1957,7 +1955,7 @@
     </row>
     <row r="80" ht="12.8">
       <c r="A80" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B80" s="7">
         <v>1152036004625</v>
@@ -1977,7 +1975,7 @@
     </row>
     <row r="81" ht="12.8">
       <c r="A81" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B81" s="7">
         <v>1107232017089</v>
@@ -1997,7 +1995,7 @@
     </row>
     <row r="82" ht="12.8">
       <c r="A82" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B82" s="7">
         <v>1076633000762</v>
@@ -2014,7 +2012,7 @@
     </row>
     <row r="83" ht="12.8">
       <c r="A83" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B83" s="7">
         <v>1057200754346</v>
@@ -2034,7 +2032,7 @@
     </row>
     <row r="84" ht="12.8">
       <c r="A84" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B84" s="7">
         <v>1047200601766</v>
@@ -2068,7 +2066,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G208"/>
+  <dimension ref="A1:G209"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
@@ -4635,10 +4633,10 @@
         <v>7249</v>
       </c>
       <c r="E128" s="0">
-        <v>2125</v>
+        <v>3468</v>
       </c>
       <c r="F128" s="0">
-        <v>731</v>
+        <v>831</v>
       </c>
       <c r="G128" s="0" t="s">
         <v>15</v>
@@ -5595,10 +5593,10 @@
         <v>2771</v>
       </c>
       <c r="E176" s="0">
-        <v>388</v>
+        <v>702</v>
       </c>
       <c r="F176" s="0">
-        <v>241</v>
+        <v>427</v>
       </c>
       <c r="G176" s="0" t="s">
         <v>18</v>
@@ -5669,19 +5667,19 @@
         <v>614</v>
       </c>
       <c r="B180" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D180" s="0">
         <v>2005</v>
       </c>
       <c r="E180" s="0">
-        <v>823</v>
+        <v>1273</v>
       </c>
       <c r="F180" s="0">
-        <v>480</v>
+        <v>732</v>
       </c>
       <c r="G180" s="0" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181">
@@ -5761,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="G184" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="185">
@@ -5821,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188">
@@ -6032,16 +6030,16 @@
         <v>1</v>
       </c>
       <c r="D198" s="0">
-        <v>0</v>
+        <v>35226</v>
       </c>
       <c r="E198" s="0">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F198" s="0">
         <v>0</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="199">
@@ -6049,7 +6047,7 @@
         <v>633</v>
       </c>
       <c r="B199" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D199" s="0">
         <v>4449</v>
@@ -6058,10 +6056,10 @@
         <v>0</v>
       </c>
       <c r="F199" s="0">
-        <v>0</v>
+        <v>4449</v>
       </c>
       <c r="G199" s="0" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="200">
@@ -6069,7 +6067,7 @@
         <v>634</v>
       </c>
       <c r="B200" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D200" s="0">
         <v>4449</v>
@@ -6078,10 +6076,10 @@
         <v>0</v>
       </c>
       <c r="F200" s="0">
-        <v>0</v>
+        <v>4449</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201">
@@ -6109,7 +6107,7 @@
         <v>636</v>
       </c>
       <c r="B202" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D202" s="0">
         <v>2977</v>
@@ -6118,10 +6116,10 @@
         <v>0</v>
       </c>
       <c r="F202" s="0">
-        <v>0</v>
+        <v>2977</v>
       </c>
       <c r="G202" s="0" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203">
@@ -6181,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="G205" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="206">
@@ -6192,16 +6190,16 @@
         <v>1</v>
       </c>
       <c r="D206" s="0">
-        <v>0</v>
+        <v>28279</v>
       </c>
       <c r="E206" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F206" s="0">
-        <v>0</v>
+        <v>5732</v>
       </c>
       <c r="G206" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="207">
@@ -6209,19 +6207,19 @@
         <v>641</v>
       </c>
       <c r="B207" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D207" s="0">
-        <v>0</v>
+        <v>11690</v>
       </c>
       <c r="E207" s="0">
         <v>0</v>
       </c>
       <c r="F207" s="0">
-        <v>0</v>
+        <v>11690</v>
       </c>
       <c r="G207" s="0" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="208">
@@ -6242,6 +6240,14 @@
       </c>
       <c r="G208" s="0" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="0">
+        <v>643</v>
+      </c>
+      <c r="B209" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/RcOnline/base.xlsx
+++ b/RcOnline/base.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>Id</t>
   </si>
@@ -77,19 +77,13 @@
     <t>Не загружен справочник НСИ 16</t>
   </si>
   <si>
-    <t>Найдено 0 ПУ в ГИС ЖКХ (обл Свердловская,г Сухой Лог,ул Рябиновая,20)</t>
-  </si>
-  <si>
     <t>Не загружен справочник НСИ 50 (Жил. услуги)</t>
   </si>
   <si>
-    <t>ПД выгружен успешно</t>
-  </si>
-  <si>
     <t>Выполняю выгрузку начислений в ГИС ЖКХ для компании ТСЖ "Спортивная 7"</t>
   </si>
   <si>
-    <t>Не найдены услуги в ГИС ЖКХ: 'Вывоз ЖБО, ТБО'</t>
+    <t>Некорректный состав услуг или некорректное указание реквизитов по услугам.</t>
   </si>
   <si>
     <t>Компания</t>
@@ -382,7 +376,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="20">
+  <numFmts count="22">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
@@ -495,33 +491,33 @@
   <sheetData>
     <row r="1" ht="12.8" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" ht="12.8">
       <c r="A2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="D2" s="7">
         <v>441</v>
@@ -535,13 +531,13 @@
     </row>
     <row r="3" ht="12.8">
       <c r="A3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D3" s="7">
         <v>444</v>
@@ -555,13 +551,13 @@
     </row>
     <row r="4" ht="12.8">
       <c r="A4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="D4" s="7">
         <v>445</v>
@@ -569,7 +565,7 @@
     </row>
     <row r="5" ht="12.8">
       <c r="A5" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="7">
         <v>1116674008098</v>
@@ -589,7 +585,7 @@
     </row>
     <row r="6" ht="12.8">
       <c r="A6" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="7">
         <v>1047405001049</v>
@@ -606,7 +602,7 @@
     </row>
     <row r="7" ht="23.95">
       <c r="A7" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" s="7">
         <v>5117401000129</v>
@@ -626,7 +622,7 @@
     </row>
     <row r="8" ht="12.8">
       <c r="A8" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="7">
         <v>1113668050704</v>
@@ -643,7 +639,7 @@
     </row>
     <row r="9" ht="12.8">
       <c r="A9" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="7">
         <v>1123668013370</v>
@@ -663,7 +659,7 @@
     </row>
     <row r="10" ht="23.95">
       <c r="A10" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="7">
         <v>1057420008590</v>
@@ -683,7 +679,7 @@
     </row>
     <row r="11" ht="12.8">
       <c r="A11" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" s="7">
         <v>1057421013055</v>
@@ -703,7 +699,7 @@
     </row>
     <row r="12" ht="12.8">
       <c r="A12" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="7">
         <v>1067203121810</v>
@@ -723,7 +719,7 @@
     </row>
     <row r="13" ht="12.8">
       <c r="A13" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="7">
         <v>1057421012923</v>
@@ -743,7 +739,7 @@
     </row>
     <row r="14" ht="12.8">
       <c r="A14" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" s="7">
         <v>1134704001310</v>
@@ -763,7 +759,7 @@
     </row>
     <row r="15" ht="12.8">
       <c r="A15" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B15" s="7">
         <v>1107232034777</v>
@@ -783,7 +779,7 @@
     </row>
     <row r="16" ht="12.8">
       <c r="A16" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B16" s="7">
         <v>1156658040879</v>
@@ -803,7 +799,7 @@
     </row>
     <row r="17" ht="12.8">
       <c r="A17" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B17" s="7">
         <v>1107456001840</v>
@@ -823,7 +819,7 @@
     </row>
     <row r="18" ht="12.8">
       <c r="A18" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B18" s="7">
         <v>1067438009231</v>
@@ -843,7 +839,7 @@
     </row>
     <row r="19" ht="23.85">
       <c r="A19" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19" s="7">
         <v>1087232009094</v>
@@ -863,7 +859,7 @@
     </row>
     <row r="20" ht="12.8">
       <c r="A20" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B20" s="7">
         <v>1067203024778</v>
@@ -883,7 +879,7 @@
     </row>
     <row r="21" ht="12.8">
       <c r="A21" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B21" s="7">
         <v>1037200551277</v>
@@ -903,7 +899,7 @@
     </row>
     <row r="22" ht="12.8">
       <c r="A22" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22" s="7">
         <v>1037200601690</v>
@@ -923,7 +919,7 @@
     </row>
     <row r="23" ht="12.8">
       <c r="A23" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B23" s="7">
         <v>1037200588787</v>
@@ -943,7 +939,7 @@
     </row>
     <row r="24" ht="12.8">
       <c r="A24" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B24" s="7">
         <v>1065032016928</v>
@@ -963,7 +959,7 @@
     </row>
     <row r="25" ht="12.8">
       <c r="A25" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B25" s="7">
         <v>1036602185290</v>
@@ -983,7 +979,7 @@
     </row>
     <row r="26" ht="12.8">
       <c r="A26" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B26" s="7">
         <v>1066142015587</v>
@@ -1003,7 +999,7 @@
     </row>
     <row r="27" ht="23.85">
       <c r="A27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B27" s="7">
         <v>1156623000214</v>
@@ -1023,7 +1019,7 @@
     </row>
     <row r="28" ht="12.8">
       <c r="A28" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B28" s="7">
         <v>1096623000429</v>
@@ -1040,7 +1036,7 @@
     </row>
     <row r="29" ht="12.8">
       <c r="A29" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B29" s="7">
         <v>1106623001319</v>
@@ -1060,7 +1056,7 @@
     </row>
     <row r="30" ht="12.8">
       <c r="A30" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B30" s="7">
         <v>1096623001310</v>
@@ -1080,7 +1076,7 @@
     </row>
     <row r="31" ht="12.8">
       <c r="A31" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B31" s="7">
         <v>1096623009163</v>
@@ -1100,7 +1096,7 @@
     </row>
     <row r="32" ht="12.8">
       <c r="A32" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B32" s="7">
         <v>1069623031576</v>
@@ -1120,7 +1116,7 @@
     </row>
     <row r="33" ht="12.8">
       <c r="A33" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B33" s="7">
         <v>1146623006100</v>
@@ -1140,7 +1136,7 @@
     </row>
     <row r="34" ht="12.8">
       <c r="A34" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B34" s="7">
         <v>1096623000286</v>
@@ -1160,7 +1156,7 @@
     </row>
     <row r="35" ht="12.8">
       <c r="A35" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B35" s="7">
         <v>1155050005703</v>
@@ -1180,7 +1176,7 @@
     </row>
     <row r="36" ht="12.8">
       <c r="A36" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B36" s="7">
         <v>1106639001028</v>
@@ -1200,7 +1196,7 @@
     </row>
     <row r="37" ht="12.8">
       <c r="A37" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B37" s="7">
         <v>1106639000973</v>
@@ -1220,7 +1216,7 @@
     </row>
     <row r="38" ht="23.85">
       <c r="A38" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B38" s="7">
         <v>1156658098266</v>
@@ -1240,7 +1236,7 @@
     </row>
     <row r="39" ht="23.95">
       <c r="A39" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B39" s="7">
         <v>1156658098266</v>
@@ -1254,7 +1250,7 @@
     </row>
     <row r="40" ht="23.95">
       <c r="A40" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B40" s="7">
         <v>1156658098266</v>
@@ -1265,10 +1261,13 @@
       <c r="D40" s="7">
         <v>437</v>
       </c>
+      <c r="E40" s="0">
+        <v>644</v>
+      </c>
     </row>
     <row r="41" ht="23.95">
       <c r="A41" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B41" s="7">
         <v>1156658098266</v>
@@ -1282,7 +1281,7 @@
     </row>
     <row r="42" ht="23.95">
       <c r="A42" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B42" s="7">
         <v>1156658098266</v>
@@ -1296,7 +1295,7 @@
     </row>
     <row r="43" ht="12.8">
       <c r="A43" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B43" s="7">
         <v>1156658098266</v>
@@ -1307,7 +1306,7 @@
     </row>
     <row r="44" ht="12.8">
       <c r="A44" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B44" s="7">
         <v>1156658098266</v>
@@ -1318,7 +1317,7 @@
     </row>
     <row r="45" ht="12.8">
       <c r="A45" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B45" s="7">
         <v>1156658098266</v>
@@ -1329,7 +1328,7 @@
     </row>
     <row r="46" ht="12.8">
       <c r="A46" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B46" s="7">
         <v>1156658098266</v>
@@ -1340,7 +1339,7 @@
     </row>
     <row r="47" ht="23.95">
       <c r="A47" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B47" s="7">
         <v>1156658098266</v>
@@ -1354,7 +1353,7 @@
     </row>
     <row r="48" ht="12.8">
       <c r="A48" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B48" s="7">
         <v>1156658098266</v>
@@ -1365,7 +1364,7 @@
     </row>
     <row r="49" ht="23.95">
       <c r="A49" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B49" s="7">
         <v>1156658098266</v>
@@ -1376,7 +1375,7 @@
     </row>
     <row r="50" ht="23.95">
       <c r="A50" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B50" s="7">
         <v>1156658098266</v>
@@ -1387,7 +1386,7 @@
     </row>
     <row r="51" ht="12.8">
       <c r="A51" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B51" s="7">
         <v>1106639000962</v>
@@ -1407,7 +1406,7 @@
     </row>
     <row r="52" ht="12.8">
       <c r="A52" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B52" s="7">
         <v>1106639000896</v>
@@ -1427,7 +1426,7 @@
     </row>
     <row r="53" ht="12.8">
       <c r="A53" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B53" s="7">
         <v>1106639000907</v>
@@ -1447,7 +1446,7 @@
     </row>
     <row r="54" ht="12.8">
       <c r="A54" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B54" s="7">
         <v>1106639000951</v>
@@ -1467,7 +1466,7 @@
     </row>
     <row r="55" ht="12.8">
       <c r="A55" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B55" s="7">
         <v>1146683001420</v>
@@ -1487,7 +1486,7 @@
     </row>
     <row r="56" ht="12.8">
       <c r="A56" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B56" s="7">
         <v>1116671011050</v>
@@ -1507,7 +1506,7 @@
     </row>
     <row r="57" ht="12.8">
       <c r="A57" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B57" s="7">
         <v>1069639010660</v>
@@ -1527,7 +1526,7 @@
     </row>
     <row r="58" ht="12.8">
       <c r="A58" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B58" s="7">
         <v>1027200842811</v>
@@ -1547,7 +1546,7 @@
     </row>
     <row r="59" ht="12.8">
       <c r="A59" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B59" s="7">
         <v>1027200871818</v>
@@ -1567,7 +1566,7 @@
     </row>
     <row r="60" ht="12.8">
       <c r="A60" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B60" s="7">
         <v>1077203003195</v>
@@ -1587,7 +1586,7 @@
     </row>
     <row r="61" ht="12.8">
       <c r="A61" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B61" s="7">
         <v>1087232040466</v>
@@ -1607,7 +1606,7 @@
     </row>
     <row r="62" ht="12.8">
       <c r="A62" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B62" s="7">
         <v>1047200675884</v>
@@ -1627,7 +1626,7 @@
     </row>
     <row r="63" ht="23.85">
       <c r="A63" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B63" s="7">
         <v>1147232021881</v>
@@ -1647,7 +1646,7 @@
     </row>
     <row r="64" ht="12.8">
       <c r="A64" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B64" s="7">
         <v>1077200004122</v>
@@ -1667,7 +1666,7 @@
     </row>
     <row r="65" ht="12.8">
       <c r="A65" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B65" s="7">
         <v>1147232017580</v>
@@ -1687,7 +1686,7 @@
     </row>
     <row r="66" ht="12.8">
       <c r="A66" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B66" s="7">
         <v>1087232040697</v>
@@ -1707,7 +1706,7 @@
     </row>
     <row r="67" ht="12.8">
       <c r="A67" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B67" s="7">
         <v>1116674014270</v>
@@ -1727,7 +1726,7 @@
     </row>
     <row r="68" ht="12.8">
       <c r="A68" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B68" s="7">
         <v>1141828000710</v>
@@ -1744,7 +1743,7 @@
     </row>
     <row r="69" ht="12.8">
       <c r="A69" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B69" s="7">
         <v>1046601020157</v>
@@ -1764,7 +1763,7 @@
     </row>
     <row r="70" ht="12.8">
       <c r="A70" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B70" s="7">
         <v>1086639001481</v>
@@ -1784,7 +1783,7 @@
     </row>
     <row r="71" ht="12.8">
       <c r="A71" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B71" s="7">
         <v>1147232040196</v>
@@ -1804,7 +1803,7 @@
     </row>
     <row r="72" ht="12.8">
       <c r="A72" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B72" s="7">
         <v>1167232056551</v>
@@ -1824,7 +1823,7 @@
     </row>
     <row r="73" ht="12.8">
       <c r="A73" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B73" s="7">
         <v>1157232026137</v>
@@ -1841,7 +1840,7 @@
     </row>
     <row r="74" ht="12.8">
       <c r="A74" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B74" s="7">
         <v>1107232017595</v>
@@ -1861,7 +1860,7 @@
     </row>
     <row r="75" ht="12.8">
       <c r="A75" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B75" s="7">
         <v>1027200836464</v>
@@ -1881,7 +1880,7 @@
     </row>
     <row r="76" ht="12.8">
       <c r="A76" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B76" s="7">
         <v>1069633012008</v>
@@ -1898,7 +1897,7 @@
     </row>
     <row r="77" ht="12.8">
       <c r="A77" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B77" s="7">
         <v>1096607000159</v>
@@ -1915,7 +1914,7 @@
     </row>
     <row r="78" ht="12.8">
       <c r="A78" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B78" s="7">
         <v>1146623005913</v>
@@ -1935,7 +1934,7 @@
     </row>
     <row r="79" ht="12.8">
       <c r="A79" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B79" s="7">
         <v>1026600785430</v>
@@ -1955,7 +1954,7 @@
     </row>
     <row r="80" ht="12.8">
       <c r="A80" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B80" s="7">
         <v>1152036004625</v>
@@ -1975,7 +1974,7 @@
     </row>
     <row r="81" ht="12.8">
       <c r="A81" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B81" s="7">
         <v>1107232017089</v>
@@ -1995,7 +1994,7 @@
     </row>
     <row r="82" ht="12.8">
       <c r="A82" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B82" s="7">
         <v>1076633000762</v>
@@ -2012,7 +2011,7 @@
     </row>
     <row r="83" ht="12.8">
       <c r="A83" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B83" s="7">
         <v>1057200754346</v>
@@ -2032,7 +2031,7 @@
     </row>
     <row r="84" ht="12.8">
       <c r="A84" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B84" s="7">
         <v>1047200601766</v>
@@ -2066,7 +2065,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G209"/>
+  <dimension ref="A1:G210"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
@@ -4633,10 +4632,10 @@
         <v>7249</v>
       </c>
       <c r="E128" s="0">
-        <v>3468</v>
+        <v>4134</v>
       </c>
       <c r="F128" s="0">
-        <v>831</v>
+        <v>915</v>
       </c>
       <c r="G128" s="0" t="s">
         <v>15</v>
@@ -5593,13 +5592,13 @@
         <v>2771</v>
       </c>
       <c r="E176" s="0">
-        <v>702</v>
+        <v>854</v>
       </c>
       <c r="F176" s="0">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="177">
@@ -5759,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="G184" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185">
@@ -5819,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188">
@@ -6027,19 +6026,19 @@
         <v>632</v>
       </c>
       <c r="B198" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D198" s="0">
         <v>35226</v>
       </c>
       <c r="E198" s="0">
-        <v>63</v>
+        <v>758</v>
       </c>
       <c r="F198" s="0">
         <v>0</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199">
@@ -6179,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="G205" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206">
@@ -6193,13 +6192,13 @@
         <v>28279</v>
       </c>
       <c r="E206" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F206" s="0">
-        <v>5732</v>
+        <v>22069</v>
       </c>
       <c r="G206" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="207">
@@ -6247,6 +6246,26 @@
         <v>643</v>
       </c>
       <c r="B209" s="0">
+        <v>4</v>
+      </c>
+      <c r="D209" s="0">
+        <v>320</v>
+      </c>
+      <c r="E209" s="0">
+        <v>0</v>
+      </c>
+      <c r="F209" s="0">
+        <v>0</v>
+      </c>
+      <c r="G209" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="0">
+        <v>644</v>
+      </c>
+      <c r="B210" s="0">
         <v>0</v>
       </c>
     </row>

--- a/RcOnline/base.xlsx
+++ b/RcOnline/base.xlsx
@@ -77,13 +77,13 @@
     <t>Не загружен справочник НСИ 16</t>
   </si>
   <si>
+    <t>Найдено 2 ЛС в ГИС ЖКХ (обл Свердловская,р-н Сухоложский,с Знаменское,ул Механизаторов,10)</t>
+  </si>
+  <si>
     <t>Не загружен справочник НСИ 50 (Жил. услуги)</t>
   </si>
   <si>
     <t>Выполняю выгрузку начислений в ГИС ЖКХ для компании ТСЖ "Спортивная 7"</t>
-  </si>
-  <si>
-    <t>Некорректный состав услуг или некорректное указание реквизитов по услугам.</t>
   </si>
   <si>
     <t>Компания</t>
@@ -376,7 +376,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="22">
+  <numFmts count="24">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
@@ -1264,6 +1266,9 @@
       <c r="E40" s="0">
         <v>644</v>
       </c>
+      <c r="F40" s="0">
+        <v>645</v>
+      </c>
     </row>
     <row r="41" ht="23.95">
       <c r="A41" s="7" t="s">
@@ -2065,7 +2070,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G210"/>
+  <dimension ref="A1:G211"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
@@ -4632,10 +4637,10 @@
         <v>7249</v>
       </c>
       <c r="E128" s="0">
-        <v>4134</v>
+        <v>4897</v>
       </c>
       <c r="F128" s="0">
-        <v>915</v>
+        <v>1339</v>
       </c>
       <c r="G128" s="0" t="s">
         <v>15</v>
@@ -5592,13 +5597,13 @@
         <v>2771</v>
       </c>
       <c r="E176" s="0">
-        <v>854</v>
+        <v>1023</v>
       </c>
       <c r="F176" s="0">
-        <v>452</v>
+        <v>514</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177">
@@ -5758,7 +5763,7 @@
         <v>0</v>
       </c>
       <c r="G184" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="185">
@@ -5818,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188">
@@ -6178,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="G205" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="206">
@@ -6186,7 +6191,7 @@
         <v>640</v>
       </c>
       <c r="B206" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D206" s="0">
         <v>28279</v>
@@ -6195,10 +6200,10 @@
         <v>10</v>
       </c>
       <c r="F206" s="0">
-        <v>22069</v>
+        <v>28269</v>
       </c>
       <c r="G206" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="207">
@@ -6266,6 +6271,26 @@
         <v>644</v>
       </c>
       <c r="B210" s="0">
+        <v>3</v>
+      </c>
+      <c r="D210" s="0">
+        <v>180</v>
+      </c>
+      <c r="E210" s="0">
+        <v>103</v>
+      </c>
+      <c r="F210" s="0">
+        <v>77</v>
+      </c>
+      <c r="G210" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="0">
+        <v>645</v>
+      </c>
+      <c r="B211" s="0">
         <v>0</v>
       </c>
     </row>

--- a/RcOnline/base.xlsx
+++ b/RcOnline/base.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Id</t>
   </si>
@@ -47,43 +47,31 @@
     <t>Выгрузка ЛС завершена.</t>
   </si>
   <si>
-    <t>Не загружен справочник НСИ 1 (Доп. услуги)</t>
+    <t>Произошла одна или несколько ошибок.</t>
   </si>
   <si>
     <t>Выгрузка ПУ завершена.</t>
   </si>
   <si>
-    <t>An error occurred while executing the command definition. See the inner exception for details.</t>
-  </si>
-  <si>
-    <t>Произошла одна или несколько ошибок.</t>
-  </si>
-  <si>
     <t>Выгрузка начислений завершена.</t>
   </si>
   <si>
+    <t>Не найдены реселлеры в Биллинг Онлайн</t>
+  </si>
+  <si>
+    <t>ПУ выгружен успешно</t>
+  </si>
+  <si>
+    <t>Статус курсора на сервере РЦ Онлайн:2006</t>
+  </si>
+  <si>
+    <t>ПУ уже есть в ГИС</t>
+  </si>
+  <si>
     <t xml:space="preserve">Execution Timeout Expired.  The timeout period elapsed prior to completion of the operation or the server is not responding.</t>
   </si>
   <si>
-    <t>Не найдены реселлеры в Биллинг Онлайн</t>
-  </si>
-  <si>
-    <t>ПУ выгружен успешно</t>
-  </si>
-  <si>
-    <t>Статус курсора на сервере РЦ Онлайн:2006</t>
-  </si>
-  <si>
-    <t>Не загружен справочник НСИ 16</t>
-  </si>
-  <si>
-    <t>Найдено 2 ЛС в ГИС ЖКХ (обл Свердловская,р-н Сухоложский,с Знаменское,ул Механизаторов,10)</t>
-  </si>
-  <si>
-    <t>Не загружен справочник НСИ 50 (Жил. услуги)</t>
-  </si>
-  <si>
-    <t>Выполняю выгрузку начислений в ГИС ЖКХ для компании ТСЖ "Спортивная 7"</t>
+    <t>Найдено 1 ЛС в ГИС ЖКХ (обл Свердловская,г Сухой Лог,ул Пушкинская,28)</t>
   </si>
   <si>
     <t>Компания</t>
@@ -376,7 +364,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="24">
+  <numFmts count="32">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
@@ -493,33 +489,33 @@
   <sheetData>
     <row r="1" ht="12.8" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" ht="12.8">
       <c r="A2" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2" s="7">
         <v>441</v>
@@ -533,13 +529,13 @@
     </row>
     <row r="3" ht="12.8">
       <c r="A3" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D3" s="7">
         <v>444</v>
@@ -553,13 +549,13 @@
     </row>
     <row r="4" ht="12.8">
       <c r="A4" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D4" s="7">
         <v>445</v>
@@ -567,7 +563,7 @@
     </row>
     <row r="5" ht="12.8">
       <c r="A5" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B5" s="7">
         <v>1116674008098</v>
@@ -587,7 +583,7 @@
     </row>
     <row r="6" ht="12.8">
       <c r="A6" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B6" s="7">
         <v>1047405001049</v>
@@ -601,10 +597,13 @@
       <c r="E6" s="0">
         <v>562</v>
       </c>
+      <c r="F6" s="0">
+        <v>646</v>
+      </c>
     </row>
     <row r="7" ht="23.95">
       <c r="A7" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B7" s="7">
         <v>5117401000129</v>
@@ -624,7 +623,7 @@
     </row>
     <row r="8" ht="12.8">
       <c r="A8" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B8" s="7">
         <v>1113668050704</v>
@@ -641,7 +640,7 @@
     </row>
     <row r="9" ht="12.8">
       <c r="A9" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B9" s="7">
         <v>1123668013370</v>
@@ -661,7 +660,7 @@
     </row>
     <row r="10" ht="23.95">
       <c r="A10" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B10" s="7">
         <v>1057420008590</v>
@@ -681,7 +680,7 @@
     </row>
     <row r="11" ht="12.8">
       <c r="A11" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B11" s="7">
         <v>1057421013055</v>
@@ -701,7 +700,7 @@
     </row>
     <row r="12" ht="12.8">
       <c r="A12" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B12" s="7">
         <v>1067203121810</v>
@@ -721,7 +720,7 @@
     </row>
     <row r="13" ht="12.8">
       <c r="A13" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B13" s="7">
         <v>1057421012923</v>
@@ -741,7 +740,7 @@
     </row>
     <row r="14" ht="12.8">
       <c r="A14" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B14" s="7">
         <v>1134704001310</v>
@@ -761,7 +760,7 @@
     </row>
     <row r="15" ht="12.8">
       <c r="A15" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B15" s="7">
         <v>1107232034777</v>
@@ -781,7 +780,7 @@
     </row>
     <row r="16" ht="12.8">
       <c r="A16" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B16" s="7">
         <v>1156658040879</v>
@@ -801,7 +800,7 @@
     </row>
     <row r="17" ht="12.8">
       <c r="A17" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B17" s="7">
         <v>1107456001840</v>
@@ -821,7 +820,7 @@
     </row>
     <row r="18" ht="12.8">
       <c r="A18" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B18" s="7">
         <v>1067438009231</v>
@@ -841,7 +840,7 @@
     </row>
     <row r="19" ht="23.85">
       <c r="A19" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B19" s="7">
         <v>1087232009094</v>
@@ -861,7 +860,7 @@
     </row>
     <row r="20" ht="12.8">
       <c r="A20" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B20" s="7">
         <v>1067203024778</v>
@@ -881,7 +880,7 @@
     </row>
     <row r="21" ht="12.8">
       <c r="A21" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B21" s="7">
         <v>1037200551277</v>
@@ -901,7 +900,7 @@
     </row>
     <row r="22" ht="12.8">
       <c r="A22" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B22" s="7">
         <v>1037200601690</v>
@@ -921,7 +920,7 @@
     </row>
     <row r="23" ht="12.8">
       <c r="A23" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B23" s="7">
         <v>1037200588787</v>
@@ -941,7 +940,7 @@
     </row>
     <row r="24" ht="12.8">
       <c r="A24" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B24" s="7">
         <v>1065032016928</v>
@@ -961,7 +960,7 @@
     </row>
     <row r="25" ht="12.8">
       <c r="A25" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B25" s="7">
         <v>1036602185290</v>
@@ -981,7 +980,7 @@
     </row>
     <row r="26" ht="12.8">
       <c r="A26" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B26" s="7">
         <v>1066142015587</v>
@@ -1001,7 +1000,7 @@
     </row>
     <row r="27" ht="23.85">
       <c r="A27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B27" s="7">
         <v>1156623000214</v>
@@ -1021,7 +1020,7 @@
     </row>
     <row r="28" ht="12.8">
       <c r="A28" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B28" s="7">
         <v>1096623000429</v>
@@ -1035,10 +1034,13 @@
       <c r="E28" s="7">
         <v>496</v>
       </c>
+      <c r="F28" s="0">
+        <v>650</v>
+      </c>
     </row>
     <row r="29" ht="12.8">
       <c r="A29" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B29" s="7">
         <v>1106623001319</v>
@@ -1058,7 +1060,7 @@
     </row>
     <row r="30" ht="12.8">
       <c r="A30" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B30" s="7">
         <v>1096623001310</v>
@@ -1078,7 +1080,7 @@
     </row>
     <row r="31" ht="12.8">
       <c r="A31" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B31" s="7">
         <v>1096623009163</v>
@@ -1098,7 +1100,7 @@
     </row>
     <row r="32" ht="12.8">
       <c r="A32" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B32" s="7">
         <v>1069623031576</v>
@@ -1118,7 +1120,7 @@
     </row>
     <row r="33" ht="12.8">
       <c r="A33" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B33" s="7">
         <v>1146623006100</v>
@@ -1138,7 +1140,7 @@
     </row>
     <row r="34" ht="12.8">
       <c r="A34" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B34" s="7">
         <v>1096623000286</v>
@@ -1158,7 +1160,7 @@
     </row>
     <row r="35" ht="12.8">
       <c r="A35" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B35" s="7">
         <v>1155050005703</v>
@@ -1178,7 +1180,7 @@
     </row>
     <row r="36" ht="12.8">
       <c r="A36" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B36" s="7">
         <v>1106639001028</v>
@@ -1198,7 +1200,7 @@
     </row>
     <row r="37" ht="12.8">
       <c r="A37" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B37" s="7">
         <v>1106639000973</v>
@@ -1218,7 +1220,7 @@
     </row>
     <row r="38" ht="23.85">
       <c r="A38" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B38" s="7">
         <v>1156658098266</v>
@@ -1238,7 +1240,7 @@
     </row>
     <row r="39" ht="23.95">
       <c r="A39" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B39" s="7">
         <v>1156658098266</v>
@@ -1252,7 +1254,7 @@
     </row>
     <row r="40" ht="23.95">
       <c r="A40" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B40" s="7">
         <v>1156658098266</v>
@@ -1272,7 +1274,7 @@
     </row>
     <row r="41" ht="23.95">
       <c r="A41" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B41" s="7">
         <v>1156658098266</v>
@@ -1283,10 +1285,16 @@
       <c r="D41" s="7">
         <v>438</v>
       </c>
+      <c r="E41" s="0">
+        <v>647</v>
+      </c>
+      <c r="F41" s="0">
+        <v>648</v>
+      </c>
     </row>
     <row r="42" ht="23.95">
       <c r="A42" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B42" s="7">
         <v>1156658098266</v>
@@ -1297,10 +1305,13 @@
       <c r="D42" s="7">
         <v>439</v>
       </c>
+      <c r="E42" s="0">
+        <v>651</v>
+      </c>
     </row>
     <row r="43" ht="12.8">
       <c r="A43" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B43" s="7">
         <v>1156658098266</v>
@@ -1308,10 +1319,13 @@
       <c r="C43" s="7">
         <v>248</v>
       </c>
+      <c r="D43" s="0">
+        <v>653</v>
+      </c>
     </row>
     <row r="44" ht="12.8">
       <c r="A44" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B44" s="7">
         <v>1156658098266</v>
@@ -1322,7 +1336,7 @@
     </row>
     <row r="45" ht="12.8">
       <c r="A45" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B45" s="7">
         <v>1156658098266</v>
@@ -1333,7 +1347,7 @@
     </row>
     <row r="46" ht="12.8">
       <c r="A46" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B46" s="7">
         <v>1156658098266</v>
@@ -1344,7 +1358,7 @@
     </row>
     <row r="47" ht="23.95">
       <c r="A47" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B47" s="7">
         <v>1156658098266</v>
@@ -1358,7 +1372,7 @@
     </row>
     <row r="48" ht="12.8">
       <c r="A48" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B48" s="7">
         <v>1156658098266</v>
@@ -1369,7 +1383,7 @@
     </row>
     <row r="49" ht="23.95">
       <c r="A49" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B49" s="7">
         <v>1156658098266</v>
@@ -1380,7 +1394,7 @@
     </row>
     <row r="50" ht="23.95">
       <c r="A50" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B50" s="7">
         <v>1156658098266</v>
@@ -1391,7 +1405,7 @@
     </row>
     <row r="51" ht="12.8">
       <c r="A51" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B51" s="7">
         <v>1106639000962</v>
@@ -1411,7 +1425,7 @@
     </row>
     <row r="52" ht="12.8">
       <c r="A52" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B52" s="7">
         <v>1106639000896</v>
@@ -1431,7 +1445,7 @@
     </row>
     <row r="53" ht="12.8">
       <c r="A53" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B53" s="7">
         <v>1106639000907</v>
@@ -1451,7 +1465,7 @@
     </row>
     <row r="54" ht="12.8">
       <c r="A54" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B54" s="7">
         <v>1106639000951</v>
@@ -1471,7 +1485,7 @@
     </row>
     <row r="55" ht="12.8">
       <c r="A55" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B55" s="7">
         <v>1146683001420</v>
@@ -1491,7 +1505,7 @@
     </row>
     <row r="56" ht="12.8">
       <c r="A56" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B56" s="7">
         <v>1116671011050</v>
@@ -1511,7 +1525,7 @@
     </row>
     <row r="57" ht="12.8">
       <c r="A57" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B57" s="7">
         <v>1069639010660</v>
@@ -1531,7 +1545,7 @@
     </row>
     <row r="58" ht="12.8">
       <c r="A58" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B58" s="7">
         <v>1027200842811</v>
@@ -1551,7 +1565,7 @@
     </row>
     <row r="59" ht="12.8">
       <c r="A59" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B59" s="7">
         <v>1027200871818</v>
@@ -1571,7 +1585,7 @@
     </row>
     <row r="60" ht="12.8">
       <c r="A60" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B60" s="7">
         <v>1077203003195</v>
@@ -1591,7 +1605,7 @@
     </row>
     <row r="61" ht="12.8">
       <c r="A61" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B61" s="7">
         <v>1087232040466</v>
@@ -1611,7 +1625,7 @@
     </row>
     <row r="62" ht="12.8">
       <c r="A62" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B62" s="7">
         <v>1047200675884</v>
@@ -1631,7 +1645,7 @@
     </row>
     <row r="63" ht="23.85">
       <c r="A63" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B63" s="7">
         <v>1147232021881</v>
@@ -1651,7 +1665,7 @@
     </row>
     <row r="64" ht="12.8">
       <c r="A64" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B64" s="7">
         <v>1077200004122</v>
@@ -1671,7 +1685,7 @@
     </row>
     <row r="65" ht="12.8">
       <c r="A65" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B65" s="7">
         <v>1147232017580</v>
@@ -1691,7 +1705,7 @@
     </row>
     <row r="66" ht="12.8">
       <c r="A66" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B66" s="7">
         <v>1087232040697</v>
@@ -1711,7 +1725,7 @@
     </row>
     <row r="67" ht="12.8">
       <c r="A67" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B67" s="7">
         <v>1116674014270</v>
@@ -1731,7 +1745,7 @@
     </row>
     <row r="68" ht="12.8">
       <c r="A68" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B68" s="7">
         <v>1141828000710</v>
@@ -1748,7 +1762,7 @@
     </row>
     <row r="69" ht="12.8">
       <c r="A69" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B69" s="7">
         <v>1046601020157</v>
@@ -1768,7 +1782,7 @@
     </row>
     <row r="70" ht="12.8">
       <c r="A70" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B70" s="7">
         <v>1086639001481</v>
@@ -1788,7 +1802,7 @@
     </row>
     <row r="71" ht="12.8">
       <c r="A71" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B71" s="7">
         <v>1147232040196</v>
@@ -1808,7 +1822,7 @@
     </row>
     <row r="72" ht="12.8">
       <c r="A72" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B72" s="7">
         <v>1167232056551</v>
@@ -1828,7 +1842,7 @@
     </row>
     <row r="73" ht="12.8">
       <c r="A73" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B73" s="7">
         <v>1157232026137</v>
@@ -1842,10 +1856,13 @@
       <c r="E73" s="0">
         <v>601</v>
       </c>
+      <c r="F73" s="0">
+        <v>652</v>
+      </c>
     </row>
     <row r="74" ht="12.8">
       <c r="A74" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B74" s="7">
         <v>1107232017595</v>
@@ -1865,7 +1882,7 @@
     </row>
     <row r="75" ht="12.8">
       <c r="A75" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B75" s="7">
         <v>1027200836464</v>
@@ -1885,7 +1902,7 @@
     </row>
     <row r="76" ht="12.8">
       <c r="A76" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B76" s="7">
         <v>1069633012008</v>
@@ -1902,7 +1919,7 @@
     </row>
     <row r="77" ht="12.8">
       <c r="A77" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B77" s="7">
         <v>1096607000159</v>
@@ -1919,7 +1936,7 @@
     </row>
     <row r="78" ht="12.8">
       <c r="A78" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B78" s="7">
         <v>1146623005913</v>
@@ -1939,7 +1956,7 @@
     </row>
     <row r="79" ht="12.8">
       <c r="A79" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B79" s="7">
         <v>1026600785430</v>
@@ -1959,7 +1976,7 @@
     </row>
     <row r="80" ht="12.8">
       <c r="A80" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B80" s="7">
         <v>1152036004625</v>
@@ -1979,7 +1996,7 @@
     </row>
     <row r="81" ht="12.8">
       <c r="A81" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B81" s="7">
         <v>1107232017089</v>
@@ -1999,7 +2016,7 @@
     </row>
     <row r="82" ht="12.8">
       <c r="A82" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B82" s="7">
         <v>1076633000762</v>
@@ -2013,10 +2030,13 @@
       <c r="E82" s="0">
         <v>610</v>
       </c>
+      <c r="F82" s="0">
+        <v>649</v>
+      </c>
     </row>
     <row r="83" ht="12.8">
       <c r="A83" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B83" s="7">
         <v>1057200754346</v>
@@ -2036,7 +2056,7 @@
     </row>
     <row r="84" ht="12.8">
       <c r="A84" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B84" s="7">
         <v>1047200601766</v>
@@ -2070,7 +2090,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G211"/>
+  <dimension ref="A1:G219"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
@@ -2251,7 +2271,7 @@
         <v>443</v>
       </c>
       <c r="B9" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="7">
         <v>723</v>
@@ -2260,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="7">
-        <v>0</v>
+        <v>723</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>10</v>
@@ -2303,7 +2323,7 @@
         <v>328</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" ht="12.8">
@@ -2331,7 +2351,7 @@
         <v>447</v>
       </c>
       <c r="B13" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
         <v>4198</v>
@@ -2340,10 +2360,10 @@
         <v>0</v>
       </c>
       <c r="F13" s="7">
-        <v>0</v>
+        <v>4198</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" ht="12.8">
@@ -2423,7 +2443,7 @@
         <v>666</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" ht="12.8">
@@ -2683,7 +2703,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" ht="12.8">
@@ -3103,7 +3123,7 @@
         <v>844</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" ht="12.8">
@@ -3143,7 +3163,7 @@
         <v>5014</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" ht="12.8">
@@ -3163,7 +3183,7 @@
         <v>1998</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" ht="12.8">
@@ -3183,7 +3203,7 @@
         <v>482</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="12.8">
@@ -3311,7 +3331,7 @@
         <v>496</v>
       </c>
       <c r="B62" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" s="7">
         <v>0</v>
@@ -3320,10 +3340,10 @@
         <v>0</v>
       </c>
       <c r="F62" s="7">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" ht="12.8">
@@ -3763,7 +3783,7 @@
         <v>2721</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" ht="12.8">
@@ -3783,7 +3803,7 @@
         <v>1484</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" ht="12.8">
@@ -3803,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="12.8">
@@ -3823,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" ht="12.8">
@@ -4383,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116">
@@ -4423,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118">
@@ -4443,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119">
@@ -4463,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120">
@@ -4483,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121">
@@ -4631,19 +4651,19 @@
         <v>562</v>
       </c>
       <c r="B128" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D128" s="0">
         <v>7249</v>
       </c>
       <c r="E128" s="0">
-        <v>4897</v>
+        <v>5413</v>
       </c>
       <c r="F128" s="0">
-        <v>1339</v>
+        <v>1836</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129">
@@ -4651,7 +4671,7 @@
         <v>563</v>
       </c>
       <c r="B129" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D129" s="0">
         <v>15059</v>
@@ -4660,10 +4680,10 @@
         <v>0</v>
       </c>
       <c r="F129" s="0">
-        <v>3806</v>
+        <v>15059</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130">
@@ -4703,7 +4723,7 @@
         <v>4773</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132">
@@ -4723,7 +4743,7 @@
         <v>20966</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133">
@@ -4743,7 +4763,7 @@
         <v>8779</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134">
@@ -4763,7 +4783,7 @@
         <v>12174</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135">
@@ -4783,7 +4803,7 @@
         <v>3953</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136">
@@ -4791,7 +4811,7 @@
         <v>570</v>
       </c>
       <c r="B136" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D136" s="0">
         <v>11172</v>
@@ -4800,10 +4820,10 @@
         <v>0</v>
       </c>
       <c r="F136" s="0">
-        <v>2586</v>
+        <v>11172</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137">
@@ -4823,7 +4843,7 @@
         <v>3100</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138">
@@ -4863,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140">
@@ -4891,19 +4911,19 @@
         <v>575</v>
       </c>
       <c r="B141" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D141" s="0">
-        <v>0</v>
+        <v>25005</v>
       </c>
       <c r="E141" s="0">
         <v>0</v>
       </c>
       <c r="F141" s="0">
-        <v>0</v>
+        <v>25005</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142">
@@ -4923,7 +4943,7 @@
         <v>4341</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143">
@@ -4943,7 +4963,7 @@
         <v>4449</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144">
@@ -4963,7 +4983,7 @@
         <v>4449</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145">
@@ -5123,7 +5143,7 @@
         <v>897</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153">
@@ -5143,7 +5163,7 @@
         <v>2169</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154">
@@ -5163,7 +5183,7 @@
         <v>12017</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155">
@@ -5311,19 +5331,19 @@
         <v>596</v>
       </c>
       <c r="B162" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D162" s="0">
         <v>0</v>
       </c>
       <c r="E162" s="0">
-        <v>0</v>
+        <v>2888</v>
       </c>
       <c r="F162" s="0">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163">
@@ -5411,19 +5431,19 @@
         <v>601</v>
       </c>
       <c r="B167" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D167" s="0">
-        <v>0</v>
+        <v>1017</v>
       </c>
       <c r="E167" s="0">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="F167" s="0">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168">
@@ -5483,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="G170" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171">
@@ -5491,19 +5511,19 @@
         <v>605</v>
       </c>
       <c r="B171" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D171" s="0">
         <v>0</v>
       </c>
       <c r="E171" s="0">
-        <v>0</v>
+        <v>4497</v>
       </c>
       <c r="F171" s="0">
-        <v>0</v>
+        <v>2658</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="172">
@@ -5591,19 +5611,19 @@
         <v>610</v>
       </c>
       <c r="B176" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D176" s="0">
         <v>2771</v>
       </c>
       <c r="E176" s="0">
-        <v>1023</v>
+        <v>1821</v>
       </c>
       <c r="F176" s="0">
-        <v>514</v>
+        <v>950</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177">
@@ -5663,7 +5683,7 @@
         <v>34095</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180">
@@ -5683,7 +5703,7 @@
         <v>732</v>
       </c>
       <c r="G180" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181">
@@ -5703,7 +5723,7 @@
         <v>4449</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182">
@@ -5723,7 +5743,7 @@
         <v>4449</v>
       </c>
       <c r="G182" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183">
@@ -5743,7 +5763,7 @@
         <v>4449</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184">
@@ -5763,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="G184" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="185">
@@ -5783,7 +5803,7 @@
         <v>3195</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186">
@@ -5803,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="187">
@@ -5823,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="188">
@@ -5843,7 +5863,7 @@
         <v>2601</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189">
@@ -5863,7 +5883,7 @@
         <v>3204</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190">
@@ -5883,7 +5903,7 @@
         <v>8628</v>
       </c>
       <c r="G190" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191">
@@ -5903,7 +5923,7 @@
         <v>5584</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192">
@@ -5923,7 +5943,7 @@
         <v>5584</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193">
@@ -5943,7 +5963,7 @@
         <v>1115</v>
       </c>
       <c r="G193" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194">
@@ -5963,7 +5983,7 @@
         <v>469</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195">
@@ -5983,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="G195" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196">
@@ -6003,7 +6023,7 @@
         <v>28</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197">
@@ -6023,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="G197" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198">
@@ -6043,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="199">
@@ -6063,7 +6083,7 @@
         <v>4449</v>
       </c>
       <c r="G199" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200">
@@ -6083,7 +6103,7 @@
         <v>4449</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201">
@@ -6103,7 +6123,7 @@
         <v>1395</v>
       </c>
       <c r="G201" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202">
@@ -6123,7 +6143,7 @@
         <v>2977</v>
       </c>
       <c r="G202" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203">
@@ -6143,7 +6163,7 @@
         <v>2995</v>
       </c>
       <c r="G203" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204">
@@ -6163,7 +6183,7 @@
         <v>2324</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205">
@@ -6171,19 +6191,19 @@
         <v>639</v>
       </c>
       <c r="B205" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D205" s="0">
-        <v>0</v>
+        <v>192980</v>
       </c>
       <c r="E205" s="0">
         <v>0</v>
       </c>
       <c r="F205" s="0">
-        <v>0</v>
+        <v>192980</v>
       </c>
       <c r="G205" s="0" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206">
@@ -6203,7 +6223,7 @@
         <v>28269</v>
       </c>
       <c r="G206" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207">
@@ -6223,7 +6243,7 @@
         <v>11690</v>
       </c>
       <c r="G207" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208">
@@ -6243,7 +6263,7 @@
         <v>1355</v>
       </c>
       <c r="G208" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209">
@@ -6263,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="G209" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210">
@@ -6291,6 +6311,166 @@
         <v>645</v>
       </c>
       <c r="B211" s="0">
+        <v>3</v>
+      </c>
+      <c r="D211" s="0">
+        <v>2118</v>
+      </c>
+      <c r="E211" s="0">
+        <v>357</v>
+      </c>
+      <c r="F211" s="0">
+        <v>1761</v>
+      </c>
+      <c r="G211" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="0">
+        <v>646</v>
+      </c>
+      <c r="B212" s="0">
+        <v>4</v>
+      </c>
+      <c r="D212" s="0">
+        <v>7726</v>
+      </c>
+      <c r="E212" s="0">
+        <v>1937</v>
+      </c>
+      <c r="F212" s="0">
+        <v>418</v>
+      </c>
+      <c r="G212" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="0">
+        <v>647</v>
+      </c>
+      <c r="B213" s="0">
+        <v>3</v>
+      </c>
+      <c r="D213" s="0">
+        <v>3030</v>
+      </c>
+      <c r="E213" s="0">
+        <v>404</v>
+      </c>
+      <c r="F213" s="0">
+        <v>2626</v>
+      </c>
+      <c r="G213" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="0">
+        <v>648</v>
+      </c>
+      <c r="B214" s="0">
+        <v>4</v>
+      </c>
+      <c r="D214" s="0">
+        <v>10182</v>
+      </c>
+      <c r="E214" s="0">
+        <v>198</v>
+      </c>
+      <c r="F214" s="0">
+        <v>2431</v>
+      </c>
+      <c r="G214" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="0">
+        <v>649</v>
+      </c>
+      <c r="B215" s="0">
+        <v>1</v>
+      </c>
+      <c r="D215" s="0">
+        <v>3529</v>
+      </c>
+      <c r="E215" s="0">
+        <v>1306</v>
+      </c>
+      <c r="F215" s="0">
+        <v>344</v>
+      </c>
+      <c r="G215" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="0">
+        <v>650</v>
+      </c>
+      <c r="B216" s="0">
+        <v>4</v>
+      </c>
+      <c r="D216" s="0">
+        <v>0</v>
+      </c>
+      <c r="E216" s="0">
+        <v>0</v>
+      </c>
+      <c r="F216" s="0">
+        <v>0</v>
+      </c>
+      <c r="G216" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="0">
+        <v>651</v>
+      </c>
+      <c r="B217" s="0">
+        <v>4</v>
+      </c>
+      <c r="D217" s="0">
+        <v>0</v>
+      </c>
+      <c r="E217" s="0">
+        <v>0</v>
+      </c>
+      <c r="F217" s="0">
+        <v>0</v>
+      </c>
+      <c r="G217" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="0">
+        <v>652</v>
+      </c>
+      <c r="B218" s="0">
+        <v>3</v>
+      </c>
+      <c r="D218" s="0">
+        <v>3843</v>
+      </c>
+      <c r="E218" s="0">
+        <v>0</v>
+      </c>
+      <c r="F218" s="0">
+        <v>3843</v>
+      </c>
+      <c r="G218" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="0">
+        <v>653</v>
+      </c>
+      <c r="B219" s="0">
         <v>0</v>
       </c>
     </row>

--- a/RcOnline/base.xlsx
+++ b/RcOnline/base.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Companies" sheetId="1" r:id="rId2"/>
@@ -21,58 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Attempts</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>Errors</t>
-  </si>
-  <si>
-    <t>ErrorMessage</t>
-  </si>
-  <si>
-    <t>Выгрузка ЛС завершена.</t>
-  </si>
-  <si>
-    <t>Произошла одна или несколько ошибок.</t>
-  </si>
-  <si>
-    <t>Выгрузка ПУ завершена.</t>
-  </si>
-  <si>
-    <t>Выгрузка начислений завершена.</t>
-  </si>
-  <si>
-    <t>Не найдены реселлеры в Биллинг Онлайн</t>
-  </si>
-  <si>
-    <t>ПУ выгружен успешно</t>
-  </si>
-  <si>
-    <t>Статус курсора на сервере РЦ Онлайн:2006</t>
-  </si>
-  <si>
-    <t>ПУ уже есть в ГИС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Execution Timeout Expired.  The timeout period elapsed prior to completion of the operation or the server is not responding.</t>
-  </si>
-  <si>
-    <t>Найдено 1 ЛС в ГИС ЖКХ (обл Свердловская,г Сухой Лог,ул Пушкинская,28)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>Компания</t>
   </si>
@@ -358,25 +307,74 @@
   </si>
   <si>
     <t>ТСЖ "Чаплина-115"</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Attempts</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Errors</t>
+  </si>
+  <si>
+    <t>ErrorMessage</t>
+  </si>
+  <si>
+    <t>Выгрузка ЛС завершена.</t>
+  </si>
+  <si>
+    <t>Не найдены услуги в ГИС ЖКХ: 'Домофон, Телеантенна'</t>
+  </si>
+  <si>
+    <t>Выгрузка ПУ завершена.</t>
+  </si>
+  <si>
+    <t>Выгрузка начислений завершена.</t>
+  </si>
+  <si>
+    <t>Не найдены реселлеры в Биллинг Онлайн</t>
+  </si>
+  <si>
+    <t>ПУ выгружен успешно</t>
+  </si>
+  <si>
+    <t>Выполняю выгрузку ПУ в ГИС ЖКХ для компании ООО УК "СУХОЛОЖСКАЯ"</t>
+  </si>
+  <si>
+    <t>По значениям «БИК банка» и «Расчетный счет» не найдены платежные реквизиты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Execution Timeout Expired.  The timeout period elapsed prior to completion of the operation or the server is not responding.</t>
+  </si>
+  <si>
+    <t>Не найден ЛС для кап. ремонта в ГИС ЖКХ</t>
+  </si>
+  <si>
+    <t>Интеграция всех ЛС завершена, запустите новую, если необходимо</t>
+  </si>
+  <si>
+    <t>Найдено 0 ЛС в ГИС ЖКХ (обл Свердловская,г Верхняя Салда,ул Спортивная,7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнение операции невозможно:
+отсутствует размещенный договор ресурсоснабжения или договор управления/устава по указанному объекту жилищного фонда.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="32">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="20">
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
@@ -472,50 +470,50 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="33.8826530612245" customWidth="1"/>
-    <col min="2" max="2" width="16.469387755102" customWidth="1"/>
-    <col min="3" max="3" width="8.23469387755102" customWidth="1"/>
-    <col min="4" max="4" width="14.4438775510204" customWidth="1"/>
-    <col min="5" max="5" width="14.8469387755102" customWidth="1"/>
-    <col min="6" max="6" width="14.5867346938776" customWidth="1"/>
-    <col min="7" max="1025" width="8.23469387755102" customWidth="1"/>
+    <col min="1" max="1" width="33.88" customWidth="1"/>
+    <col min="2" max="2" width="16.47" customWidth="1"/>
+    <col min="3" max="3" width="8.23" customWidth="1"/>
+    <col min="4" max="4" width="14.44" customWidth="1"/>
+    <col min="5" max="5" width="14.85" customWidth="1"/>
+    <col min="6" max="6" width="14.59" customWidth="1"/>
+    <col min="7" max="1025" width="8.23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.8" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="12.8">
       <c r="A2" s="7" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D2" s="7">
         <v>441</v>
@@ -529,13 +527,13 @@
     </row>
     <row r="3" ht="12.8">
       <c r="A3" s="7" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D3" s="7">
         <v>444</v>
@@ -549,21 +547,24 @@
     </row>
     <row r="4" ht="12.8">
       <c r="A4" s="7" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
         <v>445</v>
       </c>
+      <c r="E4" s="0">
+        <v>662</v>
+      </c>
     </row>
     <row r="5" ht="12.8">
       <c r="A5" s="7" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B5" s="7">
         <v>1116674008098</v>
@@ -583,7 +584,7 @@
     </row>
     <row r="6" ht="12.8">
       <c r="A6" s="7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B6" s="7">
         <v>1047405001049</v>
@@ -594,16 +595,16 @@
       <c r="D6" s="7">
         <v>449</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6" s="7">
         <v>562</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6" s="7">
         <v>646</v>
       </c>
     </row>
     <row r="7" ht="23.95">
       <c r="A7" s="7" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B7" s="7">
         <v>5117401000129</v>
@@ -623,7 +624,7 @@
     </row>
     <row r="8" ht="12.8">
       <c r="A8" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B8" s="7">
         <v>1113668050704</v>
@@ -634,13 +635,16 @@
       <c r="D8" s="7">
         <v>451</v>
       </c>
+      <c r="E8" s="7">
+        <v>655</v>
+      </c>
       <c r="F8" s="7">
         <v>440</v>
       </c>
     </row>
     <row r="9" ht="12.8">
       <c r="A9" s="7" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7">
         <v>1123668013370</v>
@@ -654,13 +658,13 @@
       <c r="E9" s="7">
         <v>486</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9" s="7">
         <v>563</v>
       </c>
     </row>
     <row r="10" ht="23.95">
       <c r="A10" s="8" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B10" s="7">
         <v>1057420008590</v>
@@ -671,16 +675,16 @@
       <c r="D10" s="7">
         <v>453</v>
       </c>
-      <c r="E10" s="0">
+      <c r="E10" s="7">
         <v>564</v>
       </c>
-      <c r="F10" s="0">
+      <c r="F10" s="7">
         <v>631</v>
       </c>
     </row>
     <row r="11" ht="12.8">
       <c r="A11" s="7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B11" s="7">
         <v>1057421013055</v>
@@ -700,7 +704,7 @@
     </row>
     <row r="12" ht="12.8">
       <c r="A12" s="7" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B12" s="7">
         <v>1067203121810</v>
@@ -714,13 +718,13 @@
       <c r="E12" s="7">
         <v>516</v>
       </c>
-      <c r="F12" s="0">
+      <c r="F12" s="7">
         <v>565</v>
       </c>
     </row>
     <row r="13" ht="12.8">
       <c r="A13" s="7" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B13" s="7">
         <v>1057421012923</v>
@@ -740,7 +744,7 @@
     </row>
     <row r="14" ht="12.8">
       <c r="A14" s="7" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B14" s="7">
         <v>1134704001310</v>
@@ -760,7 +764,7 @@
     </row>
     <row r="15" ht="12.8">
       <c r="A15" s="7" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B15" s="7">
         <v>1107232034777</v>
@@ -771,16 +775,16 @@
       <c r="D15" s="7">
         <v>460</v>
       </c>
-      <c r="E15" s="0">
+      <c r="E15" s="7">
         <v>546</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15" s="7">
         <v>566</v>
       </c>
     </row>
     <row r="16" ht="12.8">
       <c r="A16" s="7" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B16" s="7">
         <v>1156658040879</v>
@@ -794,13 +798,13 @@
       <c r="E16" s="7">
         <v>468</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16" s="7">
         <v>567</v>
       </c>
     </row>
     <row r="17" ht="12.8">
       <c r="A17" s="7" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B17" s="7">
         <v>1107456001840</v>
@@ -814,13 +818,13 @@
       <c r="E17" s="7">
         <v>490</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17" s="7">
         <v>568</v>
       </c>
     </row>
     <row r="18" ht="12.8">
       <c r="A18" s="7" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B18" s="7">
         <v>1067438009231</v>
@@ -831,16 +835,16 @@
       <c r="D18" s="7">
         <v>463</v>
       </c>
-      <c r="E18" s="0">
+      <c r="E18" s="7">
         <v>547</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18" s="7">
         <v>569</v>
       </c>
     </row>
     <row r="19" ht="23.85">
       <c r="A19" s="7" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B19" s="7">
         <v>1087232009094</v>
@@ -854,13 +858,13 @@
       <c r="E19" s="7">
         <v>517</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19" s="7">
         <v>570</v>
       </c>
     </row>
     <row r="20" ht="12.8">
       <c r="A20" s="7" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B20" s="7">
         <v>1067203024778</v>
@@ -874,13 +878,13 @@
       <c r="E20" s="7">
         <v>491</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20" s="7">
         <v>571</v>
       </c>
     </row>
     <row r="21" ht="12.8">
       <c r="A21" s="7" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B21" s="7">
         <v>1037200551277</v>
@@ -894,13 +898,13 @@
       <c r="E21" s="7">
         <v>492</v>
       </c>
-      <c r="F21" s="0">
+      <c r="F21" s="7">
         <v>551</v>
       </c>
     </row>
     <row r="22" ht="12.8">
       <c r="A22" s="7" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B22" s="7">
         <v>1037200601690</v>
@@ -920,7 +924,7 @@
     </row>
     <row r="23" ht="12.8">
       <c r="A23" s="7" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B23" s="7">
         <v>1037200588787</v>
@@ -940,7 +944,7 @@
     </row>
     <row r="24" ht="12.8">
       <c r="A24" s="7" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B24" s="7">
         <v>1065032016928</v>
@@ -951,16 +955,16 @@
       <c r="D24" s="7">
         <v>474</v>
       </c>
-      <c r="E24" s="0">
+      <c r="E24" s="7">
         <v>572</v>
       </c>
-      <c r="F24" s="0">
+      <c r="F24" s="7">
         <v>613</v>
       </c>
     </row>
     <row r="25" ht="12.8">
       <c r="A25" s="7" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B25" s="7">
         <v>1036602185290</v>
@@ -974,13 +978,13 @@
       <c r="E25" s="7">
         <v>495</v>
       </c>
-      <c r="F25" s="0">
+      <c r="F25" s="7">
         <v>573</v>
       </c>
     </row>
     <row r="26" ht="12.8">
       <c r="A26" s="7" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B26" s="7">
         <v>1066142015587</v>
@@ -991,16 +995,16 @@
       <c r="D26" s="7">
         <v>476</v>
       </c>
-      <c r="E26" s="0">
+      <c r="E26" s="7">
         <v>574</v>
       </c>
-      <c r="F26" s="0">
+      <c r="F26" s="7">
         <v>632</v>
       </c>
     </row>
     <row r="27" ht="23.85">
       <c r="A27" s="7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B27" s="7">
         <v>1156623000214</v>
@@ -1011,16 +1015,16 @@
       <c r="D27" s="7">
         <v>477</v>
       </c>
-      <c r="E27" s="0">
+      <c r="E27" s="7">
         <v>548</v>
       </c>
-      <c r="F27" s="0">
+      <c r="F27" s="7">
         <v>575</v>
       </c>
     </row>
     <row r="28" ht="12.8">
       <c r="A28" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B28" s="7">
         <v>1096623000429</v>
@@ -1034,13 +1038,13 @@
       <c r="E28" s="7">
         <v>496</v>
       </c>
-      <c r="F28" s="0">
+      <c r="F28" s="7">
         <v>650</v>
       </c>
     </row>
     <row r="29" ht="12.8">
       <c r="A29" s="7" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B29" s="7">
         <v>1106623001319</v>
@@ -1054,13 +1058,13 @@
       <c r="E29" s="7">
         <v>497</v>
       </c>
-      <c r="F29" s="0">
+      <c r="F29" s="7">
         <v>552</v>
       </c>
     </row>
     <row r="30" ht="12.8">
       <c r="A30" s="7" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B30" s="7">
         <v>1096623001310</v>
@@ -1080,7 +1084,7 @@
     </row>
     <row r="31" ht="12.8">
       <c r="A31" s="7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B31" s="7">
         <v>1096623009163</v>
@@ -1094,13 +1098,13 @@
       <c r="E31" s="7">
         <v>499</v>
       </c>
-      <c r="F31" s="0">
+      <c r="F31" s="7">
         <v>549</v>
       </c>
     </row>
     <row r="32" ht="12.8">
       <c r="A32" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B32" s="7">
         <v>1069623031576</v>
@@ -1114,13 +1118,13 @@
       <c r="E32" s="7">
         <v>500</v>
       </c>
-      <c r="F32" s="0">
+      <c r="F32" s="7">
         <v>553</v>
       </c>
     </row>
     <row r="33" ht="12.8">
       <c r="A33" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B33" s="7">
         <v>1146623006100</v>
@@ -1140,7 +1144,7 @@
     </row>
     <row r="34" ht="12.8">
       <c r="A34" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B34" s="7">
         <v>1096623000286</v>
@@ -1154,13 +1158,13 @@
       <c r="E34" s="7">
         <v>502</v>
       </c>
-      <c r="F34" s="0">
+      <c r="F34" s="7">
         <v>554</v>
       </c>
     </row>
     <row r="35" ht="12.8">
       <c r="A35" s="7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B35" s="7">
         <v>1155050005703</v>
@@ -1171,16 +1175,16 @@
       <c r="D35" s="7">
         <v>503</v>
       </c>
-      <c r="E35" s="0">
+      <c r="E35" s="7">
         <v>555</v>
       </c>
-      <c r="F35" s="0">
+      <c r="F35" s="7">
         <v>576</v>
       </c>
     </row>
     <row r="36" ht="12.8">
       <c r="A36" s="7" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B36" s="7">
         <v>1106639001028</v>
@@ -1191,16 +1195,16 @@
       <c r="D36" s="7">
         <v>504</v>
       </c>
-      <c r="E36" s="0">
+      <c r="E36" s="7">
         <v>559</v>
       </c>
-      <c r="F36" s="0">
+      <c r="F36" s="7">
         <v>577</v>
       </c>
     </row>
     <row r="37" ht="12.8">
       <c r="A37" s="7" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B37" s="7">
         <v>1106639000973</v>
@@ -1211,16 +1215,16 @@
       <c r="D37" s="7">
         <v>505</v>
       </c>
-      <c r="E37" s="0">
+      <c r="E37" s="7">
         <v>560</v>
       </c>
-      <c r="F37" s="0">
+      <c r="F37" s="7">
         <v>578</v>
       </c>
     </row>
     <row r="38" ht="23.85">
       <c r="A38" s="7" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B38" s="7">
         <v>1156658098266</v>
@@ -1231,16 +1235,16 @@
       <c r="D38" s="7">
         <v>506</v>
       </c>
-      <c r="E38" s="0">
+      <c r="E38" s="7">
         <v>579</v>
       </c>
-      <c r="F38" s="0">
+      <c r="F38" s="7">
         <v>614</v>
       </c>
     </row>
     <row r="39" ht="23.95">
       <c r="A39" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B39" s="7">
         <v>1156658098266</v>
@@ -1248,13 +1252,19 @@
       <c r="C39" s="7">
         <v>167</v>
       </c>
-      <c r="D39" s="0">
+      <c r="D39" s="7">
         <v>643</v>
+      </c>
+      <c r="E39" s="0">
+        <v>659</v>
+      </c>
+      <c r="F39" s="0">
+        <v>660</v>
       </c>
     </row>
     <row r="40" ht="23.95">
       <c r="A40" s="7" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B40" s="7">
         <v>1156658098266</v>
@@ -1265,16 +1275,16 @@
       <c r="D40" s="7">
         <v>437</v>
       </c>
-      <c r="E40" s="0">
+      <c r="E40" s="7">
         <v>644</v>
       </c>
-      <c r="F40" s="0">
+      <c r="F40" s="7">
         <v>645</v>
       </c>
     </row>
     <row r="41" ht="23.95">
       <c r="A41" s="7" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B41" s="7">
         <v>1156658098266</v>
@@ -1285,16 +1295,16 @@
       <c r="D41" s="7">
         <v>438</v>
       </c>
-      <c r="E41" s="0">
+      <c r="E41" s="7">
         <v>647</v>
       </c>
-      <c r="F41" s="0">
+      <c r="F41" s="7">
         <v>648</v>
       </c>
     </row>
     <row r="42" ht="23.95">
       <c r="A42" s="7" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B42" s="7">
         <v>1156658098266</v>
@@ -1305,13 +1315,16 @@
       <c r="D42" s="7">
         <v>439</v>
       </c>
-      <c r="E42" s="0">
+      <c r="E42" s="7">
         <v>651</v>
+      </c>
+      <c r="F42" s="0">
+        <v>657</v>
       </c>
     </row>
     <row r="43" ht="12.8">
       <c r="A43" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B43" s="7">
         <v>1156658098266</v>
@@ -1319,13 +1332,16 @@
       <c r="C43" s="7">
         <v>248</v>
       </c>
-      <c r="D43" s="0">
+      <c r="D43" s="7">
         <v>653</v>
+      </c>
+      <c r="E43" s="0">
+        <v>658</v>
       </c>
     </row>
     <row r="44" ht="12.8">
       <c r="A44" s="7" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B44" s="7">
         <v>1156658098266</v>
@@ -1336,7 +1352,7 @@
     </row>
     <row r="45" ht="12.8">
       <c r="A45" s="7" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B45" s="7">
         <v>1156658098266</v>
@@ -1347,7 +1363,7 @@
     </row>
     <row r="46" ht="12.8">
       <c r="A46" s="7" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B46" s="7">
         <v>1156658098266</v>
@@ -1358,7 +1374,7 @@
     </row>
     <row r="47" ht="23.95">
       <c r="A47" s="7" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B47" s="7">
         <v>1156658098266</v>
@@ -1372,7 +1388,7 @@
     </row>
     <row r="48" ht="12.8">
       <c r="A48" s="7" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B48" s="7">
         <v>1156658098266</v>
@@ -1383,7 +1399,7 @@
     </row>
     <row r="49" ht="23.95">
       <c r="A49" s="7" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B49" s="7">
         <v>1156658098266</v>
@@ -1394,7 +1410,7 @@
     </row>
     <row r="50" ht="23.95">
       <c r="A50" s="7" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B50" s="7">
         <v>1156658098266</v>
@@ -1405,7 +1421,7 @@
     </row>
     <row r="51" ht="12.8">
       <c r="A51" s="7" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B51" s="7">
         <v>1106639000962</v>
@@ -1416,16 +1432,16 @@
       <c r="D51" s="7">
         <v>507</v>
       </c>
-      <c r="E51" s="0">
+      <c r="E51" s="7">
         <v>580</v>
       </c>
-      <c r="F51" s="0">
+      <c r="F51" s="7">
         <v>615</v>
       </c>
     </row>
     <row r="52" ht="12.8">
       <c r="A52" s="7" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B52" s="7">
         <v>1106639000896</v>
@@ -1436,16 +1452,16 @@
       <c r="D52" s="7">
         <v>508</v>
       </c>
-      <c r="E52" s="0">
+      <c r="E52" s="7">
         <v>581</v>
       </c>
-      <c r="F52" s="0">
+      <c r="F52" s="7">
         <v>633</v>
       </c>
     </row>
     <row r="53" ht="12.8">
       <c r="A53" s="7" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B53" s="7">
         <v>1106639000907</v>
@@ -1456,16 +1472,16 @@
       <c r="D53" s="7">
         <v>509</v>
       </c>
-      <c r="E53" s="0">
+      <c r="E53" s="7">
         <v>582</v>
       </c>
-      <c r="F53" s="0">
+      <c r="F53" s="7">
         <v>616</v>
       </c>
     </row>
     <row r="54" ht="12.8">
       <c r="A54" s="7" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B54" s="7">
         <v>1106639000951</v>
@@ -1476,16 +1492,16 @@
       <c r="D54" s="7">
         <v>522</v>
       </c>
-      <c r="E54" s="0">
+      <c r="E54" s="7">
         <v>583</v>
       </c>
-      <c r="F54" s="0">
+      <c r="F54" s="7">
         <v>617</v>
       </c>
     </row>
     <row r="55" ht="12.8">
       <c r="A55" s="7" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B55" s="7">
         <v>1146683001420</v>
@@ -1496,16 +1512,16 @@
       <c r="D55" s="7">
         <v>510</v>
       </c>
-      <c r="E55" s="0">
+      <c r="E55" s="7">
         <v>584</v>
       </c>
-      <c r="F55" s="0">
+      <c r="F55" s="7">
         <v>634</v>
       </c>
     </row>
     <row r="56" ht="12.8">
       <c r="A56" s="7" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B56" s="7">
         <v>1116671011050</v>
@@ -1516,16 +1532,16 @@
       <c r="D56" s="7">
         <v>511</v>
       </c>
-      <c r="E56" s="0">
+      <c r="E56" s="7">
         <v>585</v>
       </c>
-      <c r="F56" s="0">
+      <c r="F56" s="7">
         <v>618</v>
       </c>
     </row>
     <row r="57" ht="12.8">
       <c r="A57" s="7" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B57" s="7">
         <v>1069639010660</v>
@@ -1536,16 +1552,16 @@
       <c r="D57" s="7">
         <v>512</v>
       </c>
-      <c r="E57" s="0">
+      <c r="E57" s="7">
         <v>556</v>
       </c>
-      <c r="F57" s="0">
+      <c r="F57" s="7">
         <v>619</v>
       </c>
     </row>
     <row r="58" ht="12.8">
       <c r="A58" s="7" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B58" s="7">
         <v>1027200842811</v>
@@ -1556,16 +1572,16 @@
       <c r="D58" s="7">
         <v>513</v>
       </c>
-      <c r="E58" s="0">
+      <c r="E58" s="7">
         <v>557</v>
       </c>
-      <c r="F58" s="0">
+      <c r="F58" s="7">
         <v>586</v>
       </c>
     </row>
     <row r="59" ht="12.8">
       <c r="A59" s="7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B59" s="7">
         <v>1027200871818</v>
@@ -1576,16 +1592,16 @@
       <c r="D59" s="7">
         <v>514</v>
       </c>
-      <c r="E59" s="0">
+      <c r="E59" s="7">
         <v>558</v>
       </c>
-      <c r="F59" s="0">
+      <c r="F59" s="7">
         <v>587</v>
       </c>
     </row>
     <row r="60" ht="12.8">
       <c r="A60" s="7" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B60" s="7">
         <v>1077203003195</v>
@@ -1596,16 +1612,16 @@
       <c r="D60" s="7">
         <v>515</v>
       </c>
-      <c r="E60" s="0">
+      <c r="E60" s="7">
         <v>561</v>
       </c>
-      <c r="F60" s="0">
+      <c r="F60" s="7">
         <v>588</v>
       </c>
     </row>
     <row r="61" ht="12.8">
       <c r="A61" s="7" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B61" s="7">
         <v>1087232040466</v>
@@ -1616,16 +1632,16 @@
       <c r="D61" s="7">
         <v>523</v>
       </c>
-      <c r="E61" s="0">
+      <c r="E61" s="7">
         <v>589</v>
       </c>
-      <c r="F61" s="0">
+      <c r="F61" s="7">
         <v>620</v>
       </c>
     </row>
     <row r="62" ht="12.8">
       <c r="A62" s="7" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B62" s="7">
         <v>1047200675884</v>
@@ -1636,16 +1652,16 @@
       <c r="D62" s="7">
         <v>524</v>
       </c>
-      <c r="E62" s="0">
+      <c r="E62" s="7">
         <v>590</v>
       </c>
-      <c r="F62" s="0">
+      <c r="F62" s="7">
         <v>621</v>
       </c>
     </row>
     <row r="63" ht="23.85">
       <c r="A63" s="7" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B63" s="7">
         <v>1147232021881</v>
@@ -1656,16 +1672,16 @@
       <c r="D63" s="7">
         <v>525</v>
       </c>
-      <c r="E63" s="0">
+      <c r="E63" s="7">
         <v>591</v>
       </c>
-      <c r="F63" s="0">
+      <c r="F63" s="7">
         <v>635</v>
       </c>
     </row>
     <row r="64" ht="12.8">
       <c r="A64" s="7" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B64" s="7">
         <v>1077200004122</v>
@@ -1676,16 +1692,16 @@
       <c r="D64" s="7">
         <v>526</v>
       </c>
-      <c r="E64" s="0">
+      <c r="E64" s="7">
         <v>592</v>
       </c>
-      <c r="F64" s="0">
+      <c r="F64" s="7">
         <v>636</v>
       </c>
     </row>
     <row r="65" ht="12.8">
       <c r="A65" s="7" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B65" s="7">
         <v>1147232017580</v>
@@ -1696,16 +1712,16 @@
       <c r="D65" s="7">
         <v>527</v>
       </c>
-      <c r="E65" s="0">
+      <c r="E65" s="7">
         <v>593</v>
       </c>
-      <c r="F65" s="0">
+      <c r="F65" s="7">
         <v>622</v>
       </c>
     </row>
     <row r="66" ht="12.8">
       <c r="A66" s="7" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B66" s="7">
         <v>1087232040697</v>
@@ -1716,16 +1732,16 @@
       <c r="D66" s="7">
         <v>528</v>
       </c>
-      <c r="E66" s="0">
+      <c r="E66" s="7">
         <v>594</v>
       </c>
-      <c r="F66" s="0">
+      <c r="F66" s="7">
         <v>637</v>
       </c>
     </row>
     <row r="67" ht="12.8">
       <c r="A67" s="7" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B67" s="7">
         <v>1116674014270</v>
@@ -1736,16 +1752,16 @@
       <c r="D67" s="7">
         <v>529</v>
       </c>
-      <c r="E67" s="0">
+      <c r="E67" s="7">
         <v>595</v>
       </c>
-      <c r="F67" s="0">
+      <c r="F67" s="7">
         <v>638</v>
       </c>
     </row>
     <row r="68" ht="12.8">
       <c r="A68" s="7" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B68" s="7">
         <v>1141828000710</v>
@@ -1756,13 +1772,13 @@
       <c r="D68" s="7">
         <v>530</v>
       </c>
-      <c r="E68" s="0">
+      <c r="E68" s="7">
         <v>596</v>
       </c>
     </row>
     <row r="69" ht="12.8">
       <c r="A69" s="7" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B69" s="7">
         <v>1046601020157</v>
@@ -1773,16 +1789,16 @@
       <c r="D69" s="7">
         <v>531</v>
       </c>
-      <c r="E69" s="0">
+      <c r="E69" s="7">
         <v>597</v>
       </c>
-      <c r="F69" s="0">
+      <c r="F69" s="7">
         <v>623</v>
       </c>
     </row>
     <row r="70" ht="12.8">
       <c r="A70" s="7" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B70" s="7">
         <v>1086639001481</v>
@@ -1790,19 +1806,19 @@
       <c r="C70" s="7">
         <v>50</v>
       </c>
-      <c r="D70" s="0">
+      <c r="D70" s="7">
         <v>550</v>
       </c>
-      <c r="E70" s="0">
+      <c r="E70" s="7">
         <v>598</v>
       </c>
-      <c r="F70" s="0">
+      <c r="F70" s="7">
         <v>624</v>
       </c>
     </row>
     <row r="71" ht="12.8">
       <c r="A71" s="7" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B71" s="7">
         <v>1147232040196</v>
@@ -1813,16 +1829,16 @@
       <c r="D71" s="7">
         <v>532</v>
       </c>
-      <c r="E71" s="0">
+      <c r="E71" s="7">
         <v>599</v>
       </c>
-      <c r="F71" s="0">
+      <c r="F71" s="7">
         <v>625</v>
       </c>
     </row>
     <row r="72" ht="12.8">
       <c r="A72" s="7" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B72" s="7">
         <v>1167232056551</v>
@@ -1833,16 +1849,16 @@
       <c r="D72" s="7">
         <v>533</v>
       </c>
-      <c r="E72" s="0">
+      <c r="E72" s="7">
         <v>600</v>
       </c>
-      <c r="F72" s="0">
+      <c r="F72" s="7">
         <v>626</v>
       </c>
     </row>
     <row r="73" ht="12.8">
       <c r="A73" s="7" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B73" s="7">
         <v>1157232026137</v>
@@ -1853,16 +1869,16 @@
       <c r="D73" s="7">
         <v>534</v>
       </c>
-      <c r="E73" s="0">
+      <c r="E73" s="7">
         <v>601</v>
       </c>
-      <c r="F73" s="0">
+      <c r="F73" s="7">
         <v>652</v>
       </c>
     </row>
     <row r="74" ht="12.8">
       <c r="A74" s="7" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B74" s="7">
         <v>1107232017595</v>
@@ -1873,16 +1889,16 @@
       <c r="D74" s="7">
         <v>535</v>
       </c>
-      <c r="E74" s="0">
+      <c r="E74" s="7">
         <v>602</v>
       </c>
-      <c r="F74" s="0">
+      <c r="F74" s="7">
         <v>627</v>
       </c>
     </row>
     <row r="75" ht="12.8">
       <c r="A75" s="7" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B75" s="7">
         <v>1027200836464</v>
@@ -1893,16 +1909,16 @@
       <c r="D75" s="7">
         <v>536</v>
       </c>
-      <c r="E75" s="0">
+      <c r="E75" s="7">
         <v>603</v>
       </c>
-      <c r="F75" s="0">
+      <c r="F75" s="7">
         <v>628</v>
       </c>
     </row>
     <row r="76" ht="12.8">
       <c r="A76" s="7" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B76" s="7">
         <v>1069633012008</v>
@@ -1913,13 +1929,13 @@
       <c r="D76" s="7">
         <v>537</v>
       </c>
-      <c r="E76" s="0">
+      <c r="E76" s="7">
         <v>604</v>
       </c>
     </row>
     <row r="77" ht="12.8">
       <c r="A77" s="7" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B77" s="7">
         <v>1096607000159</v>
@@ -1930,13 +1946,16 @@
       <c r="D77" s="7">
         <v>538</v>
       </c>
-      <c r="E77" s="0">
+      <c r="E77" s="7">
         <v>605</v>
+      </c>
+      <c r="F77" s="7">
+        <v>654</v>
       </c>
     </row>
     <row r="78" ht="12.8">
       <c r="A78" s="7" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B78" s="7">
         <v>1146623005913</v>
@@ -1947,16 +1966,16 @@
       <c r="D78" s="7">
         <v>539</v>
       </c>
-      <c r="E78" s="0">
+      <c r="E78" s="7">
         <v>606</v>
       </c>
-      <c r="F78" s="0">
+      <c r="F78" s="7">
         <v>639</v>
       </c>
     </row>
     <row r="79" ht="12.8">
       <c r="A79" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B79" s="7">
         <v>1026600785430</v>
@@ -1967,16 +1986,16 @@
       <c r="D79" s="7">
         <v>540</v>
       </c>
-      <c r="E79" s="0">
+      <c r="E79" s="7">
         <v>607</v>
       </c>
-      <c r="F79" s="0">
+      <c r="F79" s="7">
         <v>640</v>
       </c>
     </row>
     <row r="80" ht="12.8">
       <c r="A80" s="7" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B80" s="7">
         <v>1152036004625</v>
@@ -1987,16 +2006,16 @@
       <c r="D80" s="7">
         <v>541</v>
       </c>
-      <c r="E80" s="0">
+      <c r="E80" s="7">
         <v>608</v>
       </c>
-      <c r="F80" s="0">
+      <c r="F80" s="7">
         <v>629</v>
       </c>
     </row>
     <row r="81" ht="12.8">
       <c r="A81" s="7" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B81" s="7">
         <v>1107232017089</v>
@@ -2007,16 +2026,16 @@
       <c r="D81" s="7">
         <v>542</v>
       </c>
-      <c r="E81" s="0">
+      <c r="E81" s="7">
         <v>609</v>
       </c>
-      <c r="F81" s="0">
+      <c r="F81" s="7">
         <v>641</v>
       </c>
     </row>
     <row r="82" ht="12.8">
       <c r="A82" s="7" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B82" s="7">
         <v>1076633000762</v>
@@ -2027,16 +2046,16 @@
       <c r="D82" s="7">
         <v>543</v>
       </c>
-      <c r="E82" s="0">
+      <c r="E82" s="7">
         <v>610</v>
       </c>
-      <c r="F82" s="0">
+      <c r="F82" s="7">
         <v>649</v>
       </c>
     </row>
     <row r="83" ht="12.8">
       <c r="A83" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B83" s="7">
         <v>1057200754346</v>
@@ -2047,16 +2066,16 @@
       <c r="D83" s="7">
         <v>544</v>
       </c>
-      <c r="E83" s="0">
+      <c r="E83" s="7">
         <v>611</v>
       </c>
-      <c r="F83" s="0">
+      <c r="F83" s="7">
         <v>630</v>
       </c>
     </row>
     <row r="84" ht="12.8">
       <c r="A84" s="7" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B84" s="7">
         <v>1047200601766</v>
@@ -2067,20 +2086,20 @@
       <c r="D84" s="7">
         <v>545</v>
       </c>
-      <c r="E84" s="0">
+      <c r="E84" s="7">
         <v>612</v>
       </c>
-      <c r="F84" s="0">
+      <c r="F84" s="7">
         <v>642</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2090,40 +2109,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G219"/>
+  <dimension ref="A1:G226"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A187" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B220" activeCellId="0" sqref="B220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="8.23469387755102" customWidth="1"/>
-    <col min="7" max="7" width="48.4642857142857" customWidth="1"/>
-    <col min="8" max="1025" width="8.23469387755102" customWidth="1"/>
+    <col min="1" max="6" width="8.23" customWidth="1"/>
+    <col min="7" max="7" width="48.46" customWidth="1"/>
+    <col min="8" max="1025" width="8.23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.8" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" ht="12.8" s="7" customFormat="1">
@@ -2143,7 +2162,7 @@
         <v>365</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" ht="12.8" s="7" customFormat="1">
@@ -2163,7 +2182,7 @@
         <v>805</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" ht="12.8" s="7" customFormat="1">
@@ -2183,7 +2202,7 @@
         <v>6863</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" ht="12.8" s="7" customFormat="1">
@@ -2203,7 +2222,7 @@
         <v>261</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" ht="12.8" s="7" customFormat="1">
@@ -2211,7 +2230,7 @@
         <v>440</v>
       </c>
       <c r="B6" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
         <v>124753</v>
@@ -2220,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="7">
-        <v>0</v>
+        <v>9427</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" ht="12.8">
@@ -2243,7 +2262,7 @@
         <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" ht="12.8">
@@ -2263,7 +2282,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" ht="12.8">
@@ -2283,7 +2302,7 @@
         <v>723</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" ht="12.8">
@@ -2303,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" ht="12.8">
@@ -2311,19 +2330,19 @@
         <v>445</v>
       </c>
       <c r="B11" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
         <v>7775</v>
       </c>
       <c r="E11" s="7">
-        <v>945</v>
+        <v>5910</v>
       </c>
       <c r="F11" s="7">
-        <v>328</v>
+        <v>1865</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" ht="12.8">
@@ -2343,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" ht="12.8">
@@ -2363,7 +2382,7 @@
         <v>4198</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" ht="12.8">
@@ -2383,7 +2402,7 @@
         <v>6</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" ht="12.8">
@@ -2403,7 +2422,7 @@
         <v>4475</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" ht="12.8">
@@ -2423,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" ht="12.8">
@@ -2431,19 +2450,19 @@
         <v>451</v>
       </c>
       <c r="B17" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
         <v>10809</v>
       </c>
       <c r="E17" s="7">
-        <v>8895</v>
+        <v>10304</v>
       </c>
       <c r="F17" s="7">
-        <v>666</v>
+        <v>505</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" ht="12.8">
@@ -2463,7 +2482,7 @@
         <v>366</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" ht="12.8">
@@ -2483,7 +2502,7 @@
         <v>84</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" ht="12.8">
@@ -2503,7 +2522,7 @@
         <v>95</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" ht="12.8">
@@ -2523,7 +2542,7 @@
         <v>27</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" ht="12.8">
@@ -2543,7 +2562,7 @@
         <v>82</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" ht="12.8">
@@ -2563,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" ht="12.8">
@@ -2583,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" ht="12.8">
@@ -2603,7 +2622,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" ht="12.8">
@@ -2623,7 +2642,7 @@
         <v>1042</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" ht="12.8">
@@ -2643,7 +2662,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" ht="12.8">
@@ -2663,7 +2682,7 @@
         <v>80</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" ht="12.8">
@@ -2683,7 +2702,7 @@
         <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" ht="12.8">
@@ -2703,7 +2722,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" ht="12.8">
@@ -2723,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" ht="12.8">
@@ -2743,7 +2762,7 @@
         <v>25</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" ht="12.8">
@@ -2763,7 +2782,7 @@
         <v>125</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" ht="12.8">
@@ -2782,8 +2801,8 @@
       <c r="F34" s="7">
         <v>1149</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>9</v>
+      <c r="G34" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="35" ht="12.8">
@@ -2803,7 +2822,7 @@
         <v>29</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" ht="12.8">
@@ -2823,7 +2842,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" ht="12.8">
@@ -2843,7 +2862,7 @@
         <v>108</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" ht="12.8">
@@ -2863,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" ht="12.8">
@@ -2883,7 +2902,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" ht="12.8">
@@ -2903,7 +2922,7 @@
         <v>1632</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" ht="12.8">
@@ -2923,7 +2942,7 @@
         <v>8</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" ht="12.8">
@@ -2943,7 +2962,7 @@
         <v>1402</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" ht="12.8">
@@ -2963,7 +2982,7 @@
         <v>293</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" ht="12.8">
@@ -2983,7 +3002,7 @@
         <v>62</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" ht="12.8">
@@ -3003,7 +3022,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" ht="12.8">
@@ -3023,7 +3042,7 @@
         <v>33</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" ht="12.8">
@@ -3043,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" ht="12.8">
@@ -3063,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" ht="12.8">
@@ -3083,7 +3102,7 @@
         <v>46</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" ht="12.8">
@@ -3103,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" ht="12.8">
@@ -3123,7 +3142,7 @@
         <v>844</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" ht="12.8">
@@ -3142,8 +3161,8 @@
       <c r="F52" s="7">
         <v>1815</v>
       </c>
-      <c r="G52" s="8" t="s">
-        <v>9</v>
+      <c r="G52" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="53" ht="12.8">
@@ -3163,7 +3182,7 @@
         <v>5014</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" ht="12.8">
@@ -3183,7 +3202,7 @@
         <v>1998</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" ht="12.8">
@@ -3203,7 +3222,7 @@
         <v>482</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" ht="12.8">
@@ -3222,8 +3241,8 @@
       <c r="F56" s="7">
         <v>3883</v>
       </c>
-      <c r="G56" s="8" t="s">
-        <v>9</v>
+      <c r="G56" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="57" ht="12.8">
@@ -3243,7 +3262,7 @@
         <v>6</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" ht="12.8">
@@ -3263,7 +3282,7 @@
         <v>346</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" ht="12.8">
@@ -3283,7 +3302,7 @@
         <v>3</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" ht="12.8">
@@ -3303,7 +3322,7 @@
         <v>3</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" ht="12.8">
@@ -3323,7 +3342,7 @@
         <v>81</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" ht="12.8">
@@ -3343,7 +3362,7 @@
         <v>98</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" ht="12.8">
@@ -3362,8 +3381,8 @@
       <c r="F63" s="7">
         <v>233</v>
       </c>
-      <c r="G63" s="8" t="s">
-        <v>9</v>
+      <c r="G63" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="64" ht="12.8">
@@ -3383,7 +3402,7 @@
         <v>61</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" ht="12.8">
@@ -3403,7 +3422,7 @@
         <v>117</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" ht="12.8">
@@ -3422,8 +3441,8 @@
       <c r="F66" s="7">
         <v>482</v>
       </c>
-      <c r="G66" s="8" t="s">
-        <v>9</v>
+      <c r="G66" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="67" ht="12.8">
@@ -3443,7 +3462,7 @@
         <v>138</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" ht="12.8">
@@ -3462,8 +3481,8 @@
       <c r="F68" s="7">
         <v>143</v>
       </c>
-      <c r="G68" s="8" t="s">
-        <v>9</v>
+      <c r="G68" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="69" ht="12.8">
@@ -3483,7 +3502,7 @@
         <v>29</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" ht="12.8">
@@ -3503,7 +3522,7 @@
         <v>458</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" ht="12.8">
@@ -3523,7 +3542,7 @@
         <v>400</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" ht="12.8">
@@ -3543,7 +3562,7 @@
         <v>44</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" ht="12.8">
@@ -3562,8 +3581,8 @@
       <c r="F73" s="7">
         <v>458</v>
       </c>
-      <c r="G73" s="0" t="s">
-        <v>7</v>
+      <c r="G73" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="74" ht="12.8">
@@ -3582,8 +3601,8 @@
       <c r="F74" s="7">
         <v>458</v>
       </c>
-      <c r="G74" s="0" t="s">
-        <v>7</v>
+      <c r="G74" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="75" ht="12.8">
@@ -3602,8 +3621,8 @@
       <c r="F75" s="7">
         <v>457</v>
       </c>
-      <c r="G75" s="0" t="s">
-        <v>7</v>
+      <c r="G75" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="76" ht="12.8">
@@ -3622,8 +3641,8 @@
       <c r="F76" s="7">
         <v>458</v>
       </c>
-      <c r="G76" s="0" t="s">
-        <v>7</v>
+      <c r="G76" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="77" ht="12.8">
@@ -3642,8 +3661,8 @@
       <c r="F77" s="7">
         <v>603</v>
       </c>
-      <c r="G77" s="0" t="s">
-        <v>7</v>
+      <c r="G77" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="78" ht="12.8">
@@ -3662,8 +3681,8 @@
       <c r="F78" s="7">
         <v>0</v>
       </c>
-      <c r="G78" s="0" t="s">
-        <v>7</v>
+      <c r="G78" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="79" ht="12.8">
@@ -3682,8 +3701,8 @@
       <c r="F79" s="7">
         <v>0</v>
       </c>
-      <c r="G79" s="0" t="s">
-        <v>7</v>
+      <c r="G79" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="80" ht="12.8">
@@ -3702,8 +3721,8 @@
       <c r="F80" s="7">
         <v>0</v>
       </c>
-      <c r="G80" s="0" t="s">
-        <v>7</v>
+      <c r="G80" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="81" ht="12.8">
@@ -3722,8 +3741,8 @@
       <c r="F81" s="7">
         <v>945</v>
       </c>
-      <c r="G81" s="0" t="s">
-        <v>7</v>
+      <c r="G81" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="82" ht="12.8">
@@ -3742,8 +3761,8 @@
       <c r="F82" s="7">
         <v>36</v>
       </c>
-      <c r="G82" s="0" t="s">
-        <v>9</v>
+      <c r="G82" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="83" ht="12.8">
@@ -3762,8 +3781,8 @@
       <c r="F83" s="7">
         <v>779</v>
       </c>
-      <c r="G83" s="0" t="s">
-        <v>9</v>
+      <c r="G83" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="84" ht="12.8">
@@ -3782,8 +3801,8 @@
       <c r="F84" s="7">
         <v>2721</v>
       </c>
-      <c r="G84" s="0" t="s">
-        <v>10</v>
+      <c r="G84" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="85" ht="12.8">
@@ -3802,8 +3821,8 @@
       <c r="F85" s="7">
         <v>1484</v>
       </c>
-      <c r="G85" s="0" t="s">
-        <v>10</v>
+      <c r="G85" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="86" ht="12.8">
@@ -3822,8 +3841,8 @@
       <c r="F86" s="7">
         <v>0</v>
       </c>
-      <c r="G86" s="0" t="s">
-        <v>11</v>
+      <c r="G86" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="87" ht="12.8">
@@ -3842,8 +3861,8 @@
       <c r="F87" s="7">
         <v>0</v>
       </c>
-      <c r="G87" s="0" t="s">
-        <v>11</v>
+      <c r="G87" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="88" ht="12.8">
@@ -3862,8 +3881,8 @@
       <c r="F88" s="7">
         <v>458</v>
       </c>
-      <c r="G88" s="0" t="s">
-        <v>7</v>
+      <c r="G88" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="89" ht="12.8">
@@ -3882,8 +3901,8 @@
       <c r="F89" s="7">
         <v>83</v>
       </c>
-      <c r="G89" s="0" t="s">
-        <v>7</v>
+      <c r="G89" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="90" ht="12.8">
@@ -3902,8 +3921,8 @@
       <c r="F90" s="7">
         <v>1</v>
       </c>
-      <c r="G90" s="0" t="s">
-        <v>7</v>
+      <c r="G90" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="91" ht="12.8">
@@ -3922,8 +3941,8 @@
       <c r="F91" s="7">
         <v>2</v>
       </c>
-      <c r="G91" s="0" t="s">
-        <v>7</v>
+      <c r="G91" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="92" ht="12.8">
@@ -3942,8 +3961,8 @@
       <c r="F92" s="7">
         <v>3</v>
       </c>
-      <c r="G92" s="0" t="s">
-        <v>7</v>
+      <c r="G92" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="93" ht="12.8">
@@ -3962,8 +3981,8 @@
       <c r="F93" s="7">
         <v>213</v>
       </c>
-      <c r="G93" s="0" t="s">
-        <v>7</v>
+      <c r="G93" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="94" ht="12.8">
@@ -3982,8 +4001,8 @@
       <c r="F94" s="7">
         <v>1</v>
       </c>
-      <c r="G94" s="0" t="s">
-        <v>7</v>
+      <c r="G94" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="95" ht="12.8">
@@ -4002,8 +4021,8 @@
       <c r="F95" s="7">
         <v>5</v>
       </c>
-      <c r="G95" s="0" t="s">
-        <v>7</v>
+      <c r="G95" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="96" ht="12.8">
@@ -4022,8 +4041,8 @@
       <c r="F96" s="7">
         <v>435</v>
       </c>
-      <c r="G96" s="0" t="s">
-        <v>7</v>
+      <c r="G96" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="97" ht="12.8">
@@ -4042,8 +4061,8 @@
       <c r="F97" s="7">
         <v>4</v>
       </c>
-      <c r="G97" s="0" t="s">
-        <v>7</v>
+      <c r="G97" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="98" ht="12.8">
@@ -4062,8 +4081,8 @@
       <c r="F98" s="7">
         <v>727</v>
       </c>
-      <c r="G98" s="0" t="s">
-        <v>7</v>
+      <c r="G98" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="99" ht="12.8">
@@ -4082,8 +4101,8 @@
       <c r="F99" s="7">
         <v>748</v>
       </c>
-      <c r="G99" s="0" t="s">
-        <v>7</v>
+      <c r="G99" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="100" ht="12.8">
@@ -4102,8 +4121,8 @@
       <c r="F100" s="7">
         <v>136</v>
       </c>
-      <c r="G100" s="0" t="s">
-        <v>7</v>
+      <c r="G100" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="101" ht="12.8">
@@ -4122,8 +4141,8 @@
       <c r="F101" s="7">
         <v>84</v>
       </c>
-      <c r="G101" s="0" t="s">
-        <v>7</v>
+      <c r="G101" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="102" ht="12.8">
@@ -4142,8 +4161,8 @@
       <c r="F102" s="7">
         <v>0</v>
       </c>
-      <c r="G102" s="0" t="s">
-        <v>7</v>
+      <c r="G102" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="103" ht="12.8">
@@ -4162,8 +4181,8 @@
       <c r="F103" s="7">
         <v>534</v>
       </c>
-      <c r="G103" s="0" t="s">
-        <v>7</v>
+      <c r="G103" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="104" ht="12.8">
@@ -4182,8 +4201,8 @@
       <c r="F104" s="7">
         <v>7086</v>
       </c>
-      <c r="G104" s="0" t="s">
-        <v>7</v>
+      <c r="G104" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="105" ht="12.8">
@@ -4202,8 +4221,8 @@
       <c r="F105" s="7">
         <v>17629</v>
       </c>
-      <c r="G105" s="0" t="s">
-        <v>7</v>
+      <c r="G105" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="106" ht="12.8">
@@ -4222,8 +4241,8 @@
       <c r="F106" s="7">
         <v>1906</v>
       </c>
-      <c r="G106" s="0" t="s">
-        <v>7</v>
+      <c r="G106" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="107" ht="12.8">
@@ -4242,8 +4261,8 @@
       <c r="F107" s="7">
         <v>88</v>
       </c>
-      <c r="G107" s="0" t="s">
-        <v>7</v>
+      <c r="G107" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="108" ht="12.8">
@@ -4262,8 +4281,8 @@
       <c r="F108" s="7">
         <v>1</v>
       </c>
-      <c r="G108" s="0" t="s">
-        <v>7</v>
+      <c r="G108" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="109" ht="12.8">
@@ -4282,8 +4301,8 @@
       <c r="F109" s="7">
         <v>346</v>
       </c>
-      <c r="G109" s="0" t="s">
-        <v>7</v>
+      <c r="G109" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="110" ht="12.8">
@@ -4302,8 +4321,8 @@
       <c r="F110" s="7">
         <v>28</v>
       </c>
-      <c r="G110" s="0" t="s">
-        <v>7</v>
+      <c r="G110" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="111" ht="12.8">
@@ -4322,2165 +4341,2317 @@
       <c r="F111" s="7">
         <v>114</v>
       </c>
-      <c r="G111" s="0" t="s">
+      <c r="G111" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="112" ht="12.8">
+      <c r="A112" s="7">
+        <v>546</v>
+      </c>
+      <c r="B112" s="7">
+        <v>3</v>
+      </c>
+      <c r="D112" s="7">
+        <v>3569</v>
+      </c>
+      <c r="E112" s="7">
+        <v>1</v>
+      </c>
+      <c r="F112" s="7">
+        <v>3568</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="113" ht="12.8">
+      <c r="A113" s="7">
+        <v>547</v>
+      </c>
+      <c r="B113" s="7">
+        <v>3</v>
+      </c>
+      <c r="D113" s="7">
+        <v>2013</v>
+      </c>
+      <c r="E113" s="7">
+        <v>2011</v>
+      </c>
+      <c r="F113" s="7">
+        <v>2</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="114" ht="12.8">
+      <c r="A114" s="7">
+        <v>548</v>
+      </c>
+      <c r="B114" s="7">
+        <v>3</v>
+      </c>
+      <c r="D114" s="7">
+        <v>491</v>
+      </c>
+      <c r="E114" s="7">
+        <v>242</v>
+      </c>
+      <c r="F114" s="7">
+        <v>249</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="115" ht="12.8">
+      <c r="A115" s="7">
+        <v>549</v>
+      </c>
+      <c r="B115" s="7">
+        <v>4</v>
+      </c>
+      <c r="D115" s="7">
+        <v>0</v>
+      </c>
+      <c r="E115" s="7">
+        <v>0</v>
+      </c>
+      <c r="F115" s="7">
+        <v>0</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="116" ht="12.8">
+      <c r="A116" s="7">
+        <v>550</v>
+      </c>
+      <c r="B116" s="7">
+        <v>3</v>
+      </c>
+      <c r="D116" s="7">
+        <v>802</v>
+      </c>
+      <c r="E116" s="7">
+        <v>0</v>
+      </c>
+      <c r="F116" s="7">
+        <v>802</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" ht="12.8">
+      <c r="A117" s="7">
+        <v>551</v>
+      </c>
+      <c r="B117" s="7">
+        <v>4</v>
+      </c>
+      <c r="D117" s="7">
+        <v>0</v>
+      </c>
+      <c r="E117" s="7">
+        <v>0</v>
+      </c>
+      <c r="F117" s="7">
+        <v>0</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="118" ht="12.8">
+      <c r="A118" s="7">
+        <v>552</v>
+      </c>
+      <c r="B118" s="7">
+        <v>4</v>
+      </c>
+      <c r="D118" s="7">
+        <v>0</v>
+      </c>
+      <c r="E118" s="7">
+        <v>0</v>
+      </c>
+      <c r="F118" s="7">
+        <v>0</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="119" ht="12.8">
+      <c r="A119" s="7">
+        <v>553</v>
+      </c>
+      <c r="B119" s="7">
+        <v>4</v>
+      </c>
+      <c r="D119" s="7">
+        <v>0</v>
+      </c>
+      <c r="E119" s="7">
+        <v>0</v>
+      </c>
+      <c r="F119" s="7">
+        <v>0</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="120" ht="12.8">
+      <c r="A120" s="7">
+        <v>554</v>
+      </c>
+      <c r="B120" s="7">
+        <v>4</v>
+      </c>
+      <c r="D120" s="7">
+        <v>0</v>
+      </c>
+      <c r="E120" s="7">
+        <v>0</v>
+      </c>
+      <c r="F120" s="7">
+        <v>0</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="121" ht="12.8">
+      <c r="A121" s="7">
+        <v>555</v>
+      </c>
+      <c r="B121" s="7">
+        <v>3</v>
+      </c>
+      <c r="D121" s="7">
+        <v>1643</v>
+      </c>
+      <c r="E121" s="7">
+        <v>0</v>
+      </c>
+      <c r="F121" s="7">
+        <v>1643</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="122" ht="12.8">
+      <c r="A122" s="7">
+        <v>556</v>
+      </c>
+      <c r="B122" s="7">
+        <v>3</v>
+      </c>
+      <c r="D122" s="7">
+        <v>1274</v>
+      </c>
+      <c r="E122" s="7">
+        <v>1263</v>
+      </c>
+      <c r="F122" s="7">
+        <v>11</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="123" ht="12.8">
+      <c r="A123" s="7">
+        <v>557</v>
+      </c>
+      <c r="B123" s="7">
+        <v>3</v>
+      </c>
+      <c r="D123" s="7">
+        <v>186</v>
+      </c>
+      <c r="E123" s="7">
+        <v>182</v>
+      </c>
+      <c r="F123" s="7">
+        <v>4</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="124" ht="12.8">
+      <c r="A124" s="7">
+        <v>558</v>
+      </c>
+      <c r="B124" s="7">
+        <v>3</v>
+      </c>
+      <c r="D124" s="7">
+        <v>665</v>
+      </c>
+      <c r="E124" s="7">
+        <v>663</v>
+      </c>
+      <c r="F124" s="7">
+        <v>2</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="125" ht="12.8">
+      <c r="A125" s="7">
+        <v>559</v>
+      </c>
+      <c r="B125" s="7">
+        <v>3</v>
+      </c>
+      <c r="D125" s="7">
+        <v>1841</v>
+      </c>
+      <c r="E125" s="7">
+        <v>0</v>
+      </c>
+      <c r="F125" s="7">
+        <v>1841</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="126" ht="12.8">
+      <c r="A126" s="7">
+        <v>560</v>
+      </c>
+      <c r="B126" s="7">
+        <v>3</v>
+      </c>
+      <c r="D126" s="7">
+        <v>1841</v>
+      </c>
+      <c r="E126" s="7">
+        <v>214</v>
+      </c>
+      <c r="F126" s="7">
+        <v>1627</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="127" ht="12.8">
+      <c r="A127" s="7">
+        <v>561</v>
+      </c>
+      <c r="B127" s="7">
+        <v>3</v>
+      </c>
+      <c r="D127" s="7">
+        <v>2445</v>
+      </c>
+      <c r="E127" s="7">
+        <v>0</v>
+      </c>
+      <c r="F127" s="7">
+        <v>2445</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="128" ht="12.8">
+      <c r="A128" s="7">
+        <v>562</v>
+      </c>
+      <c r="B128" s="7">
+        <v>3</v>
+      </c>
+      <c r="D128" s="7">
+        <v>7249</v>
+      </c>
+      <c r="E128" s="7">
+        <v>5413</v>
+      </c>
+      <c r="F128" s="7">
+        <v>1836</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="129" ht="12.8">
+      <c r="A129" s="7">
+        <v>563</v>
+      </c>
+      <c r="B129" s="7">
+        <v>3</v>
+      </c>
+      <c r="D129" s="7">
+        <v>15059</v>
+      </c>
+      <c r="E129" s="7">
+        <v>0</v>
+      </c>
+      <c r="F129" s="7">
+        <v>15059</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="130" ht="12.8">
+      <c r="A130" s="7">
+        <v>564</v>
+      </c>
+      <c r="B130" s="7">
+        <v>3</v>
+      </c>
+      <c r="D130" s="7">
+        <v>9107</v>
+      </c>
+      <c r="E130" s="7">
+        <v>8918</v>
+      </c>
+      <c r="F130" s="7">
+        <v>189</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="131" ht="12.8">
+      <c r="A131" s="7">
+        <v>565</v>
+      </c>
+      <c r="B131" s="7">
+        <v>3</v>
+      </c>
+      <c r="D131" s="7">
+        <v>4773</v>
+      </c>
+      <c r="E131" s="7">
+        <v>0</v>
+      </c>
+      <c r="F131" s="7">
+        <v>4773</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="132" ht="12.8">
+      <c r="A132" s="7">
+        <v>566</v>
+      </c>
+      <c r="B132" s="7">
+        <v>3</v>
+      </c>
+      <c r="D132" s="7">
+        <v>20969</v>
+      </c>
+      <c r="E132" s="7">
+        <v>3</v>
+      </c>
+      <c r="F132" s="7">
+        <v>20966</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="133" ht="12.8">
+      <c r="A133" s="7">
+        <v>567</v>
+      </c>
+      <c r="B133" s="7">
+        <v>3</v>
+      </c>
+      <c r="D133" s="7">
+        <v>8779</v>
+      </c>
+      <c r="E133" s="7">
+        <v>0</v>
+      </c>
+      <c r="F133" s="7">
+        <v>8779</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="134" ht="12.8">
+      <c r="A134" s="7">
+        <v>568</v>
+      </c>
+      <c r="B134" s="7">
+        <v>3</v>
+      </c>
+      <c r="D134" s="7">
+        <v>12174</v>
+      </c>
+      <c r="E134" s="7">
+        <v>0</v>
+      </c>
+      <c r="F134" s="7">
+        <v>12174</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="135" ht="12.8">
+      <c r="A135" s="7">
+        <v>569</v>
+      </c>
+      <c r="B135" s="7">
+        <v>3</v>
+      </c>
+      <c r="D135" s="7">
+        <v>3955</v>
+      </c>
+      <c r="E135" s="7">
+        <v>2</v>
+      </c>
+      <c r="F135" s="7">
+        <v>3953</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="136" ht="12.8">
+      <c r="A136" s="7">
+        <v>570</v>
+      </c>
+      <c r="B136" s="7">
+        <v>3</v>
+      </c>
+      <c r="D136" s="7">
+        <v>11172</v>
+      </c>
+      <c r="E136" s="7">
+        <v>0</v>
+      </c>
+      <c r="F136" s="7">
+        <v>11172</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="137" ht="12.8">
+      <c r="A137" s="7">
+        <v>571</v>
+      </c>
+      <c r="B137" s="7">
+        <v>3</v>
+      </c>
+      <c r="D137" s="7">
+        <v>3100</v>
+      </c>
+      <c r="E137" s="7">
+        <v>0</v>
+      </c>
+      <c r="F137" s="7">
+        <v>3100</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="138" ht="12.8">
+      <c r="A138" s="7">
+        <v>572</v>
+      </c>
+      <c r="B138" s="7">
+        <v>3</v>
+      </c>
+      <c r="D138" s="7">
+        <v>6536</v>
+      </c>
+      <c r="E138" s="7">
+        <v>3525</v>
+      </c>
+      <c r="F138" s="7">
+        <v>3011</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="139" ht="12.8">
+      <c r="A139" s="7">
+        <v>573</v>
+      </c>
+      <c r="B139" s="7">
+        <v>3</v>
+      </c>
+      <c r="D139" s="7">
+        <v>0</v>
+      </c>
+      <c r="E139" s="7">
+        <v>0</v>
+      </c>
+      <c r="F139" s="7">
+        <v>0</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="140" ht="12.8">
+      <c r="A140" s="7">
+        <v>574</v>
+      </c>
+      <c r="B140" s="7">
+        <v>3</v>
+      </c>
+      <c r="D140" s="7">
+        <v>5595</v>
+      </c>
+      <c r="E140" s="7">
+        <v>4181</v>
+      </c>
+      <c r="F140" s="7">
+        <v>1414</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="141" ht="12.8">
+      <c r="A141" s="7">
+        <v>575</v>
+      </c>
+      <c r="B141" s="7">
+        <v>3</v>
+      </c>
+      <c r="D141" s="7">
+        <v>25005</v>
+      </c>
+      <c r="E141" s="7">
+        <v>0</v>
+      </c>
+      <c r="F141" s="7">
+        <v>25005</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="142" ht="12.8">
+      <c r="A142" s="7">
+        <v>576</v>
+      </c>
+      <c r="B142" s="7">
+        <v>3</v>
+      </c>
+      <c r="D142" s="7">
+        <v>4341</v>
+      </c>
+      <c r="E142" s="7">
+        <v>0</v>
+      </c>
+      <c r="F142" s="7">
+        <v>4341</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="143" ht="12.8">
+      <c r="A143" s="7">
+        <v>577</v>
+      </c>
+      <c r="B143" s="7">
+        <v>3</v>
+      </c>
+      <c r="D143" s="7">
+        <v>4449</v>
+      </c>
+      <c r="E143" s="7">
+        <v>0</v>
+      </c>
+      <c r="F143" s="7">
+        <v>4449</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="144" ht="12.8">
+      <c r="A144" s="7">
+        <v>578</v>
+      </c>
+      <c r="B144" s="7">
+        <v>3</v>
+      </c>
+      <c r="D144" s="7">
+        <v>4449</v>
+      </c>
+      <c r="E144" s="7">
+        <v>0</v>
+      </c>
+      <c r="F144" s="7">
+        <v>4449</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="145" ht="12.8">
+      <c r="A145" s="7">
+        <v>579</v>
+      </c>
+      <c r="B145" s="7">
+        <v>3</v>
+      </c>
+      <c r="D145" s="7">
+        <v>193</v>
+      </c>
+      <c r="E145" s="7">
+        <v>188</v>
+      </c>
+      <c r="F145" s="7">
+        <v>5</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="146" ht="12.8">
+      <c r="A146" s="7">
+        <v>580</v>
+      </c>
+      <c r="B146" s="7">
+        <v>3</v>
+      </c>
+      <c r="D146" s="7">
+        <v>1841</v>
+      </c>
+      <c r="E146" s="7">
+        <v>0</v>
+      </c>
+      <c r="F146" s="7">
+        <v>1841</v>
+      </c>
+      <c r="G146" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="147" ht="12.8">
+      <c r="A147" s="7">
+        <v>581</v>
+      </c>
+      <c r="B147" s="7">
+        <v>3</v>
+      </c>
+      <c r="D147" s="7">
+        <v>1841</v>
+      </c>
+      <c r="E147" s="7">
+        <v>0</v>
+      </c>
+      <c r="F147" s="7">
+        <v>1841</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="148" ht="12.8">
+      <c r="A148" s="7">
+        <v>582</v>
+      </c>
+      <c r="B148" s="7">
+        <v>3</v>
+      </c>
+      <c r="D148" s="7">
+        <v>1841</v>
+      </c>
+      <c r="E148" s="7">
+        <v>0</v>
+      </c>
+      <c r="F148" s="7">
+        <v>1841</v>
+      </c>
+      <c r="G148" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="149" ht="12.8">
+      <c r="A149" s="7">
+        <v>583</v>
+      </c>
+      <c r="B149" s="7">
+        <v>3</v>
+      </c>
+      <c r="D149" s="7">
+        <v>1841</v>
+      </c>
+      <c r="E149" s="7">
+        <v>0</v>
+      </c>
+      <c r="F149" s="7">
+        <v>1841</v>
+      </c>
+      <c r="G149" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="150" ht="12.8">
+      <c r="A150" s="7">
+        <v>584</v>
+      </c>
+      <c r="B150" s="7">
+        <v>3</v>
+      </c>
+      <c r="D150" s="7">
+        <v>1841</v>
+      </c>
+      <c r="E150" s="7">
+        <v>0</v>
+      </c>
+      <c r="F150" s="7">
+        <v>1841</v>
+      </c>
+      <c r="G150" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="151" ht="12.8">
+      <c r="A151" s="7">
+        <v>585</v>
+      </c>
+      <c r="B151" s="7">
+        <v>3</v>
+      </c>
+      <c r="D151" s="7">
+        <v>55</v>
+      </c>
+      <c r="E151" s="7">
+        <v>0</v>
+      </c>
+      <c r="F151" s="7">
+        <v>55</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="152" ht="12.8">
+      <c r="A152" s="7">
+        <v>586</v>
+      </c>
+      <c r="B152" s="7">
+        <v>3</v>
+      </c>
+      <c r="D152" s="7">
+        <v>897</v>
+      </c>
+      <c r="E152" s="7">
+        <v>0</v>
+      </c>
+      <c r="F152" s="7">
+        <v>897</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="153" ht="12.8">
+      <c r="A153" s="7">
+        <v>587</v>
+      </c>
+      <c r="B153" s="7">
+        <v>3</v>
+      </c>
+      <c r="D153" s="7">
+        <v>2169</v>
+      </c>
+      <c r="E153" s="7">
+        <v>0</v>
+      </c>
+      <c r="F153" s="7">
+        <v>2169</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="154" ht="12.8">
+      <c r="A154" s="7">
+        <v>588</v>
+      </c>
+      <c r="B154" s="7">
+        <v>3</v>
+      </c>
+      <c r="D154" s="7">
+        <v>12017</v>
+      </c>
+      <c r="E154" s="7">
+        <v>0</v>
+      </c>
+      <c r="F154" s="7">
+        <v>12017</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="155" ht="12.8">
+      <c r="A155" s="7">
+        <v>589</v>
+      </c>
+      <c r="B155" s="7">
+        <v>3</v>
+      </c>
+      <c r="D155" s="7">
+        <v>592</v>
+      </c>
+      <c r="E155" s="7">
+        <v>0</v>
+      </c>
+      <c r="F155" s="7">
+        <v>592</v>
+      </c>
+      <c r="G155" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="156" ht="12.8">
+      <c r="A156" s="7">
+        <v>590</v>
+      </c>
+      <c r="B156" s="7">
+        <v>3</v>
+      </c>
+      <c r="D156" s="7">
+        <v>267</v>
+      </c>
+      <c r="E156" s="7">
+        <v>262</v>
+      </c>
+      <c r="F156" s="7">
+        <v>5</v>
+      </c>
+      <c r="G156" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="157" ht="12.8">
+      <c r="A157" s="7">
+        <v>591</v>
+      </c>
+      <c r="B157" s="7">
+        <v>3</v>
+      </c>
+      <c r="D157" s="7">
+        <v>445</v>
+      </c>
+      <c r="E157" s="7">
+        <v>0</v>
+      </c>
+      <c r="F157" s="7">
+        <v>445</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="158" ht="12.8">
+      <c r="A158" s="7">
+        <v>592</v>
+      </c>
+      <c r="B158" s="7">
+        <v>3</v>
+      </c>
+      <c r="D158" s="7">
+        <v>427</v>
+      </c>
+      <c r="E158" s="7">
+        <v>420</v>
+      </c>
+      <c r="F158" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="0">
-        <v>546</v>
-      </c>
-      <c r="B112" s="0">
-        <v>3</v>
-      </c>
-      <c r="D112" s="0">
-        <v>3569</v>
-      </c>
-      <c r="E112" s="0">
+      <c r="G158" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="159" ht="12.8">
+      <c r="A159" s="7">
+        <v>593</v>
+      </c>
+      <c r="B159" s="7">
+        <v>3</v>
+      </c>
+      <c r="D159" s="7">
+        <v>542</v>
+      </c>
+      <c r="E159" s="7">
+        <v>0</v>
+      </c>
+      <c r="F159" s="7">
+        <v>542</v>
+      </c>
+      <c r="G159" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="160" ht="12.8">
+      <c r="A160" s="7">
+        <v>594</v>
+      </c>
+      <c r="B160" s="7">
+        <v>3</v>
+      </c>
+      <c r="D160" s="7">
+        <v>646</v>
+      </c>
+      <c r="E160" s="7">
+        <v>141</v>
+      </c>
+      <c r="F160" s="7">
+        <v>505</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="161" ht="12.8">
+      <c r="A161" s="7">
+        <v>595</v>
+      </c>
+      <c r="B161" s="7">
+        <v>3</v>
+      </c>
+      <c r="D161" s="7">
+        <v>463</v>
+      </c>
+      <c r="E161" s="7">
+        <v>0</v>
+      </c>
+      <c r="F161" s="7">
+        <v>463</v>
+      </c>
+      <c r="G161" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="162" ht="12.8">
+      <c r="A162" s="7">
+        <v>596</v>
+      </c>
+      <c r="B162" s="7">
         <v>1</v>
       </c>
-      <c r="F112" s="0">
-        <v>3568</v>
-      </c>
-      <c r="G112" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="0">
-        <v>547</v>
-      </c>
-      <c r="B113" s="0">
-        <v>3</v>
-      </c>
-      <c r="D113" s="0">
-        <v>2013</v>
-      </c>
-      <c r="E113" s="0">
-        <v>2011</v>
-      </c>
-      <c r="F113" s="0">
+      <c r="D162" s="7">
+        <v>0</v>
+      </c>
+      <c r="E162" s="7">
+        <v>24058</v>
+      </c>
+      <c r="F162" s="7">
+        <v>439</v>
+      </c>
+      <c r="G162" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="163" ht="12.8">
+      <c r="A163" s="7">
+        <v>597</v>
+      </c>
+      <c r="B163" s="7">
+        <v>3</v>
+      </c>
+      <c r="D163" s="7">
+        <v>1450</v>
+      </c>
+      <c r="E163" s="7">
+        <v>1423</v>
+      </c>
+      <c r="F163" s="7">
+        <v>27</v>
+      </c>
+      <c r="G163" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="164" ht="12.8">
+      <c r="A164" s="7">
+        <v>598</v>
+      </c>
+      <c r="B164" s="7">
+        <v>3</v>
+      </c>
+      <c r="D164" s="7">
+        <v>2807</v>
+      </c>
+      <c r="E164" s="7">
+        <v>0</v>
+      </c>
+      <c r="F164" s="7">
+        <v>2807</v>
+      </c>
+      <c r="G164" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="165" ht="12.8">
+      <c r="A165" s="7">
+        <v>599</v>
+      </c>
+      <c r="B165" s="7">
+        <v>3</v>
+      </c>
+      <c r="D165" s="7">
+        <v>1622</v>
+      </c>
+      <c r="E165" s="7">
         <v>2</v>
       </c>
-      <c r="G113" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="0">
-        <v>548</v>
-      </c>
-      <c r="B114" s="0">
-        <v>3</v>
-      </c>
-      <c r="D114" s="0">
-        <v>491</v>
-      </c>
-      <c r="E114" s="0">
-        <v>242</v>
-      </c>
-      <c r="F114" s="0">
-        <v>249</v>
-      </c>
-      <c r="G114" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="0">
-        <v>549</v>
-      </c>
-      <c r="B115" s="0">
+      <c r="F165" s="7">
+        <v>1620</v>
+      </c>
+      <c r="G165" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="166" ht="12.8">
+      <c r="A166" s="7">
+        <v>600</v>
+      </c>
+      <c r="B166" s="7">
+        <v>3</v>
+      </c>
+      <c r="D166" s="7">
+        <v>1622</v>
+      </c>
+      <c r="E166" s="7">
         <v>4</v>
       </c>
-      <c r="D115" s="0">
-        <v>0</v>
-      </c>
-      <c r="E115" s="0">
-        <v>0</v>
-      </c>
-      <c r="F115" s="0">
-        <v>0</v>
-      </c>
-      <c r="G115" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="0">
-        <v>550</v>
-      </c>
-      <c r="B116" s="0">
-        <v>3</v>
-      </c>
-      <c r="D116" s="0">
-        <v>802</v>
-      </c>
-      <c r="E116" s="0">
-        <v>0</v>
-      </c>
-      <c r="F116" s="0">
-        <v>802</v>
-      </c>
-      <c r="G116" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="0">
-        <v>551</v>
-      </c>
-      <c r="B117" s="0">
+      <c r="F166" s="7">
+        <v>1618</v>
+      </c>
+      <c r="G166" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="167" ht="12.8">
+      <c r="A167" s="7">
+        <v>601</v>
+      </c>
+      <c r="B167" s="7">
+        <v>3</v>
+      </c>
+      <c r="D167" s="7">
+        <v>1017</v>
+      </c>
+      <c r="E167" s="7">
+        <v>999</v>
+      </c>
+      <c r="F167" s="7">
+        <v>18</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="168" ht="12.8">
+      <c r="A168" s="7">
+        <v>602</v>
+      </c>
+      <c r="B168" s="7">
+        <v>3</v>
+      </c>
+      <c r="D168" s="7">
+        <v>309</v>
+      </c>
+      <c r="E168" s="7">
+        <v>0</v>
+      </c>
+      <c r="F168" s="7">
+        <v>309</v>
+      </c>
+      <c r="G168" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="169" ht="12.8">
+      <c r="A169" s="7">
+        <v>603</v>
+      </c>
+      <c r="B169" s="7">
+        <v>3</v>
+      </c>
+      <c r="D169" s="7">
+        <v>175</v>
+      </c>
+      <c r="E169" s="7">
+        <v>171</v>
+      </c>
+      <c r="F169" s="7">
         <v>4</v>
       </c>
-      <c r="D117" s="0">
-        <v>0</v>
-      </c>
-      <c r="E117" s="0">
-        <v>0</v>
-      </c>
-      <c r="F117" s="0">
-        <v>0</v>
-      </c>
-      <c r="G117" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="0">
-        <v>552</v>
-      </c>
-      <c r="B118" s="0">
+      <c r="G169" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="170" ht="12.8">
+      <c r="A170" s="7">
+        <v>604</v>
+      </c>
+      <c r="B170" s="7">
+        <v>1</v>
+      </c>
+      <c r="D170" s="7">
+        <v>0</v>
+      </c>
+      <c r="E170" s="7">
+        <v>0</v>
+      </c>
+      <c r="F170" s="7">
+        <v>0</v>
+      </c>
+      <c r="G170" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="171" ht="12.8">
+      <c r="A171" s="7">
+        <v>605</v>
+      </c>
+      <c r="B171" s="7">
+        <v>3</v>
+      </c>
+      <c r="D171" s="7">
+        <v>0</v>
+      </c>
+      <c r="E171" s="7">
+        <v>13937</v>
+      </c>
+      <c r="F171" s="7">
+        <v>11595</v>
+      </c>
+      <c r="G171" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="172" ht="12.8">
+      <c r="A172" s="7">
+        <v>606</v>
+      </c>
+      <c r="B172" s="7">
+        <v>3</v>
+      </c>
+      <c r="D172" s="7">
+        <v>25532</v>
+      </c>
+      <c r="E172" s="7">
+        <v>0</v>
+      </c>
+      <c r="F172" s="7">
+        <v>25532</v>
+      </c>
+      <c r="G172" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="173" ht="12.8">
+      <c r="A173" s="7">
+        <v>607</v>
+      </c>
+      <c r="B173" s="7">
+        <v>3</v>
+      </c>
+      <c r="D173" s="7">
+        <v>2008</v>
+      </c>
+      <c r="E173" s="7">
+        <v>844</v>
+      </c>
+      <c r="F173" s="7">
+        <v>1164</v>
+      </c>
+      <c r="G173" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="174" ht="12.8">
+      <c r="A174" s="7">
+        <v>608</v>
+      </c>
+      <c r="B174" s="7">
+        <v>3</v>
+      </c>
+      <c r="D174" s="7">
+        <v>0</v>
+      </c>
+      <c r="E174" s="7">
+        <v>0</v>
+      </c>
+      <c r="F174" s="7">
+        <v>0</v>
+      </c>
+      <c r="G174" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="175" ht="12.8">
+      <c r="A175" s="7">
+        <v>609</v>
+      </c>
+      <c r="B175" s="7">
+        <v>3</v>
+      </c>
+      <c r="D175" s="7">
+        <v>1948</v>
+      </c>
+      <c r="E175" s="7">
+        <v>1935</v>
+      </c>
+      <c r="F175" s="7">
+        <v>13</v>
+      </c>
+      <c r="G175" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="176" ht="12.8">
+      <c r="A176" s="7">
+        <v>610</v>
+      </c>
+      <c r="B176" s="7">
+        <v>3</v>
+      </c>
+      <c r="D176" s="7">
+        <v>2771</v>
+      </c>
+      <c r="E176" s="7">
+        <v>1821</v>
+      </c>
+      <c r="F176" s="7">
+        <v>950</v>
+      </c>
+      <c r="G176" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="177" ht="12.8">
+      <c r="A177" s="7">
+        <v>611</v>
+      </c>
+      <c r="B177" s="7">
+        <v>3</v>
+      </c>
+      <c r="D177" s="7">
+        <v>67</v>
+      </c>
+      <c r="E177" s="7">
+        <v>0</v>
+      </c>
+      <c r="F177" s="7">
+        <v>67</v>
+      </c>
+      <c r="G177" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="178" ht="12.8">
+      <c r="A178" s="7">
+        <v>612</v>
+      </c>
+      <c r="B178" s="7">
+        <v>3</v>
+      </c>
+      <c r="D178" s="7">
+        <v>340</v>
+      </c>
+      <c r="E178" s="7">
+        <v>0</v>
+      </c>
+      <c r="F178" s="7">
+        <v>340</v>
+      </c>
+      <c r="G178" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="179" ht="12.8">
+      <c r="A179" s="7">
+        <v>613</v>
+      </c>
+      <c r="B179" s="7">
+        <v>3</v>
+      </c>
+      <c r="D179" s="7">
+        <v>34095</v>
+      </c>
+      <c r="E179" s="7">
+        <v>0</v>
+      </c>
+      <c r="F179" s="7">
+        <v>34095</v>
+      </c>
+      <c r="G179" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="180" ht="12.8">
+      <c r="A180" s="7">
+        <v>614</v>
+      </c>
+      <c r="B180" s="7">
+        <v>3</v>
+      </c>
+      <c r="D180" s="7">
+        <v>2005</v>
+      </c>
+      <c r="E180" s="7">
+        <v>1273</v>
+      </c>
+      <c r="F180" s="7">
+        <v>732</v>
+      </c>
+      <c r="G180" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="181" ht="12.8">
+      <c r="A181" s="7">
+        <v>615</v>
+      </c>
+      <c r="B181" s="7">
+        <v>3</v>
+      </c>
+      <c r="D181" s="7">
+        <v>4449</v>
+      </c>
+      <c r="E181" s="7">
+        <v>0</v>
+      </c>
+      <c r="F181" s="7">
+        <v>4449</v>
+      </c>
+      <c r="G181" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="182" ht="12.8">
+      <c r="A182" s="7">
+        <v>616</v>
+      </c>
+      <c r="B182" s="7">
+        <v>3</v>
+      </c>
+      <c r="D182" s="7">
+        <v>4449</v>
+      </c>
+      <c r="E182" s="7">
+        <v>0</v>
+      </c>
+      <c r="F182" s="7">
+        <v>4449</v>
+      </c>
+      <c r="G182" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="183" ht="12.8">
+      <c r="A183" s="7">
+        <v>617</v>
+      </c>
+      <c r="B183" s="7">
+        <v>3</v>
+      </c>
+      <c r="D183" s="7">
+        <v>4449</v>
+      </c>
+      <c r="E183" s="7">
+        <v>0</v>
+      </c>
+      <c r="F183" s="7">
+        <v>4449</v>
+      </c>
+      <c r="G183" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="184" ht="12.8">
+      <c r="A184" s="7">
+        <v>618</v>
+      </c>
+      <c r="B184" s="7">
+        <v>1</v>
+      </c>
+      <c r="D184" s="7">
+        <v>1282</v>
+      </c>
+      <c r="E184" s="7">
+        <v>0</v>
+      </c>
+      <c r="F184" s="7">
+        <v>714</v>
+      </c>
+      <c r="G184" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="185" ht="12.8">
+      <c r="A185" s="7">
+        <v>619</v>
+      </c>
+      <c r="B185" s="7">
+        <v>3</v>
+      </c>
+      <c r="D185" s="7">
+        <v>3195</v>
+      </c>
+      <c r="E185" s="7">
+        <v>0</v>
+      </c>
+      <c r="F185" s="7">
+        <v>3195</v>
+      </c>
+      <c r="G185" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="186" ht="12.8">
+      <c r="A186" s="7">
+        <v>620</v>
+      </c>
+      <c r="B186" s="7">
+        <v>3</v>
+      </c>
+      <c r="D186" s="7">
+        <v>1949</v>
+      </c>
+      <c r="E186" s="7">
+        <v>0</v>
+      </c>
+      <c r="F186" s="7">
+        <v>1949</v>
+      </c>
+      <c r="G186" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="187" ht="12.8">
+      <c r="A187" s="7">
+        <v>621</v>
+      </c>
+      <c r="B187" s="7">
+        <v>3</v>
+      </c>
+      <c r="D187" s="7">
+        <v>2251</v>
+      </c>
+      <c r="E187" s="7">
+        <v>0</v>
+      </c>
+      <c r="F187" s="7">
+        <v>2251</v>
+      </c>
+      <c r="G187" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="188" ht="12.8">
+      <c r="A188" s="7">
+        <v>622</v>
+      </c>
+      <c r="B188" s="7">
+        <v>3</v>
+      </c>
+      <c r="D188" s="7">
+        <v>2601</v>
+      </c>
+      <c r="E188" s="7">
+        <v>0</v>
+      </c>
+      <c r="F188" s="7">
+        <v>2601</v>
+      </c>
+      <c r="G188" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="189" ht="12.8">
+      <c r="A189" s="7">
+        <v>623</v>
+      </c>
+      <c r="B189" s="7">
+        <v>3</v>
+      </c>
+      <c r="D189" s="7">
+        <v>3295</v>
+      </c>
+      <c r="E189" s="7">
+        <v>91</v>
+      </c>
+      <c r="F189" s="7">
+        <v>3204</v>
+      </c>
+      <c r="G189" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="190" ht="12.8">
+      <c r="A190" s="7">
+        <v>624</v>
+      </c>
+      <c r="B190" s="7">
+        <v>3</v>
+      </c>
+      <c r="D190" s="7">
+        <v>8628</v>
+      </c>
+      <c r="E190" s="7">
+        <v>0</v>
+      </c>
+      <c r="F190" s="7">
+        <v>8628</v>
+      </c>
+      <c r="G190" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="191" ht="12.8">
+      <c r="A191" s="7">
+        <v>625</v>
+      </c>
+      <c r="B191" s="7">
+        <v>3</v>
+      </c>
+      <c r="D191" s="7">
+        <v>5584</v>
+      </c>
+      <c r="E191" s="7">
+        <v>0</v>
+      </c>
+      <c r="F191" s="7">
+        <v>5584</v>
+      </c>
+      <c r="G191" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="192" ht="12.8">
+      <c r="A192" s="7">
+        <v>626</v>
+      </c>
+      <c r="B192" s="7">
+        <v>3</v>
+      </c>
+      <c r="D192" s="7">
+        <v>5584</v>
+      </c>
+      <c r="E192" s="7">
+        <v>0</v>
+      </c>
+      <c r="F192" s="7">
+        <v>5584</v>
+      </c>
+      <c r="G192" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="193" ht="12.8">
+      <c r="A193" s="7">
+        <v>627</v>
+      </c>
+      <c r="B193" s="7">
+        <v>3</v>
+      </c>
+      <c r="D193" s="7">
+        <v>1115</v>
+      </c>
+      <c r="E193" s="7">
+        <v>0</v>
+      </c>
+      <c r="F193" s="7">
+        <v>1115</v>
+      </c>
+      <c r="G193" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="194" ht="12.8">
+      <c r="A194" s="7">
+        <v>628</v>
+      </c>
+      <c r="B194" s="7">
+        <v>3</v>
+      </c>
+      <c r="D194" s="7">
+        <v>469</v>
+      </c>
+      <c r="E194" s="7">
+        <v>0</v>
+      </c>
+      <c r="F194" s="7">
+        <v>469</v>
+      </c>
+      <c r="G194" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="195" ht="12.8">
+      <c r="A195" s="7">
+        <v>629</v>
+      </c>
+      <c r="B195" s="7">
         <v>4</v>
       </c>
-      <c r="D118" s="0">
-        <v>0</v>
-      </c>
-      <c r="E118" s="0">
-        <v>0</v>
-      </c>
-      <c r="F118" s="0">
-        <v>0</v>
-      </c>
-      <c r="G118" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="0">
-        <v>553</v>
-      </c>
-      <c r="B119" s="0">
+      <c r="D195" s="7">
+        <v>0</v>
+      </c>
+      <c r="E195" s="7">
+        <v>0</v>
+      </c>
+      <c r="F195" s="7">
+        <v>0</v>
+      </c>
+      <c r="G195" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="196" ht="12.8">
+      <c r="A196" s="7">
+        <v>630</v>
+      </c>
+      <c r="B196" s="7">
+        <v>3</v>
+      </c>
+      <c r="D196" s="7">
+        <v>28</v>
+      </c>
+      <c r="E196" s="7">
+        <v>0</v>
+      </c>
+      <c r="F196" s="7">
+        <v>28</v>
+      </c>
+      <c r="G196" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="197" ht="12.8">
+      <c r="A197" s="7">
+        <v>631</v>
+      </c>
+      <c r="B197" s="7">
         <v>4</v>
       </c>
-      <c r="D119" s="0">
-        <v>0</v>
-      </c>
-      <c r="E119" s="0">
-        <v>0</v>
-      </c>
-      <c r="F119" s="0">
-        <v>0</v>
-      </c>
-      <c r="G119" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="0">
-        <v>554</v>
-      </c>
-      <c r="B120" s="0">
+      <c r="D197" s="7">
+        <v>47475</v>
+      </c>
+      <c r="E197" s="7">
+        <v>0</v>
+      </c>
+      <c r="F197" s="7">
+        <v>0</v>
+      </c>
+      <c r="G197" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="198" ht="12.8">
+      <c r="A198" s="7">
+        <v>632</v>
+      </c>
+      <c r="B198" s="7">
         <v>4</v>
       </c>
-      <c r="D120" s="0">
-        <v>0</v>
-      </c>
-      <c r="E120" s="0">
-        <v>0</v>
-      </c>
-      <c r="F120" s="0">
-        <v>0</v>
-      </c>
-      <c r="G120" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="0">
-        <v>555</v>
-      </c>
-      <c r="B121" s="0">
-        <v>3</v>
-      </c>
-      <c r="D121" s="0">
-        <v>1643</v>
-      </c>
-      <c r="E121" s="0">
-        <v>0</v>
-      </c>
-      <c r="F121" s="0">
-        <v>1643</v>
-      </c>
-      <c r="G121" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="0">
-        <v>556</v>
-      </c>
-      <c r="B122" s="0">
-        <v>3</v>
-      </c>
-      <c r="D122" s="0">
-        <v>1274</v>
-      </c>
-      <c r="E122" s="0">
-        <v>1263</v>
-      </c>
-      <c r="F122" s="0">
-        <v>11</v>
-      </c>
-      <c r="G122" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="0">
-        <v>557</v>
-      </c>
-      <c r="B123" s="0">
-        <v>3</v>
-      </c>
-      <c r="D123" s="0">
-        <v>186</v>
-      </c>
-      <c r="E123" s="0">
-        <v>182</v>
-      </c>
-      <c r="F123" s="0">
+      <c r="D198" s="7">
+        <v>35226</v>
+      </c>
+      <c r="E198" s="7">
+        <v>1994</v>
+      </c>
+      <c r="F198" s="7">
+        <v>32</v>
+      </c>
+      <c r="G198" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="199" ht="12.8">
+      <c r="A199" s="7">
+        <v>633</v>
+      </c>
+      <c r="B199" s="7">
+        <v>3</v>
+      </c>
+      <c r="D199" s="7">
+        <v>4449</v>
+      </c>
+      <c r="E199" s="7">
+        <v>0</v>
+      </c>
+      <c r="F199" s="7">
+        <v>4449</v>
+      </c>
+      <c r="G199" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="200" ht="12.8">
+      <c r="A200" s="7">
+        <v>634</v>
+      </c>
+      <c r="B200" s="7">
+        <v>3</v>
+      </c>
+      <c r="D200" s="7">
+        <v>4449</v>
+      </c>
+      <c r="E200" s="7">
+        <v>0</v>
+      </c>
+      <c r="F200" s="7">
+        <v>4449</v>
+      </c>
+      <c r="G200" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="201" ht="12.8">
+      <c r="A201" s="7">
+        <v>635</v>
+      </c>
+      <c r="B201" s="7">
+        <v>3</v>
+      </c>
+      <c r="D201" s="7">
+        <v>1395</v>
+      </c>
+      <c r="E201" s="7">
+        <v>0</v>
+      </c>
+      <c r="F201" s="7">
+        <v>1395</v>
+      </c>
+      <c r="G201" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="202" ht="12.8">
+      <c r="A202" s="7">
+        <v>636</v>
+      </c>
+      <c r="B202" s="7">
+        <v>3</v>
+      </c>
+      <c r="D202" s="7">
+        <v>2977</v>
+      </c>
+      <c r="E202" s="7">
+        <v>0</v>
+      </c>
+      <c r="F202" s="7">
+        <v>2977</v>
+      </c>
+      <c r="G202" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="203" ht="12.8">
+      <c r="A203" s="7">
+        <v>637</v>
+      </c>
+      <c r="B203" s="7">
+        <v>3</v>
+      </c>
+      <c r="D203" s="7">
+        <v>2995</v>
+      </c>
+      <c r="E203" s="7">
+        <v>0</v>
+      </c>
+      <c r="F203" s="7">
+        <v>2995</v>
+      </c>
+      <c r="G203" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="204" ht="12.8">
+      <c r="A204" s="7">
+        <v>638</v>
+      </c>
+      <c r="B204" s="7">
+        <v>3</v>
+      </c>
+      <c r="D204" s="7">
+        <v>2324</v>
+      </c>
+      <c r="E204" s="7">
+        <v>0</v>
+      </c>
+      <c r="F204" s="7">
+        <v>2324</v>
+      </c>
+      <c r="G204" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="205" ht="12.8">
+      <c r="A205" s="7">
+        <v>639</v>
+      </c>
+      <c r="B205" s="7">
+        <v>3</v>
+      </c>
+      <c r="D205" s="7">
+        <v>192980</v>
+      </c>
+      <c r="E205" s="7">
+        <v>0</v>
+      </c>
+      <c r="F205" s="7">
+        <v>192980</v>
+      </c>
+      <c r="G205" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="206" ht="12.8">
+      <c r="A206" s="7">
+        <v>640</v>
+      </c>
+      <c r="B206" s="7">
+        <v>3</v>
+      </c>
+      <c r="D206" s="7">
+        <v>28279</v>
+      </c>
+      <c r="E206" s="7">
+        <v>10</v>
+      </c>
+      <c r="F206" s="7">
+        <v>28269</v>
+      </c>
+      <c r="G206" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="207" ht="12.8">
+      <c r="A207" s="7">
+        <v>641</v>
+      </c>
+      <c r="B207" s="7">
+        <v>3</v>
+      </c>
+      <c r="D207" s="7">
+        <v>11690</v>
+      </c>
+      <c r="E207" s="7">
+        <v>0</v>
+      </c>
+      <c r="F207" s="7">
+        <v>11690</v>
+      </c>
+      <c r="G207" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="208" ht="12.8">
+      <c r="A208" s="7">
+        <v>642</v>
+      </c>
+      <c r="B208" s="7">
+        <v>3</v>
+      </c>
+      <c r="D208" s="7">
+        <v>1355</v>
+      </c>
+      <c r="E208" s="7">
+        <v>0</v>
+      </c>
+      <c r="F208" s="7">
+        <v>1355</v>
+      </c>
+      <c r="G208" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="209" ht="12.8">
+      <c r="A209" s="7">
+        <v>643</v>
+      </c>
+      <c r="B209" s="7">
+        <v>3</v>
+      </c>
+      <c r="D209" s="7">
+        <v>320</v>
+      </c>
+      <c r="E209" s="7">
+        <v>319</v>
+      </c>
+      <c r="F209" s="7">
+        <v>1</v>
+      </c>
+      <c r="G209" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="210" ht="12.8">
+      <c r="A210" s="7">
+        <v>644</v>
+      </c>
+      <c r="B210" s="7">
+        <v>3</v>
+      </c>
+      <c r="D210" s="7">
+        <v>180</v>
+      </c>
+      <c r="E210" s="7">
+        <v>103</v>
+      </c>
+      <c r="F210" s="7">
+        <v>77</v>
+      </c>
+      <c r="G210" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="211" ht="12.8">
+      <c r="A211" s="7">
+        <v>645</v>
+      </c>
+      <c r="B211" s="7">
+        <v>3</v>
+      </c>
+      <c r="D211" s="7">
+        <v>2118</v>
+      </c>
+      <c r="E211" s="7">
+        <v>357</v>
+      </c>
+      <c r="F211" s="7">
+        <v>1761</v>
+      </c>
+      <c r="G211" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="212" ht="12.8">
+      <c r="A212" s="7">
+        <v>646</v>
+      </c>
+      <c r="B212" s="7">
         <v>4</v>
       </c>
-      <c r="G123" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="0">
-        <v>558</v>
-      </c>
-      <c r="B124" s="0">
-        <v>3</v>
-      </c>
-      <c r="D124" s="0">
-        <v>665</v>
-      </c>
-      <c r="E124" s="0">
-        <v>663</v>
-      </c>
-      <c r="F124" s="0">
+      <c r="D212" s="7">
+        <v>7726</v>
+      </c>
+      <c r="E212" s="7">
+        <v>2275</v>
+      </c>
+      <c r="F212" s="7">
+        <v>468</v>
+      </c>
+      <c r="G212" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="213" ht="12.8">
+      <c r="A213" s="7">
+        <v>647</v>
+      </c>
+      <c r="B213" s="7">
+        <v>3</v>
+      </c>
+      <c r="D213" s="7">
+        <v>3030</v>
+      </c>
+      <c r="E213" s="7">
+        <v>404</v>
+      </c>
+      <c r="F213" s="7">
+        <v>2626</v>
+      </c>
+      <c r="G213" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="214" ht="12.8">
+      <c r="A214" s="7">
+        <v>648</v>
+      </c>
+      <c r="B214" s="7">
+        <v>1</v>
+      </c>
+      <c r="D214" s="7">
+        <v>10182</v>
+      </c>
+      <c r="E214" s="7">
+        <v>280</v>
+      </c>
+      <c r="F214" s="7">
+        <v>9666</v>
+      </c>
+      <c r="G214" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="215" ht="12.8">
+      <c r="A215" s="7">
+        <v>649</v>
+      </c>
+      <c r="B215" s="7">
+        <v>3</v>
+      </c>
+      <c r="D215" s="7">
+        <v>3529</v>
+      </c>
+      <c r="E215" s="7">
+        <v>2519</v>
+      </c>
+      <c r="F215" s="7">
+        <v>1010</v>
+      </c>
+      <c r="G215" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="216" ht="12.8">
+      <c r="A216" s="7">
+        <v>650</v>
+      </c>
+      <c r="B216" s="7">
+        <v>4</v>
+      </c>
+      <c r="D216" s="7">
+        <v>0</v>
+      </c>
+      <c r="E216" s="7">
+        <v>0</v>
+      </c>
+      <c r="F216" s="7">
+        <v>0</v>
+      </c>
+      <c r="G216" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="217" ht="12.8">
+      <c r="A217" s="7">
+        <v>651</v>
+      </c>
+      <c r="B217" s="7">
+        <v>3</v>
+      </c>
+      <c r="D217" s="7">
+        <v>173</v>
+      </c>
+      <c r="E217" s="7">
+        <v>101</v>
+      </c>
+      <c r="F217" s="7">
+        <v>72</v>
+      </c>
+      <c r="G217" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="218" ht="12.8">
+      <c r="A218" s="7">
+        <v>652</v>
+      </c>
+      <c r="B218" s="7">
+        <v>3</v>
+      </c>
+      <c r="D218" s="7">
+        <v>3843</v>
+      </c>
+      <c r="E218" s="7">
+        <v>0</v>
+      </c>
+      <c r="F218" s="7">
+        <v>3843</v>
+      </c>
+      <c r="G218" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="219" ht="12.8">
+      <c r="A219" s="7">
+        <v>653</v>
+      </c>
+      <c r="B219" s="7">
+        <v>3</v>
+      </c>
+      <c r="D219" s="7">
+        <v>106</v>
+      </c>
+      <c r="E219" s="7">
+        <v>0</v>
+      </c>
+      <c r="F219" s="7">
+        <v>0</v>
+      </c>
+      <c r="G219" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="220" ht="12.8">
+      <c r="A220" s="7">
+        <v>654</v>
+      </c>
+      <c r="B220" s="7">
+        <v>1</v>
+      </c>
+      <c r="D220" s="7">
+        <v>192980</v>
+      </c>
+      <c r="E220" s="7">
+        <v>336</v>
+      </c>
+      <c r="F220" s="7">
+        <v>103051</v>
+      </c>
+      <c r="G220" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="221" ht="12.8">
+      <c r="A221" s="7">
+        <v>655</v>
+      </c>
+      <c r="B221" s="7">
+        <v>1</v>
+      </c>
+      <c r="D221" s="0">
+        <v>0</v>
+      </c>
+      <c r="E221" s="0">
+        <v>27672</v>
+      </c>
+      <c r="F221" s="0">
+        <v>1056</v>
+      </c>
+      <c r="G221" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="0">
+        <v>657</v>
+      </c>
+      <c r="B222" s="0">
+        <v>3</v>
+      </c>
+      <c r="D222" s="0">
+        <v>0</v>
+      </c>
+      <c r="E222" s="0">
+        <v>0</v>
+      </c>
+      <c r="F222" s="0">
+        <v>0</v>
+      </c>
+      <c r="G222" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="0">
+        <v>658</v>
+      </c>
+      <c r="B223" s="0">
+        <v>3</v>
+      </c>
+      <c r="D223" s="0">
+        <v>5</v>
+      </c>
+      <c r="E223" s="0">
+        <v>1</v>
+      </c>
+      <c r="F223" s="0">
+        <v>4</v>
+      </c>
+      <c r="G223" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="0">
+        <v>659</v>
+      </c>
+      <c r="B224" s="0">
+        <v>3</v>
+      </c>
+      <c r="D224" s="0">
         <v>2</v>
       </c>
-      <c r="G124" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="0">
-        <v>559</v>
-      </c>
-      <c r="B125" s="0">
-        <v>3</v>
-      </c>
-      <c r="D125" s="0">
-        <v>1841</v>
-      </c>
-      <c r="E125" s="0">
-        <v>0</v>
-      </c>
-      <c r="F125" s="0">
-        <v>1841</v>
-      </c>
-      <c r="G125" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="0">
-        <v>560</v>
-      </c>
-      <c r="B126" s="0">
-        <v>3</v>
-      </c>
-      <c r="D126" s="0">
-        <v>1841</v>
-      </c>
-      <c r="E126" s="0">
-        <v>214</v>
-      </c>
-      <c r="F126" s="0">
-        <v>1627</v>
-      </c>
-      <c r="G126" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="0">
-        <v>561</v>
-      </c>
-      <c r="B127" s="0">
-        <v>3</v>
-      </c>
-      <c r="D127" s="0">
-        <v>2445</v>
-      </c>
-      <c r="E127" s="0">
-        <v>0</v>
-      </c>
-      <c r="F127" s="0">
-        <v>2445</v>
-      </c>
-      <c r="G127" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="0">
-        <v>562</v>
-      </c>
-      <c r="B128" s="0">
-        <v>3</v>
-      </c>
-      <c r="D128" s="0">
-        <v>7249</v>
-      </c>
-      <c r="E128" s="0">
-        <v>5413</v>
-      </c>
-      <c r="F128" s="0">
-        <v>1836</v>
-      </c>
-      <c r="G128" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="0">
-        <v>563</v>
-      </c>
-      <c r="B129" s="0">
-        <v>3</v>
-      </c>
-      <c r="D129" s="0">
-        <v>15059</v>
-      </c>
-      <c r="E129" s="0">
-        <v>0</v>
-      </c>
-      <c r="F129" s="0">
-        <v>15059</v>
-      </c>
-      <c r="G129" s="0" t="s">
+      <c r="E224" s="0">
+        <v>0</v>
+      </c>
+      <c r="F224" s="0">
+        <v>2</v>
+      </c>
+      <c r="G224" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="0">
+        <v>660</v>
+      </c>
+      <c r="B225" s="0">
+        <v>3</v>
+      </c>
+      <c r="D225" s="0">
+        <v>307</v>
+      </c>
+      <c r="E225" s="0">
+        <v>297</v>
+      </c>
+      <c r="F225" s="0">
         <v>10</v>
       </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="0">
-        <v>564</v>
-      </c>
-      <c r="B130" s="0">
-        <v>3</v>
-      </c>
-      <c r="D130" s="0">
-        <v>9107</v>
-      </c>
-      <c r="E130" s="0">
-        <v>8918</v>
-      </c>
-      <c r="F130" s="0">
-        <v>189</v>
-      </c>
-      <c r="G130" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="0">
-        <v>565</v>
-      </c>
-      <c r="B131" s="0">
-        <v>3</v>
-      </c>
-      <c r="D131" s="0">
-        <v>4773</v>
-      </c>
-      <c r="E131" s="0">
-        <v>0</v>
-      </c>
-      <c r="F131" s="0">
-        <v>4773</v>
-      </c>
-      <c r="G131" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="0">
-        <v>566</v>
-      </c>
-      <c r="B132" s="0">
-        <v>3</v>
-      </c>
-      <c r="D132" s="0">
-        <v>20969</v>
-      </c>
-      <c r="E132" s="0">
-        <v>3</v>
-      </c>
-      <c r="F132" s="0">
-        <v>20966</v>
-      </c>
-      <c r="G132" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="0">
-        <v>567</v>
-      </c>
-      <c r="B133" s="0">
-        <v>3</v>
-      </c>
-      <c r="D133" s="0">
-        <v>8779</v>
-      </c>
-      <c r="E133" s="0">
-        <v>0</v>
-      </c>
-      <c r="F133" s="0">
-        <v>8779</v>
-      </c>
-      <c r="G133" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="0">
-        <v>568</v>
-      </c>
-      <c r="B134" s="0">
-        <v>3</v>
-      </c>
-      <c r="D134" s="0">
-        <v>12174</v>
-      </c>
-      <c r="E134" s="0">
-        <v>0</v>
-      </c>
-      <c r="F134" s="0">
-        <v>12174</v>
-      </c>
-      <c r="G134" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="0">
-        <v>569</v>
-      </c>
-      <c r="B135" s="0">
-        <v>3</v>
-      </c>
-      <c r="D135" s="0">
-        <v>3955</v>
-      </c>
-      <c r="E135" s="0">
-        <v>2</v>
-      </c>
-      <c r="F135" s="0">
-        <v>3953</v>
-      </c>
-      <c r="G135" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="0">
-        <v>570</v>
-      </c>
-      <c r="B136" s="0">
-        <v>3</v>
-      </c>
-      <c r="D136" s="0">
-        <v>11172</v>
-      </c>
-      <c r="E136" s="0">
-        <v>0</v>
-      </c>
-      <c r="F136" s="0">
-        <v>11172</v>
-      </c>
-      <c r="G136" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="0">
-        <v>571</v>
-      </c>
-      <c r="B137" s="0">
-        <v>3</v>
-      </c>
-      <c r="D137" s="0">
-        <v>3100</v>
-      </c>
-      <c r="E137" s="0">
-        <v>0</v>
-      </c>
-      <c r="F137" s="0">
-        <v>3100</v>
-      </c>
-      <c r="G137" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="0">
-        <v>572</v>
-      </c>
-      <c r="B138" s="0">
-        <v>3</v>
-      </c>
-      <c r="D138" s="0">
-        <v>6536</v>
-      </c>
-      <c r="E138" s="0">
-        <v>3525</v>
-      </c>
-      <c r="F138" s="0">
-        <v>3011</v>
-      </c>
-      <c r="G138" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="0">
-        <v>573</v>
-      </c>
-      <c r="B139" s="0">
-        <v>3</v>
-      </c>
-      <c r="D139" s="0">
-        <v>0</v>
-      </c>
-      <c r="E139" s="0">
-        <v>0</v>
-      </c>
-      <c r="F139" s="0">
-        <v>0</v>
-      </c>
-      <c r="G139" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="0">
-        <v>574</v>
-      </c>
-      <c r="B140" s="0">
-        <v>3</v>
-      </c>
-      <c r="D140" s="0">
-        <v>5595</v>
-      </c>
-      <c r="E140" s="0">
-        <v>4181</v>
-      </c>
-      <c r="F140" s="0">
-        <v>1414</v>
-      </c>
-      <c r="G140" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="0">
-        <v>575</v>
-      </c>
-      <c r="B141" s="0">
-        <v>3</v>
-      </c>
-      <c r="D141" s="0">
-        <v>25005</v>
-      </c>
-      <c r="E141" s="0">
-        <v>0</v>
-      </c>
-      <c r="F141" s="0">
-        <v>25005</v>
-      </c>
-      <c r="G141" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="0">
-        <v>576</v>
-      </c>
-      <c r="B142" s="0">
-        <v>3</v>
-      </c>
-      <c r="D142" s="0">
-        <v>4341</v>
-      </c>
-      <c r="E142" s="0">
-        <v>0</v>
-      </c>
-      <c r="F142" s="0">
-        <v>4341</v>
-      </c>
-      <c r="G142" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="0">
-        <v>577</v>
-      </c>
-      <c r="B143" s="0">
-        <v>3</v>
-      </c>
-      <c r="D143" s="0">
-        <v>4449</v>
-      </c>
-      <c r="E143" s="0">
-        <v>0</v>
-      </c>
-      <c r="F143" s="0">
-        <v>4449</v>
-      </c>
-      <c r="G143" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="0">
-        <v>578</v>
-      </c>
-      <c r="B144" s="0">
-        <v>3</v>
-      </c>
-      <c r="D144" s="0">
-        <v>4449</v>
-      </c>
-      <c r="E144" s="0">
-        <v>0</v>
-      </c>
-      <c r="F144" s="0">
-        <v>4449</v>
-      </c>
-      <c r="G144" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="0">
-        <v>579</v>
-      </c>
-      <c r="B145" s="0">
-        <v>3</v>
-      </c>
-      <c r="D145" s="0">
-        <v>193</v>
-      </c>
-      <c r="E145" s="0">
-        <v>188</v>
-      </c>
-      <c r="F145" s="0">
-        <v>5</v>
-      </c>
-      <c r="G145" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="0">
-        <v>580</v>
-      </c>
-      <c r="B146" s="0">
-        <v>3</v>
-      </c>
-      <c r="D146" s="0">
-        <v>1841</v>
-      </c>
-      <c r="E146" s="0">
-        <v>0</v>
-      </c>
-      <c r="F146" s="0">
-        <v>1841</v>
-      </c>
-      <c r="G146" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="0">
-        <v>581</v>
-      </c>
-      <c r="B147" s="0">
-        <v>3</v>
-      </c>
-      <c r="D147" s="0">
-        <v>1841</v>
-      </c>
-      <c r="E147" s="0">
-        <v>0</v>
-      </c>
-      <c r="F147" s="0">
-        <v>1841</v>
-      </c>
-      <c r="G147" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="0">
-        <v>582</v>
-      </c>
-      <c r="B148" s="0">
-        <v>3</v>
-      </c>
-      <c r="D148" s="0">
-        <v>1841</v>
-      </c>
-      <c r="E148" s="0">
-        <v>0</v>
-      </c>
-      <c r="F148" s="0">
-        <v>1841</v>
-      </c>
-      <c r="G148" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="0">
-        <v>583</v>
-      </c>
-      <c r="B149" s="0">
-        <v>3</v>
-      </c>
-      <c r="D149" s="0">
-        <v>1841</v>
-      </c>
-      <c r="E149" s="0">
-        <v>0</v>
-      </c>
-      <c r="F149" s="0">
-        <v>1841</v>
-      </c>
-      <c r="G149" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="0">
-        <v>584</v>
-      </c>
-      <c r="B150" s="0">
-        <v>3</v>
-      </c>
-      <c r="D150" s="0">
-        <v>1841</v>
-      </c>
-      <c r="E150" s="0">
-        <v>0</v>
-      </c>
-      <c r="F150" s="0">
-        <v>1841</v>
-      </c>
-      <c r="G150" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="0">
-        <v>585</v>
-      </c>
-      <c r="B151" s="0">
-        <v>3</v>
-      </c>
-      <c r="D151" s="0">
-        <v>55</v>
-      </c>
-      <c r="E151" s="0">
-        <v>0</v>
-      </c>
-      <c r="F151" s="0">
-        <v>55</v>
-      </c>
-      <c r="G151" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="0">
-        <v>586</v>
-      </c>
-      <c r="B152" s="0">
-        <v>3</v>
-      </c>
-      <c r="D152" s="0">
-        <v>897</v>
-      </c>
-      <c r="E152" s="0">
-        <v>0</v>
-      </c>
-      <c r="F152" s="0">
-        <v>897</v>
-      </c>
-      <c r="G152" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="0">
-        <v>587</v>
-      </c>
-      <c r="B153" s="0">
-        <v>3</v>
-      </c>
-      <c r="D153" s="0">
-        <v>2169</v>
-      </c>
-      <c r="E153" s="0">
-        <v>0</v>
-      </c>
-      <c r="F153" s="0">
-        <v>2169</v>
-      </c>
-      <c r="G153" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="0">
-        <v>588</v>
-      </c>
-      <c r="B154" s="0">
-        <v>3</v>
-      </c>
-      <c r="D154" s="0">
-        <v>12017</v>
-      </c>
-      <c r="E154" s="0">
-        <v>0</v>
-      </c>
-      <c r="F154" s="0">
-        <v>12017</v>
-      </c>
-      <c r="G154" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="0">
-        <v>589</v>
-      </c>
-      <c r="B155" s="0">
-        <v>3</v>
-      </c>
-      <c r="D155" s="0">
-        <v>592</v>
-      </c>
-      <c r="E155" s="0">
-        <v>0</v>
-      </c>
-      <c r="F155" s="0">
-        <v>592</v>
-      </c>
-      <c r="G155" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="0">
-        <v>590</v>
-      </c>
-      <c r="B156" s="0">
-        <v>3</v>
-      </c>
-      <c r="D156" s="0">
-        <v>267</v>
-      </c>
-      <c r="E156" s="0">
-        <v>262</v>
-      </c>
-      <c r="F156" s="0">
-        <v>5</v>
-      </c>
-      <c r="G156" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="0">
-        <v>591</v>
-      </c>
-      <c r="B157" s="0">
-        <v>3</v>
-      </c>
-      <c r="D157" s="0">
-        <v>445</v>
-      </c>
-      <c r="E157" s="0">
-        <v>0</v>
-      </c>
-      <c r="F157" s="0">
-        <v>445</v>
-      </c>
-      <c r="G157" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="0">
-        <v>592</v>
-      </c>
-      <c r="B158" s="0">
-        <v>3</v>
-      </c>
-      <c r="D158" s="0">
-        <v>427</v>
-      </c>
-      <c r="E158" s="0">
-        <v>420</v>
-      </c>
-      <c r="F158" s="0">
-        <v>7</v>
-      </c>
-      <c r="G158" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="0">
-        <v>593</v>
-      </c>
-      <c r="B159" s="0">
-        <v>3</v>
-      </c>
-      <c r="D159" s="0">
-        <v>542</v>
-      </c>
-      <c r="E159" s="0">
-        <v>0</v>
-      </c>
-      <c r="F159" s="0">
-        <v>542</v>
-      </c>
-      <c r="G159" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="0">
-        <v>594</v>
-      </c>
-      <c r="B160" s="0">
-        <v>3</v>
-      </c>
-      <c r="D160" s="0">
-        <v>646</v>
-      </c>
-      <c r="E160" s="0">
-        <v>141</v>
-      </c>
-      <c r="F160" s="0">
-        <v>505</v>
-      </c>
-      <c r="G160" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="0">
-        <v>595</v>
-      </c>
-      <c r="B161" s="0">
-        <v>3</v>
-      </c>
-      <c r="D161" s="0">
-        <v>463</v>
-      </c>
-      <c r="E161" s="0">
-        <v>0</v>
-      </c>
-      <c r="F161" s="0">
-        <v>463</v>
-      </c>
-      <c r="G161" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="0">
-        <v>596</v>
-      </c>
-      <c r="B162" s="0">
+      <c r="G225" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="0">
+        <v>662</v>
+      </c>
+      <c r="B226" s="0">
         <v>1</v>
       </c>
-      <c r="D162" s="0">
-        <v>0</v>
-      </c>
-      <c r="E162" s="0">
-        <v>2888</v>
-      </c>
-      <c r="F162" s="0">
-        <v>38</v>
-      </c>
-      <c r="G162" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="0">
-        <v>597</v>
-      </c>
-      <c r="B163" s="0">
-        <v>3</v>
-      </c>
-      <c r="D163" s="0">
-        <v>1450</v>
-      </c>
-      <c r="E163" s="0">
-        <v>1423</v>
-      </c>
-      <c r="F163" s="0">
-        <v>27</v>
-      </c>
-      <c r="G163" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="0">
-        <v>598</v>
-      </c>
-      <c r="B164" s="0">
-        <v>3</v>
-      </c>
-      <c r="D164" s="0">
-        <v>2807</v>
-      </c>
-      <c r="E164" s="0">
-        <v>0</v>
-      </c>
-      <c r="F164" s="0">
-        <v>2807</v>
-      </c>
-      <c r="G164" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="0">
-        <v>599</v>
-      </c>
-      <c r="B165" s="0">
-        <v>3</v>
-      </c>
-      <c r="D165" s="0">
-        <v>1622</v>
-      </c>
-      <c r="E165" s="0">
-        <v>2</v>
-      </c>
-      <c r="F165" s="0">
-        <v>1620</v>
-      </c>
-      <c r="G165" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="0">
-        <v>600</v>
-      </c>
-      <c r="B166" s="0">
-        <v>3</v>
-      </c>
-      <c r="D166" s="0">
-        <v>1622</v>
-      </c>
-      <c r="E166" s="0">
-        <v>4</v>
-      </c>
-      <c r="F166" s="0">
-        <v>1618</v>
-      </c>
-      <c r="G166" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="0">
-        <v>601</v>
-      </c>
-      <c r="B167" s="0">
-        <v>3</v>
-      </c>
-      <c r="D167" s="0">
-        <v>1017</v>
-      </c>
-      <c r="E167" s="0">
-        <v>999</v>
-      </c>
-      <c r="F167" s="0">
-        <v>18</v>
-      </c>
-      <c r="G167" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="0">
-        <v>602</v>
-      </c>
-      <c r="B168" s="0">
-        <v>3</v>
-      </c>
-      <c r="D168" s="0">
-        <v>309</v>
-      </c>
-      <c r="E168" s="0">
-        <v>0</v>
-      </c>
-      <c r="F168" s="0">
-        <v>309</v>
-      </c>
-      <c r="G168" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="0">
-        <v>603</v>
-      </c>
-      <c r="B169" s="0">
-        <v>3</v>
-      </c>
-      <c r="D169" s="0">
-        <v>175</v>
-      </c>
-      <c r="E169" s="0">
-        <v>171</v>
-      </c>
-      <c r="F169" s="0">
-        <v>4</v>
-      </c>
-      <c r="G169" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="0">
-        <v>604</v>
-      </c>
-      <c r="B170" s="0">
-        <v>4</v>
-      </c>
-      <c r="D170" s="0">
-        <v>0</v>
-      </c>
-      <c r="E170" s="0">
-        <v>0</v>
-      </c>
-      <c r="F170" s="0">
-        <v>0</v>
-      </c>
-      <c r="G170" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="0">
-        <v>605</v>
-      </c>
-      <c r="B171" s="0">
-        <v>1</v>
-      </c>
-      <c r="D171" s="0">
-        <v>0</v>
-      </c>
-      <c r="E171" s="0">
-        <v>4497</v>
-      </c>
-      <c r="F171" s="0">
-        <v>2658</v>
-      </c>
-      <c r="G171" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="0">
-        <v>606</v>
-      </c>
-      <c r="B172" s="0">
-        <v>3</v>
-      </c>
-      <c r="D172" s="0">
-        <v>25532</v>
-      </c>
-      <c r="E172" s="0">
-        <v>0</v>
-      </c>
-      <c r="F172" s="0">
-        <v>25532</v>
-      </c>
-      <c r="G172" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="0">
-        <v>607</v>
-      </c>
-      <c r="B173" s="0">
-        <v>3</v>
-      </c>
-      <c r="D173" s="0">
-        <v>2008</v>
-      </c>
-      <c r="E173" s="0">
-        <v>844</v>
-      </c>
-      <c r="F173" s="0">
-        <v>1164</v>
-      </c>
-      <c r="G173" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="0">
-        <v>608</v>
-      </c>
-      <c r="B174" s="0">
-        <v>3</v>
-      </c>
-      <c r="D174" s="0">
-        <v>0</v>
-      </c>
-      <c r="E174" s="0">
-        <v>0</v>
-      </c>
-      <c r="F174" s="0">
-        <v>0</v>
-      </c>
-      <c r="G174" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="0">
-        <v>609</v>
-      </c>
-      <c r="B175" s="0">
-        <v>3</v>
-      </c>
-      <c r="D175" s="0">
-        <v>1948</v>
-      </c>
-      <c r="E175" s="0">
-        <v>1935</v>
-      </c>
-      <c r="F175" s="0">
-        <v>13</v>
-      </c>
-      <c r="G175" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="0">
-        <v>610</v>
-      </c>
-      <c r="B176" s="0">
-        <v>3</v>
-      </c>
-      <c r="D176" s="0">
-        <v>2771</v>
-      </c>
-      <c r="E176" s="0">
-        <v>1821</v>
-      </c>
-      <c r="F176" s="0">
-        <v>950</v>
-      </c>
-      <c r="G176" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="0">
-        <v>611</v>
-      </c>
-      <c r="B177" s="0">
-        <v>3</v>
-      </c>
-      <c r="D177" s="0">
+      <c r="D226" s="0">
+        <v>9540</v>
+      </c>
+      <c r="E226" s="0">
+        <v>0</v>
+      </c>
+      <c r="F226" s="0">
         <v>67</v>
       </c>
-      <c r="E177" s="0">
-        <v>0</v>
-      </c>
-      <c r="F177" s="0">
-        <v>67</v>
-      </c>
-      <c r="G177" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="0">
-        <v>612</v>
-      </c>
-      <c r="B178" s="0">
-        <v>3</v>
-      </c>
-      <c r="D178" s="0">
-        <v>340</v>
-      </c>
-      <c r="E178" s="0">
-        <v>0</v>
-      </c>
-      <c r="F178" s="0">
-        <v>340</v>
-      </c>
-      <c r="G178" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="0">
-        <v>613</v>
-      </c>
-      <c r="B179" s="0">
-        <v>3</v>
-      </c>
-      <c r="D179" s="0">
-        <v>34095</v>
-      </c>
-      <c r="E179" s="0">
-        <v>0</v>
-      </c>
-      <c r="F179" s="0">
-        <v>34095</v>
-      </c>
-      <c r="G179" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="0">
-        <v>614</v>
-      </c>
-      <c r="B180" s="0">
-        <v>3</v>
-      </c>
-      <c r="D180" s="0">
-        <v>2005</v>
-      </c>
-      <c r="E180" s="0">
-        <v>1273</v>
-      </c>
-      <c r="F180" s="0">
-        <v>732</v>
-      </c>
-      <c r="G180" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="0">
-        <v>615</v>
-      </c>
-      <c r="B181" s="0">
-        <v>3</v>
-      </c>
-      <c r="D181" s="0">
-        <v>4449</v>
-      </c>
-      <c r="E181" s="0">
-        <v>0</v>
-      </c>
-      <c r="F181" s="0">
-        <v>4449</v>
-      </c>
-      <c r="G181" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="0">
-        <v>616</v>
-      </c>
-      <c r="B182" s="0">
-        <v>3</v>
-      </c>
-      <c r="D182" s="0">
-        <v>4449</v>
-      </c>
-      <c r="E182" s="0">
-        <v>0</v>
-      </c>
-      <c r="F182" s="0">
-        <v>4449</v>
-      </c>
-      <c r="G182" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="0">
-        <v>617</v>
-      </c>
-      <c r="B183" s="0">
-        <v>3</v>
-      </c>
-      <c r="D183" s="0">
-        <v>4449</v>
-      </c>
-      <c r="E183" s="0">
-        <v>0</v>
-      </c>
-      <c r="F183" s="0">
-        <v>4449</v>
-      </c>
-      <c r="G183" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="0">
-        <v>618</v>
-      </c>
-      <c r="B184" s="0">
-        <v>4</v>
-      </c>
-      <c r="D184" s="0">
-        <v>1282</v>
-      </c>
-      <c r="E184" s="0">
-        <v>0</v>
-      </c>
-      <c r="F184" s="0">
-        <v>0</v>
-      </c>
-      <c r="G184" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="0">
-        <v>619</v>
-      </c>
-      <c r="B185" s="0">
-        <v>3</v>
-      </c>
-      <c r="D185" s="0">
-        <v>3195</v>
-      </c>
-      <c r="E185" s="0">
-        <v>0</v>
-      </c>
-      <c r="F185" s="0">
-        <v>3195</v>
-      </c>
-      <c r="G185" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="0">
-        <v>620</v>
-      </c>
-      <c r="B186" s="0">
-        <v>4</v>
-      </c>
-      <c r="D186" s="0">
-        <v>1949</v>
-      </c>
-      <c r="E186" s="0">
-        <v>0</v>
-      </c>
-      <c r="F186" s="0">
-        <v>0</v>
-      </c>
-      <c r="G186" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="0">
-        <v>621</v>
-      </c>
-      <c r="B187" s="0">
-        <v>4</v>
-      </c>
-      <c r="D187" s="0">
-        <v>2251</v>
-      </c>
-      <c r="E187" s="0">
-        <v>0</v>
-      </c>
-      <c r="F187" s="0">
-        <v>0</v>
-      </c>
-      <c r="G187" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="0">
-        <v>622</v>
-      </c>
-      <c r="B188" s="0">
-        <v>3</v>
-      </c>
-      <c r="D188" s="0">
-        <v>2601</v>
-      </c>
-      <c r="E188" s="0">
-        <v>0</v>
-      </c>
-      <c r="F188" s="0">
-        <v>2601</v>
-      </c>
-      <c r="G188" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="0">
-        <v>623</v>
-      </c>
-      <c r="B189" s="0">
-        <v>3</v>
-      </c>
-      <c r="D189" s="0">
-        <v>3295</v>
-      </c>
-      <c r="E189" s="0">
-        <v>91</v>
-      </c>
-      <c r="F189" s="0">
-        <v>3204</v>
-      </c>
-      <c r="G189" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="0">
-        <v>624</v>
-      </c>
-      <c r="B190" s="0">
-        <v>3</v>
-      </c>
-      <c r="D190" s="0">
-        <v>8628</v>
-      </c>
-      <c r="E190" s="0">
-        <v>0</v>
-      </c>
-      <c r="F190" s="0">
-        <v>8628</v>
-      </c>
-      <c r="G190" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="0">
-        <v>625</v>
-      </c>
-      <c r="B191" s="0">
-        <v>3</v>
-      </c>
-      <c r="D191" s="0">
-        <v>5584</v>
-      </c>
-      <c r="E191" s="0">
-        <v>0</v>
-      </c>
-      <c r="F191" s="0">
-        <v>5584</v>
-      </c>
-      <c r="G191" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="0">
-        <v>626</v>
-      </c>
-      <c r="B192" s="0">
-        <v>3</v>
-      </c>
-      <c r="D192" s="0">
-        <v>5584</v>
-      </c>
-      <c r="E192" s="0">
-        <v>0</v>
-      </c>
-      <c r="F192" s="0">
-        <v>5584</v>
-      </c>
-      <c r="G192" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="0">
-        <v>627</v>
-      </c>
-      <c r="B193" s="0">
-        <v>3</v>
-      </c>
-      <c r="D193" s="0">
-        <v>1115</v>
-      </c>
-      <c r="E193" s="0">
-        <v>0</v>
-      </c>
-      <c r="F193" s="0">
-        <v>1115</v>
-      </c>
-      <c r="G193" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="0">
-        <v>628</v>
-      </c>
-      <c r="B194" s="0">
-        <v>3</v>
-      </c>
-      <c r="D194" s="0">
-        <v>469</v>
-      </c>
-      <c r="E194" s="0">
-        <v>0</v>
-      </c>
-      <c r="F194" s="0">
-        <v>469</v>
-      </c>
-      <c r="G194" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="0">
-        <v>629</v>
-      </c>
-      <c r="B195" s="0">
-        <v>4</v>
-      </c>
-      <c r="D195" s="0">
-        <v>0</v>
-      </c>
-      <c r="E195" s="0">
-        <v>0</v>
-      </c>
-      <c r="F195" s="0">
-        <v>0</v>
-      </c>
-      <c r="G195" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="0">
-        <v>630</v>
-      </c>
-      <c r="B196" s="0">
-        <v>3</v>
-      </c>
-      <c r="D196" s="0">
-        <v>28</v>
-      </c>
-      <c r="E196" s="0">
-        <v>0</v>
-      </c>
-      <c r="F196" s="0">
-        <v>28</v>
-      </c>
-      <c r="G196" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="0">
-        <v>631</v>
-      </c>
-      <c r="B197" s="0">
-        <v>4</v>
-      </c>
-      <c r="D197" s="0">
-        <v>0</v>
-      </c>
-      <c r="E197" s="0">
-        <v>0</v>
-      </c>
-      <c r="F197" s="0">
-        <v>0</v>
-      </c>
-      <c r="G197" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="0">
-        <v>632</v>
-      </c>
-      <c r="B198" s="0">
-        <v>4</v>
-      </c>
-      <c r="D198" s="0">
-        <v>35226</v>
-      </c>
-      <c r="E198" s="0">
-        <v>758</v>
-      </c>
-      <c r="F198" s="0">
-        <v>0</v>
-      </c>
-      <c r="G198" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="0">
-        <v>633</v>
-      </c>
-      <c r="B199" s="0">
-        <v>3</v>
-      </c>
-      <c r="D199" s="0">
-        <v>4449</v>
-      </c>
-      <c r="E199" s="0">
-        <v>0</v>
-      </c>
-      <c r="F199" s="0">
-        <v>4449</v>
-      </c>
-      <c r="G199" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="0">
-        <v>634</v>
-      </c>
-      <c r="B200" s="0">
-        <v>3</v>
-      </c>
-      <c r="D200" s="0">
-        <v>4449</v>
-      </c>
-      <c r="E200" s="0">
-        <v>0</v>
-      </c>
-      <c r="F200" s="0">
-        <v>4449</v>
-      </c>
-      <c r="G200" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="0">
-        <v>635</v>
-      </c>
-      <c r="B201" s="0">
-        <v>3</v>
-      </c>
-      <c r="D201" s="0">
-        <v>1395</v>
-      </c>
-      <c r="E201" s="0">
-        <v>0</v>
-      </c>
-      <c r="F201" s="0">
-        <v>1395</v>
-      </c>
-      <c r="G201" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="0">
-        <v>636</v>
-      </c>
-      <c r="B202" s="0">
-        <v>3</v>
-      </c>
-      <c r="D202" s="0">
-        <v>2977</v>
-      </c>
-      <c r="E202" s="0">
-        <v>0</v>
-      </c>
-      <c r="F202" s="0">
-        <v>2977</v>
-      </c>
-      <c r="G202" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="0">
-        <v>637</v>
-      </c>
-      <c r="B203" s="0">
-        <v>3</v>
-      </c>
-      <c r="D203" s="0">
-        <v>2995</v>
-      </c>
-      <c r="E203" s="0">
-        <v>0</v>
-      </c>
-      <c r="F203" s="0">
-        <v>2995</v>
-      </c>
-      <c r="G203" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="0">
-        <v>638</v>
-      </c>
-      <c r="B204" s="0">
-        <v>3</v>
-      </c>
-      <c r="D204" s="0">
-        <v>2324</v>
-      </c>
-      <c r="E204" s="0">
-        <v>0</v>
-      </c>
-      <c r="F204" s="0">
-        <v>2324</v>
-      </c>
-      <c r="G204" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="0">
-        <v>639</v>
-      </c>
-      <c r="B205" s="0">
-        <v>3</v>
-      </c>
-      <c r="D205" s="0">
-        <v>192980</v>
-      </c>
-      <c r="E205" s="0">
-        <v>0</v>
-      </c>
-      <c r="F205" s="0">
-        <v>192980</v>
-      </c>
-      <c r="G205" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="0">
-        <v>640</v>
-      </c>
-      <c r="B206" s="0">
-        <v>3</v>
-      </c>
-      <c r="D206" s="0">
-        <v>28279</v>
-      </c>
-      <c r="E206" s="0">
-        <v>10</v>
-      </c>
-      <c r="F206" s="0">
-        <v>28269</v>
-      </c>
-      <c r="G206" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="0">
-        <v>641</v>
-      </c>
-      <c r="B207" s="0">
-        <v>3</v>
-      </c>
-      <c r="D207" s="0">
-        <v>11690</v>
-      </c>
-      <c r="E207" s="0">
-        <v>0</v>
-      </c>
-      <c r="F207" s="0">
-        <v>11690</v>
-      </c>
-      <c r="G207" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="0">
-        <v>642</v>
-      </c>
-      <c r="B208" s="0">
-        <v>3</v>
-      </c>
-      <c r="D208" s="0">
-        <v>1355</v>
-      </c>
-      <c r="E208" s="0">
-        <v>0</v>
-      </c>
-      <c r="F208" s="0">
-        <v>1355</v>
-      </c>
-      <c r="G208" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="0">
-        <v>643</v>
-      </c>
-      <c r="B209" s="0">
-        <v>4</v>
-      </c>
-      <c r="D209" s="0">
-        <v>320</v>
-      </c>
-      <c r="E209" s="0">
-        <v>0</v>
-      </c>
-      <c r="F209" s="0">
-        <v>0</v>
-      </c>
-      <c r="G209" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="0">
-        <v>644</v>
-      </c>
-      <c r="B210" s="0">
-        <v>3</v>
-      </c>
-      <c r="D210" s="0">
-        <v>180</v>
-      </c>
-      <c r="E210" s="0">
-        <v>103</v>
-      </c>
-      <c r="F210" s="0">
-        <v>77</v>
-      </c>
-      <c r="G210" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="0">
-        <v>645</v>
-      </c>
-      <c r="B211" s="0">
-        <v>3</v>
-      </c>
-      <c r="D211" s="0">
-        <v>2118</v>
-      </c>
-      <c r="E211" s="0">
-        <v>357</v>
-      </c>
-      <c r="F211" s="0">
-        <v>1761</v>
-      </c>
-      <c r="G211" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="0">
-        <v>646</v>
-      </c>
-      <c r="B212" s="0">
-        <v>4</v>
-      </c>
-      <c r="D212" s="0">
-        <v>7726</v>
-      </c>
-      <c r="E212" s="0">
-        <v>1937</v>
-      </c>
-      <c r="F212" s="0">
-        <v>418</v>
-      </c>
-      <c r="G212" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="0">
-        <v>647</v>
-      </c>
-      <c r="B213" s="0">
-        <v>3</v>
-      </c>
-      <c r="D213" s="0">
-        <v>3030</v>
-      </c>
-      <c r="E213" s="0">
-        <v>404</v>
-      </c>
-      <c r="F213" s="0">
-        <v>2626</v>
-      </c>
-      <c r="G213" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="0">
-        <v>648</v>
-      </c>
-      <c r="B214" s="0">
-        <v>4</v>
-      </c>
-      <c r="D214" s="0">
-        <v>10182</v>
-      </c>
-      <c r="E214" s="0">
-        <v>198</v>
-      </c>
-      <c r="F214" s="0">
-        <v>2431</v>
-      </c>
-      <c r="G214" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="0">
-        <v>649</v>
-      </c>
-      <c r="B215" s="0">
-        <v>1</v>
-      </c>
-      <c r="D215" s="0">
-        <v>3529</v>
-      </c>
-      <c r="E215" s="0">
-        <v>1306</v>
-      </c>
-      <c r="F215" s="0">
-        <v>344</v>
-      </c>
-      <c r="G215" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="0">
-        <v>650</v>
-      </c>
-      <c r="B216" s="0">
-        <v>4</v>
-      </c>
-      <c r="D216" s="0">
-        <v>0</v>
-      </c>
-      <c r="E216" s="0">
-        <v>0</v>
-      </c>
-      <c r="F216" s="0">
-        <v>0</v>
-      </c>
-      <c r="G216" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="0">
-        <v>651</v>
-      </c>
-      <c r="B217" s="0">
-        <v>4</v>
-      </c>
-      <c r="D217" s="0">
-        <v>0</v>
-      </c>
-      <c r="E217" s="0">
-        <v>0</v>
-      </c>
-      <c r="F217" s="0">
-        <v>0</v>
-      </c>
-      <c r="G217" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="0">
-        <v>652</v>
-      </c>
-      <c r="B218" s="0">
-        <v>3</v>
-      </c>
-      <c r="D218" s="0">
-        <v>3843</v>
-      </c>
-      <c r="E218" s="0">
-        <v>0</v>
-      </c>
-      <c r="F218" s="0">
-        <v>3843</v>
-      </c>
-      <c r="G218" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="0">
-        <v>653</v>
-      </c>
-      <c r="B219" s="0">
-        <v>0</v>
+      <c r="G226" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/RcOnline/base.xlsx
+++ b/RcOnline/base.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Companies" sheetId="1" r:id="rId2"/>
@@ -21,7 +21,62 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Attempts</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Errors</t>
+  </si>
+  <si>
+    <t>ErrorMessage</t>
+  </si>
+  <si>
+    <t>Выгрузка ЛС завершена.</t>
+  </si>
+  <si>
+    <t>Не найдено жилое помещение</t>
+  </si>
+  <si>
+    <t>Выгрузка начислений завершена.</t>
+  </si>
+  <si>
+    <t>Выгрузка ПУ завершена.</t>
+  </si>
+  <si>
+    <t>Не найдены реселлеры в Биллинг Онлайн</t>
+  </si>
+  <si>
+    <t>Выполняю выгрузку ПУ в ГИС ЖКХ для компании ООО УК "СУХОЛОЖСКАЯ"</t>
+  </si>
+  <si>
+    <t>Выполняю выгрузку начислений в ГИС ЖКХ для компании ООО "УК МАЙ"</t>
+  </si>
+  <si>
+    <t>ПД выгружен успешно</t>
+  </si>
+  <si>
+    <t>Интеграция всех ЛС завершена, запустите новую, если необходимо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнение операции невозможно:
+отсутствует размещенный договор ресурсоснабжения или договор управления/устава по указанному объекту жилищного фонда.</t>
+  </si>
+  <si>
+    <t>Выполняю выгрузку начислений в ГИС ЖКХ для компании АО "Облкоммунэнерго"</t>
+  </si>
   <si>
     <t>Компания</t>
   </si>
@@ -307,89 +362,13 @@
   </si>
   <si>
     <t>ТСЖ "Чаплина-115"</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Attempts</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>Errors</t>
-  </si>
-  <si>
-    <t>ErrorMessage</t>
-  </si>
-  <si>
-    <t>Выгрузка ЛС завершена.</t>
-  </si>
-  <si>
-    <t>Не найдены услуги в ГИС ЖКХ: 'Домофон, Телеантенна'</t>
-  </si>
-  <si>
-    <t>Выгрузка ПУ завершена.</t>
-  </si>
-  <si>
-    <t>Выгрузка начислений завершена.</t>
-  </si>
-  <si>
-    <t>Не найдены реселлеры в Биллинг Онлайн</t>
-  </si>
-  <si>
-    <t>ПУ выгружен успешно</t>
-  </si>
-  <si>
-    <t>Выполняю выгрузку ПУ в ГИС ЖКХ для компании ООО УК "СУХОЛОЖСКАЯ"</t>
-  </si>
-  <si>
-    <t>По значениям «БИК банка» и «Расчетный счет» не найдены платежные реквизиты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Execution Timeout Expired.  The timeout period elapsed prior to completion of the operation or the server is not responding.</t>
-  </si>
-  <si>
-    <t>Не найден ЛС для кап. ремонта в ГИС ЖКХ</t>
-  </si>
-  <si>
-    <t>Интеграция всех ЛС завершена, запустите новую, если необходимо</t>
-  </si>
-  <si>
-    <t>Найдено 0 ЛС в ГИС ЖКХ (обл Свердловская,г Верхняя Салда,ул Спортивная,7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнение операции невозможно:
-отсутствует размещенный договор ресурсоснабжения или договор управления/устава по указанному объекту жилищного фонда.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="20">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="5">
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
@@ -470,50 +449,50 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E77" activeCellId="0" sqref="E77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" width="33.88" customWidth="1"/>
-    <col min="2" max="2" width="16.47" customWidth="1"/>
-    <col min="3" max="3" width="8.23" customWidth="1"/>
-    <col min="4" max="4" width="14.44" customWidth="1"/>
-    <col min="5" max="5" width="14.85" customWidth="1"/>
-    <col min="6" max="6" width="14.59" customWidth="1"/>
-    <col min="7" max="1025" width="8.23" customWidth="1"/>
+    <col min="1" max="1" width="32.9387755102041" customWidth="1"/>
+    <col min="2" max="2" width="15.9285714285714" customWidth="1"/>
+    <col min="3" max="3" width="8.50510204081633" customWidth="1"/>
+    <col min="4" max="4" width="13.9030612244898" customWidth="1"/>
+    <col min="5" max="5" width="14.3112244897959" customWidth="1"/>
+    <col min="6" max="6" width="14.0408163265306" customWidth="1"/>
+    <col min="7" max="1025" width="8.50510204081633" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.8" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="12.8">
       <c r="A2" s="7" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D2" s="7">
         <v>441</v>
@@ -527,13 +506,13 @@
     </row>
     <row r="3" ht="12.8">
       <c r="A3" s="7" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D3" s="7">
         <v>444</v>
@@ -547,24 +526,24 @@
     </row>
     <row r="4" ht="12.8">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7">
         <v>445</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4" s="7">
         <v>662</v>
       </c>
     </row>
     <row r="5" ht="12.8">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B5" s="7">
         <v>1116674008098</v>
@@ -584,7 +563,7 @@
     </row>
     <row r="6" ht="12.8">
       <c r="A6" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B6" s="7">
         <v>1047405001049</v>
@@ -604,7 +583,7 @@
     </row>
     <row r="7" ht="23.95">
       <c r="A7" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B7" s="7">
         <v>5117401000129</v>
@@ -624,7 +603,7 @@
     </row>
     <row r="8" ht="12.8">
       <c r="A8" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B8" s="7">
         <v>1113668050704</v>
@@ -644,7 +623,7 @@
     </row>
     <row r="9" ht="12.8">
       <c r="A9" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B9" s="7">
         <v>1123668013370</v>
@@ -664,7 +643,7 @@
     </row>
     <row r="10" ht="23.95">
       <c r="A10" s="8" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B10" s="7">
         <v>1057420008590</v>
@@ -684,7 +663,7 @@
     </row>
     <row r="11" ht="12.8">
       <c r="A11" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B11" s="7">
         <v>1057421013055</v>
@@ -704,7 +683,7 @@
     </row>
     <row r="12" ht="12.8">
       <c r="A12" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B12" s="7">
         <v>1067203121810</v>
@@ -724,7 +703,7 @@
     </row>
     <row r="13" ht="12.8">
       <c r="A13" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B13" s="7">
         <v>1057421012923</v>
@@ -744,7 +723,7 @@
     </row>
     <row r="14" ht="12.8">
       <c r="A14" s="7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B14" s="7">
         <v>1134704001310</v>
@@ -764,7 +743,7 @@
     </row>
     <row r="15" ht="12.8">
       <c r="A15" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B15" s="7">
         <v>1107232034777</v>
@@ -784,7 +763,7 @@
     </row>
     <row r="16" ht="12.8">
       <c r="A16" s="7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B16" s="7">
         <v>1156658040879</v>
@@ -804,7 +783,7 @@
     </row>
     <row r="17" ht="12.8">
       <c r="A17" s="7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B17" s="7">
         <v>1107456001840</v>
@@ -824,7 +803,7 @@
     </row>
     <row r="18" ht="12.8">
       <c r="A18" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B18" s="7">
         <v>1067438009231</v>
@@ -844,7 +823,7 @@
     </row>
     <row r="19" ht="23.85">
       <c r="A19" s="7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B19" s="7">
         <v>1087232009094</v>
@@ -864,7 +843,7 @@
     </row>
     <row r="20" ht="12.8">
       <c r="A20" s="7" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B20" s="7">
         <v>1067203024778</v>
@@ -884,7 +863,7 @@
     </row>
     <row r="21" ht="12.8">
       <c r="A21" s="7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B21" s="7">
         <v>1037200551277</v>
@@ -904,7 +883,7 @@
     </row>
     <row r="22" ht="12.8">
       <c r="A22" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B22" s="7">
         <v>1037200601690</v>
@@ -924,7 +903,7 @@
     </row>
     <row r="23" ht="12.8">
       <c r="A23" s="7" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B23" s="7">
         <v>1037200588787</v>
@@ -944,7 +923,7 @@
     </row>
     <row r="24" ht="12.8">
       <c r="A24" s="7" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B24" s="7">
         <v>1065032016928</v>
@@ -964,7 +943,7 @@
     </row>
     <row r="25" ht="12.8">
       <c r="A25" s="7" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B25" s="7">
         <v>1036602185290</v>
@@ -984,7 +963,7 @@
     </row>
     <row r="26" ht="12.8">
       <c r="A26" s="7" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B26" s="7">
         <v>1066142015587</v>
@@ -1004,7 +983,7 @@
     </row>
     <row r="27" ht="23.85">
       <c r="A27" s="7" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B27" s="7">
         <v>1156623000214</v>
@@ -1024,7 +1003,7 @@
     </row>
     <row r="28" ht="12.8">
       <c r="A28" s="7" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B28" s="7">
         <v>1096623000429</v>
@@ -1044,7 +1023,7 @@
     </row>
     <row r="29" ht="12.8">
       <c r="A29" s="7" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B29" s="7">
         <v>1106623001319</v>
@@ -1064,7 +1043,7 @@
     </row>
     <row r="30" ht="12.8">
       <c r="A30" s="7" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B30" s="7">
         <v>1096623001310</v>
@@ -1084,7 +1063,7 @@
     </row>
     <row r="31" ht="12.8">
       <c r="A31" s="7" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B31" s="7">
         <v>1096623009163</v>
@@ -1104,7 +1083,7 @@
     </row>
     <row r="32" ht="12.8">
       <c r="A32" s="7" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B32" s="7">
         <v>1069623031576</v>
@@ -1124,7 +1103,7 @@
     </row>
     <row r="33" ht="12.8">
       <c r="A33" s="7" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B33" s="7">
         <v>1146623006100</v>
@@ -1144,7 +1123,7 @@
     </row>
     <row r="34" ht="12.8">
       <c r="A34" s="7" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B34" s="7">
         <v>1096623000286</v>
@@ -1164,7 +1143,7 @@
     </row>
     <row r="35" ht="12.8">
       <c r="A35" s="7" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B35" s="7">
         <v>1155050005703</v>
@@ -1184,7 +1163,7 @@
     </row>
     <row r="36" ht="12.8">
       <c r="A36" s="7" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B36" s="7">
         <v>1106639001028</v>
@@ -1204,7 +1183,7 @@
     </row>
     <row r="37" ht="12.8">
       <c r="A37" s="7" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B37" s="7">
         <v>1106639000973</v>
@@ -1224,7 +1203,7 @@
     </row>
     <row r="38" ht="23.85">
       <c r="A38" s="7" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B38" s="7">
         <v>1156658098266</v>
@@ -1244,7 +1223,7 @@
     </row>
     <row r="39" ht="23.95">
       <c r="A39" s="7" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B39" s="7">
         <v>1156658098266</v>
@@ -1255,16 +1234,16 @@
       <c r="D39" s="7">
         <v>643</v>
       </c>
-      <c r="E39" s="0">
+      <c r="E39" s="7">
         <v>659</v>
       </c>
-      <c r="F39" s="0">
+      <c r="F39" s="7">
         <v>660</v>
       </c>
     </row>
     <row r="40" ht="23.95">
       <c r="A40" s="7" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B40" s="7">
         <v>1156658098266</v>
@@ -1284,7 +1263,7 @@
     </row>
     <row r="41" ht="23.95">
       <c r="A41" s="7" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B41" s="7">
         <v>1156658098266</v>
@@ -1304,7 +1283,7 @@
     </row>
     <row r="42" ht="23.95">
       <c r="A42" s="7" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B42" s="7">
         <v>1156658098266</v>
@@ -1318,13 +1297,13 @@
       <c r="E42" s="7">
         <v>651</v>
       </c>
-      <c r="F42" s="0">
+      <c r="F42" s="7">
         <v>657</v>
       </c>
     </row>
     <row r="43" ht="12.8">
       <c r="A43" s="7" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B43" s="7">
         <v>1156658098266</v>
@@ -1335,13 +1314,16 @@
       <c r="D43" s="7">
         <v>653</v>
       </c>
-      <c r="E43" s="0">
+      <c r="E43" s="7">
         <v>658</v>
+      </c>
+      <c r="F43" s="7">
+        <v>663</v>
       </c>
     </row>
     <row r="44" ht="12.8">
       <c r="A44" s="7" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B44" s="7">
         <v>1156658098266</v>
@@ -1352,7 +1334,7 @@
     </row>
     <row r="45" ht="12.8">
       <c r="A45" s="7" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B45" s="7">
         <v>1156658098266</v>
@@ -1363,7 +1345,7 @@
     </row>
     <row r="46" ht="12.8">
       <c r="A46" s="7" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B46" s="7">
         <v>1156658098266</v>
@@ -1374,7 +1356,7 @@
     </row>
     <row r="47" ht="23.95">
       <c r="A47" s="7" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B47" s="7">
         <v>1156658098266</v>
@@ -1388,7 +1370,7 @@
     </row>
     <row r="48" ht="12.8">
       <c r="A48" s="7" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B48" s="7">
         <v>1156658098266</v>
@@ -1399,7 +1381,7 @@
     </row>
     <row r="49" ht="23.95">
       <c r="A49" s="7" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B49" s="7">
         <v>1156658098266</v>
@@ -1410,7 +1392,7 @@
     </row>
     <row r="50" ht="23.95">
       <c r="A50" s="7" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B50" s="7">
         <v>1156658098266</v>
@@ -1421,7 +1403,7 @@
     </row>
     <row r="51" ht="12.8">
       <c r="A51" s="7" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B51" s="7">
         <v>1106639000962</v>
@@ -1441,7 +1423,7 @@
     </row>
     <row r="52" ht="12.8">
       <c r="A52" s="7" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B52" s="7">
         <v>1106639000896</v>
@@ -1461,7 +1443,7 @@
     </row>
     <row r="53" ht="12.8">
       <c r="A53" s="7" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B53" s="7">
         <v>1106639000907</v>
@@ -1481,7 +1463,7 @@
     </row>
     <row r="54" ht="12.8">
       <c r="A54" s="7" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B54" s="7">
         <v>1106639000951</v>
@@ -1501,7 +1483,7 @@
     </row>
     <row r="55" ht="12.8">
       <c r="A55" s="7" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B55" s="7">
         <v>1146683001420</v>
@@ -1521,7 +1503,7 @@
     </row>
     <row r="56" ht="12.8">
       <c r="A56" s="7" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B56" s="7">
         <v>1116671011050</v>
@@ -1541,7 +1523,7 @@
     </row>
     <row r="57" ht="12.8">
       <c r="A57" s="7" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="B57" s="7">
         <v>1069639010660</v>
@@ -1561,7 +1543,7 @@
     </row>
     <row r="58" ht="12.8">
       <c r="A58" s="7" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B58" s="7">
         <v>1027200842811</v>
@@ -1581,7 +1563,7 @@
     </row>
     <row r="59" ht="12.8">
       <c r="A59" s="7" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B59" s="7">
         <v>1027200871818</v>
@@ -1601,7 +1583,7 @@
     </row>
     <row r="60" ht="12.8">
       <c r="A60" s="7" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B60" s="7">
         <v>1077203003195</v>
@@ -1621,7 +1603,7 @@
     </row>
     <row r="61" ht="12.8">
       <c r="A61" s="7" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B61" s="7">
         <v>1087232040466</v>
@@ -1641,7 +1623,7 @@
     </row>
     <row r="62" ht="12.8">
       <c r="A62" s="7" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B62" s="7">
         <v>1047200675884</v>
@@ -1661,7 +1643,7 @@
     </row>
     <row r="63" ht="23.85">
       <c r="A63" s="7" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B63" s="7">
         <v>1147232021881</v>
@@ -1681,7 +1663,7 @@
     </row>
     <row r="64" ht="12.8">
       <c r="A64" s="7" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B64" s="7">
         <v>1077200004122</v>
@@ -1701,7 +1683,7 @@
     </row>
     <row r="65" ht="12.8">
       <c r="A65" s="7" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B65" s="7">
         <v>1147232017580</v>
@@ -1721,7 +1703,7 @@
     </row>
     <row r="66" ht="12.8">
       <c r="A66" s="7" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B66" s="7">
         <v>1087232040697</v>
@@ -1741,7 +1723,7 @@
     </row>
     <row r="67" ht="12.8">
       <c r="A67" s="7" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B67" s="7">
         <v>1116674014270</v>
@@ -1761,7 +1743,7 @@
     </row>
     <row r="68" ht="12.8">
       <c r="A68" s="7" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B68" s="7">
         <v>1141828000710</v>
@@ -1778,7 +1760,7 @@
     </row>
     <row r="69" ht="12.8">
       <c r="A69" s="7" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B69" s="7">
         <v>1046601020157</v>
@@ -1798,7 +1780,7 @@
     </row>
     <row r="70" ht="12.8">
       <c r="A70" s="7" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B70" s="7">
         <v>1086639001481</v>
@@ -1818,7 +1800,7 @@
     </row>
     <row r="71" ht="12.8">
       <c r="A71" s="7" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B71" s="7">
         <v>1147232040196</v>
@@ -1838,7 +1820,7 @@
     </row>
     <row r="72" ht="12.8">
       <c r="A72" s="7" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B72" s="7">
         <v>1167232056551</v>
@@ -1858,7 +1840,7 @@
     </row>
     <row r="73" ht="12.8">
       <c r="A73" s="7" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B73" s="7">
         <v>1157232026137</v>
@@ -1878,7 +1860,7 @@
     </row>
     <row r="74" ht="12.8">
       <c r="A74" s="7" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B74" s="7">
         <v>1107232017595</v>
@@ -1898,7 +1880,7 @@
     </row>
     <row r="75" ht="12.8">
       <c r="A75" s="7" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="B75" s="7">
         <v>1027200836464</v>
@@ -1918,7 +1900,7 @@
     </row>
     <row r="76" ht="12.8">
       <c r="A76" s="7" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B76" s="7">
         <v>1069633012008</v>
@@ -1935,7 +1917,7 @@
     </row>
     <row r="77" ht="12.8">
       <c r="A77" s="7" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B77" s="7">
         <v>1096607000159</v>
@@ -1955,7 +1937,7 @@
     </row>
     <row r="78" ht="12.8">
       <c r="A78" s="7" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="B78" s="7">
         <v>1146623005913</v>
@@ -1975,7 +1957,7 @@
     </row>
     <row r="79" ht="12.8">
       <c r="A79" s="7" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B79" s="7">
         <v>1026600785430</v>
@@ -1995,7 +1977,7 @@
     </row>
     <row r="80" ht="12.8">
       <c r="A80" s="7" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B80" s="7">
         <v>1152036004625</v>
@@ -2015,7 +1997,7 @@
     </row>
     <row r="81" ht="12.8">
       <c r="A81" s="7" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B81" s="7">
         <v>1107232017089</v>
@@ -2035,7 +2017,7 @@
     </row>
     <row r="82" ht="12.8">
       <c r="A82" s="7" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B82" s="7">
         <v>1076633000762</v>
@@ -2055,7 +2037,7 @@
     </row>
     <row r="83" ht="12.8">
       <c r="A83" s="7" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B83" s="7">
         <v>1057200754346</v>
@@ -2075,7 +2057,7 @@
     </row>
     <row r="84" ht="12.8">
       <c r="A84" s="7" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B84" s="7">
         <v>1047200601766</v>
@@ -2096,10 +2078,10 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2109,40 +2091,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G226"/>
+  <dimension ref="A1:G227"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A187" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B220" activeCellId="0" sqref="B220"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A211" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F229" activeCellId="0" sqref="F229"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="6" width="8.23" customWidth="1"/>
-    <col min="7" max="7" width="48.46" customWidth="1"/>
-    <col min="8" max="1025" width="8.23" customWidth="1"/>
+    <col min="1" max="6" width="8.50510204081633" customWidth="1"/>
+    <col min="7" max="7" width="47.1122448979592" customWidth="1"/>
+    <col min="8" max="1025" width="8.50510204081633" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.8" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="12.8" s="7" customFormat="1">
@@ -2152,17 +2134,20 @@
       <c r="B2" s="7">
         <v>3</v>
       </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
       <c r="D2" s="7">
         <v>1491</v>
       </c>
       <c r="E2" s="7">
-        <v>1126</v>
+        <v>1151</v>
       </c>
       <c r="F2" s="7">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" ht="12.8" s="7" customFormat="1">
@@ -2170,19 +2155,22 @@
         <v>437</v>
       </c>
       <c r="B3" s="7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
       </c>
       <c r="D3" s="7">
         <v>1687</v>
       </c>
       <c r="E3" s="7">
-        <v>882</v>
+        <v>1128</v>
       </c>
       <c r="F3" s="7">
-        <v>805</v>
+        <v>559</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="12.8" s="7" customFormat="1">
@@ -2190,19 +2178,22 @@
         <v>438</v>
       </c>
       <c r="B4" s="7">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
       </c>
       <c r="D4" s="7">
         <v>9925</v>
       </c>
       <c r="E4" s="7">
-        <v>3062</v>
+        <v>3939</v>
       </c>
       <c r="F4" s="7">
-        <v>6863</v>
+        <v>5986</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" ht="12.8" s="7" customFormat="1">
@@ -2210,7 +2201,10 @@
         <v>439</v>
       </c>
       <c r="B5" s="7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
       </c>
       <c r="D5" s="7">
         <v>615</v>
@@ -2222,7 +2216,7 @@
         <v>261</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" ht="12.8" s="7" customFormat="1">
@@ -2230,19 +2224,22 @@
         <v>440</v>
       </c>
       <c r="B6" s="7">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
         <v>1</v>
       </c>
       <c r="D6" s="7">
         <v>124753</v>
       </c>
       <c r="E6" s="7">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F6" s="7">
-        <v>9427</v>
+        <v>124640</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" ht="12.8">
@@ -2250,7 +2247,10 @@
         <v>441</v>
       </c>
       <c r="B7" s="7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
       </c>
       <c r="D7" s="7">
         <v>69</v>
@@ -2262,7 +2262,7 @@
         <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" ht="12.8">
@@ -2272,6 +2272,9 @@
       <c r="B8" s="7">
         <v>3</v>
       </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
       <c r="D8" s="7">
         <v>197</v>
       </c>
@@ -2282,7 +2285,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" ht="12.8">
@@ -2292,6 +2295,9 @@
       <c r="B9" s="7">
         <v>3</v>
       </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
       <c r="D9" s="7">
         <v>723</v>
       </c>
@@ -2302,7 +2308,7 @@
         <v>723</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" ht="12.8">
@@ -2312,6 +2318,9 @@
       <c r="B10" s="7">
         <v>3</v>
       </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
       <c r="D10" s="7">
         <v>211</v>
       </c>
@@ -2322,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" ht="12.8">
@@ -2330,7 +2339,10 @@
         <v>445</v>
       </c>
       <c r="B11" s="7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
       </c>
       <c r="D11" s="7">
         <v>7775</v>
@@ -2342,7 +2354,7 @@
         <v>1865</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" ht="12.8">
@@ -2352,6 +2364,9 @@
       <c r="B12" s="7">
         <v>3</v>
       </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
       <c r="D12" s="7">
         <v>623</v>
       </c>
@@ -2362,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" ht="12.8">
@@ -2372,6 +2387,9 @@
       <c r="B13" s="7">
         <v>3</v>
       </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
       <c r="D13" s="7">
         <v>4198</v>
       </c>
@@ -2382,7 +2400,7 @@
         <v>4198</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" ht="12.8">
@@ -2390,7 +2408,10 @@
         <v>448</v>
       </c>
       <c r="B14" s="7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
       </c>
       <c r="D14" s="7">
         <v>106</v>
@@ -2402,7 +2423,7 @@
         <v>6</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" ht="12.8">
@@ -2410,7 +2431,10 @@
         <v>449</v>
       </c>
       <c r="B15" s="7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
       </c>
       <c r="D15" s="7">
         <v>8365</v>
@@ -2422,7 +2446,7 @@
         <v>4475</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" ht="12.8">
@@ -2430,7 +2454,10 @@
         <v>450</v>
       </c>
       <c r="B16" s="7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
       </c>
       <c r="D16" s="7">
         <v>115</v>
@@ -2442,7 +2469,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" ht="12.8">
@@ -2450,7 +2477,10 @@
         <v>451</v>
       </c>
       <c r="B17" s="7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
       </c>
       <c r="D17" s="7">
         <v>10809</v>
@@ -2462,7 +2492,7 @@
         <v>505</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" ht="12.8">
@@ -2470,7 +2500,10 @@
         <v>452</v>
       </c>
       <c r="B18" s="7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
       </c>
       <c r="D18" s="7">
         <v>1507</v>
@@ -2482,7 +2515,7 @@
         <v>366</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" ht="12.8">
@@ -2490,7 +2523,10 @@
         <v>453</v>
       </c>
       <c r="B19" s="7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
       </c>
       <c r="D19" s="7">
         <v>4058</v>
@@ -2502,7 +2538,7 @@
         <v>84</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" ht="12.8">
@@ -2510,7 +2546,10 @@
         <v>454</v>
       </c>
       <c r="B20" s="7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
       </c>
       <c r="D20" s="7">
         <v>537</v>
@@ -2522,7 +2561,7 @@
         <v>95</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" ht="12.8">
@@ -2530,7 +2569,10 @@
         <v>455</v>
       </c>
       <c r="B21" s="7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
       </c>
       <c r="D21" s="7">
         <v>360</v>
@@ -2542,7 +2584,7 @@
         <v>27</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="12.8">
@@ -2552,6 +2594,9 @@
       <c r="B22" s="7">
         <v>3</v>
       </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
       <c r="D22" s="7">
         <v>97</v>
       </c>
@@ -2562,7 +2607,7 @@
         <v>82</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="12.8">
@@ -2572,6 +2617,9 @@
       <c r="B23" s="7">
         <v>3</v>
       </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
       <c r="D23" s="7">
         <v>18</v>
       </c>
@@ -2582,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" ht="12.8">
@@ -2592,6 +2640,9 @@
       <c r="B24" s="7">
         <v>3</v>
       </c>
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
       <c r="D24" s="7">
         <v>204</v>
       </c>
@@ -2602,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" ht="12.8">
@@ -2610,7 +2661,10 @@
         <v>459</v>
       </c>
       <c r="B25" s="7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
       </c>
       <c r="D25" s="7">
         <v>57</v>
@@ -2622,7 +2676,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" ht="12.8">
@@ -2630,7 +2684,10 @@
         <v>460</v>
       </c>
       <c r="B26" s="7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1</v>
       </c>
       <c r="D26" s="7">
         <v>2032</v>
@@ -2642,7 +2699,7 @@
         <v>1042</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" ht="12.8">
@@ -2650,7 +2707,10 @@
         <v>461</v>
       </c>
       <c r="B27" s="7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1</v>
       </c>
       <c r="D27" s="7">
         <v>390</v>
@@ -2662,7 +2722,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" ht="12.8">
@@ -2670,7 +2730,10 @@
         <v>462</v>
       </c>
       <c r="B28" s="7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
       </c>
       <c r="D28" s="7">
         <v>1350</v>
@@ -2682,7 +2745,7 @@
         <v>80</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" ht="12.8">
@@ -2690,7 +2753,10 @@
         <v>463</v>
       </c>
       <c r="B29" s="7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1</v>
       </c>
       <c r="D29" s="7">
         <v>1021</v>
@@ -2702,7 +2768,7 @@
         <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" ht="12.8">
@@ -2712,6 +2778,9 @@
       <c r="B30" s="7">
         <v>3</v>
       </c>
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
       <c r="D30" s="7">
         <v>115</v>
       </c>
@@ -2722,7 +2791,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" ht="12.8">
@@ -2732,6 +2801,9 @@
       <c r="B31" s="7">
         <v>3</v>
       </c>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
       <c r="D31" s="7">
         <v>1059</v>
       </c>
@@ -2742,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" ht="12.8">
@@ -2752,6 +2824,9 @@
       <c r="B32" s="7">
         <v>3</v>
       </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
       <c r="D32" s="7">
         <v>449</v>
       </c>
@@ -2762,7 +2837,7 @@
         <v>25</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" ht="12.8">
@@ -2772,6 +2847,9 @@
       <c r="B33" s="7">
         <v>3</v>
       </c>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
       <c r="D33" s="7">
         <v>125</v>
       </c>
@@ -2782,7 +2860,7 @@
         <v>125</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" ht="12.8">
@@ -2792,6 +2870,9 @@
       <c r="B34" s="7">
         <v>3</v>
       </c>
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
       <c r="D34" s="7">
         <v>1149</v>
       </c>
@@ -2802,7 +2883,7 @@
         <v>1149</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" ht="12.8">
@@ -2810,7 +2891,10 @@
         <v>469</v>
       </c>
       <c r="B35" s="7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1</v>
       </c>
       <c r="D35" s="7">
         <v>1020</v>
@@ -2822,7 +2906,7 @@
         <v>29</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" ht="12.8">
@@ -2830,7 +2914,10 @@
         <v>470</v>
       </c>
       <c r="B36" s="7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1</v>
       </c>
       <c r="D36" s="7">
         <v>289</v>
@@ -2842,7 +2929,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" ht="12.8">
@@ -2852,6 +2939,9 @@
       <c r="B37" s="7">
         <v>3</v>
       </c>
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
       <c r="D37" s="7">
         <v>108</v>
       </c>
@@ -2862,7 +2952,7 @@
         <v>108</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" ht="12.8">
@@ -2872,6 +2962,9 @@
       <c r="B38" s="7">
         <v>3</v>
       </c>
+      <c r="C38" s="7">
+        <v>1</v>
+      </c>
       <c r="D38" s="7">
         <v>253</v>
       </c>
@@ -2882,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" ht="12.8">
@@ -2890,7 +2983,10 @@
         <v>473</v>
       </c>
       <c r="B39" s="7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1</v>
       </c>
       <c r="D39" s="7">
         <v>172</v>
@@ -2902,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" ht="12.8">
@@ -2910,7 +3006,10 @@
         <v>474</v>
       </c>
       <c r="B40" s="7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C40" s="7">
+        <v>1</v>
       </c>
       <c r="D40" s="7">
         <v>3686</v>
@@ -2922,7 +3021,7 @@
         <v>1632</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="12.8">
@@ -2930,7 +3029,10 @@
         <v>475</v>
       </c>
       <c r="B41" s="7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1</v>
       </c>
       <c r="D41" s="7">
         <v>857</v>
@@ -2942,7 +3044,7 @@
         <v>8</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="12.8">
@@ -2950,7 +3052,10 @@
         <v>476</v>
       </c>
       <c r="B42" s="7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1</v>
       </c>
       <c r="D42" s="7">
         <v>7150</v>
@@ -2962,7 +3067,7 @@
         <v>1402</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" ht="12.8">
@@ -2970,7 +3075,10 @@
         <v>477</v>
       </c>
       <c r="B43" s="7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1</v>
       </c>
       <c r="D43" s="7">
         <v>3574</v>
@@ -2982,7 +3090,7 @@
         <v>293</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" ht="12.8">
@@ -2992,6 +3100,9 @@
       <c r="B44" s="7">
         <v>3</v>
       </c>
+      <c r="C44" s="7">
+        <v>1</v>
+      </c>
       <c r="D44" s="7">
         <v>62</v>
       </c>
@@ -3002,7 +3113,7 @@
         <v>62</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" ht="12.8">
@@ -3010,7 +3121,10 @@
         <v>479</v>
       </c>
       <c r="B45" s="7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C45" s="7">
+        <v>1</v>
       </c>
       <c r="D45" s="7">
         <v>105</v>
@@ -3022,7 +3136,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" ht="12.8">
@@ -3032,6 +3146,9 @@
       <c r="B46" s="7">
         <v>3</v>
       </c>
+      <c r="C46" s="7">
+        <v>1</v>
+      </c>
       <c r="D46" s="7">
         <v>33</v>
       </c>
@@ -3042,7 +3159,7 @@
         <v>33</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" ht="12.8">
@@ -3052,6 +3169,9 @@
       <c r="B47" s="7">
         <v>3</v>
       </c>
+      <c r="C47" s="7">
+        <v>1</v>
+      </c>
       <c r="D47" s="7">
         <v>81</v>
       </c>
@@ -3062,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" ht="12.8">
@@ -3072,6 +3192,9 @@
       <c r="B48" s="7">
         <v>3</v>
       </c>
+      <c r="C48" s="7">
+        <v>1</v>
+      </c>
       <c r="D48" s="7">
         <v>160</v>
       </c>
@@ -3082,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" ht="12.8">
@@ -3092,6 +3215,9 @@
       <c r="B49" s="7">
         <v>3</v>
       </c>
+      <c r="C49" s="7">
+        <v>1</v>
+      </c>
       <c r="D49" s="7">
         <v>46</v>
       </c>
@@ -3102,7 +3228,7 @@
         <v>46</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" ht="12.8">
@@ -3110,7 +3236,10 @@
         <v>484</v>
       </c>
       <c r="B50" s="7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C50" s="7">
+        <v>1</v>
       </c>
       <c r="D50" s="7">
         <v>48</v>
@@ -3122,7 +3251,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" ht="12.8">
@@ -3132,6 +3261,9 @@
       <c r="B51" s="7">
         <v>3</v>
       </c>
+      <c r="C51" s="7">
+        <v>1</v>
+      </c>
       <c r="D51" s="7">
         <v>851</v>
       </c>
@@ -3142,7 +3274,7 @@
         <v>844</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" ht="12.8">
@@ -3152,6 +3284,9 @@
       <c r="B52" s="7">
         <v>3</v>
       </c>
+      <c r="C52" s="7">
+        <v>1</v>
+      </c>
       <c r="D52" s="7">
         <v>1815</v>
       </c>
@@ -3162,7 +3297,7 @@
         <v>1815</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" ht="12.8">
@@ -3172,6 +3307,9 @@
       <c r="B53" s="7">
         <v>3</v>
       </c>
+      <c r="C53" s="7">
+        <v>1</v>
+      </c>
       <c r="D53" s="7">
         <v>5014</v>
       </c>
@@ -3182,7 +3320,7 @@
         <v>5014</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" ht="12.8">
@@ -3192,6 +3330,9 @@
       <c r="B54" s="7">
         <v>3</v>
       </c>
+      <c r="C54" s="7">
+        <v>1</v>
+      </c>
       <c r="D54" s="7">
         <v>1998</v>
       </c>
@@ -3202,7 +3343,7 @@
         <v>1998</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="12.8">
@@ -3212,6 +3353,9 @@
       <c r="B55" s="7">
         <v>3</v>
       </c>
+      <c r="C55" s="7">
+        <v>1</v>
+      </c>
       <c r="D55" s="7">
         <v>482</v>
       </c>
@@ -3222,7 +3366,7 @@
         <v>482</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="12.8">
@@ -3232,6 +3376,9 @@
       <c r="B56" s="7">
         <v>3</v>
       </c>
+      <c r="C56" s="7">
+        <v>1</v>
+      </c>
       <c r="D56" s="7">
         <v>3883</v>
       </c>
@@ -3242,7 +3389,7 @@
         <v>3883</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" ht="12.8">
@@ -3252,6 +3399,9 @@
       <c r="B57" s="7">
         <v>3</v>
       </c>
+      <c r="C57" s="7">
+        <v>1</v>
+      </c>
       <c r="D57" s="7">
         <v>734</v>
       </c>
@@ -3262,7 +3412,7 @@
         <v>6</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" ht="12.8">
@@ -3272,6 +3422,9 @@
       <c r="B58" s="7">
         <v>3</v>
       </c>
+      <c r="C58" s="7">
+        <v>1</v>
+      </c>
       <c r="D58" s="7">
         <v>346</v>
       </c>
@@ -3282,7 +3435,7 @@
         <v>346</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" ht="12.8">
@@ -3292,6 +3445,9 @@
       <c r="B59" s="7">
         <v>3</v>
       </c>
+      <c r="C59" s="7">
+        <v>1</v>
+      </c>
       <c r="D59" s="7">
         <v>503</v>
       </c>
@@ -3302,7 +3458,7 @@
         <v>3</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" ht="12.8">
@@ -3312,6 +3468,9 @@
       <c r="B60" s="7">
         <v>3</v>
       </c>
+      <c r="C60" s="7">
+        <v>1</v>
+      </c>
       <c r="D60" s="7">
         <v>441</v>
       </c>
@@ -3322,7 +3481,7 @@
         <v>3</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" ht="12.8">
@@ -3332,6 +3491,9 @@
       <c r="B61" s="7">
         <v>3</v>
       </c>
+      <c r="C61" s="7">
+        <v>1</v>
+      </c>
       <c r="D61" s="7">
         <v>2253</v>
       </c>
@@ -3342,7 +3504,7 @@
         <v>81</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" ht="12.8">
@@ -3352,6 +3514,9 @@
       <c r="B62" s="7">
         <v>3</v>
       </c>
+      <c r="C62" s="7">
+        <v>1</v>
+      </c>
       <c r="D62" s="7">
         <v>0</v>
       </c>
@@ -3362,7 +3527,7 @@
         <v>98</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" ht="12.8">
@@ -3372,6 +3537,9 @@
       <c r="B63" s="7">
         <v>3</v>
       </c>
+      <c r="C63" s="7">
+        <v>1</v>
+      </c>
       <c r="D63" s="7">
         <v>233</v>
       </c>
@@ -3382,7 +3550,7 @@
         <v>233</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" ht="12.8">
@@ -3392,6 +3560,9 @@
       <c r="B64" s="7">
         <v>3</v>
       </c>
+      <c r="C64" s="7">
+        <v>1</v>
+      </c>
       <c r="D64" s="7">
         <v>61</v>
       </c>
@@ -3402,7 +3573,7 @@
         <v>61</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" ht="12.8">
@@ -3412,6 +3583,9 @@
       <c r="B65" s="7">
         <v>3</v>
       </c>
+      <c r="C65" s="7">
+        <v>1</v>
+      </c>
       <c r="D65" s="7">
         <v>117</v>
       </c>
@@ -3422,7 +3596,7 @@
         <v>117</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" ht="12.8">
@@ -3432,6 +3606,9 @@
       <c r="B66" s="7">
         <v>3</v>
       </c>
+      <c r="C66" s="7">
+        <v>1</v>
+      </c>
       <c r="D66" s="7">
         <v>482</v>
       </c>
@@ -3442,7 +3619,7 @@
         <v>482</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" ht="12.8">
@@ -3452,6 +3629,9 @@
       <c r="B67" s="7">
         <v>3</v>
       </c>
+      <c r="C67" s="7">
+        <v>1</v>
+      </c>
       <c r="D67" s="7">
         <v>138</v>
       </c>
@@ -3462,7 +3642,7 @@
         <v>138</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="12.8">
@@ -3472,6 +3652,9 @@
       <c r="B68" s="7">
         <v>3</v>
       </c>
+      <c r="C68" s="7">
+        <v>1</v>
+      </c>
       <c r="D68" s="7">
         <v>143</v>
       </c>
@@ -3482,7 +3665,7 @@
         <v>143</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="12.8">
@@ -3490,7 +3673,10 @@
         <v>503</v>
       </c>
       <c r="B69" s="7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C69" s="7">
+        <v>1</v>
       </c>
       <c r="D69" s="7">
         <v>1071</v>
@@ -3502,7 +3688,7 @@
         <v>29</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" ht="12.8">
@@ -3512,6 +3698,9 @@
       <c r="B70" s="7">
         <v>3</v>
       </c>
+      <c r="C70" s="7">
+        <v>1</v>
+      </c>
       <c r="D70" s="7">
         <v>458</v>
       </c>
@@ -3522,7 +3711,7 @@
         <v>458</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" ht="12.8">
@@ -3530,7 +3719,10 @@
         <v>505</v>
       </c>
       <c r="B71" s="7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C71" s="7">
+        <v>1</v>
       </c>
       <c r="D71" s="7">
         <v>458</v>
@@ -3542,7 +3734,7 @@
         <v>400</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" ht="12.8">
@@ -3550,7 +3742,10 @@
         <v>506</v>
       </c>
       <c r="B72" s="7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C72" s="7">
+        <v>1</v>
       </c>
       <c r="D72" s="7">
         <v>1419</v>
@@ -3562,7 +3757,7 @@
         <v>44</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" ht="12.8">
@@ -3572,6 +3767,9 @@
       <c r="B73" s="7">
         <v>3</v>
       </c>
+      <c r="C73" s="7">
+        <v>1</v>
+      </c>
       <c r="D73" s="7">
         <v>458</v>
       </c>
@@ -3582,7 +3780,7 @@
         <v>458</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" ht="12.8">
@@ -3592,6 +3790,9 @@
       <c r="B74" s="7">
         <v>3</v>
       </c>
+      <c r="C74" s="7">
+        <v>1</v>
+      </c>
       <c r="D74" s="7">
         <v>458</v>
       </c>
@@ -3602,7 +3803,7 @@
         <v>458</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" ht="12.8">
@@ -3612,6 +3813,9 @@
       <c r="B75" s="7">
         <v>3</v>
       </c>
+      <c r="C75" s="7">
+        <v>1</v>
+      </c>
       <c r="D75" s="7">
         <v>458</v>
       </c>
@@ -3622,7 +3826,7 @@
         <v>457</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" ht="12.8">
@@ -3632,6 +3836,9 @@
       <c r="B76" s="7">
         <v>3</v>
       </c>
+      <c r="C76" s="7">
+        <v>1</v>
+      </c>
       <c r="D76" s="7">
         <v>458</v>
       </c>
@@ -3642,7 +3849,7 @@
         <v>458</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" ht="12.8">
@@ -3652,6 +3859,9 @@
       <c r="B77" s="7">
         <v>3</v>
       </c>
+      <c r="C77" s="7">
+        <v>1</v>
+      </c>
       <c r="D77" s="7">
         <v>1407</v>
       </c>
@@ -3662,7 +3872,7 @@
         <v>603</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" ht="12.8">
@@ -3672,6 +3882,9 @@
       <c r="B78" s="7">
         <v>3</v>
       </c>
+      <c r="C78" s="7">
+        <v>1</v>
+      </c>
       <c r="D78" s="7">
         <v>330</v>
       </c>
@@ -3682,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" ht="12.8">
@@ -3692,6 +3905,9 @@
       <c r="B79" s="7">
         <v>3</v>
       </c>
+      <c r="C79" s="7">
+        <v>1</v>
+      </c>
       <c r="D79" s="7">
         <v>59</v>
       </c>
@@ -3702,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" ht="12.8">
@@ -3712,6 +3928,9 @@
       <c r="B80" s="7">
         <v>3</v>
       </c>
+      <c r="C80" s="7">
+        <v>1</v>
+      </c>
       <c r="D80" s="7">
         <v>190</v>
       </c>
@@ -3722,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" ht="12.8">
@@ -3732,6 +3951,9 @@
       <c r="B81" s="7">
         <v>3</v>
       </c>
+      <c r="C81" s="7">
+        <v>1</v>
+      </c>
       <c r="D81" s="7">
         <v>945</v>
       </c>
@@ -3742,7 +3964,7 @@
         <v>945</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" ht="12.8">
@@ -3752,6 +3974,9 @@
       <c r="B82" s="7">
         <v>3</v>
       </c>
+      <c r="C82" s="7">
+        <v>1</v>
+      </c>
       <c r="D82" s="7">
         <v>922</v>
       </c>
@@ -3762,7 +3987,7 @@
         <v>36</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" ht="12.8">
@@ -3772,6 +3997,9 @@
       <c r="B83" s="7">
         <v>3</v>
       </c>
+      <c r="C83" s="7">
+        <v>1</v>
+      </c>
       <c r="D83" s="7">
         <v>2553</v>
       </c>
@@ -3782,7 +4010,7 @@
         <v>779</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" ht="12.8">
@@ -3792,6 +4020,9 @@
       <c r="B84" s="7">
         <v>3</v>
       </c>
+      <c r="C84" s="7">
+        <v>1</v>
+      </c>
       <c r="D84" s="7">
         <v>2721</v>
       </c>
@@ -3802,7 +4033,7 @@
         <v>2721</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" ht="12.8">
@@ -3812,6 +4043,9 @@
       <c r="B85" s="7">
         <v>3</v>
       </c>
+      <c r="C85" s="7">
+        <v>1</v>
+      </c>
       <c r="D85" s="7">
         <v>1484</v>
       </c>
@@ -3822,7 +4056,7 @@
         <v>1484</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" ht="12.8">
@@ -3832,6 +4066,9 @@
       <c r="B86" s="7">
         <v>4</v>
       </c>
+      <c r="C86" s="7">
+        <v>1</v>
+      </c>
       <c r="D86" s="7">
         <v>0</v>
       </c>
@@ -3842,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="12.8">
@@ -3852,6 +4089,9 @@
       <c r="B87" s="7">
         <v>4</v>
       </c>
+      <c r="C87" s="7">
+        <v>1</v>
+      </c>
       <c r="D87" s="7">
         <v>0</v>
       </c>
@@ -3862,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" ht="12.8">
@@ -3872,6 +4112,9 @@
       <c r="B88" s="7">
         <v>3</v>
       </c>
+      <c r="C88" s="7">
+        <v>1</v>
+      </c>
       <c r="D88" s="7">
         <v>458</v>
       </c>
@@ -3882,7 +4125,7 @@
         <v>458</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="12.8">
@@ -3892,6 +4135,9 @@
       <c r="B89" s="7">
         <v>3</v>
       </c>
+      <c r="C89" s="7">
+        <v>1</v>
+      </c>
       <c r="D89" s="7">
         <v>177</v>
       </c>
@@ -3902,7 +4148,7 @@
         <v>83</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="12.8">
@@ -3912,6 +4158,9 @@
       <c r="B90" s="7">
         <v>3</v>
       </c>
+      <c r="C90" s="7">
+        <v>1</v>
+      </c>
       <c r="D90" s="7">
         <v>170</v>
       </c>
@@ -3922,7 +4171,7 @@
         <v>1</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" ht="12.8">
@@ -3932,6 +4181,9 @@
       <c r="B91" s="7">
         <v>3</v>
       </c>
+      <c r="C91" s="7">
+        <v>1</v>
+      </c>
       <c r="D91" s="7">
         <v>134</v>
       </c>
@@ -3942,7 +4194,7 @@
         <v>2</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" ht="12.8">
@@ -3952,6 +4204,9 @@
       <c r="B92" s="7">
         <v>3</v>
       </c>
+      <c r="C92" s="7">
+        <v>1</v>
+      </c>
       <c r="D92" s="7">
         <v>279</v>
       </c>
@@ -3962,7 +4217,7 @@
         <v>3</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" ht="12.8">
@@ -3972,6 +4227,9 @@
       <c r="B93" s="7">
         <v>3</v>
       </c>
+      <c r="C93" s="7">
+        <v>1</v>
+      </c>
       <c r="D93" s="7">
         <v>213</v>
       </c>
@@ -3982,7 +4240,7 @@
         <v>213</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" ht="12.8">
@@ -3992,6 +4250,9 @@
       <c r="B94" s="7">
         <v>3</v>
       </c>
+      <c r="C94" s="7">
+        <v>1</v>
+      </c>
       <c r="D94" s="7">
         <v>259</v>
       </c>
@@ -4002,7 +4263,7 @@
         <v>1</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" ht="12.8">
@@ -4012,6 +4273,9 @@
       <c r="B95" s="7">
         <v>3</v>
       </c>
+      <c r="C95" s="7">
+        <v>1</v>
+      </c>
       <c r="D95" s="7">
         <v>163</v>
       </c>
@@ -4022,7 +4286,7 @@
         <v>5</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" ht="12.8">
@@ -4032,6 +4296,9 @@
       <c r="B96" s="7">
         <v>3</v>
       </c>
+      <c r="C96" s="7">
+        <v>1</v>
+      </c>
       <c r="D96" s="7">
         <v>30823</v>
       </c>
@@ -4042,7 +4309,7 @@
         <v>435</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" ht="12.8">
@@ -4052,6 +4319,9 @@
       <c r="B97" s="7">
         <v>3</v>
       </c>
+      <c r="C97" s="7">
+        <v>1</v>
+      </c>
       <c r="D97" s="7">
         <v>478</v>
       </c>
@@ -4062,7 +4332,7 @@
         <v>4</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" ht="12.8">
@@ -4072,6 +4342,9 @@
       <c r="B98" s="7">
         <v>3</v>
       </c>
+      <c r="C98" s="7">
+        <v>1</v>
+      </c>
       <c r="D98" s="7">
         <v>748</v>
       </c>
@@ -4082,7 +4355,7 @@
         <v>727</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" ht="12.8">
@@ -4092,6 +4365,9 @@
       <c r="B99" s="7">
         <v>3</v>
       </c>
+      <c r="C99" s="7">
+        <v>1</v>
+      </c>
       <c r="D99" s="7">
         <v>748</v>
       </c>
@@ -4102,7 +4378,7 @@
         <v>748</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" ht="12.8">
@@ -4112,6 +4388,9 @@
       <c r="B100" s="7">
         <v>3</v>
       </c>
+      <c r="C100" s="7">
+        <v>1</v>
+      </c>
       <c r="D100" s="7">
         <v>434</v>
       </c>
@@ -4122,7 +4401,7 @@
         <v>136</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" ht="12.8">
@@ -4132,6 +4411,9 @@
       <c r="B101" s="7">
         <v>3</v>
       </c>
+      <c r="C101" s="7">
+        <v>1</v>
+      </c>
       <c r="D101" s="7">
         <v>84</v>
       </c>
@@ -4142,7 +4424,7 @@
         <v>84</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="12.8">
@@ -4152,6 +4434,9 @@
       <c r="B102" s="7">
         <v>3</v>
       </c>
+      <c r="C102" s="7">
+        <v>1</v>
+      </c>
       <c r="D102" s="7">
         <v>59</v>
       </c>
@@ -4162,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" ht="12.8">
@@ -4172,6 +4457,9 @@
       <c r="B103" s="7">
         <v>3</v>
       </c>
+      <c r="C103" s="7">
+        <v>1</v>
+      </c>
       <c r="D103" s="7">
         <v>15173</v>
       </c>
@@ -4182,7 +4470,7 @@
         <v>534</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" ht="12.8">
@@ -4192,17 +4480,20 @@
       <c r="B104" s="7">
         <v>3</v>
       </c>
+      <c r="C104" s="7">
+        <v>1</v>
+      </c>
       <c r="D104" s="7">
         <v>17629</v>
       </c>
       <c r="E104" s="7">
-        <v>10543</v>
+        <v>10850</v>
       </c>
       <c r="F104" s="7">
-        <v>7086</v>
+        <v>6779</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" ht="12.8">
@@ -4212,6 +4503,9 @@
       <c r="B105" s="7">
         <v>3</v>
       </c>
+      <c r="C105" s="7">
+        <v>1</v>
+      </c>
       <c r="D105" s="7">
         <v>17629</v>
       </c>
@@ -4222,7 +4516,7 @@
         <v>17629</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" ht="12.8">
@@ -4232,6 +4526,9 @@
       <c r="B106" s="7">
         <v>3</v>
       </c>
+      <c r="C106" s="7">
+        <v>1</v>
+      </c>
       <c r="D106" s="7">
         <v>3322</v>
       </c>
@@ -4242,7 +4539,7 @@
         <v>1906</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" ht="12.8">
@@ -4252,6 +4549,9 @@
       <c r="B107" s="7">
         <v>3</v>
       </c>
+      <c r="C107" s="7">
+        <v>1</v>
+      </c>
       <c r="D107" s="7">
         <v>798</v>
       </c>
@@ -4262,7 +4562,7 @@
         <v>88</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" ht="12.8">
@@ -4272,6 +4572,9 @@
       <c r="B108" s="7">
         <v>3</v>
       </c>
+      <c r="C108" s="7">
+        <v>1</v>
+      </c>
       <c r="D108" s="7">
         <v>1079</v>
       </c>
@@ -4282,7 +4585,7 @@
         <v>1</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" ht="12.8">
@@ -4292,6 +4595,9 @@
       <c r="B109" s="7">
         <v>3</v>
       </c>
+      <c r="C109" s="7">
+        <v>1</v>
+      </c>
       <c r="D109" s="7">
         <v>3152</v>
       </c>
@@ -4302,7 +4608,7 @@
         <v>346</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" ht="12.8">
@@ -4312,6 +4618,9 @@
       <c r="B110" s="7">
         <v>3</v>
       </c>
+      <c r="C110" s="7">
+        <v>1</v>
+      </c>
       <c r="D110" s="7">
         <v>28</v>
       </c>
@@ -4322,7 +4631,7 @@
         <v>28</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" ht="12.8">
@@ -4332,6 +4641,9 @@
       <c r="B111" s="7">
         <v>3</v>
       </c>
+      <c r="C111" s="7">
+        <v>1</v>
+      </c>
       <c r="D111" s="7">
         <v>114</v>
       </c>
@@ -4342,7 +4654,7 @@
         <v>114</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" ht="12.8">
@@ -4352,6 +4664,9 @@
       <c r="B112" s="7">
         <v>3</v>
       </c>
+      <c r="C112" s="7">
+        <v>1</v>
+      </c>
       <c r="D112" s="7">
         <v>3569</v>
       </c>
@@ -4362,7 +4677,7 @@
         <v>3568</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" ht="12.8">
@@ -4372,6 +4687,9 @@
       <c r="B113" s="7">
         <v>3</v>
       </c>
+      <c r="C113" s="7">
+        <v>1</v>
+      </c>
       <c r="D113" s="7">
         <v>2013</v>
       </c>
@@ -4382,7 +4700,7 @@
         <v>2</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" ht="12.8">
@@ -4392,6 +4710,9 @@
       <c r="B114" s="7">
         <v>3</v>
       </c>
+      <c r="C114" s="7">
+        <v>1</v>
+      </c>
       <c r="D114" s="7">
         <v>491</v>
       </c>
@@ -4402,7 +4723,7 @@
         <v>249</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" ht="12.8">
@@ -4412,6 +4733,9 @@
       <c r="B115" s="7">
         <v>4</v>
       </c>
+      <c r="C115" s="7">
+        <v>1</v>
+      </c>
       <c r="D115" s="7">
         <v>0</v>
       </c>
@@ -4422,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" ht="12.8">
@@ -4432,6 +4756,9 @@
       <c r="B116" s="7">
         <v>3</v>
       </c>
+      <c r="C116" s="7">
+        <v>1</v>
+      </c>
       <c r="D116" s="7">
         <v>802</v>
       </c>
@@ -4442,7 +4769,7 @@
         <v>802</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" ht="12.8">
@@ -4452,6 +4779,9 @@
       <c r="B117" s="7">
         <v>4</v>
       </c>
+      <c r="C117" s="7">
+        <v>1</v>
+      </c>
       <c r="D117" s="7">
         <v>0</v>
       </c>
@@ -4462,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" ht="12.8">
@@ -4472,6 +4802,9 @@
       <c r="B118" s="7">
         <v>4</v>
       </c>
+      <c r="C118" s="7">
+        <v>1</v>
+      </c>
       <c r="D118" s="7">
         <v>0</v>
       </c>
@@ -4482,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" ht="12.8">
@@ -4492,6 +4825,9 @@
       <c r="B119" s="7">
         <v>4</v>
       </c>
+      <c r="C119" s="7">
+        <v>1</v>
+      </c>
       <c r="D119" s="7">
         <v>0</v>
       </c>
@@ -4502,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" ht="12.8">
@@ -4512,6 +4848,9 @@
       <c r="B120" s="7">
         <v>4</v>
       </c>
+      <c r="C120" s="7">
+        <v>1</v>
+      </c>
       <c r="D120" s="7">
         <v>0</v>
       </c>
@@ -4522,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" ht="12.8">
@@ -4532,6 +4871,9 @@
       <c r="B121" s="7">
         <v>3</v>
       </c>
+      <c r="C121" s="7">
+        <v>1</v>
+      </c>
       <c r="D121" s="7">
         <v>1643</v>
       </c>
@@ -4542,7 +4884,7 @@
         <v>1643</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" ht="12.8">
@@ -4552,6 +4894,9 @@
       <c r="B122" s="7">
         <v>3</v>
       </c>
+      <c r="C122" s="7">
+        <v>1</v>
+      </c>
       <c r="D122" s="7">
         <v>1274</v>
       </c>
@@ -4562,7 +4907,7 @@
         <v>11</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" ht="12.8">
@@ -4572,6 +4917,9 @@
       <c r="B123" s="7">
         <v>3</v>
       </c>
+      <c r="C123" s="7">
+        <v>1</v>
+      </c>
       <c r="D123" s="7">
         <v>186</v>
       </c>
@@ -4582,7 +4930,7 @@
         <v>4</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" ht="12.8">
@@ -4592,6 +4940,9 @@
       <c r="B124" s="7">
         <v>3</v>
       </c>
+      <c r="C124" s="7">
+        <v>1</v>
+      </c>
       <c r="D124" s="7">
         <v>665</v>
       </c>
@@ -4602,7 +4953,7 @@
         <v>2</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" ht="12.8">
@@ -4612,6 +4963,9 @@
       <c r="B125" s="7">
         <v>3</v>
       </c>
+      <c r="C125" s="7">
+        <v>1</v>
+      </c>
       <c r="D125" s="7">
         <v>1841</v>
       </c>
@@ -4622,7 +4976,7 @@
         <v>1841</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" ht="12.8">
@@ -4632,6 +4986,9 @@
       <c r="B126" s="7">
         <v>3</v>
       </c>
+      <c r="C126" s="7">
+        <v>1</v>
+      </c>
       <c r="D126" s="7">
         <v>1841</v>
       </c>
@@ -4642,7 +4999,7 @@
         <v>1627</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" ht="12.8">
@@ -4652,6 +5009,9 @@
       <c r="B127" s="7">
         <v>3</v>
       </c>
+      <c r="C127" s="7">
+        <v>1</v>
+      </c>
       <c r="D127" s="7">
         <v>2445</v>
       </c>
@@ -4662,7 +5022,7 @@
         <v>2445</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" ht="12.8">
@@ -4672,6 +5032,9 @@
       <c r="B128" s="7">
         <v>3</v>
       </c>
+      <c r="C128" s="7">
+        <v>1</v>
+      </c>
       <c r="D128" s="7">
         <v>7249</v>
       </c>
@@ -4682,7 +5045,7 @@
         <v>1836</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" ht="12.8">
@@ -4692,6 +5055,9 @@
       <c r="B129" s="7">
         <v>3</v>
       </c>
+      <c r="C129" s="7">
+        <v>1</v>
+      </c>
       <c r="D129" s="7">
         <v>15059</v>
       </c>
@@ -4702,7 +5068,7 @@
         <v>15059</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" ht="12.8">
@@ -4712,6 +5078,9 @@
       <c r="B130" s="7">
         <v>3</v>
       </c>
+      <c r="C130" s="7">
+        <v>1</v>
+      </c>
       <c r="D130" s="7">
         <v>9107</v>
       </c>
@@ -4722,7 +5091,7 @@
         <v>189</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" ht="12.8">
@@ -4732,6 +5101,9 @@
       <c r="B131" s="7">
         <v>3</v>
       </c>
+      <c r="C131" s="7">
+        <v>1</v>
+      </c>
       <c r="D131" s="7">
         <v>4773</v>
       </c>
@@ -4742,7 +5114,7 @@
         <v>4773</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" ht="12.8">
@@ -4752,6 +5124,9 @@
       <c r="B132" s="7">
         <v>3</v>
       </c>
+      <c r="C132" s="7">
+        <v>1</v>
+      </c>
       <c r="D132" s="7">
         <v>20969</v>
       </c>
@@ -4762,7 +5137,7 @@
         <v>20966</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" ht="12.8">
@@ -4772,6 +5147,9 @@
       <c r="B133" s="7">
         <v>3</v>
       </c>
+      <c r="C133" s="7">
+        <v>1</v>
+      </c>
       <c r="D133" s="7">
         <v>8779</v>
       </c>
@@ -4782,7 +5160,7 @@
         <v>8779</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" ht="12.8">
@@ -4792,6 +5170,9 @@
       <c r="B134" s="7">
         <v>3</v>
       </c>
+      <c r="C134" s="7">
+        <v>1</v>
+      </c>
       <c r="D134" s="7">
         <v>12174</v>
       </c>
@@ -4802,7 +5183,7 @@
         <v>12174</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" ht="12.8">
@@ -4812,6 +5193,9 @@
       <c r="B135" s="7">
         <v>3</v>
       </c>
+      <c r="C135" s="7">
+        <v>1</v>
+      </c>
       <c r="D135" s="7">
         <v>3955</v>
       </c>
@@ -4822,7 +5206,7 @@
         <v>3953</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" ht="12.8">
@@ -4832,6 +5216,9 @@
       <c r="B136" s="7">
         <v>3</v>
       </c>
+      <c r="C136" s="7">
+        <v>1</v>
+      </c>
       <c r="D136" s="7">
         <v>11172</v>
       </c>
@@ -4842,7 +5229,7 @@
         <v>11172</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" ht="12.8">
@@ -4852,6 +5239,9 @@
       <c r="B137" s="7">
         <v>3</v>
       </c>
+      <c r="C137" s="7">
+        <v>1</v>
+      </c>
       <c r="D137" s="7">
         <v>3100</v>
       </c>
@@ -4862,7 +5252,7 @@
         <v>3100</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" ht="12.8">
@@ -4872,6 +5262,9 @@
       <c r="B138" s="7">
         <v>3</v>
       </c>
+      <c r="C138" s="7">
+        <v>1</v>
+      </c>
       <c r="D138" s="7">
         <v>6536</v>
       </c>
@@ -4882,7 +5275,7 @@
         <v>3011</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" ht="12.8">
@@ -4892,6 +5285,9 @@
       <c r="B139" s="7">
         <v>3</v>
       </c>
+      <c r="C139" s="7">
+        <v>1</v>
+      </c>
       <c r="D139" s="7">
         <v>0</v>
       </c>
@@ -4902,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" ht="12.8">
@@ -4912,6 +5308,9 @@
       <c r="B140" s="7">
         <v>3</v>
       </c>
+      <c r="C140" s="7">
+        <v>1</v>
+      </c>
       <c r="D140" s="7">
         <v>5595</v>
       </c>
@@ -4922,7 +5321,7 @@
         <v>1414</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" ht="12.8">
@@ -4932,6 +5331,9 @@
       <c r="B141" s="7">
         <v>3</v>
       </c>
+      <c r="C141" s="7">
+        <v>1</v>
+      </c>
       <c r="D141" s="7">
         <v>25005</v>
       </c>
@@ -4942,7 +5344,7 @@
         <v>25005</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" ht="12.8">
@@ -4952,6 +5354,9 @@
       <c r="B142" s="7">
         <v>3</v>
       </c>
+      <c r="C142" s="7">
+        <v>1</v>
+      </c>
       <c r="D142" s="7">
         <v>4341</v>
       </c>
@@ -4962,7 +5367,7 @@
         <v>4341</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" ht="12.8">
@@ -4972,6 +5377,9 @@
       <c r="B143" s="7">
         <v>3</v>
       </c>
+      <c r="C143" s="7">
+        <v>1</v>
+      </c>
       <c r="D143" s="7">
         <v>4449</v>
       </c>
@@ -4982,7 +5390,7 @@
         <v>4449</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144" ht="12.8">
@@ -4992,6 +5400,9 @@
       <c r="B144" s="7">
         <v>3</v>
       </c>
+      <c r="C144" s="7">
+        <v>1</v>
+      </c>
       <c r="D144" s="7">
         <v>4449</v>
       </c>
@@ -5002,7 +5413,7 @@
         <v>4449</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145" ht="12.8">
@@ -5012,6 +5423,9 @@
       <c r="B145" s="7">
         <v>3</v>
       </c>
+      <c r="C145" s="7">
+        <v>1</v>
+      </c>
       <c r="D145" s="7">
         <v>193</v>
       </c>
@@ -5022,7 +5436,7 @@
         <v>5</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" ht="12.8">
@@ -5032,6 +5446,9 @@
       <c r="B146" s="7">
         <v>3</v>
       </c>
+      <c r="C146" s="7">
+        <v>1</v>
+      </c>
       <c r="D146" s="7">
         <v>1841</v>
       </c>
@@ -5042,7 +5459,7 @@
         <v>1841</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" ht="12.8">
@@ -5052,6 +5469,9 @@
       <c r="B147" s="7">
         <v>3</v>
       </c>
+      <c r="C147" s="7">
+        <v>1</v>
+      </c>
       <c r="D147" s="7">
         <v>1841</v>
       </c>
@@ -5062,7 +5482,7 @@
         <v>1841</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" ht="12.8">
@@ -5072,6 +5492,9 @@
       <c r="B148" s="7">
         <v>3</v>
       </c>
+      <c r="C148" s="7">
+        <v>1</v>
+      </c>
       <c r="D148" s="7">
         <v>1841</v>
       </c>
@@ -5082,7 +5505,7 @@
         <v>1841</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" ht="12.8">
@@ -5092,6 +5515,9 @@
       <c r="B149" s="7">
         <v>3</v>
       </c>
+      <c r="C149" s="7">
+        <v>1</v>
+      </c>
       <c r="D149" s="7">
         <v>1841</v>
       </c>
@@ -5102,7 +5528,7 @@
         <v>1841</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" ht="12.8">
@@ -5112,6 +5538,9 @@
       <c r="B150" s="7">
         <v>3</v>
       </c>
+      <c r="C150" s="7">
+        <v>1</v>
+      </c>
       <c r="D150" s="7">
         <v>1841</v>
       </c>
@@ -5122,7 +5551,7 @@
         <v>1841</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" ht="12.8">
@@ -5132,6 +5561,9 @@
       <c r="B151" s="7">
         <v>3</v>
       </c>
+      <c r="C151" s="7">
+        <v>1</v>
+      </c>
       <c r="D151" s="7">
         <v>55</v>
       </c>
@@ -5142,7 +5574,7 @@
         <v>55</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" ht="12.8">
@@ -5152,6 +5584,9 @@
       <c r="B152" s="7">
         <v>3</v>
       </c>
+      <c r="C152" s="7">
+        <v>1</v>
+      </c>
       <c r="D152" s="7">
         <v>897</v>
       </c>
@@ -5162,7 +5597,7 @@
         <v>897</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" ht="12.8">
@@ -5172,6 +5607,9 @@
       <c r="B153" s="7">
         <v>3</v>
       </c>
+      <c r="C153" s="7">
+        <v>1</v>
+      </c>
       <c r="D153" s="7">
         <v>2169</v>
       </c>
@@ -5182,7 +5620,7 @@
         <v>2169</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" ht="12.8">
@@ -5192,6 +5630,9 @@
       <c r="B154" s="7">
         <v>3</v>
       </c>
+      <c r="C154" s="7">
+        <v>1</v>
+      </c>
       <c r="D154" s="7">
         <v>12017</v>
       </c>
@@ -5202,7 +5643,7 @@
         <v>12017</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155" ht="12.8">
@@ -5212,6 +5653,9 @@
       <c r="B155" s="7">
         <v>3</v>
       </c>
+      <c r="C155" s="7">
+        <v>1</v>
+      </c>
       <c r="D155" s="7">
         <v>592</v>
       </c>
@@ -5222,7 +5666,7 @@
         <v>592</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" ht="12.8">
@@ -5232,6 +5676,9 @@
       <c r="B156" s="7">
         <v>3</v>
       </c>
+      <c r="C156" s="7">
+        <v>1</v>
+      </c>
       <c r="D156" s="7">
         <v>267</v>
       </c>
@@ -5242,7 +5689,7 @@
         <v>5</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" ht="12.8">
@@ -5252,6 +5699,9 @@
       <c r="B157" s="7">
         <v>3</v>
       </c>
+      <c r="C157" s="7">
+        <v>1</v>
+      </c>
       <c r="D157" s="7">
         <v>445</v>
       </c>
@@ -5262,7 +5712,7 @@
         <v>445</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" ht="12.8">
@@ -5272,6 +5722,9 @@
       <c r="B158" s="7">
         <v>3</v>
       </c>
+      <c r="C158" s="7">
+        <v>1</v>
+      </c>
       <c r="D158" s="7">
         <v>427</v>
       </c>
@@ -5282,7 +5735,7 @@
         <v>7</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" ht="12.8">
@@ -5292,6 +5745,9 @@
       <c r="B159" s="7">
         <v>3</v>
       </c>
+      <c r="C159" s="7">
+        <v>1</v>
+      </c>
       <c r="D159" s="7">
         <v>542</v>
       </c>
@@ -5302,7 +5758,7 @@
         <v>542</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" ht="12.8">
@@ -5312,6 +5768,9 @@
       <c r="B160" s="7">
         <v>3</v>
       </c>
+      <c r="C160" s="7">
+        <v>1</v>
+      </c>
       <c r="D160" s="7">
         <v>646</v>
       </c>
@@ -5322,7 +5781,7 @@
         <v>505</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" ht="12.8">
@@ -5332,6 +5791,9 @@
       <c r="B161" s="7">
         <v>3</v>
       </c>
+      <c r="C161" s="7">
+        <v>1</v>
+      </c>
       <c r="D161" s="7">
         <v>463</v>
       </c>
@@ -5342,7 +5804,7 @@
         <v>463</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" ht="12.8">
@@ -5350,19 +5812,22 @@
         <v>596</v>
       </c>
       <c r="B162" s="7">
+        <v>3</v>
+      </c>
+      <c r="C162" s="7">
         <v>1</v>
       </c>
       <c r="D162" s="7">
-        <v>0</v>
+        <v>28053</v>
       </c>
       <c r="E162" s="7">
-        <v>24058</v>
+        <v>27601</v>
       </c>
       <c r="F162" s="7">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" ht="12.8">
@@ -5372,6 +5837,9 @@
       <c r="B163" s="7">
         <v>3</v>
       </c>
+      <c r="C163" s="7">
+        <v>1</v>
+      </c>
       <c r="D163" s="7">
         <v>1450</v>
       </c>
@@ -5382,7 +5850,7 @@
         <v>27</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" ht="12.8">
@@ -5392,6 +5860,9 @@
       <c r="B164" s="7">
         <v>3</v>
       </c>
+      <c r="C164" s="7">
+        <v>1</v>
+      </c>
       <c r="D164" s="7">
         <v>2807</v>
       </c>
@@ -5402,7 +5873,7 @@
         <v>2807</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" ht="12.8">
@@ -5412,6 +5883,9 @@
       <c r="B165" s="7">
         <v>3</v>
       </c>
+      <c r="C165" s="7">
+        <v>1</v>
+      </c>
       <c r="D165" s="7">
         <v>1622</v>
       </c>
@@ -5422,7 +5896,7 @@
         <v>1620</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" ht="12.8">
@@ -5432,6 +5906,9 @@
       <c r="B166" s="7">
         <v>3</v>
       </c>
+      <c r="C166" s="7">
+        <v>1</v>
+      </c>
       <c r="D166" s="7">
         <v>1622</v>
       </c>
@@ -5442,7 +5919,7 @@
         <v>1618</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" ht="12.8">
@@ -5452,6 +5929,9 @@
       <c r="B167" s="7">
         <v>3</v>
       </c>
+      <c r="C167" s="7">
+        <v>1</v>
+      </c>
       <c r="D167" s="7">
         <v>1017</v>
       </c>
@@ -5462,7 +5942,7 @@
         <v>18</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" ht="12.8">
@@ -5472,6 +5952,9 @@
       <c r="B168" s="7">
         <v>3</v>
       </c>
+      <c r="C168" s="7">
+        <v>1</v>
+      </c>
       <c r="D168" s="7">
         <v>309</v>
       </c>
@@ -5482,7 +5965,7 @@
         <v>309</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" ht="12.8">
@@ -5492,6 +5975,9 @@
       <c r="B169" s="7">
         <v>3</v>
       </c>
+      <c r="C169" s="7">
+        <v>1</v>
+      </c>
       <c r="D169" s="7">
         <v>175</v>
       </c>
@@ -5502,7 +5988,7 @@
         <v>4</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" ht="12.8">
@@ -5512,6 +5998,9 @@
       <c r="B170" s="7">
         <v>1</v>
       </c>
+      <c r="C170" s="7">
+        <v>1</v>
+      </c>
       <c r="D170" s="7">
         <v>0</v>
       </c>
@@ -5522,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" ht="12.8">
@@ -5532,8 +6021,11 @@
       <c r="B171" s="7">
         <v>3</v>
       </c>
+      <c r="C171" s="7">
+        <v>1</v>
+      </c>
       <c r="D171" s="7">
-        <v>0</v>
+        <v>25532</v>
       </c>
       <c r="E171" s="7">
         <v>13937</v>
@@ -5542,7 +6034,7 @@
         <v>11595</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" ht="12.8">
@@ -5552,6 +6044,9 @@
       <c r="B172" s="7">
         <v>3</v>
       </c>
+      <c r="C172" s="7">
+        <v>1</v>
+      </c>
       <c r="D172" s="7">
         <v>25532</v>
       </c>
@@ -5562,7 +6057,7 @@
         <v>25532</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" ht="12.8">
@@ -5572,6 +6067,9 @@
       <c r="B173" s="7">
         <v>3</v>
       </c>
+      <c r="C173" s="7">
+        <v>1</v>
+      </c>
       <c r="D173" s="7">
         <v>2008</v>
       </c>
@@ -5582,7 +6080,7 @@
         <v>1164</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" ht="12.8">
@@ -5592,6 +6090,9 @@
       <c r="B174" s="7">
         <v>3</v>
       </c>
+      <c r="C174" s="7">
+        <v>1</v>
+      </c>
       <c r="D174" s="7">
         <v>0</v>
       </c>
@@ -5602,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" ht="12.8">
@@ -5612,6 +6113,9 @@
       <c r="B175" s="7">
         <v>3</v>
       </c>
+      <c r="C175" s="7">
+        <v>1</v>
+      </c>
       <c r="D175" s="7">
         <v>1948</v>
       </c>
@@ -5622,7 +6126,7 @@
         <v>13</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" ht="12.8">
@@ -5632,6 +6136,9 @@
       <c r="B176" s="7">
         <v>3</v>
       </c>
+      <c r="C176" s="7">
+        <v>1</v>
+      </c>
       <c r="D176" s="7">
         <v>2771</v>
       </c>
@@ -5642,7 +6149,7 @@
         <v>950</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" ht="12.8">
@@ -5652,6 +6159,9 @@
       <c r="B177" s="7">
         <v>3</v>
       </c>
+      <c r="C177" s="7">
+        <v>1</v>
+      </c>
       <c r="D177" s="7">
         <v>67</v>
       </c>
@@ -5662,7 +6172,7 @@
         <v>67</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" ht="12.8">
@@ -5672,6 +6182,9 @@
       <c r="B178" s="7">
         <v>3</v>
       </c>
+      <c r="C178" s="7">
+        <v>1</v>
+      </c>
       <c r="D178" s="7">
         <v>340</v>
       </c>
@@ -5682,7 +6195,7 @@
         <v>340</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" ht="12.8">
@@ -5692,6 +6205,9 @@
       <c r="B179" s="7">
         <v>3</v>
       </c>
+      <c r="C179" s="7">
+        <v>1</v>
+      </c>
       <c r="D179" s="7">
         <v>34095</v>
       </c>
@@ -5702,7 +6218,7 @@
         <v>34095</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180" ht="12.8">
@@ -5712,6 +6228,9 @@
       <c r="B180" s="7">
         <v>3</v>
       </c>
+      <c r="C180" s="7">
+        <v>1</v>
+      </c>
       <c r="D180" s="7">
         <v>2005</v>
       </c>
@@ -5722,7 +6241,7 @@
         <v>732</v>
       </c>
       <c r="G180" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181" ht="12.8">
@@ -5732,6 +6251,9 @@
       <c r="B181" s="7">
         <v>3</v>
       </c>
+      <c r="C181" s="7">
+        <v>1</v>
+      </c>
       <c r="D181" s="7">
         <v>4449</v>
       </c>
@@ -5742,7 +6264,7 @@
         <v>4449</v>
       </c>
       <c r="G181" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182" ht="12.8">
@@ -5752,6 +6274,9 @@
       <c r="B182" s="7">
         <v>3</v>
       </c>
+      <c r="C182" s="7">
+        <v>1</v>
+      </c>
       <c r="D182" s="7">
         <v>4449</v>
       </c>
@@ -5762,7 +6287,7 @@
         <v>4449</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183" ht="12.8">
@@ -5772,6 +6297,9 @@
       <c r="B183" s="7">
         <v>3</v>
       </c>
+      <c r="C183" s="7">
+        <v>1</v>
+      </c>
       <c r="D183" s="7">
         <v>4449</v>
       </c>
@@ -5782,7 +6310,7 @@
         <v>4449</v>
       </c>
       <c r="G183" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" ht="12.8">
@@ -5790,6 +6318,9 @@
         <v>618</v>
       </c>
       <c r="B184" s="7">
+        <v>3</v>
+      </c>
+      <c r="C184" s="7">
         <v>1</v>
       </c>
       <c r="D184" s="7">
@@ -5799,10 +6330,10 @@
         <v>0</v>
       </c>
       <c r="F184" s="7">
-        <v>714</v>
+        <v>1282</v>
       </c>
       <c r="G184" s="7" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" ht="12.8">
@@ -5812,6 +6343,9 @@
       <c r="B185" s="7">
         <v>3</v>
       </c>
+      <c r="C185" s="7">
+        <v>1</v>
+      </c>
       <c r="D185" s="7">
         <v>3195</v>
       </c>
@@ -5822,7 +6356,7 @@
         <v>3195</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" ht="12.8">
@@ -5832,6 +6366,9 @@
       <c r="B186" s="7">
         <v>3</v>
       </c>
+      <c r="C186" s="7">
+        <v>1</v>
+      </c>
       <c r="D186" s="7">
         <v>1949</v>
       </c>
@@ -5842,7 +6379,7 @@
         <v>1949</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187" ht="12.8">
@@ -5852,6 +6389,9 @@
       <c r="B187" s="7">
         <v>3</v>
       </c>
+      <c r="C187" s="7">
+        <v>1</v>
+      </c>
       <c r="D187" s="7">
         <v>2251</v>
       </c>
@@ -5862,7 +6402,7 @@
         <v>2251</v>
       </c>
       <c r="G187" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188" ht="12.8">
@@ -5872,6 +6412,9 @@
       <c r="B188" s="7">
         <v>3</v>
       </c>
+      <c r="C188" s="7">
+        <v>1</v>
+      </c>
       <c r="D188" s="7">
         <v>2601</v>
       </c>
@@ -5882,7 +6425,7 @@
         <v>2601</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189" ht="12.8">
@@ -5892,6 +6435,9 @@
       <c r="B189" s="7">
         <v>3</v>
       </c>
+      <c r="C189" s="7">
+        <v>1</v>
+      </c>
       <c r="D189" s="7">
         <v>3295</v>
       </c>
@@ -5902,7 +6448,7 @@
         <v>3204</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" ht="12.8">
@@ -5912,6 +6458,9 @@
       <c r="B190" s="7">
         <v>3</v>
       </c>
+      <c r="C190" s="7">
+        <v>1</v>
+      </c>
       <c r="D190" s="7">
         <v>8628</v>
       </c>
@@ -5922,7 +6471,7 @@
         <v>8628</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191" ht="12.8">
@@ -5932,6 +6481,9 @@
       <c r="B191" s="7">
         <v>3</v>
       </c>
+      <c r="C191" s="7">
+        <v>1</v>
+      </c>
       <c r="D191" s="7">
         <v>5584</v>
       </c>
@@ -5942,7 +6494,7 @@
         <v>5584</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192" ht="12.8">
@@ -5952,6 +6504,9 @@
       <c r="B192" s="7">
         <v>3</v>
       </c>
+      <c r="C192" s="7">
+        <v>1</v>
+      </c>
       <c r="D192" s="7">
         <v>5584</v>
       </c>
@@ -5962,7 +6517,7 @@
         <v>5584</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193" ht="12.8">
@@ -5972,6 +6527,9 @@
       <c r="B193" s="7">
         <v>3</v>
       </c>
+      <c r="C193" s="7">
+        <v>1</v>
+      </c>
       <c r="D193" s="7">
         <v>1115</v>
       </c>
@@ -5982,7 +6540,7 @@
         <v>1115</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194" ht="12.8">
@@ -5992,6 +6550,9 @@
       <c r="B194" s="7">
         <v>3</v>
       </c>
+      <c r="C194" s="7">
+        <v>1</v>
+      </c>
       <c r="D194" s="7">
         <v>469</v>
       </c>
@@ -6002,7 +6563,7 @@
         <v>469</v>
       </c>
       <c r="G194" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195" ht="12.8">
@@ -6010,7 +6571,10 @@
         <v>629</v>
       </c>
       <c r="B195" s="7">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C195" s="7">
+        <v>1</v>
       </c>
       <c r="D195" s="7">
         <v>0</v>
@@ -6022,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
     </row>
     <row r="196" ht="12.8">
@@ -6032,6 +6596,9 @@
       <c r="B196" s="7">
         <v>3</v>
       </c>
+      <c r="C196" s="7">
+        <v>1</v>
+      </c>
       <c r="D196" s="7">
         <v>28</v>
       </c>
@@ -6042,7 +6609,7 @@
         <v>28</v>
       </c>
       <c r="G196" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197" ht="12.8">
@@ -6050,7 +6617,10 @@
         <v>631</v>
       </c>
       <c r="B197" s="7">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C197" s="7">
+        <v>1</v>
       </c>
       <c r="D197" s="7">
         <v>47475</v>
@@ -6059,10 +6629,10 @@
         <v>0</v>
       </c>
       <c r="F197" s="7">
-        <v>0</v>
+        <v>47475</v>
       </c>
       <c r="G197" s="7" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198" ht="12.8">
@@ -6070,19 +6640,22 @@
         <v>632</v>
       </c>
       <c r="B198" s="7">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C198" s="7">
+        <v>1</v>
       </c>
       <c r="D198" s="7">
         <v>35226</v>
       </c>
       <c r="E198" s="7">
-        <v>1994</v>
+        <v>20397</v>
       </c>
       <c r="F198" s="7">
-        <v>32</v>
+        <v>7076</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199" ht="12.8">
@@ -6092,6 +6665,9 @@
       <c r="B199" s="7">
         <v>3</v>
       </c>
+      <c r="C199" s="7">
+        <v>1</v>
+      </c>
       <c r="D199" s="7">
         <v>4449</v>
       </c>
@@ -6102,7 +6678,7 @@
         <v>4449</v>
       </c>
       <c r="G199" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200" ht="12.8">
@@ -6112,6 +6688,9 @@
       <c r="B200" s="7">
         <v>3</v>
       </c>
+      <c r="C200" s="7">
+        <v>1</v>
+      </c>
       <c r="D200" s="7">
         <v>4449</v>
       </c>
@@ -6122,7 +6701,7 @@
         <v>4449</v>
       </c>
       <c r="G200" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" ht="12.8">
@@ -6132,6 +6711,9 @@
       <c r="B201" s="7">
         <v>3</v>
       </c>
+      <c r="C201" s="7">
+        <v>1</v>
+      </c>
       <c r="D201" s="7">
         <v>1395</v>
       </c>
@@ -6142,7 +6724,7 @@
         <v>1395</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202" ht="12.8">
@@ -6152,6 +6734,9 @@
       <c r="B202" s="7">
         <v>3</v>
       </c>
+      <c r="C202" s="7">
+        <v>1</v>
+      </c>
       <c r="D202" s="7">
         <v>2977</v>
       </c>
@@ -6162,7 +6747,7 @@
         <v>2977</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203" ht="12.8">
@@ -6172,6 +6757,9 @@
       <c r="B203" s="7">
         <v>3</v>
       </c>
+      <c r="C203" s="7">
+        <v>1</v>
+      </c>
       <c r="D203" s="7">
         <v>2995</v>
       </c>
@@ -6182,7 +6770,7 @@
         <v>2995</v>
       </c>
       <c r="G203" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204" ht="12.8">
@@ -6192,6 +6780,9 @@
       <c r="B204" s="7">
         <v>3</v>
       </c>
+      <c r="C204" s="7">
+        <v>1</v>
+      </c>
       <c r="D204" s="7">
         <v>2324</v>
       </c>
@@ -6202,7 +6793,7 @@
         <v>2324</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="205" ht="12.8">
@@ -6212,6 +6803,9 @@
       <c r="B205" s="7">
         <v>3</v>
       </c>
+      <c r="C205" s="7">
+        <v>1</v>
+      </c>
       <c r="D205" s="7">
         <v>192980</v>
       </c>
@@ -6222,7 +6816,7 @@
         <v>192980</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="206" ht="12.8">
@@ -6232,6 +6826,9 @@
       <c r="B206" s="7">
         <v>3</v>
       </c>
+      <c r="C206" s="7">
+        <v>1</v>
+      </c>
       <c r="D206" s="7">
         <v>28279</v>
       </c>
@@ -6242,7 +6839,7 @@
         <v>28269</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207" ht="12.8">
@@ -6252,6 +6849,9 @@
       <c r="B207" s="7">
         <v>3</v>
       </c>
+      <c r="C207" s="7">
+        <v>1</v>
+      </c>
       <c r="D207" s="7">
         <v>11690</v>
       </c>
@@ -6262,7 +6862,7 @@
         <v>11690</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208" ht="12.8">
@@ -6272,6 +6872,9 @@
       <c r="B208" s="7">
         <v>3</v>
       </c>
+      <c r="C208" s="7">
+        <v>1</v>
+      </c>
       <c r="D208" s="7">
         <v>1355</v>
       </c>
@@ -6282,7 +6885,7 @@
         <v>1355</v>
       </c>
       <c r="G208" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209" ht="12.8">
@@ -6290,7 +6893,10 @@
         <v>643</v>
       </c>
       <c r="B209" s="7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C209" s="7">
+        <v>1</v>
       </c>
       <c r="D209" s="7">
         <v>320</v>
@@ -6302,7 +6908,7 @@
         <v>1</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210" ht="12.8">
@@ -6312,6 +6918,9 @@
       <c r="B210" s="7">
         <v>3</v>
       </c>
+      <c r="C210" s="7">
+        <v>1</v>
+      </c>
       <c r="D210" s="7">
         <v>180</v>
       </c>
@@ -6322,7 +6931,7 @@
         <v>77</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" ht="12.8">
@@ -6332,6 +6941,9 @@
       <c r="B211" s="7">
         <v>3</v>
       </c>
+      <c r="C211" s="7">
+        <v>1</v>
+      </c>
       <c r="D211" s="7">
         <v>2118</v>
       </c>
@@ -6342,7 +6954,7 @@
         <v>1761</v>
       </c>
       <c r="G211" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212" ht="12.8">
@@ -6350,19 +6962,22 @@
         <v>646</v>
       </c>
       <c r="B212" s="7">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C212" s="7">
+        <v>1</v>
       </c>
       <c r="D212" s="7">
         <v>7726</v>
       </c>
       <c r="E212" s="7">
-        <v>2275</v>
+        <v>6669</v>
       </c>
       <c r="F212" s="7">
-        <v>468</v>
+        <v>1057</v>
       </c>
       <c r="G212" s="7" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213" ht="12.8">
@@ -6372,6 +6987,9 @@
       <c r="B213" s="7">
         <v>3</v>
       </c>
+      <c r="C213" s="7">
+        <v>1</v>
+      </c>
       <c r="D213" s="7">
         <v>3030</v>
       </c>
@@ -6382,7 +7000,7 @@
         <v>2626</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" ht="12.8">
@@ -6390,19 +7008,22 @@
         <v>648</v>
       </c>
       <c r="B214" s="7">
+        <v>3</v>
+      </c>
+      <c r="C214" s="7">
         <v>1</v>
       </c>
       <c r="D214" s="7">
         <v>10182</v>
       </c>
       <c r="E214" s="7">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F214" s="7">
-        <v>9666</v>
+        <v>9901</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215" ht="12.8">
@@ -6412,6 +7033,9 @@
       <c r="B215" s="7">
         <v>3</v>
       </c>
+      <c r="C215" s="7">
+        <v>1</v>
+      </c>
       <c r="D215" s="7">
         <v>3529</v>
       </c>
@@ -6422,7 +7046,7 @@
         <v>1010</v>
       </c>
       <c r="G215" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216" ht="12.8">
@@ -6432,6 +7056,9 @@
       <c r="B216" s="7">
         <v>4</v>
       </c>
+      <c r="C216" s="7">
+        <v>1</v>
+      </c>
       <c r="D216" s="7">
         <v>0</v>
       </c>
@@ -6442,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="G216" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217" ht="12.8">
@@ -6452,6 +7079,9 @@
       <c r="B217" s="7">
         <v>3</v>
       </c>
+      <c r="C217" s="7">
+        <v>1</v>
+      </c>
       <c r="D217" s="7">
         <v>173</v>
       </c>
@@ -6462,7 +7092,7 @@
         <v>72</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218" ht="12.8">
@@ -6472,6 +7102,9 @@
       <c r="B218" s="7">
         <v>3</v>
       </c>
+      <c r="C218" s="7">
+        <v>1</v>
+      </c>
       <c r="D218" s="7">
         <v>3843</v>
       </c>
@@ -6482,7 +7115,7 @@
         <v>3843</v>
       </c>
       <c r="G218" s="7" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="219" ht="12.8">
@@ -6492,6 +7125,9 @@
       <c r="B219" s="7">
         <v>3</v>
       </c>
+      <c r="C219" s="7">
+        <v>1</v>
+      </c>
       <c r="D219" s="7">
         <v>106</v>
       </c>
@@ -6502,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="G219" s="7" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
     </row>
     <row r="220" ht="12.8">
@@ -6510,19 +7146,22 @@
         <v>654</v>
       </c>
       <c r="B220" s="7">
+        <v>3</v>
+      </c>
+      <c r="C220" s="7">
         <v>1</v>
       </c>
       <c r="D220" s="7">
         <v>192980</v>
       </c>
       <c r="E220" s="7">
-        <v>336</v>
+        <v>487</v>
       </c>
       <c r="F220" s="7">
-        <v>103051</v>
+        <v>192493</v>
       </c>
       <c r="G220" s="7" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221" ht="12.8">
@@ -6530,128 +7169,169 @@
         <v>655</v>
       </c>
       <c r="B221" s="7">
-        <v>1</v>
-      </c>
-      <c r="D221" s="0">
-        <v>0</v>
-      </c>
-      <c r="E221" s="0">
-        <v>27672</v>
-      </c>
-      <c r="F221" s="0">
-        <v>1056</v>
-      </c>
-      <c r="G221" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="0">
+        <v>3</v>
+      </c>
+      <c r="C221" s="7">
+        <v>1</v>
+      </c>
+      <c r="D221" s="7">
+        <v>28960</v>
+      </c>
+      <c r="E221" s="7">
+        <v>27895</v>
+      </c>
+      <c r="F221" s="7">
+        <v>1065</v>
+      </c>
+      <c r="G221" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" ht="12.8">
+      <c r="A222" s="7">
         <v>657</v>
       </c>
-      <c r="B222" s="0">
-        <v>3</v>
-      </c>
-      <c r="D222" s="0">
-        <v>0</v>
-      </c>
-      <c r="E222" s="0">
-        <v>0</v>
-      </c>
-      <c r="F222" s="0">
-        <v>0</v>
-      </c>
-      <c r="G222" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="0">
+      <c r="B222" s="7">
+        <v>3</v>
+      </c>
+      <c r="C222" s="7">
+        <v>1</v>
+      </c>
+      <c r="D222" s="7">
+        <v>0</v>
+      </c>
+      <c r="E222" s="7">
+        <v>0</v>
+      </c>
+      <c r="F222" s="7">
+        <v>0</v>
+      </c>
+      <c r="G222" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" ht="12.8">
+      <c r="A223" s="7">
         <v>658</v>
       </c>
-      <c r="B223" s="0">
-        <v>3</v>
-      </c>
-      <c r="D223" s="0">
+      <c r="B223" s="7">
+        <v>3</v>
+      </c>
+      <c r="C223" s="7">
+        <v>1</v>
+      </c>
+      <c r="D223" s="7">
         <v>5</v>
       </c>
-      <c r="E223" s="0">
-        <v>1</v>
-      </c>
-      <c r="F223" s="0">
+      <c r="E223" s="7">
+        <v>1</v>
+      </c>
+      <c r="F223" s="7">
         <v>4</v>
       </c>
-      <c r="G223" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="0">
+      <c r="G223" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" ht="12.8">
+      <c r="A224" s="7">
         <v>659</v>
       </c>
-      <c r="B224" s="0">
-        <v>3</v>
-      </c>
-      <c r="D224" s="0">
+      <c r="B224" s="7">
+        <v>3</v>
+      </c>
+      <c r="C224" s="7">
+        <v>1</v>
+      </c>
+      <c r="D224" s="7">
         <v>2</v>
       </c>
-      <c r="E224" s="0">
-        <v>0</v>
-      </c>
-      <c r="F224" s="0">
+      <c r="E224" s="7">
+        <v>0</v>
+      </c>
+      <c r="F224" s="7">
         <v>2</v>
       </c>
-      <c r="G224" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="0">
+      <c r="G224" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" ht="12.8">
+      <c r="A225" s="7">
         <v>660</v>
       </c>
-      <c r="B225" s="0">
-        <v>3</v>
-      </c>
-      <c r="D225" s="0">
+      <c r="B225" s="7">
+        <v>3</v>
+      </c>
+      <c r="C225" s="7">
+        <v>1</v>
+      </c>
+      <c r="D225" s="7">
         <v>307</v>
       </c>
-      <c r="E225" s="0">
+      <c r="E225" s="7">
         <v>297</v>
       </c>
-      <c r="F225" s="0">
-        <v>10</v>
-      </c>
-      <c r="G225" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="0">
+      <c r="F225" s="7">
+        <v>10</v>
+      </c>
+      <c r="G225" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" ht="23.85">
+      <c r="A226" s="7">
         <v>662</v>
       </c>
-      <c r="B226" s="0">
-        <v>1</v>
-      </c>
-      <c r="D226" s="0">
+      <c r="B226" s="7">
+        <v>1</v>
+      </c>
+      <c r="C226" s="7">
+        <v>1</v>
+      </c>
+      <c r="D226" s="7">
         <v>9540</v>
       </c>
-      <c r="E226" s="0">
-        <v>0</v>
-      </c>
-      <c r="F226" s="0">
-        <v>67</v>
-      </c>
-      <c r="G226" s="0" t="s">
-        <v>114</v>
+      <c r="E226" s="7">
+        <v>0</v>
+      </c>
+      <c r="F226" s="7">
+        <v>9163</v>
+      </c>
+      <c r="G226" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" ht="12.8">
+      <c r="A227" s="7">
+        <v>663</v>
+      </c>
+      <c r="B227" s="7">
+        <v>1</v>
+      </c>
+      <c r="C227" s="7">
+        <v>1</v>
+      </c>
+      <c r="D227" s="7">
+        <v>0</v>
+      </c>
+      <c r="E227" s="7">
+        <v>0</v>
+      </c>
+      <c r="F227" s="7">
+        <v>0</v>
+      </c>
+      <c r="G227" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/RcOnline/base.xlsx
+++ b/RcOnline/base.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Companies" sheetId="1" r:id="rId2"/>
@@ -21,62 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Attempts</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>Errors</t>
-  </si>
-  <si>
-    <t>ErrorMessage</t>
-  </si>
-  <si>
-    <t>Выгрузка ЛС завершена.</t>
-  </si>
-  <si>
-    <t>Не найдено жилое помещение</t>
-  </si>
-  <si>
-    <t>Выгрузка начислений завершена.</t>
-  </si>
-  <si>
-    <t>Выгрузка ПУ завершена.</t>
-  </si>
-  <si>
-    <t>Не найдены реселлеры в Биллинг Онлайн</t>
-  </si>
-  <si>
-    <t>Выполняю выгрузку ПУ в ГИС ЖКХ для компании ООО УК "СУХОЛОЖСКАЯ"</t>
-  </si>
-  <si>
-    <t>Выполняю выгрузку начислений в ГИС ЖКХ для компании ООО "УК МАЙ"</t>
-  </si>
-  <si>
-    <t>ПД выгружен успешно</t>
-  </si>
-  <si>
-    <t>Интеграция всех ЛС завершена, запустите новую, если необходимо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнение операции невозможно:
-отсутствует размещенный договор ресурсоснабжения или договор управления/устава по указанному объекту жилищного фонда.</t>
-  </si>
-  <si>
-    <t>Выполняю выгрузку начислений в ГИС ЖКХ для компании АО "Облкоммунэнерго"</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Компания</t>
   </si>
@@ -362,14 +307,64 @@
   </si>
   <si>
     <t>ТСЖ "Чаплина-115"</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Attempts</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Errors</t>
+  </si>
+  <si>
+    <t>ErrorMessage</t>
+  </si>
+  <si>
+    <t>Выгрузка ЛС завершена.</t>
+  </si>
+  <si>
+    <t>Выгрузка начислений завершена.</t>
+  </si>
+  <si>
+    <t>Выгрузка ПУ завершена.</t>
+  </si>
+  <si>
+    <t>Не найдены реселлеры в Биллинг Онлайн</t>
+  </si>
+  <si>
+    <t>Статус курсора на сервере РЦ Онлайн:2006</t>
+  </si>
+  <si>
+    <t>Не загружен справочник НСИ 1 (Доп. услуги)</t>
+  </si>
+  <si>
+    <t>Интеграция всех ЛС завершена, запустите новую, если необходимо</t>
+  </si>
+  <si>
+    <t>Не найдены услуги в ГИС ЖКХ: 'Вывоз мусора, Ремонт и содержание жилого фонда'</t>
+  </si>
+  <si>
+    <t>По значениям «БИК банка» и «Расчетный счет» не найдены платежные реквизиты</t>
+  </si>
+  <si>
+    <t>ПД выгружен успешно</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
@@ -449,50 +444,50 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E77" activeCellId="0" sqref="E77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="32.9387755102041" customWidth="1"/>
-    <col min="2" max="2" width="15.9285714285714" customWidth="1"/>
-    <col min="3" max="3" width="8.50510204081633" customWidth="1"/>
-    <col min="4" max="4" width="13.9030612244898" customWidth="1"/>
-    <col min="5" max="5" width="14.3112244897959" customWidth="1"/>
-    <col min="6" max="6" width="14.0408163265306" customWidth="1"/>
-    <col min="7" max="1025" width="8.50510204081633" customWidth="1"/>
+    <col min="1" max="1" width="32.94" customWidth="1"/>
+    <col min="2" max="2" width="15.93" customWidth="1"/>
+    <col min="3" max="3" width="8.52" customWidth="1"/>
+    <col min="4" max="4" width="13.89" customWidth="1"/>
+    <col min="5" max="5" width="14.31" customWidth="1"/>
+    <col min="6" max="6" width="14.04" customWidth="1"/>
+    <col min="7" max="1025" width="8.52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.8" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="12.8">
       <c r="A2" s="7" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D2" s="7">
         <v>441</v>
@@ -506,13 +501,13 @@
     </row>
     <row r="3" ht="12.8">
       <c r="A3" s="7" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D3" s="7">
         <v>444</v>
@@ -526,13 +521,13 @@
     </row>
     <row r="4" ht="12.8">
       <c r="A4" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
         <v>445</v>
@@ -540,10 +535,13 @@
       <c r="E4" s="7">
         <v>662</v>
       </c>
+      <c r="F4" s="7">
+        <v>666</v>
+      </c>
     </row>
     <row r="5" ht="12.8">
       <c r="A5" s="7" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B5" s="7">
         <v>1116674008098</v>
@@ -563,7 +561,7 @@
     </row>
     <row r="6" ht="12.8">
       <c r="A6" s="7" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B6" s="7">
         <v>1047405001049</v>
@@ -583,7 +581,7 @@
     </row>
     <row r="7" ht="23.95">
       <c r="A7" s="7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B7" s="7">
         <v>5117401000129</v>
@@ -603,7 +601,7 @@
     </row>
     <row r="8" ht="12.8">
       <c r="A8" s="7" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B8" s="7">
         <v>1113668050704</v>
@@ -623,7 +621,7 @@
     </row>
     <row r="9" ht="12.8">
       <c r="A9" s="7" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7">
         <v>1123668013370</v>
@@ -643,7 +641,7 @@
     </row>
     <row r="10" ht="23.95">
       <c r="A10" s="8" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B10" s="7">
         <v>1057420008590</v>
@@ -663,7 +661,7 @@
     </row>
     <row r="11" ht="12.8">
       <c r="A11" s="7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B11" s="7">
         <v>1057421013055</v>
@@ -683,7 +681,7 @@
     </row>
     <row r="12" ht="12.8">
       <c r="A12" s="7" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B12" s="7">
         <v>1067203121810</v>
@@ -703,7 +701,7 @@
     </row>
     <row r="13" ht="12.8">
       <c r="A13" s="7" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B13" s="7">
         <v>1057421012923</v>
@@ -723,7 +721,7 @@
     </row>
     <row r="14" ht="12.8">
       <c r="A14" s="7" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B14" s="7">
         <v>1134704001310</v>
@@ -743,7 +741,7 @@
     </row>
     <row r="15" ht="12.8">
       <c r="A15" s="7" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B15" s="7">
         <v>1107232034777</v>
@@ -763,7 +761,7 @@
     </row>
     <row r="16" ht="12.8">
       <c r="A16" s="7" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B16" s="7">
         <v>1156658040879</v>
@@ -783,7 +781,7 @@
     </row>
     <row r="17" ht="12.8">
       <c r="A17" s="7" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B17" s="7">
         <v>1107456001840</v>
@@ -803,7 +801,7 @@
     </row>
     <row r="18" ht="12.8">
       <c r="A18" s="7" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B18" s="7">
         <v>1067438009231</v>
@@ -823,7 +821,7 @@
     </row>
     <row r="19" ht="23.85">
       <c r="A19" s="7" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B19" s="7">
         <v>1087232009094</v>
@@ -843,7 +841,7 @@
     </row>
     <row r="20" ht="12.8">
       <c r="A20" s="7" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B20" s="7">
         <v>1067203024778</v>
@@ -863,7 +861,7 @@
     </row>
     <row r="21" ht="12.8">
       <c r="A21" s="7" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B21" s="7">
         <v>1037200551277</v>
@@ -883,7 +881,7 @@
     </row>
     <row r="22" ht="12.8">
       <c r="A22" s="7" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B22" s="7">
         <v>1037200601690</v>
@@ -903,7 +901,7 @@
     </row>
     <row r="23" ht="12.8">
       <c r="A23" s="7" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B23" s="7">
         <v>1037200588787</v>
@@ -923,7 +921,7 @@
     </row>
     <row r="24" ht="12.8">
       <c r="A24" s="7" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B24" s="7">
         <v>1065032016928</v>
@@ -943,7 +941,7 @@
     </row>
     <row r="25" ht="12.8">
       <c r="A25" s="7" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B25" s="7">
         <v>1036602185290</v>
@@ -963,7 +961,7 @@
     </row>
     <row r="26" ht="12.8">
       <c r="A26" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B26" s="7">
         <v>1066142015587</v>
@@ -983,7 +981,7 @@
     </row>
     <row r="27" ht="23.85">
       <c r="A27" s="7" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B27" s="7">
         <v>1156623000214</v>
@@ -1003,7 +1001,7 @@
     </row>
     <row r="28" ht="12.8">
       <c r="A28" s="7" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B28" s="7">
         <v>1096623000429</v>
@@ -1023,7 +1021,7 @@
     </row>
     <row r="29" ht="12.8">
       <c r="A29" s="7" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B29" s="7">
         <v>1106623001319</v>
@@ -1043,7 +1041,7 @@
     </row>
     <row r="30" ht="12.8">
       <c r="A30" s="7" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B30" s="7">
         <v>1096623001310</v>
@@ -1063,7 +1061,7 @@
     </row>
     <row r="31" ht="12.8">
       <c r="A31" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B31" s="7">
         <v>1096623009163</v>
@@ -1083,7 +1081,7 @@
     </row>
     <row r="32" ht="12.8">
       <c r="A32" s="7" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B32" s="7">
         <v>1069623031576</v>
@@ -1103,7 +1101,7 @@
     </row>
     <row r="33" ht="12.8">
       <c r="A33" s="7" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B33" s="7">
         <v>1146623006100</v>
@@ -1123,7 +1121,7 @@
     </row>
     <row r="34" ht="12.8">
       <c r="A34" s="7" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B34" s="7">
         <v>1096623000286</v>
@@ -1143,7 +1141,7 @@
     </row>
     <row r="35" ht="12.8">
       <c r="A35" s="7" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B35" s="7">
         <v>1155050005703</v>
@@ -1163,7 +1161,7 @@
     </row>
     <row r="36" ht="12.8">
       <c r="A36" s="7" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B36" s="7">
         <v>1106639001028</v>
@@ -1183,7 +1181,7 @@
     </row>
     <row r="37" ht="12.8">
       <c r="A37" s="7" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B37" s="7">
         <v>1106639000973</v>
@@ -1203,7 +1201,7 @@
     </row>
     <row r="38" ht="23.85">
       <c r="A38" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B38" s="7">
         <v>1156658098266</v>
@@ -1223,7 +1221,7 @@
     </row>
     <row r="39" ht="23.95">
       <c r="A39" s="7" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B39" s="7">
         <v>1156658098266</v>
@@ -1243,7 +1241,7 @@
     </row>
     <row r="40" ht="23.95">
       <c r="A40" s="7" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B40" s="7">
         <v>1156658098266</v>
@@ -1263,7 +1261,7 @@
     </row>
     <row r="41" ht="23.95">
       <c r="A41" s="7" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B41" s="7">
         <v>1156658098266</v>
@@ -1283,7 +1281,7 @@
     </row>
     <row r="42" ht="23.95">
       <c r="A42" s="7" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B42" s="7">
         <v>1156658098266</v>
@@ -1303,7 +1301,7 @@
     </row>
     <row r="43" ht="12.8">
       <c r="A43" s="7" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B43" s="7">
         <v>1156658098266</v>
@@ -1323,7 +1321,7 @@
     </row>
     <row r="44" ht="12.8">
       <c r="A44" s="7" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B44" s="7">
         <v>1156658098266</v>
@@ -1331,10 +1329,19 @@
       <c r="C44" s="7">
         <v>162</v>
       </c>
+      <c r="D44" s="7">
+        <v>667</v>
+      </c>
+      <c r="E44" s="7">
+        <v>672</v>
+      </c>
+      <c r="F44" s="7">
+        <v>677</v>
+      </c>
     </row>
     <row r="45" ht="12.8">
       <c r="A45" s="7" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B45" s="7">
         <v>1156658098266</v>
@@ -1342,10 +1349,19 @@
       <c r="C45" s="7">
         <v>285</v>
       </c>
+      <c r="D45" s="7">
+        <v>679</v>
+      </c>
+      <c r="E45" s="7">
+        <v>680</v>
+      </c>
+      <c r="F45" s="7">
+        <v>681</v>
+      </c>
     </row>
     <row r="46" ht="12.8">
       <c r="A46" s="7" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B46" s="7">
         <v>1156658098266</v>
@@ -1353,10 +1369,19 @@
       <c r="C46" s="7">
         <v>177</v>
       </c>
+      <c r="D46" s="7">
+        <v>682</v>
+      </c>
+      <c r="E46" s="7">
+        <v>683</v>
+      </c>
+      <c r="F46" s="7">
+        <v>689</v>
+      </c>
     </row>
     <row r="47" ht="23.95">
       <c r="A47" s="7" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B47" s="7">
         <v>1156658098266</v>
@@ -1367,10 +1392,16 @@
       <c r="D47" s="7">
         <v>436</v>
       </c>
+      <c r="E47" s="7">
+        <v>684</v>
+      </c>
+      <c r="F47" s="7">
+        <v>696</v>
+      </c>
     </row>
     <row r="48" ht="12.8">
       <c r="A48" s="7" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B48" s="7">
         <v>1156658098266</v>
@@ -1378,10 +1409,19 @@
       <c r="C48" s="7">
         <v>320</v>
       </c>
+      <c r="D48" s="7">
+        <v>685</v>
+      </c>
+      <c r="E48" s="7">
+        <v>690</v>
+      </c>
+      <c r="F48" s="7">
+        <v>693</v>
+      </c>
     </row>
     <row r="49" ht="23.95">
       <c r="A49" s="7" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B49" s="7">
         <v>1156658098266</v>
@@ -1389,10 +1429,19 @@
       <c r="C49" s="7">
         <v>92</v>
       </c>
+      <c r="D49" s="7">
+        <v>686</v>
+      </c>
+      <c r="E49" s="7">
+        <v>691</v>
+      </c>
+      <c r="F49" s="7">
+        <v>695</v>
+      </c>
     </row>
     <row r="50" ht="23.95">
       <c r="A50" s="7" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B50" s="7">
         <v>1156658098266</v>
@@ -1400,10 +1449,19 @@
       <c r="C50" s="7">
         <v>283</v>
       </c>
+      <c r="D50" s="7">
+        <v>687</v>
+      </c>
+      <c r="E50" s="7">
+        <v>692</v>
+      </c>
+      <c r="F50" s="7">
+        <v>694</v>
+      </c>
     </row>
     <row r="51" ht="12.8">
       <c r="A51" s="7" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B51" s="7">
         <v>1106639000962</v>
@@ -1423,7 +1481,7 @@
     </row>
     <row r="52" ht="12.8">
       <c r="A52" s="7" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B52" s="7">
         <v>1106639000896</v>
@@ -1443,7 +1501,7 @@
     </row>
     <row r="53" ht="12.8">
       <c r="A53" s="7" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B53" s="7">
         <v>1106639000907</v>
@@ -1463,7 +1521,7 @@
     </row>
     <row r="54" ht="12.8">
       <c r="A54" s="7" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B54" s="7">
         <v>1106639000951</v>
@@ -1483,7 +1541,7 @@
     </row>
     <row r="55" ht="12.8">
       <c r="A55" s="7" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B55" s="7">
         <v>1146683001420</v>
@@ -1503,7 +1561,7 @@
     </row>
     <row r="56" ht="12.8">
       <c r="A56" s="7" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B56" s="7">
         <v>1116671011050</v>
@@ -1523,7 +1581,7 @@
     </row>
     <row r="57" ht="12.8">
       <c r="A57" s="7" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B57" s="7">
         <v>1069639010660</v>
@@ -1543,7 +1601,7 @@
     </row>
     <row r="58" ht="12.8">
       <c r="A58" s="7" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B58" s="7">
         <v>1027200842811</v>
@@ -1563,7 +1621,7 @@
     </row>
     <row r="59" ht="12.8">
       <c r="A59" s="7" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B59" s="7">
         <v>1027200871818</v>
@@ -1583,7 +1641,7 @@
     </row>
     <row r="60" ht="12.8">
       <c r="A60" s="7" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B60" s="7">
         <v>1077203003195</v>
@@ -1603,7 +1661,7 @@
     </row>
     <row r="61" ht="12.8">
       <c r="A61" s="7" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B61" s="7">
         <v>1087232040466</v>
@@ -1623,7 +1681,7 @@
     </row>
     <row r="62" ht="12.8">
       <c r="A62" s="7" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B62" s="7">
         <v>1047200675884</v>
@@ -1643,7 +1701,7 @@
     </row>
     <row r="63" ht="23.85">
       <c r="A63" s="7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B63" s="7">
         <v>1147232021881</v>
@@ -1663,7 +1721,7 @@
     </row>
     <row r="64" ht="12.8">
       <c r="A64" s="7" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B64" s="7">
         <v>1077200004122</v>
@@ -1683,7 +1741,7 @@
     </row>
     <row r="65" ht="12.8">
       <c r="A65" s="7" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B65" s="7">
         <v>1147232017580</v>
@@ -1703,7 +1761,7 @@
     </row>
     <row r="66" ht="12.8">
       <c r="A66" s="7" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B66" s="7">
         <v>1087232040697</v>
@@ -1723,7 +1781,7 @@
     </row>
     <row r="67" ht="12.8">
       <c r="A67" s="7" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B67" s="7">
         <v>1116674014270</v>
@@ -1743,7 +1801,7 @@
     </row>
     <row r="68" ht="12.8">
       <c r="A68" s="7" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B68" s="7">
         <v>1141828000710</v>
@@ -1757,10 +1815,13 @@
       <c r="E68" s="7">
         <v>596</v>
       </c>
+      <c r="F68" s="7">
+        <v>668</v>
+      </c>
     </row>
     <row r="69" ht="12.8">
       <c r="A69" s="7" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B69" s="7">
         <v>1046601020157</v>
@@ -1780,7 +1841,7 @@
     </row>
     <row r="70" ht="12.8">
       <c r="A70" s="7" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B70" s="7">
         <v>1086639001481</v>
@@ -1800,7 +1861,7 @@
     </row>
     <row r="71" ht="12.8">
       <c r="A71" s="7" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B71" s="7">
         <v>1147232040196</v>
@@ -1820,7 +1881,7 @@
     </row>
     <row r="72" ht="12.8">
       <c r="A72" s="7" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B72" s="7">
         <v>1167232056551</v>
@@ -1840,7 +1901,7 @@
     </row>
     <row r="73" ht="12.8">
       <c r="A73" s="7" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B73" s="7">
         <v>1157232026137</v>
@@ -1860,7 +1921,7 @@
     </row>
     <row r="74" ht="12.8">
       <c r="A74" s="7" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B74" s="7">
         <v>1107232017595</v>
@@ -1880,7 +1941,7 @@
     </row>
     <row r="75" ht="12.8">
       <c r="A75" s="7" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B75" s="7">
         <v>1027200836464</v>
@@ -1900,7 +1961,7 @@
     </row>
     <row r="76" ht="12.8">
       <c r="A76" s="7" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B76" s="7">
         <v>1069633012008</v>
@@ -1917,7 +1978,7 @@
     </row>
     <row r="77" ht="12.8">
       <c r="A77" s="7" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B77" s="7">
         <v>1096607000159</v>
@@ -1937,7 +1998,7 @@
     </row>
     <row r="78" ht="12.8">
       <c r="A78" s="7" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B78" s="7">
         <v>1146623005913</v>
@@ -1957,7 +2018,7 @@
     </row>
     <row r="79" ht="12.8">
       <c r="A79" s="7" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B79" s="7">
         <v>1026600785430</v>
@@ -1977,7 +2038,7 @@
     </row>
     <row r="80" ht="12.8">
       <c r="A80" s="7" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B80" s="7">
         <v>1152036004625</v>
@@ -1997,7 +2058,7 @@
     </row>
     <row r="81" ht="12.8">
       <c r="A81" s="7" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B81" s="7">
         <v>1107232017089</v>
@@ -2017,7 +2078,7 @@
     </row>
     <row r="82" ht="12.8">
       <c r="A82" s="7" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B82" s="7">
         <v>1076633000762</v>
@@ -2037,7 +2098,7 @@
     </row>
     <row r="83" ht="12.8">
       <c r="A83" s="7" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B83" s="7">
         <v>1057200754346</v>
@@ -2057,7 +2118,7 @@
     </row>
     <row r="84" ht="12.8">
       <c r="A84" s="7" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B84" s="7">
         <v>1047200601766</v>
@@ -2078,10 +2139,10 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2091,40 +2152,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G227"/>
+  <dimension ref="A1:G249"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A211" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F229" activeCellId="0" sqref="F229"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D240" activeCellId="0" sqref="D240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="8.50510204081633" customWidth="1"/>
-    <col min="7" max="7" width="47.1122448979592" customWidth="1"/>
-    <col min="8" max="1025" width="8.50510204081633" customWidth="1"/>
+    <col min="1" max="6" width="8.52" customWidth="1"/>
+    <col min="7" max="7" width="47.11" customWidth="1"/>
+    <col min="8" max="1025" width="8.52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.8" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" ht="12.8" s="7" customFormat="1">
@@ -2147,7 +2208,7 @@
         <v>340</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" ht="12.8" s="7" customFormat="1">
@@ -2155,7 +2216,7 @@
         <v>437</v>
       </c>
       <c r="B3" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
@@ -2170,7 +2231,7 @@
         <v>559</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" ht="12.8" s="7" customFormat="1">
@@ -2178,7 +2239,7 @@
         <v>438</v>
       </c>
       <c r="B4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="7">
         <v>1</v>
@@ -2187,13 +2248,13 @@
         <v>9925</v>
       </c>
       <c r="E4" s="7">
-        <v>3939</v>
+        <v>7712</v>
       </c>
       <c r="F4" s="7">
-        <v>5986</v>
+        <v>2213</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" ht="12.8" s="7" customFormat="1">
@@ -2201,7 +2262,7 @@
         <v>439</v>
       </c>
       <c r="B5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -2210,13 +2271,13 @@
         <v>615</v>
       </c>
       <c r="E5" s="7">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="F5" s="7">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" ht="12.8" s="7" customFormat="1">
@@ -2233,13 +2294,13 @@
         <v>124753</v>
       </c>
       <c r="E6" s="7">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F6" s="7">
-        <v>124640</v>
+        <v>124638</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" ht="12.8">
@@ -2247,7 +2308,7 @@
         <v>441</v>
       </c>
       <c r="B7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -2262,7 +2323,7 @@
         <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" ht="12.8">
@@ -2285,7 +2346,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" ht="12.8">
@@ -2308,7 +2369,7 @@
         <v>723</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" ht="12.8">
@@ -2331,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" ht="12.8">
@@ -2339,7 +2400,7 @@
         <v>445</v>
       </c>
       <c r="B11" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -2348,13 +2409,13 @@
         <v>7775</v>
       </c>
       <c r="E11" s="7">
-        <v>5910</v>
+        <v>6190</v>
       </c>
       <c r="F11" s="7">
-        <v>1865</v>
+        <v>1585</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" ht="12.8">
@@ -2377,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" ht="12.8">
@@ -2400,7 +2461,7 @@
         <v>4198</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" ht="12.8">
@@ -2408,7 +2469,7 @@
         <v>448</v>
       </c>
       <c r="B14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -2423,7 +2484,7 @@
         <v>6</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" ht="12.8">
@@ -2431,7 +2492,7 @@
         <v>449</v>
       </c>
       <c r="B15" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -2440,13 +2501,13 @@
         <v>8365</v>
       </c>
       <c r="E15" s="7">
-        <v>3890</v>
+        <v>4005</v>
       </c>
       <c r="F15" s="7">
-        <v>4475</v>
+        <v>4360</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" ht="12.8">
@@ -2454,7 +2515,7 @@
         <v>450</v>
       </c>
       <c r="B16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -2463,13 +2524,13 @@
         <v>115</v>
       </c>
       <c r="E16" s="7">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" ht="12.8">
@@ -2477,7 +2538,7 @@
         <v>451</v>
       </c>
       <c r="B17" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -2486,13 +2547,13 @@
         <v>10809</v>
       </c>
       <c r="E17" s="7">
-        <v>10304</v>
+        <v>10306</v>
       </c>
       <c r="F17" s="7">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" ht="12.8">
@@ -2500,7 +2561,7 @@
         <v>452</v>
       </c>
       <c r="B18" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7">
         <v>1</v>
@@ -2515,7 +2576,7 @@
         <v>366</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" ht="12.8">
@@ -2523,7 +2584,7 @@
         <v>453</v>
       </c>
       <c r="B19" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -2532,13 +2593,13 @@
         <v>4058</v>
       </c>
       <c r="E19" s="7">
-        <v>3974</v>
+        <v>4005</v>
       </c>
       <c r="F19" s="7">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" ht="12.8">
@@ -2546,7 +2607,7 @@
         <v>454</v>
       </c>
       <c r="B20" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -2561,7 +2622,7 @@
         <v>95</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" ht="12.8">
@@ -2569,7 +2630,7 @@
         <v>455</v>
       </c>
       <c r="B21" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2578,13 +2639,13 @@
         <v>360</v>
       </c>
       <c r="E21" s="7">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F21" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" ht="12.8">
@@ -2607,7 +2668,7 @@
         <v>82</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" ht="12.8">
@@ -2630,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" ht="12.8">
@@ -2653,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" ht="12.8">
@@ -2661,7 +2722,7 @@
         <v>459</v>
       </c>
       <c r="B25" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2676,7 +2737,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" ht="12.8">
@@ -2684,7 +2745,7 @@
         <v>460</v>
       </c>
       <c r="B26" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
@@ -2693,13 +2754,13 @@
         <v>2032</v>
       </c>
       <c r="E26" s="7">
-        <v>990</v>
+        <v>1019</v>
       </c>
       <c r="F26" s="7">
-        <v>1042</v>
+        <v>1013</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" ht="12.8">
@@ -2707,7 +2768,7 @@
         <v>461</v>
       </c>
       <c r="B27" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -2722,7 +2783,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" ht="12.8">
@@ -2730,7 +2791,7 @@
         <v>462</v>
       </c>
       <c r="B28" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28" s="7">
         <v>1</v>
@@ -2745,7 +2806,7 @@
         <v>80</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" ht="12.8">
@@ -2753,7 +2814,7 @@
         <v>463</v>
       </c>
       <c r="B29" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -2768,7 +2829,7 @@
         <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" ht="12.8">
@@ -2785,13 +2846,13 @@
         <v>115</v>
       </c>
       <c r="E30" s="7">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F30" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" ht="12.8">
@@ -2814,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" ht="12.8">
@@ -2837,7 +2898,7 @@
         <v>25</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" ht="12.8">
@@ -2860,7 +2921,7 @@
         <v>125</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" ht="12.8">
@@ -2883,7 +2944,7 @@
         <v>1149</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" ht="12.8">
@@ -2891,7 +2952,7 @@
         <v>469</v>
       </c>
       <c r="B35" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -2900,13 +2961,13 @@
         <v>1020</v>
       </c>
       <c r="E35" s="7">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="F35" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" ht="12.8">
@@ -2914,7 +2975,7 @@
         <v>470</v>
       </c>
       <c r="B36" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
@@ -2929,7 +2990,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" ht="12.8">
@@ -2952,7 +3013,7 @@
         <v>108</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" ht="12.8">
@@ -2975,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" ht="12.8">
@@ -2983,7 +3044,7 @@
         <v>473</v>
       </c>
       <c r="B39" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -2992,13 +3053,13 @@
         <v>172</v>
       </c>
       <c r="E39" s="7">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F39" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" ht="12.8">
@@ -3006,7 +3067,7 @@
         <v>474</v>
       </c>
       <c r="B40" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C40" s="7">
         <v>1</v>
@@ -3015,13 +3076,13 @@
         <v>3686</v>
       </c>
       <c r="E40" s="7">
-        <v>2054</v>
+        <v>3685</v>
       </c>
       <c r="F40" s="7">
-        <v>1632</v>
+        <v>1</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" ht="12.8">
@@ -3029,7 +3090,7 @@
         <v>475</v>
       </c>
       <c r="B41" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -3044,7 +3105,7 @@
         <v>8</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" ht="12.8">
@@ -3052,7 +3113,7 @@
         <v>476</v>
       </c>
       <c r="B42" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C42" s="7">
         <v>1</v>
@@ -3061,13 +3122,13 @@
         <v>7150</v>
       </c>
       <c r="E42" s="7">
-        <v>5748</v>
+        <v>6429</v>
       </c>
       <c r="F42" s="7">
-        <v>1402</v>
+        <v>721</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" ht="12.8">
@@ -3075,7 +3136,7 @@
         <v>477</v>
       </c>
       <c r="B43" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -3090,7 +3151,7 @@
         <v>293</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" ht="12.8">
@@ -3113,7 +3174,7 @@
         <v>62</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" ht="12.8">
@@ -3121,7 +3182,7 @@
         <v>479</v>
       </c>
       <c r="B45" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
@@ -3136,7 +3197,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" ht="12.8">
@@ -3159,7 +3220,7 @@
         <v>33</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" ht="12.8">
@@ -3182,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" ht="12.8">
@@ -3205,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" ht="12.8">
@@ -3228,7 +3289,7 @@
         <v>46</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" ht="12.8">
@@ -3236,7 +3297,7 @@
         <v>484</v>
       </c>
       <c r="B50" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C50" s="7">
         <v>1</v>
@@ -3251,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" ht="12.8">
@@ -3274,7 +3335,7 @@
         <v>844</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" ht="12.8">
@@ -3297,7 +3358,7 @@
         <v>1815</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" ht="12.8">
@@ -3320,7 +3381,7 @@
         <v>5014</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" ht="12.8">
@@ -3343,7 +3404,7 @@
         <v>1998</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" ht="12.8">
@@ -3366,7 +3427,7 @@
         <v>482</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" ht="12.8">
@@ -3389,7 +3450,7 @@
         <v>3883</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" ht="12.8">
@@ -3412,7 +3473,7 @@
         <v>6</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" ht="12.8">
@@ -3435,7 +3496,7 @@
         <v>346</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" ht="12.8">
@@ -3458,7 +3519,7 @@
         <v>3</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" ht="12.8">
@@ -3481,7 +3542,7 @@
         <v>3</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" ht="12.8">
@@ -3498,13 +3559,13 @@
         <v>2253</v>
       </c>
       <c r="E61" s="7">
-        <v>2172</v>
+        <v>2174</v>
       </c>
       <c r="F61" s="7">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" ht="12.8">
@@ -3527,7 +3588,7 @@
         <v>98</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" ht="12.8">
@@ -3550,7 +3611,7 @@
         <v>233</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" ht="12.8">
@@ -3573,7 +3634,7 @@
         <v>61</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" ht="12.8">
@@ -3596,7 +3657,7 @@
         <v>117</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" ht="12.8">
@@ -3619,7 +3680,7 @@
         <v>482</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" ht="12.8">
@@ -3642,7 +3703,7 @@
         <v>138</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" ht="12.8">
@@ -3665,7 +3726,7 @@
         <v>143</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" ht="12.8">
@@ -3673,7 +3734,7 @@
         <v>503</v>
       </c>
       <c r="B69" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C69" s="7">
         <v>1</v>
@@ -3682,13 +3743,13 @@
         <v>1071</v>
       </c>
       <c r="E69" s="7">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="F69" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" ht="12.8">
@@ -3711,7 +3772,7 @@
         <v>458</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" ht="12.8">
@@ -3719,7 +3780,7 @@
         <v>505</v>
       </c>
       <c r="B71" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C71" s="7">
         <v>1</v>
@@ -3734,7 +3795,7 @@
         <v>400</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" ht="12.8">
@@ -3742,7 +3803,7 @@
         <v>506</v>
       </c>
       <c r="B72" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C72" s="7">
         <v>1</v>
@@ -3751,13 +3812,13 @@
         <v>1419</v>
       </c>
       <c r="E72" s="7">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="F72" s="7">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" ht="12.8">
@@ -3780,7 +3841,7 @@
         <v>458</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" ht="12.8">
@@ -3803,7 +3864,7 @@
         <v>458</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" ht="12.8">
@@ -3826,7 +3887,7 @@
         <v>457</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" ht="12.8">
@@ -3849,7 +3910,7 @@
         <v>458</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" ht="12.8">
@@ -3872,7 +3933,7 @@
         <v>603</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" ht="12.8">
@@ -3895,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" ht="12.8">
@@ -3918,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" ht="12.8">
@@ -3941,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" ht="12.8">
@@ -3964,7 +4025,7 @@
         <v>945</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" ht="12.8">
@@ -3987,7 +4048,7 @@
         <v>36</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" ht="12.8">
@@ -4004,13 +4065,13 @@
         <v>2553</v>
       </c>
       <c r="E83" s="7">
-        <v>1774</v>
+        <v>1779</v>
       </c>
       <c r="F83" s="7">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" ht="12.8">
@@ -4033,7 +4094,7 @@
         <v>2721</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" ht="12.8">
@@ -4056,7 +4117,7 @@
         <v>1484</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" ht="12.8">
@@ -4079,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" ht="12.8">
@@ -4102,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" ht="12.8">
@@ -4125,7 +4186,7 @@
         <v>458</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" ht="12.8">
@@ -4148,7 +4209,7 @@
         <v>83</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" ht="12.8">
@@ -4171,7 +4232,7 @@
         <v>1</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" ht="12.8">
@@ -4194,7 +4255,7 @@
         <v>2</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" ht="12.8">
@@ -4217,7 +4278,7 @@
         <v>3</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" ht="12.8">
@@ -4240,7 +4301,7 @@
         <v>213</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" ht="12.8">
@@ -4263,7 +4324,7 @@
         <v>1</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" ht="12.8">
@@ -4286,7 +4347,7 @@
         <v>5</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" ht="12.8">
@@ -4303,13 +4364,13 @@
         <v>30823</v>
       </c>
       <c r="E96" s="7">
-        <v>30388</v>
+        <v>30721</v>
       </c>
       <c r="F96" s="7">
-        <v>435</v>
+        <v>102</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" ht="12.8">
@@ -4332,7 +4393,7 @@
         <v>4</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98" ht="12.8">
@@ -4355,7 +4416,7 @@
         <v>727</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" ht="12.8">
@@ -4378,7 +4439,7 @@
         <v>748</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" ht="12.8">
@@ -4401,7 +4462,7 @@
         <v>136</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" ht="12.8">
@@ -4424,7 +4485,7 @@
         <v>84</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" ht="12.8">
@@ -4447,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" ht="12.8">
@@ -4464,13 +4525,13 @@
         <v>15173</v>
       </c>
       <c r="E103" s="7">
-        <v>14639</v>
+        <v>14707</v>
       </c>
       <c r="F103" s="7">
-        <v>534</v>
+        <v>466</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" ht="12.8">
@@ -4493,7 +4554,7 @@
         <v>6779</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" ht="12.8">
@@ -4516,7 +4577,7 @@
         <v>17629</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" ht="12.8">
@@ -4539,7 +4600,7 @@
         <v>1906</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" ht="12.8">
@@ -4562,7 +4623,7 @@
         <v>88</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108" ht="12.8">
@@ -4585,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109" ht="12.8">
@@ -4608,7 +4669,7 @@
         <v>346</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110" ht="12.8">
@@ -4631,7 +4692,7 @@
         <v>28</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111" ht="12.8">
@@ -4654,7 +4715,7 @@
         <v>114</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="112" ht="12.8">
@@ -4677,7 +4738,7 @@
         <v>3568</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" ht="12.8">
@@ -4700,7 +4761,7 @@
         <v>2</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114" ht="12.8">
@@ -4723,7 +4784,7 @@
         <v>249</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="115" ht="12.8">
@@ -4746,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116" ht="12.8">
@@ -4769,7 +4830,7 @@
         <v>802</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="117" ht="12.8">
@@ -4792,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
     </row>
     <row r="118" ht="12.8">
@@ -4815,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
     </row>
     <row r="119" ht="12.8">
@@ -4838,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
     </row>
     <row r="120" ht="12.8">
@@ -4861,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
     </row>
     <row r="121" ht="12.8">
@@ -4884,7 +4945,7 @@
         <v>1643</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="122" ht="12.8">
@@ -4907,7 +4968,7 @@
         <v>11</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="123" ht="12.8">
@@ -4930,7 +4991,7 @@
         <v>4</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="124" ht="12.8">
@@ -4953,7 +5014,7 @@
         <v>2</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="125" ht="12.8">
@@ -4976,7 +5037,7 @@
         <v>1841</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="126" ht="12.8">
@@ -4999,7 +5060,7 @@
         <v>1627</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="127" ht="12.8">
@@ -5022,7 +5083,7 @@
         <v>2445</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="128" ht="12.8">
@@ -5039,13 +5100,13 @@
         <v>7249</v>
       </c>
       <c r="E128" s="7">
-        <v>5413</v>
+        <v>5496</v>
       </c>
       <c r="F128" s="7">
-        <v>1836</v>
+        <v>1753</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="129" ht="12.8">
@@ -5068,7 +5129,7 @@
         <v>15059</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="130" ht="12.8">
@@ -5085,13 +5146,13 @@
         <v>9107</v>
       </c>
       <c r="E130" s="7">
-        <v>8918</v>
+        <v>8929</v>
       </c>
       <c r="F130" s="7">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="131" ht="12.8">
@@ -5114,7 +5175,7 @@
         <v>4773</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="132" ht="12.8">
@@ -5137,7 +5198,7 @@
         <v>20966</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="133" ht="12.8">
@@ -5160,7 +5221,7 @@
         <v>8779</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="134" ht="12.8">
@@ -5183,7 +5244,7 @@
         <v>12174</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="135" ht="12.8">
@@ -5206,7 +5267,7 @@
         <v>3953</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="136" ht="12.8">
@@ -5229,7 +5290,7 @@
         <v>11172</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="137" ht="12.8">
@@ -5252,7 +5313,7 @@
         <v>3100</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="138" ht="12.8">
@@ -5275,7 +5336,7 @@
         <v>3011</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="139" ht="12.8">
@@ -5298,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="140" ht="12.8">
@@ -5315,13 +5376,13 @@
         <v>5595</v>
       </c>
       <c r="E140" s="7">
-        <v>4181</v>
+        <v>4893</v>
       </c>
       <c r="F140" s="7">
-        <v>1414</v>
+        <v>702</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="141" ht="12.8">
@@ -5344,7 +5405,7 @@
         <v>25005</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="142" ht="12.8">
@@ -5367,7 +5428,7 @@
         <v>4341</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="143" ht="12.8">
@@ -5390,7 +5451,7 @@
         <v>4449</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="144" ht="12.8">
@@ -5413,7 +5474,7 @@
         <v>4449</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="145" ht="12.8">
@@ -5436,7 +5497,7 @@
         <v>5</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="146" ht="12.8">
@@ -5459,7 +5520,7 @@
         <v>1841</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="147" ht="12.8">
@@ -5482,7 +5543,7 @@
         <v>1841</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="148" ht="12.8">
@@ -5505,7 +5566,7 @@
         <v>1841</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="149" ht="12.8">
@@ -5528,7 +5589,7 @@
         <v>1841</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="150" ht="12.8">
@@ -5551,7 +5612,7 @@
         <v>1841</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="151" ht="12.8">
@@ -5574,7 +5635,7 @@
         <v>55</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="152" ht="12.8">
@@ -5597,7 +5658,7 @@
         <v>897</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="153" ht="12.8">
@@ -5620,7 +5681,7 @@
         <v>2169</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="154" ht="12.8">
@@ -5643,7 +5704,7 @@
         <v>12017</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="155" ht="12.8">
@@ -5666,7 +5727,7 @@
         <v>592</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="156" ht="12.8">
@@ -5689,7 +5750,7 @@
         <v>5</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="157" ht="12.8">
@@ -5712,7 +5773,7 @@
         <v>445</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="158" ht="12.8">
@@ -5735,7 +5796,7 @@
         <v>7</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="159" ht="12.8">
@@ -5758,7 +5819,7 @@
         <v>542</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="160" ht="12.8">
@@ -5781,7 +5842,7 @@
         <v>505</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="161" ht="12.8">
@@ -5804,7 +5865,7 @@
         <v>463</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="162" ht="12.8">
@@ -5821,13 +5882,13 @@
         <v>28053</v>
       </c>
       <c r="E162" s="7">
-        <v>27601</v>
+        <v>27609</v>
       </c>
       <c r="F162" s="7">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="163" ht="12.8">
@@ -5850,7 +5911,7 @@
         <v>27</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="164" ht="12.8">
@@ -5873,7 +5934,7 @@
         <v>2807</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="165" ht="12.8">
@@ -5896,7 +5957,7 @@
         <v>1620</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="166" ht="12.8">
@@ -5919,7 +5980,7 @@
         <v>1618</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="167" ht="12.8">
@@ -5942,7 +6003,7 @@
         <v>18</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="168" ht="12.8">
@@ -5965,7 +6026,7 @@
         <v>309</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="169" ht="12.8">
@@ -5988,7 +6049,7 @@
         <v>4</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="170" ht="12.8">
@@ -5996,7 +6057,7 @@
         <v>604</v>
       </c>
       <c r="B170" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C170" s="7">
         <v>1</v>
@@ -6011,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
     </row>
     <row r="171" ht="12.8">
@@ -6034,7 +6095,7 @@
         <v>11595</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="172" ht="12.8">
@@ -6057,7 +6118,7 @@
         <v>25532</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="173" ht="12.8">
@@ -6080,7 +6141,7 @@
         <v>1164</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="174" ht="12.8">
@@ -6103,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="175" ht="12.8">
@@ -6126,7 +6187,7 @@
         <v>13</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="176" ht="12.8">
@@ -6149,7 +6210,7 @@
         <v>950</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="177" ht="12.8">
@@ -6172,7 +6233,7 @@
         <v>67</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="178" ht="12.8">
@@ -6195,7 +6256,7 @@
         <v>340</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="179" ht="12.8">
@@ -6218,7 +6279,7 @@
         <v>34095</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="180" ht="12.8">
@@ -6241,7 +6302,7 @@
         <v>732</v>
       </c>
       <c r="G180" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="181" ht="12.8">
@@ -6264,7 +6325,7 @@
         <v>4449</v>
       </c>
       <c r="G181" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="182" ht="12.8">
@@ -6287,7 +6348,7 @@
         <v>4449</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="183" ht="12.8">
@@ -6310,7 +6371,7 @@
         <v>4449</v>
       </c>
       <c r="G183" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="184" ht="12.8">
@@ -6333,7 +6394,7 @@
         <v>1282</v>
       </c>
       <c r="G184" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="185" ht="12.8">
@@ -6356,7 +6417,7 @@
         <v>3195</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="186" ht="12.8">
@@ -6379,7 +6440,7 @@
         <v>1949</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="187" ht="12.8">
@@ -6402,7 +6463,7 @@
         <v>2251</v>
       </c>
       <c r="G187" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="188" ht="12.8">
@@ -6425,7 +6486,7 @@
         <v>2601</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="189" ht="12.8">
@@ -6448,7 +6509,7 @@
         <v>3204</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="190" ht="12.8">
@@ -6471,7 +6532,7 @@
         <v>8628</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="191" ht="12.8">
@@ -6494,7 +6555,7 @@
         <v>5584</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="192" ht="12.8">
@@ -6517,7 +6578,7 @@
         <v>5584</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="193" ht="12.8">
@@ -6540,7 +6601,7 @@
         <v>1115</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="194" ht="12.8">
@@ -6563,7 +6624,7 @@
         <v>469</v>
       </c>
       <c r="G194" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="195" ht="12.8">
@@ -6571,7 +6632,7 @@
         <v>629</v>
       </c>
       <c r="B195" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C195" s="7">
         <v>1</v>
@@ -6586,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
     </row>
     <row r="196" ht="12.8">
@@ -6609,7 +6670,7 @@
         <v>28</v>
       </c>
       <c r="G196" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="197" ht="12.8">
@@ -6632,7 +6693,7 @@
         <v>47475</v>
       </c>
       <c r="G197" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="198" ht="12.8">
@@ -6640,7 +6701,7 @@
         <v>632</v>
       </c>
       <c r="B198" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C198" s="7">
         <v>1</v>
@@ -6649,13 +6710,13 @@
         <v>35226</v>
       </c>
       <c r="E198" s="7">
-        <v>20397</v>
+        <v>30039</v>
       </c>
       <c r="F198" s="7">
-        <v>7076</v>
+        <v>5187</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
     </row>
     <row r="199" ht="12.8">
@@ -6678,7 +6739,7 @@
         <v>4449</v>
       </c>
       <c r="G199" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="200" ht="12.8">
@@ -6701,7 +6762,7 @@
         <v>4449</v>
       </c>
       <c r="G200" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="201" ht="12.8">
@@ -6724,7 +6785,7 @@
         <v>1395</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="202" ht="12.8">
@@ -6747,7 +6808,7 @@
         <v>2977</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="203" ht="12.8">
@@ -6770,7 +6831,7 @@
         <v>2995</v>
       </c>
       <c r="G203" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="204" ht="12.8">
@@ -6793,7 +6854,7 @@
         <v>2324</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="205" ht="12.8">
@@ -6816,7 +6877,7 @@
         <v>192980</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="206" ht="12.8">
@@ -6839,7 +6900,7 @@
         <v>28269</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="207" ht="12.8">
@@ -6862,7 +6923,7 @@
         <v>11690</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="208" ht="12.8">
@@ -6885,7 +6946,7 @@
         <v>1355</v>
       </c>
       <c r="G208" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="209" ht="12.8">
@@ -6893,7 +6954,7 @@
         <v>643</v>
       </c>
       <c r="B209" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C209" s="7">
         <v>1</v>
@@ -6908,7 +6969,7 @@
         <v>1</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="210" ht="12.8">
@@ -6925,13 +6986,13 @@
         <v>180</v>
       </c>
       <c r="E210" s="7">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="F210" s="7">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="211" ht="12.8">
@@ -6939,7 +7000,7 @@
         <v>645</v>
       </c>
       <c r="B211" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C211" s="7">
         <v>1</v>
@@ -6954,7 +7015,7 @@
         <v>1761</v>
       </c>
       <c r="G211" s="7" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
     </row>
     <row r="212" ht="12.8">
@@ -6977,7 +7038,7 @@
         <v>1057</v>
       </c>
       <c r="G212" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="213" ht="12.8">
@@ -6994,13 +7055,13 @@
         <v>3030</v>
       </c>
       <c r="E213" s="7">
-        <v>404</v>
+        <v>1875</v>
       </c>
       <c r="F213" s="7">
-        <v>2626</v>
+        <v>1155</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="214" ht="12.8">
@@ -7008,7 +7069,7 @@
         <v>648</v>
       </c>
       <c r="B214" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C214" s="7">
         <v>1</v>
@@ -7023,7 +7084,7 @@
         <v>9901</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
     </row>
     <row r="215" ht="12.8">
@@ -7046,7 +7107,7 @@
         <v>1010</v>
       </c>
       <c r="G215" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="216" ht="12.8">
@@ -7069,7 +7130,7 @@
         <v>0</v>
       </c>
       <c r="G216" s="7" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
     </row>
     <row r="217" ht="12.8">
@@ -7092,7 +7153,7 @@
         <v>72</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="218" ht="12.8">
@@ -7115,7 +7176,7 @@
         <v>3843</v>
       </c>
       <c r="G218" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="219" ht="12.8">
@@ -7123,7 +7184,7 @@
         <v>653</v>
       </c>
       <c r="B219" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C219" s="7">
         <v>1</v>
@@ -7138,7 +7199,7 @@
         <v>0</v>
       </c>
       <c r="G219" s="7" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
     </row>
     <row r="220" ht="12.8">
@@ -7161,7 +7222,7 @@
         <v>192493</v>
       </c>
       <c r="G220" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="221" ht="12.8">
@@ -7184,7 +7245,7 @@
         <v>1065</v>
       </c>
       <c r="G221" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="222" ht="12.8">
@@ -7207,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="G222" s="7" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="223" ht="12.8">
@@ -7230,7 +7291,7 @@
         <v>4</v>
       </c>
       <c r="G223" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="224" ht="12.8">
@@ -7253,7 +7314,7 @@
         <v>2</v>
       </c>
       <c r="G224" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="225" ht="12.8">
@@ -7276,15 +7337,15 @@
         <v>10</v>
       </c>
       <c r="G225" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="226" ht="23.85">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="226" ht="12.8">
       <c r="A226" s="7">
         <v>662</v>
       </c>
       <c r="B226" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C226" s="7">
         <v>1</v>
@@ -7296,10 +7357,10 @@
         <v>0</v>
       </c>
       <c r="F226" s="7">
-        <v>9163</v>
-      </c>
-      <c r="G226" s="8" t="s">
-        <v>16</v>
+        <v>9540</v>
+      </c>
+      <c r="G226" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="227" ht="12.8">
@@ -7307,31 +7368,537 @@
         <v>663</v>
       </c>
       <c r="B227" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C227" s="7">
         <v>1</v>
       </c>
       <c r="D227" s="7">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="E227" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F227" s="7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G227" s="7" t="s">
-        <v>17</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="228" ht="12.8">
+      <c r="A228" s="7">
+        <v>666</v>
+      </c>
+      <c r="B228" s="7">
+        <v>4</v>
+      </c>
+      <c r="C228" s="7">
+        <v>1</v>
+      </c>
+      <c r="D228" s="7">
+        <v>56341</v>
+      </c>
+      <c r="E228" s="7">
+        <v>3</v>
+      </c>
+      <c r="F228" s="7">
+        <v>20468</v>
+      </c>
+      <c r="G228" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="229" ht="12.8">
+      <c r="A229" s="7">
+        <v>667</v>
+      </c>
+      <c r="B229" s="7">
+        <v>3</v>
+      </c>
+      <c r="C229" s="7">
+        <v>1</v>
+      </c>
+      <c r="D229" s="7">
+        <v>355</v>
+      </c>
+      <c r="E229" s="7">
+        <v>0</v>
+      </c>
+      <c r="F229" s="7">
+        <v>355</v>
+      </c>
+      <c r="G229" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="230" ht="12.8">
+      <c r="A230" s="7">
+        <v>668</v>
+      </c>
+      <c r="B230" s="7">
+        <v>4</v>
+      </c>
+      <c r="C230" s="7">
+        <v>1</v>
+      </c>
+      <c r="D230" s="7">
+        <v>33230</v>
+      </c>
+      <c r="E230" s="7">
+        <v>0</v>
+      </c>
+      <c r="F230" s="7">
+        <v>3246</v>
+      </c>
+      <c r="G230" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="231" ht="12.8">
+      <c r="A231" s="7">
+        <v>672</v>
+      </c>
+      <c r="B231" s="7">
+        <v>3</v>
+      </c>
+      <c r="C231" s="7">
+        <v>1</v>
+      </c>
+      <c r="D231" s="7">
+        <v>217</v>
+      </c>
+      <c r="E231" s="7">
+        <v>182</v>
+      </c>
+      <c r="F231" s="7">
+        <v>35</v>
+      </c>
+      <c r="G231" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="232" ht="12.8">
+      <c r="A232" s="7">
+        <v>677</v>
+      </c>
+      <c r="B232" s="7">
+        <v>3</v>
+      </c>
+      <c r="C232" s="7">
+        <v>1</v>
+      </c>
+      <c r="D232" s="7">
+        <v>330</v>
+      </c>
+      <c r="E232" s="7">
+        <v>8</v>
+      </c>
+      <c r="F232" s="7">
+        <v>322</v>
+      </c>
+      <c r="G232" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="233" ht="12.8">
+      <c r="A233" s="7">
+        <v>679</v>
+      </c>
+      <c r="B233" s="7">
+        <v>3</v>
+      </c>
+      <c r="C233" s="7">
+        <v>1</v>
+      </c>
+      <c r="D233" s="7">
+        <v>464</v>
+      </c>
+      <c r="E233" s="7">
+        <v>436</v>
+      </c>
+      <c r="F233" s="7">
+        <v>28</v>
+      </c>
+      <c r="G233" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="234" ht="12.8">
+      <c r="A234" s="7">
+        <v>680</v>
+      </c>
+      <c r="B234" s="7">
+        <v>3</v>
+      </c>
+      <c r="C234" s="7">
+        <v>1</v>
+      </c>
+      <c r="D234" s="7">
+        <v>168</v>
+      </c>
+      <c r="E234" s="7">
+        <v>156</v>
+      </c>
+      <c r="F234" s="7">
+        <v>12</v>
+      </c>
+      <c r="G234" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="235" ht="12.8">
+      <c r="A235" s="7">
+        <v>681</v>
+      </c>
+      <c r="B235" s="7">
+        <v>3</v>
+      </c>
+      <c r="C235" s="7">
+        <v>1</v>
+      </c>
+      <c r="D235" s="7">
+        <v>757</v>
+      </c>
+      <c r="E235" s="7">
+        <v>265</v>
+      </c>
+      <c r="F235" s="7">
+        <v>492</v>
+      </c>
+      <c r="G235" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="236" ht="12.8">
+      <c r="A236" s="7">
+        <v>682</v>
+      </c>
+      <c r="B236" s="7">
+        <v>3</v>
+      </c>
+      <c r="C236" s="7">
+        <v>1</v>
+      </c>
+      <c r="D236" s="7">
+        <v>3207</v>
+      </c>
+      <c r="E236" s="7">
+        <v>2467</v>
+      </c>
+      <c r="F236" s="7">
+        <v>740</v>
+      </c>
+      <c r="G236" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="237" ht="12.8">
+      <c r="A237" s="7">
+        <v>683</v>
+      </c>
+      <c r="B237" s="7">
+        <v>3</v>
+      </c>
+      <c r="C237" s="7">
+        <v>1</v>
+      </c>
+      <c r="D237" s="7">
+        <v>823</v>
+      </c>
+      <c r="E237" s="7">
+        <v>561</v>
+      </c>
+      <c r="F237" s="7">
+        <v>262</v>
+      </c>
+      <c r="G237" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="238" ht="12.8">
+      <c r="A238" s="7">
+        <v>684</v>
+      </c>
+      <c r="B238" s="7">
+        <v>3</v>
+      </c>
+      <c r="C238" s="7">
+        <v>1</v>
+      </c>
+      <c r="D238" s="7">
+        <v>1663</v>
+      </c>
+      <c r="E238" s="7">
+        <v>1593</v>
+      </c>
+      <c r="F238" s="7">
+        <v>70</v>
+      </c>
+      <c r="G238" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="239" ht="12.8">
+      <c r="A239" s="7">
+        <v>685</v>
+      </c>
+      <c r="B239" s="7">
+        <v>3</v>
+      </c>
+      <c r="C239" s="7">
+        <v>1</v>
+      </c>
+      <c r="D239" s="7">
+        <v>301</v>
+      </c>
+      <c r="E239" s="7">
+        <v>278</v>
+      </c>
+      <c r="F239" s="7">
+        <v>23</v>
+      </c>
+      <c r="G239" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="240" ht="12.8">
+      <c r="A240" s="7">
+        <v>686</v>
+      </c>
+      <c r="B240" s="7">
+        <v>3</v>
+      </c>
+      <c r="C240" s="7">
+        <v>1</v>
+      </c>
+      <c r="D240" s="7">
+        <v>2361</v>
+      </c>
+      <c r="E240" s="7">
+        <v>1186</v>
+      </c>
+      <c r="F240" s="7">
+        <v>1175</v>
+      </c>
+      <c r="G240" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="241" ht="12.8">
+      <c r="A241" s="7">
+        <v>687</v>
+      </c>
+      <c r="B241" s="7">
+        <v>3</v>
+      </c>
+      <c r="C241" s="7">
+        <v>1</v>
+      </c>
+      <c r="D241" s="7">
+        <v>73</v>
+      </c>
+      <c r="E241" s="7">
+        <v>54</v>
+      </c>
+      <c r="F241" s="7">
+        <v>19</v>
+      </c>
+      <c r="G241" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="242" ht="12.8">
+      <c r="A242" s="7">
+        <v>689</v>
+      </c>
+      <c r="B242" s="7">
+        <v>3</v>
+      </c>
+      <c r="C242" s="7">
+        <v>1</v>
+      </c>
+      <c r="D242" s="7">
+        <v>4777</v>
+      </c>
+      <c r="E242" s="7">
+        <v>462</v>
+      </c>
+      <c r="F242" s="7">
+        <v>4315</v>
+      </c>
+      <c r="G242" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="243" ht="12.8">
+      <c r="A243" s="7">
+        <v>690</v>
+      </c>
+      <c r="B243" s="7">
+        <v>3</v>
+      </c>
+      <c r="C243" s="7">
+        <v>1</v>
+      </c>
+      <c r="D243" s="7">
+        <v>0</v>
+      </c>
+      <c r="E243" s="7">
+        <v>0</v>
+      </c>
+      <c r="F243" s="7">
+        <v>0</v>
+      </c>
+      <c r="G243" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="244" ht="12.8">
+      <c r="A244" s="7">
+        <v>691</v>
+      </c>
+      <c r="B244" s="7">
+        <v>3</v>
+      </c>
+      <c r="C244" s="7">
+        <v>1</v>
+      </c>
+      <c r="D244" s="7">
+        <v>37</v>
+      </c>
+      <c r="E244" s="7">
+        <v>29</v>
+      </c>
+      <c r="F244" s="7">
+        <v>8</v>
+      </c>
+      <c r="G244" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="245" ht="12.8">
+      <c r="A245" s="7">
+        <v>692</v>
+      </c>
+      <c r="B245" s="7">
+        <v>3</v>
+      </c>
+      <c r="C245" s="7">
+        <v>1</v>
+      </c>
+      <c r="D245" s="7">
+        <v>0</v>
+      </c>
+      <c r="E245" s="7">
+        <v>0</v>
+      </c>
+      <c r="F245" s="7">
+        <v>0</v>
+      </c>
+      <c r="G245" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="246" ht="12.8">
+      <c r="A246" s="7">
+        <v>693</v>
+      </c>
+      <c r="B246" s="7">
+        <v>3</v>
+      </c>
+      <c r="C246" s="7">
+        <v>1</v>
+      </c>
+      <c r="D246" s="7">
+        <v>283</v>
+      </c>
+      <c r="E246" s="7">
+        <v>281</v>
+      </c>
+      <c r="F246" s="7">
+        <v>2</v>
+      </c>
+      <c r="G246" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="247" ht="12.8">
+      <c r="A247" s="7">
+        <v>694</v>
+      </c>
+      <c r="B247" s="7">
+        <v>3</v>
+      </c>
+      <c r="C247" s="7">
+        <v>1</v>
+      </c>
+      <c r="D247" s="7">
+        <v>60</v>
+      </c>
+      <c r="E247" s="7">
+        <v>42</v>
+      </c>
+      <c r="F247" s="7">
+        <v>18</v>
+      </c>
+      <c r="G247" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="248" ht="12.8">
+      <c r="A248" s="7">
+        <v>695</v>
+      </c>
+      <c r="B248" s="7">
+        <v>1</v>
+      </c>
+      <c r="C248" s="7">
+        <v>1</v>
+      </c>
+      <c r="D248" s="7">
+        <v>1581</v>
+      </c>
+      <c r="E248" s="7">
+        <v>735</v>
+      </c>
+      <c r="F248" s="7">
+        <v>707</v>
+      </c>
+      <c r="G248" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="249" ht="12.8">
+      <c r="A249" s="7">
+        <v>696</v>
+      </c>
+      <c r="B249" s="7">
+        <v>3</v>
+      </c>
+      <c r="C249" s="7">
+        <v>1</v>
+      </c>
+      <c r="D249" s="7">
+        <v>4005</v>
+      </c>
+      <c r="E249" s="7">
+        <v>36</v>
+      </c>
+      <c r="F249" s="7">
+        <v>3969</v>
+      </c>
+      <c r="G249" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/RcOnline/base.xlsx
+++ b/RcOnline/base.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>Компания</t>
   </si>
@@ -162,9 +162,6 @@
     <t>ООО УК ВекторКомСтрой, Щелково</t>
   </si>
   <si>
-    <t>ТСЖ "Согласие-Ленинградская,2"</t>
-  </si>
-  <si>
     <t>ТСЖ "Согласие-Ленинградская, 12а"</t>
   </si>
   <si>
@@ -183,9 +180,6 @@
     <t>РИЦ-Облкоммунэнерго Ч/С (Артемовский)</t>
   </si>
   <si>
-    <t>РИЦ-Артинский ГО</t>
-  </si>
-  <si>
     <t>РИЦ Верх-Нейвинск Ч/С</t>
   </si>
   <si>
@@ -207,18 +201,6 @@
     <t>РИЦ-Облкоммунэнерго Ч/С (Тугулымский ГО)</t>
   </si>
   <si>
-    <t>ТСЖ "Согласие-Ленина,36"</t>
-  </si>
-  <si>
-    <t>ТСЖ "Согласие-Кузнецова, 13"</t>
-  </si>
-  <si>
-    <t>ТСЖ "Согласие-Кузнецова,11"</t>
-  </si>
-  <si>
-    <t>ТСЖ "Согласие-Кузнецова,9"</t>
-  </si>
-  <si>
     <t>ТСЖ "СОГЛАСИЕ-АЛЕЩЕНКОВА, 3А"</t>
   </si>
   <si>
@@ -300,18 +282,9 @@
     <t>ЗАО "Орджоникидзевская УЖК"</t>
   </si>
   <si>
-    <t>РИЦ - УК "МЖД"</t>
-  </si>
-  <si>
-    <t>РИЦ - УК "РемСтройКом"</t>
-  </si>
-  <si>
     <t>РИЦ - УК "РСО"</t>
   </si>
   <si>
-    <t>РИЦ-Облкоммунэнерго (ЧС)</t>
-  </si>
-  <si>
     <t>РИЦ-ООО УЖК "Кировградская"</t>
   </si>
   <si>
@@ -363,69 +336,59 @@
     <t>Выгрузка ПУ завершена.</t>
   </si>
   <si>
+    <t>Выгрузка ЛС завершена.</t>
+  </si>
+  <si>
+    <t>Выгрузка ПУ завершена с несколькими ошибками связи с ГИС.</t>
+  </si>
+  <si>
+    <t>Выгрузка ЛС завершена с несколькими ошибками связи с ГИС.</t>
+  </si>
+  <si>
+    <t>Не найдена организация в ГИС</t>
+  </si>
+  <si>
+    <t>Выполняю выгрузку ЛС в ГИС ЖКХ для компании АО "Облкоммунэнерго"</t>
+  </si>
+  <si>
+    <t>Выполняю выгрузку ПД в ГИС ЖКХ для компании ООО "УК "ГСЦ"</t>
+  </si>
+  <si>
+    <t>Произошла одна или несколько ошибок.</t>
+  </si>
+  <si>
     <t>Выгрузка начислений завершена.</t>
   </si>
   <si>
-    <t>Выгрузка ЛС завершена.</t>
-  </si>
-  <si>
     <t>Выгрузка ПД завершена.</t>
   </si>
   <si>
-    <t>Выполняю выгрузку ЛС в ГИС ЖКХ для компании ООО"УК Комфорт"</t>
-  </si>
-  <si>
-    <t>Выполняю выгрузку ЛС в ГИС ЖКХ для компании ООО "Энергосервис"</t>
-  </si>
-  <si>
-    <t>Выгрузка ЛС завершена с несколькими ошибками ГИС, необходимо перезапустить эту выгрузку</t>
-  </si>
-  <si>
-    <t>Выполняю выгрузку ЛС в ГИС ЖКХ для компании ТСЖ "Согласие-Ленинградская,2"</t>
-  </si>
-  <si>
-    <t>Выполняю выгрузку ЛС в ГИС ЖКХ для компании АО "Облкоммунэнерго"</t>
-  </si>
-  <si>
-    <t>Выполняю выгрузку ЛС в ГИС ЖКХ для компании ТСЖ "Согласие-Ленина,36"</t>
-  </si>
-  <si>
-    <t>Выполняю выгрузку ЛС в ГИС ЖКХ для компании ТСЖ "Согласие-Кузнецова, 13"</t>
-  </si>
-  <si>
-    <t>Выполняю выгрузку ЛС в ГИС ЖКХ для компании ТСЖ "Согласие-Кузнецова,11"</t>
-  </si>
-  <si>
-    <t>Не найдена организация в ГИС</t>
+    <t>Выгрузка ПД завершена с несколькими ошибками связи с ГИС.</t>
+  </si>
+  <si>
+    <t>Статус курсора на сервере Биллинг Онлайн:2006</t>
+  </si>
+  <si>
+    <t>Не найдены реселлеры в Биллинг Онлайн</t>
+  </si>
+  <si>
+    <t>Выполняю выгрузку ПД в ГИС ЖКХ для компании ТСЖ Трехгорка</t>
+  </si>
+  <si>
+    <t>Выполняю выгрузку ПД в ГИС ЖКХ для компании ООО "Белокалитвинская УК"</t>
+  </si>
+  <si>
+    <t>Выполняю выгрузку ПД в ГИС ЖКХ для компании ООО УК "УНИВЕРСАЛ"</t>
+  </si>
+  <si>
+    <t>Выполняю выгрузку ПД в ГИС ЖКХ для компании АО "Облкоммунэнерго"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="25">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="3">
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
@@ -515,10 +478,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A60" activeCellId="0" sqref="A60"/>
+      <selection pane="topLeft" activeCell="J81" activeCellId="0" sqref="J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -568,6 +531,9 @@
       <c r="E2" s="6">
         <v>888</v>
       </c>
+      <c r="F2" s="6">
+        <v>1019</v>
+      </c>
     </row>
     <row r="3" ht="12.75">
       <c r="A3" s="6" t="s">
@@ -585,6 +551,9 @@
       <c r="E3" s="6">
         <v>889</v>
       </c>
+      <c r="F3" s="6">
+        <v>1020</v>
+      </c>
     </row>
     <row r="4" ht="12.75">
       <c r="A4" s="6" t="s">
@@ -619,6 +588,9 @@
       <c r="E5" s="6">
         <v>891</v>
       </c>
+      <c r="F5" s="6">
+        <v>1021</v>
+      </c>
     </row>
     <row r="6" ht="12.75">
       <c r="A6" s="6" t="s">
@@ -636,6 +608,9 @@
       <c r="E6" s="6">
         <v>892</v>
       </c>
+      <c r="F6" s="6">
+        <v>1022</v>
+      </c>
     </row>
     <row r="7" ht="12.75">
       <c r="A7" s="6" t="s">
@@ -653,6 +628,9 @@
       <c r="E7" s="6">
         <v>893</v>
       </c>
+      <c r="F7" s="6">
+        <v>1023</v>
+      </c>
     </row>
     <row r="8" ht="12.75">
       <c r="A8" s="6" t="s">
@@ -670,6 +648,9 @@
       <c r="E8" s="6">
         <v>894</v>
       </c>
+      <c r="F8" s="6">
+        <v>985</v>
+      </c>
     </row>
     <row r="9" ht="12.75">
       <c r="A9" s="6" t="s">
@@ -687,6 +668,9 @@
       <c r="E9" s="6">
         <v>895</v>
       </c>
+      <c r="F9" s="6">
+        <v>1007</v>
+      </c>
     </row>
     <row r="10" ht="25.5">
       <c r="A10" s="11" t="s">
@@ -704,6 +688,9 @@
       <c r="E10" s="6">
         <v>896</v>
       </c>
+      <c r="F10" s="6">
+        <v>1024</v>
+      </c>
     </row>
     <row r="11" ht="12.75">
       <c r="A11" s="6" t="s">
@@ -721,6 +708,9 @@
       <c r="E11" s="6">
         <v>897</v>
       </c>
+      <c r="F11" s="6">
+        <v>1025</v>
+      </c>
     </row>
     <row r="12" ht="12.75">
       <c r="A12" s="6" t="s">
@@ -738,6 +728,9 @@
       <c r="E12" s="6">
         <v>898</v>
       </c>
+      <c r="F12" s="6">
+        <v>1026</v>
+      </c>
     </row>
     <row r="13" ht="12.75">
       <c r="A13" s="6" t="s">
@@ -755,6 +748,9 @@
       <c r="E13" s="6">
         <v>899</v>
       </c>
+      <c r="F13" s="6">
+        <v>1027</v>
+      </c>
     </row>
     <row r="14" ht="12.75">
       <c r="A14" s="6" t="s">
@@ -772,6 +768,9 @@
       <c r="E14" s="6">
         <v>900</v>
       </c>
+      <c r="F14" s="6">
+        <v>1028</v>
+      </c>
     </row>
     <row r="15" ht="12.75">
       <c r="A15" s="6" t="s">
@@ -789,6 +788,9 @@
       <c r="E15" s="6">
         <v>901</v>
       </c>
+      <c r="F15" s="6">
+        <v>1029</v>
+      </c>
     </row>
     <row r="16" ht="12.75">
       <c r="A16" s="6" t="s">
@@ -806,6 +808,9 @@
       <c r="E16" s="6">
         <v>902</v>
       </c>
+      <c r="F16" s="6">
+        <v>1030</v>
+      </c>
     </row>
     <row r="17" ht="12.75">
       <c r="A17" s="6" t="s">
@@ -823,6 +828,9 @@
       <c r="E17" s="6">
         <v>903</v>
       </c>
+      <c r="F17" s="6">
+        <v>1031</v>
+      </c>
     </row>
     <row r="18" ht="12.75">
       <c r="A18" s="6" t="s">
@@ -840,6 +848,9 @@
       <c r="E18" s="6">
         <v>904</v>
       </c>
+      <c r="F18" s="6">
+        <v>1032</v>
+      </c>
     </row>
     <row r="19" ht="12.75">
       <c r="A19" s="6" t="s">
@@ -857,6 +868,9 @@
       <c r="E19" s="6">
         <v>905</v>
       </c>
+      <c r="F19" s="6">
+        <v>1033</v>
+      </c>
     </row>
     <row r="20" ht="12.75">
       <c r="A20" s="6" t="s">
@@ -874,6 +888,9 @@
       <c r="E20" s="6">
         <v>906</v>
       </c>
+      <c r="F20" s="6">
+        <v>1034</v>
+      </c>
     </row>
     <row r="21" ht="12.75">
       <c r="A21" s="6" t="s">
@@ -891,6 +908,9 @@
       <c r="E21" s="6">
         <v>907</v>
       </c>
+      <c r="F21" s="6">
+        <v>1035</v>
+      </c>
     </row>
     <row r="22" ht="12.75">
       <c r="A22" s="6" t="s">
@@ -908,6 +928,9 @@
       <c r="E22" s="6">
         <v>908</v>
       </c>
+      <c r="F22" s="6">
+        <v>1036</v>
+      </c>
     </row>
     <row r="23" ht="12.75">
       <c r="A23" s="6" t="s">
@@ -925,6 +948,9 @@
       <c r="E23" s="6">
         <v>909</v>
       </c>
+      <c r="F23" s="6">
+        <v>1037</v>
+      </c>
     </row>
     <row r="24" ht="12.75">
       <c r="A24" s="6" t="s">
@@ -942,6 +968,9 @@
       <c r="E24" s="6">
         <v>910</v>
       </c>
+      <c r="F24" s="6">
+        <v>1038</v>
+      </c>
     </row>
     <row r="25" ht="12.75">
       <c r="A25" s="6" t="s">
@@ -959,6 +988,9 @@
       <c r="E25" s="6">
         <v>911</v>
       </c>
+      <c r="F25" s="6">
+        <v>1039</v>
+      </c>
     </row>
     <row r="26" ht="12.75">
       <c r="A26" s="6" t="s">
@@ -976,6 +1008,9 @@
       <c r="E26" s="6">
         <v>912</v>
       </c>
+      <c r="F26" s="6">
+        <v>1040</v>
+      </c>
     </row>
     <row r="27" ht="12.75">
       <c r="A27" s="6" t="s">
@@ -993,6 +1028,9 @@
       <c r="E27" s="6">
         <v>913</v>
       </c>
+      <c r="F27" s="6">
+        <v>1041</v>
+      </c>
     </row>
     <row r="28" ht="12.75">
       <c r="A28" s="6" t="s">
@@ -1010,6 +1048,9 @@
       <c r="E28" s="6">
         <v>914</v>
       </c>
+      <c r="F28" s="6">
+        <v>1042</v>
+      </c>
     </row>
     <row r="29" ht="12.75">
       <c r="A29" s="6" t="s">
@@ -1027,6 +1068,9 @@
       <c r="E29" s="6">
         <v>915</v>
       </c>
+      <c r="F29" s="6">
+        <v>1043</v>
+      </c>
     </row>
     <row r="30" ht="12.75">
       <c r="A30" s="6" t="s">
@@ -1044,6 +1088,9 @@
       <c r="E30" s="6">
         <v>916</v>
       </c>
+      <c r="F30" s="6">
+        <v>1044</v>
+      </c>
     </row>
     <row r="31" ht="12.75">
       <c r="A31" s="6" t="s">
@@ -1061,6 +1108,9 @@
       <c r="E31" s="6">
         <v>917</v>
       </c>
+      <c r="F31" s="6">
+        <v>1045</v>
+      </c>
     </row>
     <row r="32" ht="12.75">
       <c r="A32" s="6" t="s">
@@ -1078,6 +1128,9 @@
       <c r="E32" s="6">
         <v>918</v>
       </c>
+      <c r="F32" s="6">
+        <v>1046</v>
+      </c>
     </row>
     <row r="33" ht="12.75">
       <c r="A33" s="6" t="s">
@@ -1095,6 +1148,9 @@
       <c r="E33" s="6">
         <v>919</v>
       </c>
+      <c r="F33" s="6">
+        <v>1047</v>
+      </c>
     </row>
     <row r="34" ht="12.75">
       <c r="A34" s="6" t="s">
@@ -1112,6 +1168,9 @@
       <c r="E34" s="6">
         <v>920</v>
       </c>
+      <c r="F34" s="6">
+        <v>1048</v>
+      </c>
     </row>
     <row r="35" ht="12.75">
       <c r="A35" s="6" t="s">
@@ -1129,19 +1188,28 @@
       <c r="E35" s="6">
         <v>921</v>
       </c>
+      <c r="F35" s="6">
+        <v>1049</v>
+      </c>
     </row>
     <row r="36" ht="12.75">
       <c r="A36" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="10">
-        <v>1106639001028</v>
+        <v>1106639000973</v>
       </c>
       <c r="C36" s="6">
         <v>180</v>
       </c>
       <c r="D36" s="6">
-        <v>832</v>
+        <v>833</v>
+      </c>
+      <c r="E36" s="6">
+        <v>922</v>
+      </c>
+      <c r="F36" s="6">
+        <v>1050</v>
       </c>
     </row>
     <row r="37" ht="12.75">
@@ -1149,16 +1217,19 @@
         <v>47</v>
       </c>
       <c r="B37" s="10">
-        <v>1106639000973</v>
+        <v>1156658098266</v>
       </c>
       <c r="C37" s="6">
-        <v>180</v>
+        <v>326</v>
       </c>
       <c r="D37" s="6">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E37" s="6">
-        <v>922</v>
+        <v>923</v>
+      </c>
+      <c r="F37" s="6">
+        <v>1051</v>
       </c>
     </row>
     <row r="38" ht="12.75">
@@ -1169,13 +1240,16 @@
         <v>1156658098266</v>
       </c>
       <c r="C38" s="6">
-        <v>326</v>
+        <v>167</v>
       </c>
       <c r="D38" s="6">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E38" s="6">
-        <v>923</v>
+        <v>924</v>
+      </c>
+      <c r="F38" s="6">
+        <v>1052</v>
       </c>
     </row>
     <row r="39" ht="12.75">
@@ -1186,13 +1260,16 @@
         <v>1156658098266</v>
       </c>
       <c r="C39" s="6">
-        <v>167</v>
+        <v>288</v>
       </c>
       <c r="D39" s="6">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E39" s="6">
-        <v>924</v>
+        <v>925</v>
+      </c>
+      <c r="F39" s="6">
+        <v>1053</v>
       </c>
     </row>
     <row r="40" ht="12.75">
@@ -1203,13 +1280,16 @@
         <v>1156658098266</v>
       </c>
       <c r="C40" s="6">
-        <v>288</v>
+        <v>419</v>
       </c>
       <c r="D40" s="6">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E40" s="6">
-        <v>925</v>
+        <v>926</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1054</v>
       </c>
     </row>
     <row r="41" ht="12.75">
@@ -1220,13 +1300,16 @@
         <v>1156658098266</v>
       </c>
       <c r="C41" s="6">
-        <v>419</v>
+        <v>109</v>
       </c>
       <c r="D41" s="6">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E41" s="6">
-        <v>926</v>
+        <v>927</v>
+      </c>
+      <c r="F41" s="6">
+        <v>1055</v>
       </c>
     </row>
     <row r="42" ht="12.75">
@@ -1237,13 +1320,16 @@
         <v>1156658098266</v>
       </c>
       <c r="C42" s="6">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="D42" s="6">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="E42" s="6">
-        <v>927</v>
+        <v>928</v>
+      </c>
+      <c r="F42" s="6">
+        <v>1056</v>
       </c>
     </row>
     <row r="43" ht="12.75">
@@ -1254,10 +1340,16 @@
         <v>1156658098266</v>
       </c>
       <c r="C43" s="6">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="D43" s="6">
-        <v>839</v>
+        <v>841</v>
+      </c>
+      <c r="E43" s="6">
+        <v>929</v>
+      </c>
+      <c r="F43" s="6">
+        <v>1057</v>
       </c>
     </row>
     <row r="44" ht="12.75">
@@ -1268,13 +1360,16 @@
         <v>1156658098266</v>
       </c>
       <c r="C44" s="6">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="D44" s="6">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="E44" s="6">
-        <v>928</v>
+        <v>930</v>
+      </c>
+      <c r="F44" s="6">
+        <v>1058</v>
       </c>
     </row>
     <row r="45" ht="12.75">
@@ -1285,13 +1380,16 @@
         <v>1156658098266</v>
       </c>
       <c r="C45" s="6">
-        <v>285</v>
+        <v>558</v>
       </c>
       <c r="D45" s="6">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="E45" s="6">
-        <v>929</v>
+        <v>931</v>
+      </c>
+      <c r="F45" s="6">
+        <v>1059</v>
       </c>
     </row>
     <row r="46" ht="12.75">
@@ -1302,13 +1400,16 @@
         <v>1156658098266</v>
       </c>
       <c r="C46" s="6">
-        <v>177</v>
+        <v>320</v>
       </c>
       <c r="D46" s="6">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="E46" s="6">
-        <v>930</v>
+        <v>932</v>
+      </c>
+      <c r="F46" s="6">
+        <v>1060</v>
       </c>
     </row>
     <row r="47" ht="12.75">
@@ -1319,13 +1420,16 @@
         <v>1156658098266</v>
       </c>
       <c r="C47" s="6">
-        <v>558</v>
+        <v>92</v>
       </c>
       <c r="D47" s="6">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="E47" s="6">
-        <v>931</v>
+        <v>933</v>
+      </c>
+      <c r="F47" s="6">
+        <v>1061</v>
       </c>
     </row>
     <row r="48" ht="12.75">
@@ -1336,13 +1440,16 @@
         <v>1156658098266</v>
       </c>
       <c r="C48" s="6">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="D48" s="6">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="E48" s="6">
-        <v>932</v>
+        <v>934</v>
+      </c>
+      <c r="F48" s="6">
+        <v>1062</v>
       </c>
     </row>
     <row r="49" ht="12.75">
@@ -1350,16 +1457,19 @@
         <v>59</v>
       </c>
       <c r="B49" s="10">
-        <v>1156658098266</v>
+        <v>1146683001420</v>
       </c>
       <c r="C49" s="6">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="D49" s="6">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="E49" s="6">
-        <v>933</v>
+        <v>935</v>
+      </c>
+      <c r="F49" s="6">
+        <v>1063</v>
       </c>
     </row>
     <row r="50" ht="12.75">
@@ -1367,16 +1477,19 @@
         <v>60</v>
       </c>
       <c r="B50" s="10">
-        <v>1156658098266</v>
+        <v>1116671011050</v>
       </c>
       <c r="C50" s="6">
-        <v>283</v>
+        <v>792</v>
       </c>
       <c r="D50" s="6">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="E50" s="6">
-        <v>934</v>
+        <v>936</v>
+      </c>
+      <c r="F50" s="6">
+        <v>1064</v>
       </c>
     </row>
     <row r="51" ht="12.75">
@@ -1384,13 +1497,19 @@
         <v>61</v>
       </c>
       <c r="B51" s="10">
-        <v>1106639000962</v>
+        <v>1069639010660</v>
       </c>
       <c r="C51" s="6">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="D51" s="6">
-        <v>847</v>
+        <v>853</v>
+      </c>
+      <c r="E51" s="6">
+        <v>937</v>
+      </c>
+      <c r="F51" s="6">
+        <v>1065</v>
       </c>
     </row>
     <row r="52" ht="12.75">
@@ -1398,13 +1517,19 @@
         <v>62</v>
       </c>
       <c r="B52" s="10">
-        <v>1106639000896</v>
+        <v>1027200842811</v>
       </c>
       <c r="C52" s="6">
-        <v>180</v>
+        <v>837</v>
       </c>
       <c r="D52" s="6">
-        <v>848</v>
+        <v>854</v>
+      </c>
+      <c r="E52" s="6">
+        <v>938</v>
+      </c>
+      <c r="F52" s="6">
+        <v>1066</v>
       </c>
     </row>
     <row r="53" ht="12.75">
@@ -1412,13 +1537,19 @@
         <v>63</v>
       </c>
       <c r="B53" s="10">
-        <v>1106639000907</v>
+        <v>1027200871818</v>
       </c>
       <c r="C53" s="6">
-        <v>180</v>
+        <v>726</v>
       </c>
       <c r="D53" s="6">
-        <v>849</v>
+        <v>855</v>
+      </c>
+      <c r="E53" s="6">
+        <v>939</v>
+      </c>
+      <c r="F53" s="6">
+        <v>1067</v>
       </c>
     </row>
     <row r="54" ht="12.75">
@@ -1426,13 +1557,19 @@
         <v>64</v>
       </c>
       <c r="B54" s="10">
-        <v>1106639000951</v>
+        <v>1087232040466</v>
       </c>
       <c r="C54" s="6">
-        <v>180</v>
+        <v>556</v>
       </c>
       <c r="D54" s="6">
-        <v>850</v>
+        <v>857</v>
+      </c>
+      <c r="E54" s="6">
+        <v>941</v>
+      </c>
+      <c r="F54" s="6">
+        <v>1068</v>
       </c>
     </row>
     <row r="55" ht="12.75">
@@ -1440,16 +1577,19 @@
         <v>65</v>
       </c>
       <c r="B55" s="10">
-        <v>1146683001420</v>
+        <v>1047200675884</v>
       </c>
       <c r="C55" s="6">
-        <v>180</v>
+        <v>545</v>
       </c>
       <c r="D55" s="6">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="E55" s="6">
-        <v>935</v>
+        <v>942</v>
+      </c>
+      <c r="F55" s="6">
+        <v>1069</v>
       </c>
     </row>
     <row r="56" ht="12.75">
@@ -1457,16 +1597,19 @@
         <v>66</v>
       </c>
       <c r="B56" s="10">
-        <v>1116671011050</v>
+        <v>1147232021881</v>
       </c>
       <c r="C56" s="6">
-        <v>792</v>
+        <v>721</v>
       </c>
       <c r="D56" s="6">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="E56" s="6">
-        <v>936</v>
+        <v>943</v>
+      </c>
+      <c r="F56" s="6">
+        <v>1070</v>
       </c>
     </row>
     <row r="57" ht="12.75">
@@ -1474,16 +1617,19 @@
         <v>67</v>
       </c>
       <c r="B57" s="10">
-        <v>1069639010660</v>
+        <v>1077200004122</v>
       </c>
       <c r="C57" s="6">
-        <v>16</v>
+        <v>722</v>
       </c>
       <c r="D57" s="6">
-        <v>853</v>
+        <v>860</v>
       </c>
       <c r="E57" s="6">
-        <v>937</v>
+        <v>944</v>
+      </c>
+      <c r="F57" s="6">
+        <v>1071</v>
       </c>
     </row>
     <row r="58" ht="12.75">
@@ -1491,16 +1637,19 @@
         <v>68</v>
       </c>
       <c r="B58" s="10">
-        <v>1027200842811</v>
+        <v>1147232017580</v>
       </c>
       <c r="C58" s="6">
-        <v>837</v>
+        <v>620</v>
       </c>
       <c r="D58" s="6">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="E58" s="6">
-        <v>938</v>
+        <v>945</v>
+      </c>
+      <c r="F58" s="6">
+        <v>1072</v>
       </c>
     </row>
     <row r="59" ht="12.75">
@@ -1508,16 +1657,19 @@
         <v>69</v>
       </c>
       <c r="B59" s="10">
-        <v>1027200871818</v>
+        <v>1087232040697</v>
       </c>
       <c r="C59" s="6">
-        <v>726</v>
+        <v>572</v>
       </c>
       <c r="D59" s="6">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="E59" s="6">
-        <v>939</v>
+        <v>946</v>
+      </c>
+      <c r="F59" s="6">
+        <v>1073</v>
       </c>
     </row>
     <row r="60" ht="12.75">
@@ -1525,16 +1677,19 @@
         <v>70</v>
       </c>
       <c r="B60" s="10">
-        <v>1087232040466</v>
+        <v>1116674014270</v>
       </c>
       <c r="C60" s="6">
-        <v>556</v>
+        <v>103</v>
       </c>
       <c r="D60" s="6">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="E60" s="6">
-        <v>941</v>
+        <v>947</v>
+      </c>
+      <c r="F60" s="6">
+        <v>1074</v>
       </c>
     </row>
     <row r="61" ht="12.75">
@@ -1542,16 +1697,19 @@
         <v>71</v>
       </c>
       <c r="B61" s="10">
-        <v>1047200675884</v>
+        <v>1046601020157</v>
       </c>
       <c r="C61" s="6">
-        <v>545</v>
+        <v>873</v>
       </c>
       <c r="D61" s="6">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="E61" s="6">
-        <v>942</v>
+        <v>948</v>
+      </c>
+      <c r="F61" s="6">
+        <v>1075</v>
       </c>
     </row>
     <row r="62" ht="12.75">
@@ -1559,16 +1717,19 @@
         <v>72</v>
       </c>
       <c r="B62" s="10">
-        <v>1147232021881</v>
+        <v>1086639001481</v>
       </c>
       <c r="C62" s="6">
-        <v>721</v>
+        <v>50</v>
       </c>
       <c r="D62" s="6">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="E62" s="6">
-        <v>943</v>
+        <v>949</v>
+      </c>
+      <c r="F62" s="6">
+        <v>1076</v>
       </c>
     </row>
     <row r="63" ht="12.75">
@@ -1576,16 +1737,19 @@
         <v>73</v>
       </c>
       <c r="B63" s="10">
-        <v>1077200004122</v>
+        <v>1147232040196</v>
       </c>
       <c r="C63" s="6">
-        <v>722</v>
+        <v>694</v>
       </c>
       <c r="D63" s="6">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="E63" s="6">
-        <v>944</v>
+        <v>950</v>
+      </c>
+      <c r="F63" s="6">
+        <v>1077</v>
       </c>
     </row>
     <row r="64" ht="12.75">
@@ -1593,16 +1757,19 @@
         <v>74</v>
       </c>
       <c r="B64" s="10">
-        <v>1147232017580</v>
+        <v>1167232056551</v>
       </c>
       <c r="C64" s="6">
-        <v>620</v>
+        <v>694</v>
       </c>
       <c r="D64" s="6">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="E64" s="6">
-        <v>945</v>
+        <v>951</v>
+      </c>
+      <c r="F64" s="6">
+        <v>1078</v>
       </c>
     </row>
     <row r="65" ht="12.75">
@@ -1610,16 +1777,19 @@
         <v>75</v>
       </c>
       <c r="B65" s="10">
-        <v>1087232040697</v>
+        <v>1157232026137</v>
       </c>
       <c r="C65" s="6">
-        <v>572</v>
+        <v>724</v>
       </c>
       <c r="D65" s="6">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="E65" s="6">
-        <v>946</v>
+        <v>952</v>
+      </c>
+      <c r="F65" s="6">
+        <v>1079</v>
       </c>
     </row>
     <row r="66" ht="12.75">
@@ -1627,16 +1797,19 @@
         <v>76</v>
       </c>
       <c r="B66" s="10">
-        <v>1116674014270</v>
+        <v>1107232017595</v>
       </c>
       <c r="C66" s="6">
-        <v>103</v>
+        <v>618</v>
       </c>
       <c r="D66" s="6">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="E66" s="6">
-        <v>947</v>
+        <v>953</v>
+      </c>
+      <c r="F66" s="6">
+        <v>1080</v>
       </c>
     </row>
     <row r="67" ht="12.75">
@@ -1644,16 +1817,19 @@
         <v>77</v>
       </c>
       <c r="B67" s="10">
-        <v>1046601020157</v>
+        <v>1027200836464</v>
       </c>
       <c r="C67" s="6">
-        <v>873</v>
+        <v>957</v>
       </c>
       <c r="D67" s="6">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="E67" s="6">
-        <v>948</v>
+        <v>954</v>
+      </c>
+      <c r="F67" s="6">
+        <v>1081</v>
       </c>
     </row>
     <row r="68" ht="12.75">
@@ -1661,16 +1837,19 @@
         <v>78</v>
       </c>
       <c r="B68" s="10">
-        <v>1086639001481</v>
+        <v>1069633012008</v>
       </c>
       <c r="C68" s="6">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D68" s="6">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="E68" s="6">
-        <v>949</v>
+        <v>955</v>
+      </c>
+      <c r="F68" s="6">
+        <v>1082</v>
       </c>
     </row>
     <row r="69" ht="12.75">
@@ -1678,16 +1857,19 @@
         <v>79</v>
       </c>
       <c r="B69" s="10">
-        <v>1147232040196</v>
+        <v>1026600785430</v>
       </c>
       <c r="C69" s="6">
-        <v>694</v>
+        <v>277</v>
       </c>
       <c r="D69" s="6">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="E69" s="6">
-        <v>950</v>
+        <v>956</v>
+      </c>
+      <c r="F69" s="6">
+        <v>1083</v>
       </c>
     </row>
     <row r="70" ht="12.75">
@@ -1695,16 +1877,19 @@
         <v>80</v>
       </c>
       <c r="B70" s="10">
-        <v>1167232056551</v>
+        <v>1152036004625</v>
       </c>
       <c r="C70" s="6">
-        <v>694</v>
+        <v>862</v>
       </c>
       <c r="D70" s="6">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="E70" s="6">
-        <v>951</v>
+        <v>957</v>
+      </c>
+      <c r="F70" s="6">
+        <v>1084</v>
       </c>
     </row>
     <row r="71" ht="12.75">
@@ -1712,16 +1897,19 @@
         <v>81</v>
       </c>
       <c r="B71" s="10">
-        <v>1157232026137</v>
+        <v>1107232017089</v>
       </c>
       <c r="C71" s="6">
-        <v>724</v>
+        <v>962</v>
       </c>
       <c r="D71" s="6">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="E71" s="6">
-        <v>952</v>
+        <v>958</v>
+      </c>
+      <c r="F71" s="6">
+        <v>1085</v>
       </c>
     </row>
     <row r="72" ht="12.75">
@@ -1729,16 +1917,19 @@
         <v>82</v>
       </c>
       <c r="B72" s="10">
-        <v>1107232017595</v>
+        <v>1076633000762</v>
       </c>
       <c r="C72" s="6">
-        <v>618</v>
+        <v>756</v>
       </c>
       <c r="D72" s="6">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="E72" s="6">
-        <v>953</v>
+        <v>959</v>
+      </c>
+      <c r="F72" s="6">
+        <v>1086</v>
       </c>
     </row>
     <row r="73" ht="12.75">
@@ -1746,16 +1937,19 @@
         <v>83</v>
       </c>
       <c r="B73" s="10">
-        <v>1027200836464</v>
+        <v>1057200754346</v>
       </c>
       <c r="C73" s="6">
-        <v>957</v>
+        <v>944</v>
       </c>
       <c r="D73" s="6">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="E73" s="6">
-        <v>954</v>
+        <v>960</v>
+      </c>
+      <c r="F73" s="6">
+        <v>1087</v>
       </c>
     </row>
     <row r="74" ht="12.75">
@@ -1763,16 +1957,19 @@
         <v>84</v>
       </c>
       <c r="B74" s="10">
-        <v>1069633012008</v>
+        <v>1047200601766</v>
       </c>
       <c r="C74" s="6">
-        <v>59</v>
+        <v>880</v>
       </c>
       <c r="D74" s="6">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="E74" s="6">
-        <v>955</v>
+        <v>961</v>
+      </c>
+      <c r="F74" s="6">
+        <v>1088</v>
       </c>
     </row>
     <row r="75" ht="12.75">
@@ -1780,16 +1977,19 @@
         <v>85</v>
       </c>
       <c r="B75" s="10">
-        <v>1026600785430</v>
+        <v>1069673002101</v>
       </c>
       <c r="C75" s="6">
-        <v>277</v>
+        <v>25</v>
       </c>
       <c r="D75" s="6">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="E75" s="6">
-        <v>956</v>
+        <v>962</v>
+      </c>
+      <c r="F75" s="6">
+        <v>1089</v>
       </c>
     </row>
     <row r="76" ht="12.75">
@@ -1797,16 +1997,19 @@
         <v>86</v>
       </c>
       <c r="B76" s="10">
-        <v>1152036004625</v>
+        <v>1156658098266</v>
       </c>
       <c r="C76" s="6">
-        <v>862</v>
+        <v>88</v>
       </c>
       <c r="D76" s="6">
-        <v>873</v>
+        <v>881</v>
       </c>
       <c r="E76" s="6">
-        <v>957</v>
+        <v>963</v>
+      </c>
+      <c r="F76" s="6">
+        <v>1090</v>
       </c>
     </row>
     <row r="77" ht="12.75">
@@ -1814,16 +2017,19 @@
         <v>87</v>
       </c>
       <c r="B77" s="10">
-        <v>1107232017089</v>
+        <v>1156658098266</v>
       </c>
       <c r="C77" s="6">
-        <v>962</v>
+        <v>669</v>
       </c>
       <c r="D77" s="6">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="E77" s="6">
-        <v>958</v>
+        <v>964</v>
+      </c>
+      <c r="F77" s="6">
+        <v>1091</v>
       </c>
     </row>
     <row r="78" ht="12.75">
@@ -1831,16 +2037,19 @@
         <v>88</v>
       </c>
       <c r="B78" s="10">
-        <v>1076633000762</v>
+        <v>1057200754346</v>
       </c>
       <c r="C78" s="6">
-        <v>756</v>
+        <v>944</v>
       </c>
       <c r="D78" s="6">
-        <v>875</v>
+        <v>747</v>
       </c>
       <c r="E78" s="6">
-        <v>959</v>
+        <v>705</v>
+      </c>
+      <c r="F78" s="6">
+        <v>707</v>
       </c>
     </row>
     <row r="79" ht="12.75">
@@ -1848,16 +2057,19 @@
         <v>89</v>
       </c>
       <c r="B79" s="10">
-        <v>1057200754346</v>
+        <v>1067203210360</v>
       </c>
       <c r="C79" s="6">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="D79" s="6">
-        <v>876</v>
+        <v>715</v>
       </c>
       <c r="E79" s="6">
-        <v>960</v>
+        <v>726</v>
+      </c>
+      <c r="F79" s="6">
+        <v>728</v>
       </c>
     </row>
     <row r="80" ht="12.75">
@@ -1865,16 +2077,19 @@
         <v>90</v>
       </c>
       <c r="B80" s="10">
-        <v>1047200601766</v>
+        <v>1056605203038</v>
       </c>
       <c r="C80" s="6">
-        <v>880</v>
+        <v>331</v>
       </c>
       <c r="D80" s="6">
-        <v>877</v>
+        <v>724</v>
       </c>
       <c r="E80" s="6">
-        <v>961</v>
+        <v>725</v>
+      </c>
+      <c r="F80" s="6">
+        <v>965</v>
       </c>
     </row>
     <row r="81" ht="12.75">
@@ -1882,16 +2097,19 @@
         <v>91</v>
       </c>
       <c r="B81" s="10">
-        <v>1069673002101</v>
+        <v>1167232065813</v>
       </c>
       <c r="C81" s="6">
-        <v>25</v>
+        <v>981</v>
       </c>
       <c r="D81" s="6">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="E81" s="6">
-        <v>962</v>
+        <v>966</v>
+      </c>
+      <c r="F81" s="6">
+        <v>1092</v>
       </c>
     </row>
     <row r="82" ht="12.75">
@@ -1899,13 +2117,19 @@
         <v>92</v>
       </c>
       <c r="B82" s="10">
-        <v>1156658098266</v>
+        <v>1057200820731</v>
       </c>
       <c r="C82" s="6">
-        <v>87</v>
+        <v>949</v>
       </c>
       <c r="D82" s="6">
-        <v>879</v>
+        <v>714</v>
+      </c>
+      <c r="E82" s="6">
+        <v>967</v>
+      </c>
+      <c r="F82" s="6">
+        <v>1093</v>
       </c>
     </row>
     <row r="83" ht="12.75">
@@ -1913,13 +2137,19 @@
         <v>93</v>
       </c>
       <c r="B83" s="10">
-        <v>1156658098266</v>
+        <v>1097232028761</v>
       </c>
       <c r="C83" s="6">
-        <v>85</v>
+        <v>866</v>
       </c>
       <c r="D83" s="6">
-        <v>880</v>
+        <v>721</v>
+      </c>
+      <c r="E83" s="6">
+        <v>723</v>
+      </c>
+      <c r="F83" s="6">
+        <v>968</v>
       </c>
     </row>
     <row r="84" ht="12.75">
@@ -1927,205 +2157,18 @@
         <v>94</v>
       </c>
       <c r="B84" s="10">
-        <v>1156658098266</v>
+        <v>1097232030598</v>
       </c>
       <c r="C84" s="6">
-        <v>88</v>
+        <v>861</v>
       </c>
       <c r="D84" s="6">
-        <v>881</v>
+        <v>719</v>
       </c>
       <c r="E84" s="6">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="85" ht="12.75">
-      <c r="A85" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B85" s="10">
-        <v>1156658098266</v>
-      </c>
-      <c r="C85" s="6">
-        <v>93</v>
-      </c>
-      <c r="D85" s="6">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="86" ht="12.75">
-      <c r="A86" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B86" s="10">
-        <v>1156658098266</v>
-      </c>
-      <c r="C86" s="6">
-        <v>669</v>
-      </c>
-      <c r="D86" s="6">
-        <v>883</v>
-      </c>
-      <c r="E86" s="6">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="87" ht="12.75">
-      <c r="A87" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B87" s="10">
-        <v>1057200754346</v>
-      </c>
-      <c r="C87" s="6">
-        <v>944</v>
-      </c>
-      <c r="D87" s="6">
-        <v>747</v>
-      </c>
-      <c r="E87" s="6">
-        <v>705</v>
-      </c>
-      <c r="F87" s="6">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="88" ht="12.75">
-      <c r="A88" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B88" s="10">
-        <v>1067203210360</v>
-      </c>
-      <c r="C88" s="6">
-        <v>948</v>
-      </c>
-      <c r="D88" s="6">
-        <v>715</v>
-      </c>
-      <c r="E88" s="6">
-        <v>726</v>
-      </c>
-      <c r="F88" s="6">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="89" ht="12.75">
-      <c r="A89" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89" s="10">
-        <v>1076633000762</v>
-      </c>
-      <c r="C89" s="6">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="90" ht="12.75">
-      <c r="A90" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B90" s="10">
-        <v>1056605203038</v>
-      </c>
-      <c r="C90" s="6">
-        <v>331</v>
-      </c>
-      <c r="D90" s="6">
-        <v>724</v>
-      </c>
-      <c r="E90" s="6">
-        <v>725</v>
-      </c>
-      <c r="F90" s="6">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="91" ht="12.75">
-      <c r="A91" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B91" s="10">
-        <v>1167232065813</v>
-      </c>
-      <c r="C91" s="6">
-        <v>981</v>
-      </c>
-      <c r="D91" s="6">
-        <v>884</v>
-      </c>
-      <c r="E91" s="6">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="92" ht="12.75">
-      <c r="A92" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B92" s="10">
-        <v>1047200601766</v>
-      </c>
-      <c r="C92" s="6">
-        <v>880</v>
-      </c>
-      <c r="D92" s="6">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="93" ht="12.75">
-      <c r="A93" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B93" s="10">
-        <v>1057200820731</v>
-      </c>
-      <c r="C93" s="6">
-        <v>949</v>
-      </c>
-      <c r="D93" s="6">
-        <v>714</v>
-      </c>
-      <c r="E93" s="6">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="94" ht="12.75">
-      <c r="A94" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B94" s="10">
-        <v>1097232028761</v>
-      </c>
-      <c r="C94" s="6">
-        <v>866</v>
-      </c>
-      <c r="D94" s="6">
-        <v>721</v>
-      </c>
-      <c r="E94" s="6">
-        <v>723</v>
-      </c>
-      <c r="F94" s="6">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="95" ht="12.75">
-      <c r="A95" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B95" s="10">
-        <v>1097232030598</v>
-      </c>
-      <c r="C95" s="6">
-        <v>861</v>
-      </c>
-      <c r="D95" s="6">
-        <v>719</v>
-      </c>
-      <c r="E95" s="6">
         <v>722</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F84" s="6">
         <v>969</v>
       </c>
     </row>
@@ -2145,43 +2188,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:H259"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B100" activeCellId="0" sqref="B100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G181" activeCellId="0" sqref="G181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="6" width="8.1" customWidth="1" style="6"/>
-    <col min="7" max="7" width="45.49" customWidth="1" style="6"/>
+    <col min="7" max="7" width="72.36" customWidth="1" style="6"/>
     <col min="8" max="1025" width="8.1" customWidth="1" style="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" ht="12.8">
@@ -2204,12 +2247,12 @@
         <v>67</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" ht="12.8">
       <c r="A3" s="6">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="B3" s="6">
         <v>3</v>
@@ -2218,67 +2261,67 @@
         <v>1</v>
       </c>
       <c r="D3" s="6">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="6">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" ht="12.8">
       <c r="A4" s="6">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B4" s="6">
         <v>3</v>
       </c>
       <c r="C4" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="6">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E4" s="6">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="F4" s="6">
-        <v>126</v>
+        <v>1</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" ht="12.8">
       <c r="A5" s="6">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="B5" s="6">
         <v>3</v>
       </c>
       <c r="C5" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="6">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="E5" s="6">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="F5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" ht="12.8">
       <c r="A6" s="6">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B6" s="6">
         <v>3</v>
@@ -2287,90 +2330,90 @@
         <v>1</v>
       </c>
       <c r="D6" s="6">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="E6" s="6">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="F6" s="6">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" ht="12.8">
       <c r="A7" s="6">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B7" s="6">
         <v>3</v>
       </c>
       <c r="C7" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="6">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="E7" s="6">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="F7" s="6">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" ht="12.8">
       <c r="A8" s="6">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B8" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" s="6">
         <v>2</v>
       </c>
       <c r="D8" s="6">
-        <v>91</v>
+        <v>412</v>
       </c>
       <c r="E8" s="6">
-        <v>1</v>
+        <v>338</v>
       </c>
       <c r="F8" s="6">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" ht="12.8">
       <c r="A9" s="6">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B9" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="6">
-        <v>412</v>
+        <v>468</v>
       </c>
       <c r="E9" s="6">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="F9" s="6">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" ht="12.8">
       <c r="A10" s="6">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B10" s="6">
         <v>3</v>
@@ -2379,67 +2422,67 @@
         <v>1</v>
       </c>
       <c r="D10" s="6">
-        <v>468</v>
+        <v>1327</v>
       </c>
       <c r="E10" s="6">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="F10" s="6">
-        <v>173</v>
+        <v>1327</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" ht="12.8">
       <c r="A11" s="6">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B11" s="6">
         <v>3</v>
       </c>
       <c r="C11" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="6">
-        <v>1327</v>
+        <v>186</v>
       </c>
       <c r="E11" s="6">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="F11" s="6">
-        <v>1327</v>
+        <v>1</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" ht="12.8">
       <c r="A12" s="6">
-        <v>726</v>
+        <v>747</v>
       </c>
       <c r="B12" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C12" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="6">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="E12" s="6">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="F12" s="6">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" ht="12.8">
       <c r="A13" s="6">
-        <v>728</v>
+        <v>757</v>
       </c>
       <c r="B13" s="6">
         <v>3</v>
@@ -2448,44 +2491,44 @@
         <v>1</v>
       </c>
       <c r="D13" s="6">
-        <v>1606</v>
+        <v>114</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
       </c>
       <c r="F13" s="6">
-        <v>1606</v>
+        <v>114</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" ht="12.8">
       <c r="A14" s="6">
-        <v>747</v>
+        <v>798</v>
       </c>
       <c r="B14" s="6">
         <v>3</v>
       </c>
       <c r="C14" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="6">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="E14" s="6">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F14" s="6">
         <v>28</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" ht="12.8">
       <c r="A15" s="6">
-        <v>757</v>
+        <v>799</v>
       </c>
       <c r="B15" s="6">
         <v>3</v>
@@ -2494,90 +2537,90 @@
         <v>1</v>
       </c>
       <c r="D15" s="6">
-        <v>114</v>
+        <v>211</v>
       </c>
       <c r="E15" s="6">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="F15" s="6">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" ht="12.8">
       <c r="A16" s="6">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B16" s="6">
         <v>3</v>
       </c>
       <c r="C16" s="6">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D16" s="6">
-        <v>69</v>
+        <v>7782</v>
       </c>
       <c r="E16" s="6">
-        <v>41</v>
+        <v>5718</v>
       </c>
       <c r="F16" s="6">
-        <v>28</v>
+        <v>2064</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" ht="12.8">
       <c r="A17" s="6">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B17" s="6">
         <v>3</v>
       </c>
       <c r="C17" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="6">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="E17" s="6">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="F17" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" ht="12.8">
       <c r="A18" s="6">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B18" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" s="6">
-        <v>7782</v>
+        <v>8361</v>
       </c>
       <c r="E18" s="6">
-        <v>5718</v>
+        <v>5376</v>
       </c>
       <c r="F18" s="6">
-        <v>2064</v>
+        <v>2985</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" ht="12.8">
       <c r="A19" s="6">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B19" s="6">
         <v>3</v>
@@ -2586,44 +2629,44 @@
         <v>3</v>
       </c>
       <c r="D19" s="6">
+        <v>115</v>
+      </c>
+      <c r="E19" s="6">
         <v>106</v>
       </c>
-      <c r="E19" s="6">
-        <v>100</v>
-      </c>
       <c r="F19" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" ht="12.8">
       <c r="A20" s="6">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B20" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D20" s="6">
-        <v>8361</v>
+        <v>10810</v>
       </c>
       <c r="E20" s="6">
-        <v>5376</v>
+        <v>10145</v>
       </c>
       <c r="F20" s="6">
-        <v>2985</v>
+        <v>665</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" ht="12.8">
       <c r="A21" s="6">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B21" s="6">
         <v>3</v>
@@ -2632,44 +2675,44 @@
         <v>3</v>
       </c>
       <c r="D21" s="6">
-        <v>115</v>
+        <v>1507</v>
       </c>
       <c r="E21" s="6">
-        <v>106</v>
+        <v>1243</v>
       </c>
       <c r="F21" s="6">
-        <v>9</v>
+        <v>264</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" ht="12.8">
       <c r="A22" s="6">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B22" s="6">
         <v>3</v>
       </c>
       <c r="C22" s="6">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D22" s="6">
-        <v>10810</v>
+        <v>4059</v>
       </c>
       <c r="E22" s="6">
-        <v>10145</v>
+        <v>4006</v>
       </c>
       <c r="F22" s="6">
-        <v>665</v>
+        <v>53</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" ht="12.8">
       <c r="A23" s="6">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B23" s="6">
         <v>3</v>
@@ -2678,67 +2721,67 @@
         <v>3</v>
       </c>
       <c r="D23" s="6">
-        <v>1507</v>
+        <v>537</v>
       </c>
       <c r="E23" s="6">
-        <v>1243</v>
+        <v>451</v>
       </c>
       <c r="F23" s="6">
-        <v>264</v>
+        <v>86</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" ht="12.8">
       <c r="A24" s="6">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B24" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D24" s="6">
-        <v>4059</v>
+        <v>360</v>
       </c>
       <c r="E24" s="6">
-        <v>4006</v>
+        <v>334</v>
       </c>
       <c r="F24" s="6">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" ht="12.8">
       <c r="A25" s="6">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B25" s="6">
         <v>3</v>
       </c>
       <c r="C25" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" s="6">
-        <v>537</v>
+        <v>204</v>
       </c>
       <c r="E25" s="6">
-        <v>451</v>
+        <v>204</v>
       </c>
       <c r="F25" s="6">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" ht="12.8">
       <c r="A26" s="6">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B26" s="6">
         <v>3</v>
@@ -2747,44 +2790,44 @@
         <v>3</v>
       </c>
       <c r="D26" s="6">
-        <v>360</v>
+        <v>57</v>
       </c>
       <c r="E26" s="6">
-        <v>334</v>
+        <v>55</v>
       </c>
       <c r="F26" s="6">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" ht="12.8">
       <c r="A27" s="6">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B27" s="6">
         <v>3</v>
       </c>
       <c r="C27" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" s="6">
-        <v>204</v>
+        <v>2033</v>
       </c>
       <c r="E27" s="6">
-        <v>204</v>
+        <v>859</v>
       </c>
       <c r="F27" s="6">
-        <v>0</v>
+        <v>1174</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" ht="12.8">
       <c r="A28" s="6">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B28" s="6">
         <v>3</v>
@@ -2793,21 +2836,21 @@
         <v>3</v>
       </c>
       <c r="D28" s="6">
-        <v>57</v>
+        <v>390</v>
       </c>
       <c r="E28" s="6">
-        <v>55</v>
+        <v>388</v>
       </c>
       <c r="F28" s="6">
         <v>2</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" ht="12.8">
       <c r="A29" s="6">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B29" s="6">
         <v>3</v>
@@ -2816,21 +2859,21 @@
         <v>3</v>
       </c>
       <c r="D29" s="6">
-        <v>2033</v>
+        <v>1350</v>
       </c>
       <c r="E29" s="6">
-        <v>859</v>
+        <v>1270</v>
       </c>
       <c r="F29" s="6">
-        <v>1174</v>
+        <v>80</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" ht="12.8">
       <c r="A30" s="6">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B30" s="6">
         <v>3</v>
@@ -2839,21 +2882,21 @@
         <v>3</v>
       </c>
       <c r="D30" s="6">
-        <v>390</v>
+        <v>1017</v>
       </c>
       <c r="E30" s="6">
-        <v>388</v>
+        <v>1010</v>
       </c>
       <c r="F30" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" ht="12.8">
       <c r="A31" s="6">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B31" s="6">
         <v>3</v>
@@ -2862,21 +2905,21 @@
         <v>3</v>
       </c>
       <c r="D31" s="6">
-        <v>1350</v>
+        <v>1017</v>
       </c>
       <c r="E31" s="6">
-        <v>1270</v>
+        <v>991</v>
       </c>
       <c r="F31" s="6">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" ht="12.8">
       <c r="A32" s="6">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B32" s="6">
         <v>3</v>
@@ -2885,21 +2928,21 @@
         <v>3</v>
       </c>
       <c r="D32" s="6">
-        <v>1017</v>
+        <v>288</v>
       </c>
       <c r="E32" s="6">
-        <v>1010</v>
+        <v>286</v>
       </c>
       <c r="F32" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" ht="12.8">
       <c r="A33" s="6">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B33" s="6">
         <v>3</v>
@@ -2908,90 +2951,90 @@
         <v>3</v>
       </c>
       <c r="D33" s="6">
-        <v>1017</v>
+        <v>108</v>
       </c>
       <c r="E33" s="6">
-        <v>991</v>
+        <v>106</v>
       </c>
       <c r="F33" s="6">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" ht="12.8">
       <c r="A34" s="6">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B34" s="6">
         <v>3</v>
       </c>
       <c r="C34" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D34" s="6">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="E34" s="6">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="F34" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" ht="12.8">
       <c r="A35" s="6">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B35" s="6">
         <v>3</v>
       </c>
       <c r="C35" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D35" s="6">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="E35" s="6">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="F35" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" ht="12.8">
       <c r="A36" s="6">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B36" s="6">
         <v>3</v>
       </c>
       <c r="C36" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D36" s="6">
-        <v>253</v>
+        <v>3685</v>
       </c>
       <c r="E36" s="6">
-        <v>253</v>
+        <v>3684</v>
       </c>
       <c r="F36" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" ht="12.8">
       <c r="A37" s="6">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B37" s="6">
         <v>3</v>
@@ -3000,90 +3043,90 @@
         <v>1</v>
       </c>
       <c r="D37" s="6">
-        <v>172</v>
+        <v>849</v>
       </c>
       <c r="E37" s="6">
-        <v>172</v>
+        <v>849</v>
       </c>
       <c r="F37" s="6">
         <v>0</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" ht="12.8">
       <c r="A38" s="6">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B38" s="6">
         <v>3</v>
       </c>
       <c r="C38" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" s="6">
-        <v>3685</v>
+        <v>7149</v>
       </c>
       <c r="E38" s="6">
-        <v>3684</v>
+        <v>6241</v>
       </c>
       <c r="F38" s="6">
-        <v>1</v>
+        <v>908</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" ht="12.8">
       <c r="A39" s="6">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B39" s="6">
         <v>3</v>
       </c>
       <c r="C39" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D39" s="6">
-        <v>849</v>
+        <v>3574</v>
       </c>
       <c r="E39" s="6">
-        <v>849</v>
+        <v>3312</v>
       </c>
       <c r="F39" s="6">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" ht="12.8">
       <c r="A40" s="6">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B40" s="6">
         <v>3</v>
       </c>
       <c r="C40" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" s="6">
-        <v>7149</v>
+        <v>62</v>
       </c>
       <c r="E40" s="6">
-        <v>6241</v>
+        <v>60</v>
       </c>
       <c r="F40" s="6">
-        <v>908</v>
+        <v>2</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" ht="12.8">
       <c r="A41" s="6">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B41" s="6">
         <v>3</v>
@@ -3092,21 +3135,21 @@
         <v>3</v>
       </c>
       <c r="D41" s="6">
-        <v>3574</v>
+        <v>105</v>
       </c>
       <c r="E41" s="6">
-        <v>3312</v>
+        <v>103</v>
       </c>
       <c r="F41" s="6">
-        <v>262</v>
+        <v>2</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" ht="12.8">
       <c r="A42" s="6">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B42" s="6">
         <v>3</v>
@@ -3115,67 +3158,67 @@
         <v>3</v>
       </c>
       <c r="D42" s="6">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="E42" s="6">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="F42" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" ht="12.8">
       <c r="A43" s="6">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B43" s="6">
         <v>3</v>
       </c>
       <c r="C43" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D43" s="6">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E43" s="6">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="F43" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" ht="12.8">
       <c r="A44" s="6">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B44" s="6">
         <v>3</v>
       </c>
       <c r="C44" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44" s="6">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="E44" s="6">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="F44" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" ht="12.8">
       <c r="A45" s="6">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B45" s="6">
         <v>3</v>
@@ -3184,90 +3227,90 @@
         <v>1</v>
       </c>
       <c r="D45" s="6">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="E45" s="6">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="F45" s="6">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" ht="12.8">
       <c r="A46" s="6">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B46" s="6">
         <v>3</v>
       </c>
       <c r="C46" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46" s="6">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="E46" s="6">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="F46" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" ht="12.8">
       <c r="A47" s="6">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B47" s="6">
         <v>3</v>
       </c>
       <c r="C47" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D47" s="6">
-        <v>46</v>
+        <v>1071</v>
       </c>
       <c r="E47" s="6">
-        <v>0</v>
+        <v>870</v>
       </c>
       <c r="F47" s="6">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" ht="12.8">
       <c r="A48" s="6">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B48" s="6">
         <v>3</v>
       </c>
       <c r="C48" s="6">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D48" s="6">
-        <v>48</v>
+        <v>458</v>
       </c>
       <c r="E48" s="6">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="F48" s="6">
-        <v>1</v>
+        <v>458</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" ht="12.8">
       <c r="A49" s="6">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B49" s="6">
         <v>3</v>
@@ -3276,44 +3319,44 @@
         <v>3</v>
       </c>
       <c r="D49" s="6">
-        <v>1071</v>
+        <v>458</v>
       </c>
       <c r="E49" s="6">
-        <v>870</v>
+        <v>58</v>
       </c>
       <c r="F49" s="6">
-        <v>201</v>
+        <v>400</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" ht="12.8">
       <c r="A50" s="6">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B50" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D50" s="6">
-        <v>458</v>
+        <v>1419</v>
       </c>
       <c r="E50" s="6">
-        <v>0</v>
+        <v>1377</v>
       </c>
       <c r="F50" s="6">
-        <v>458</v>
+        <v>42</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" ht="12.8">
       <c r="A51" s="6">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B51" s="6">
         <v>3</v>
@@ -3322,113 +3365,113 @@
         <v>3</v>
       </c>
       <c r="D51" s="6">
-        <v>458</v>
+        <v>320</v>
       </c>
       <c r="E51" s="6">
-        <v>58</v>
+        <v>318</v>
       </c>
       <c r="F51" s="6">
-        <v>400</v>
+        <v>2</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" ht="12.8">
       <c r="A52" s="6">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B52" s="6">
         <v>3</v>
       </c>
       <c r="C52" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" s="6">
-        <v>1419</v>
+        <v>1675</v>
       </c>
       <c r="E52" s="6">
-        <v>1377</v>
+        <v>890</v>
       </c>
       <c r="F52" s="6">
-        <v>42</v>
+        <v>785</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" ht="12.8">
       <c r="A53" s="6">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B53" s="6">
         <v>3</v>
       </c>
       <c r="C53" s="6">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D53" s="6">
-        <v>320</v>
+        <v>9926</v>
       </c>
       <c r="E53" s="6">
-        <v>318</v>
+        <v>6599</v>
       </c>
       <c r="F53" s="6">
-        <v>2</v>
+        <v>3327</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" ht="12.8">
       <c r="A54" s="6">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B54" s="6">
         <v>3</v>
       </c>
       <c r="C54" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" s="6">
-        <v>1675</v>
+        <v>614</v>
       </c>
       <c r="E54" s="6">
-        <v>890</v>
+        <v>328</v>
       </c>
       <c r="F54" s="6">
-        <v>785</v>
+        <v>286</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" ht="12.8">
       <c r="A55" s="6">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B55" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C55" s="6">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D55" s="6">
-        <v>9926</v>
+        <v>106</v>
       </c>
       <c r="E55" s="6">
-        <v>6599</v>
+        <v>106</v>
       </c>
       <c r="F55" s="6">
-        <v>3327</v>
+        <v>0</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" ht="12.8">
       <c r="A56" s="6">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B56" s="6">
         <v>3</v>
@@ -3437,44 +3480,44 @@
         <v>3</v>
       </c>
       <c r="D56" s="6">
-        <v>614</v>
+        <v>355</v>
       </c>
       <c r="E56" s="6">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="F56" s="6">
-        <v>286</v>
+        <v>21</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" ht="12.8">
       <c r="A57" s="6">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B57" s="6">
         <v>3</v>
       </c>
       <c r="C57" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" s="6">
-        <v>106</v>
+        <v>464</v>
       </c>
       <c r="E57" s="6">
-        <v>106</v>
+        <v>442</v>
       </c>
       <c r="F57" s="6">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" ht="12.8">
       <c r="A58" s="6">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B58" s="6">
         <v>3</v>
@@ -3483,165 +3526,165 @@
         <v>3</v>
       </c>
       <c r="D58" s="6">
-        <v>355</v>
+        <v>3226</v>
       </c>
       <c r="E58" s="6">
-        <v>334</v>
+        <v>2985</v>
       </c>
       <c r="F58" s="6">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" ht="12.8">
       <c r="A59" s="6">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B59" s="6">
         <v>3</v>
       </c>
       <c r="C59" s="6">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D59" s="6">
-        <v>464</v>
+        <v>1491</v>
       </c>
       <c r="E59" s="6">
-        <v>442</v>
+        <v>1117</v>
       </c>
       <c r="F59" s="6">
-        <v>22</v>
+        <v>374</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" ht="12.8">
       <c r="A60" s="6">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B60" s="6">
         <v>3</v>
       </c>
       <c r="C60" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" s="6">
-        <v>3226</v>
+        <v>292</v>
       </c>
       <c r="E60" s="6">
-        <v>2985</v>
+        <v>278</v>
       </c>
       <c r="F60" s="6">
-        <v>241</v>
+        <v>14</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" ht="12.8">
       <c r="A61" s="6">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B61" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C61" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D61" s="6">
-        <v>1491</v>
+        <v>2359</v>
       </c>
       <c r="E61" s="6">
-        <v>1117</v>
+        <v>1252</v>
       </c>
       <c r="F61" s="6">
-        <v>374</v>
+        <v>1107</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" ht="12.8">
       <c r="A62" s="6">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B62" s="6">
         <v>3</v>
       </c>
       <c r="C62" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" s="6">
-        <v>292</v>
+        <v>73</v>
       </c>
       <c r="E62" s="6">
-        <v>278</v>
+        <v>53</v>
       </c>
       <c r="F62" s="6">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" ht="12.8">
       <c r="A63" s="6">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B63" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C63" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D63" s="6">
-        <v>2359</v>
+        <v>458</v>
       </c>
       <c r="E63" s="6">
-        <v>1252</v>
+        <v>0</v>
       </c>
       <c r="F63" s="6">
-        <v>1107</v>
+        <v>458</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" ht="12.8">
       <c r="A64" s="6">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B64" s="6">
         <v>3</v>
       </c>
       <c r="C64" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D64" s="6">
-        <v>73</v>
+        <v>458</v>
       </c>
       <c r="E64" s="6">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="F64" s="6">
-        <v>20</v>
+        <v>458</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" ht="12.8">
       <c r="A65" s="6">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B65" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C65" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D65" s="6">
         <v>458</v>
@@ -3653,18 +3696,18 @@
         <v>458</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" ht="12.8">
       <c r="A66" s="6">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B66" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C66" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D66" s="6">
         <v>458</v>
@@ -3676,104 +3719,104 @@
         <v>458</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" ht="12.8">
       <c r="A67" s="6">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B67" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C67" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D67" s="6">
         <v>458</v>
       </c>
       <c r="E67" s="6">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="F67" s="6">
-        <v>458</v>
+        <v>367</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" ht="12.8">
       <c r="A68" s="6">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B68" s="6">
         <v>3</v>
       </c>
       <c r="C68" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" s="6">
-        <v>458</v>
+        <v>1378</v>
       </c>
       <c r="E68" s="6">
-        <v>0</v>
+        <v>681</v>
       </c>
       <c r="F68" s="6">
-        <v>458</v>
+        <v>697</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" ht="12.8">
       <c r="A69" s="6">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B69" s="6">
         <v>3</v>
       </c>
       <c r="C69" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D69" s="6">
-        <v>458</v>
+        <v>331</v>
       </c>
       <c r="E69" s="6">
-        <v>91</v>
+        <v>331</v>
       </c>
       <c r="F69" s="6">
-        <v>367</v>
+        <v>0</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" ht="12.8">
       <c r="A70" s="6">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B70" s="6">
         <v>3</v>
       </c>
       <c r="C70" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" s="6">
-        <v>1378</v>
+        <v>59</v>
       </c>
       <c r="E70" s="6">
-        <v>681</v>
+        <v>0</v>
       </c>
       <c r="F70" s="6">
-        <v>697</v>
+        <v>59</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" ht="12.8">
       <c r="A71" s="6">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B71" s="6">
         <v>3</v>
@@ -3782,67 +3825,67 @@
         <v>1</v>
       </c>
       <c r="D71" s="6">
-        <v>331</v>
+        <v>190</v>
       </c>
       <c r="E71" s="6">
-        <v>331</v>
+        <v>190</v>
       </c>
       <c r="F71" s="6">
         <v>0</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" ht="12.8">
       <c r="A72" s="6">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="B72" s="6">
         <v>3</v>
       </c>
       <c r="C72" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" s="6">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="E72" s="6">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="F72" s="6">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" ht="12.8">
       <c r="A73" s="6">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="B73" s="6">
         <v>3</v>
       </c>
       <c r="C73" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D73" s="6">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="E73" s="6">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="F73" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" ht="12.8">
       <c r="A74" s="6">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B74" s="6">
         <v>3</v>
@@ -3851,21 +3894,21 @@
         <v>3</v>
       </c>
       <c r="D74" s="6">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="E74" s="6">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="F74" s="6">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" ht="12.8">
       <c r="A75" s="6">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B75" s="6">
         <v>3</v>
@@ -3874,113 +3917,113 @@
         <v>3</v>
       </c>
       <c r="D75" s="6">
-        <v>171</v>
+        <v>279</v>
       </c>
       <c r="E75" s="6">
-        <v>170</v>
+        <v>276</v>
       </c>
       <c r="F75" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" ht="12.8">
       <c r="A76" s="6">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B76" s="6">
         <v>3</v>
       </c>
       <c r="C76" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D76" s="6">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="E76" s="6">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="F76" s="6">
-        <v>2</v>
+        <v>213</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" ht="12.8">
       <c r="A77" s="6">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B77" s="6">
         <v>3</v>
       </c>
       <c r="C77" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D77" s="6">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="E77" s="6">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="F77" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" ht="12.8">
       <c r="A78" s="6">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B78" s="6">
         <v>3</v>
       </c>
       <c r="C78" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D78" s="6">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="E78" s="6">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="F78" s="6">
-        <v>213</v>
+        <v>5</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" ht="12.8">
       <c r="A79" s="6">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B79" s="6">
         <v>3</v>
       </c>
       <c r="C79" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D79" s="6">
-        <v>259</v>
+        <v>541</v>
       </c>
       <c r="E79" s="6">
-        <v>259</v>
+        <v>474</v>
       </c>
       <c r="F79" s="6">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" ht="12.8">
       <c r="A80" s="6">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B80" s="6">
         <v>3</v>
@@ -3989,136 +4032,136 @@
         <v>3</v>
       </c>
       <c r="D80" s="6">
-        <v>163</v>
+        <v>517</v>
       </c>
       <c r="E80" s="6">
-        <v>158</v>
+        <v>302</v>
       </c>
       <c r="F80" s="6">
-        <v>5</v>
+        <v>215</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" ht="12.8">
       <c r="A81" s="6">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B81" s="6">
         <v>3</v>
       </c>
       <c r="C81" s="6">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D81" s="6">
-        <v>541</v>
+        <v>748</v>
       </c>
       <c r="E81" s="6">
-        <v>474</v>
+        <v>21</v>
       </c>
       <c r="F81" s="6">
-        <v>67</v>
+        <v>727</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" ht="12.8">
       <c r="A82" s="6">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B82" s="6">
         <v>3</v>
       </c>
       <c r="C82" s="6">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D82" s="6">
-        <v>517</v>
+        <v>748</v>
       </c>
       <c r="E82" s="6">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="F82" s="6">
-        <v>215</v>
+        <v>748</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" ht="12.8">
       <c r="A83" s="6">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B83" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C83" s="6">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D83" s="6">
-        <v>748</v>
+        <v>434</v>
       </c>
       <c r="E83" s="6">
-        <v>21</v>
+        <v>298</v>
       </c>
       <c r="F83" s="6">
-        <v>727</v>
+        <v>136</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" ht="12.8">
       <c r="A84" s="6">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B84" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C84" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D84" s="6">
-        <v>748</v>
+        <v>87</v>
       </c>
       <c r="E84" s="6">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F84" s="6">
-        <v>748</v>
+        <v>2</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" ht="12.8">
       <c r="A85" s="6">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B85" s="6">
         <v>3</v>
       </c>
       <c r="C85" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D85" s="6">
-        <v>434</v>
+        <v>59</v>
       </c>
       <c r="E85" s="6">
-        <v>298</v>
+        <v>59</v>
       </c>
       <c r="F85" s="6">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" ht="12.8">
       <c r="A86" s="6">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="B86" s="6">
         <v>3</v>
@@ -4127,44 +4170,44 @@
         <v>3</v>
       </c>
       <c r="D86" s="6">
-        <v>87</v>
+        <v>15134</v>
       </c>
       <c r="E86" s="6">
-        <v>85</v>
+        <v>15007</v>
       </c>
       <c r="F86" s="6">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" ht="12.8">
       <c r="A87" s="6">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B87" s="6">
         <v>3</v>
       </c>
       <c r="C87" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D87" s="6">
-        <v>59</v>
+        <v>3331</v>
       </c>
       <c r="E87" s="6">
-        <v>59</v>
+        <v>1447</v>
       </c>
       <c r="F87" s="6">
-        <v>0</v>
+        <v>1884</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" ht="12.8">
       <c r="A88" s="6">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B88" s="6">
         <v>3</v>
@@ -4173,573 +4216,573 @@
         <v>3</v>
       </c>
       <c r="D88" s="6">
-        <v>15134</v>
+        <v>798</v>
       </c>
       <c r="E88" s="6">
-        <v>15007</v>
+        <v>710</v>
       </c>
       <c r="F88" s="6">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" ht="12.8">
       <c r="A89" s="6">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B89" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C89" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D89" s="6">
-        <v>3331</v>
+        <v>1079</v>
       </c>
       <c r="E89" s="6">
-        <v>1447</v>
+        <v>1078</v>
       </c>
       <c r="F89" s="6">
-        <v>1884</v>
+        <v>1</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" ht="12.8">
       <c r="A90" s="6">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B90" s="6">
         <v>3</v>
       </c>
       <c r="C90" s="6">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D90" s="6">
-        <v>798</v>
+        <v>3134</v>
       </c>
       <c r="E90" s="6">
-        <v>710</v>
+        <v>2881</v>
       </c>
       <c r="F90" s="6">
-        <v>88</v>
+        <v>253</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" ht="12.8">
       <c r="A91" s="6">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B91" s="6">
         <v>3</v>
       </c>
       <c r="C91" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D91" s="6">
-        <v>1079</v>
+        <v>28</v>
       </c>
       <c r="E91" s="6">
-        <v>1078</v>
+        <v>0</v>
       </c>
       <c r="F91" s="6">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" ht="12.8">
       <c r="A92" s="6">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B92" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C92" s="6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D92" s="6">
-        <v>3134</v>
+        <v>114</v>
       </c>
       <c r="E92" s="6">
-        <v>2881</v>
+        <v>0</v>
       </c>
       <c r="F92" s="6">
-        <v>253</v>
+        <v>114</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" ht="12.8">
       <c r="A93" s="6">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B93" s="6">
         <v>3</v>
       </c>
       <c r="C93" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D93" s="6">
-        <v>28</v>
+        <v>916</v>
       </c>
       <c r="E93" s="6">
-        <v>0</v>
+        <v>783</v>
       </c>
       <c r="F93" s="6">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" ht="12.8">
       <c r="A94" s="6">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B94" s="6">
         <v>3</v>
       </c>
       <c r="C94" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D94" s="6">
-        <v>114</v>
+        <v>4403</v>
       </c>
       <c r="E94" s="6">
-        <v>0</v>
+        <v>3985</v>
       </c>
       <c r="F94" s="6">
-        <v>114</v>
+        <v>418</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" ht="12.8">
       <c r="A95" s="6">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B95" s="6">
         <v>3</v>
       </c>
       <c r="C95" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" s="6">
-        <v>916</v>
+        <v>6432</v>
       </c>
       <c r="E95" s="6">
-        <v>783</v>
+        <v>5871</v>
       </c>
       <c r="F95" s="6">
-        <v>133</v>
+        <v>561</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" ht="12.8">
       <c r="A96" s="6">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B96" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C96" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D96" s="6">
-        <v>4403</v>
+        <v>1699</v>
       </c>
       <c r="E96" s="6">
-        <v>3985</v>
+        <v>960</v>
       </c>
       <c r="F96" s="6">
-        <v>418</v>
+        <v>739</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" ht="12.8">
       <c r="A97" s="6">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B97" s="6">
         <v>3</v>
       </c>
       <c r="C97" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D97" s="6">
-        <v>6432</v>
+        <v>1968</v>
       </c>
       <c r="E97" s="6">
-        <v>5871</v>
+        <v>1175</v>
       </c>
       <c r="F97" s="6">
-        <v>561</v>
+        <v>793</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" ht="12.8">
       <c r="A98" s="6">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B98" s="6">
         <v>3</v>
       </c>
       <c r="C98" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" s="6">
-        <v>1699</v>
+        <v>1373</v>
       </c>
       <c r="E98" s="6">
-        <v>960</v>
+        <v>1099</v>
       </c>
       <c r="F98" s="6">
-        <v>739</v>
+        <v>274</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" ht="12.8">
-      <c r="A99" s="6">
-        <v>882</v>
-      </c>
-      <c r="B99" s="6">
-        <v>4</v>
-      </c>
-      <c r="C99" s="6">
-        <v>9</v>
-      </c>
-      <c r="D99" s="6">
-        <v>1968</v>
-      </c>
-      <c r="E99" s="6">
-        <v>1175</v>
-      </c>
-      <c r="F99" s="6">
-        <v>793</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>124</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="99" ht="12.8" s="12" customFormat="1">
+      <c r="A99" s="12">
+        <v>884</v>
+      </c>
+      <c r="B99" s="12">
+        <v>3</v>
+      </c>
+      <c r="C99" s="12">
+        <v>2</v>
+      </c>
+      <c r="D99" s="12">
+        <v>0</v>
+      </c>
+      <c r="E99" s="12">
+        <v>0</v>
+      </c>
+      <c r="F99" s="12">
+        <v>0</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="100" ht="12.8">
       <c r="A100" s="6">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="B100" s="6">
         <v>3</v>
       </c>
       <c r="C100" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" s="6">
-        <v>1373</v>
+        <v>195</v>
       </c>
       <c r="E100" s="6">
-        <v>1099</v>
+        <v>190</v>
       </c>
       <c r="F100" s="6">
-        <v>274</v>
+        <v>5</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" ht="12.8" s="12" customFormat="1">
-      <c r="A101" s="12">
-        <v>884</v>
-      </c>
-      <c r="B101" s="12">
-        <v>3</v>
-      </c>
-      <c r="C101" s="12">
-        <v>2</v>
-      </c>
-      <c r="D101" s="12">
-        <v>0</v>
-      </c>
-      <c r="E101" s="12">
-        <v>0</v>
-      </c>
-      <c r="F101" s="12">
-        <v>0</v>
-      </c>
-      <c r="G101" s="12" t="s">
-        <v>114</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" ht="12.8">
+      <c r="A101" s="6">
+        <v>889</v>
+      </c>
+      <c r="B101" s="6">
+        <v>3</v>
+      </c>
+      <c r="C101" s="6">
+        <v>1</v>
+      </c>
+      <c r="D101" s="6">
+        <v>627</v>
+      </c>
+      <c r="E101" s="6">
+        <v>627</v>
+      </c>
+      <c r="F101" s="6">
+        <v>0</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="102" ht="12.8">
       <c r="A102" s="6">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B102" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C102" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D102" s="6">
-        <v>195</v>
+        <v>9269</v>
       </c>
       <c r="E102" s="6">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="F102" s="6">
-        <v>5</v>
+        <v>9269</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" ht="12.8">
       <c r="A103" s="6">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B103" s="6">
         <v>3</v>
       </c>
       <c r="C103" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103" s="6">
-        <v>627</v>
+        <v>17</v>
       </c>
       <c r="E103" s="6">
-        <v>627</v>
+        <v>15</v>
       </c>
       <c r="F103" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" ht="12.8">
       <c r="A104" s="6">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B104" s="6">
         <v>3</v>
       </c>
       <c r="C104" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D104" s="6">
-        <v>9269</v>
+        <v>5851</v>
       </c>
       <c r="E104" s="6">
-        <v>0</v>
+        <v>5625</v>
       </c>
       <c r="F104" s="6">
-        <v>9269</v>
+        <v>226</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" ht="12.8">
       <c r="A105" s="6">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B105" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C105" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D105" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E105" s="6">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F105" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" ht="12.8">
       <c r="A106" s="6">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B106" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C106" s="6">
         <v>2</v>
       </c>
       <c r="D106" s="6">
-        <v>5851</v>
+        <v>29374</v>
       </c>
       <c r="E106" s="6">
-        <v>5625</v>
+        <v>28294</v>
       </c>
       <c r="F106" s="6">
-        <v>226</v>
+        <v>1080</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" ht="12.8">
       <c r="A107" s="6">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B107" s="6">
         <v>3</v>
       </c>
       <c r="C107" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D107" s="6">
-        <v>18</v>
+        <v>1812</v>
       </c>
       <c r="E107" s="6">
-        <v>18</v>
+        <v>1133</v>
       </c>
       <c r="F107" s="6">
-        <v>0</v>
+        <v>679</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" ht="12.8">
       <c r="A108" s="6">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B108" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C108" s="6">
         <v>2</v>
       </c>
       <c r="D108" s="6">
-        <v>29374</v>
+        <v>9324</v>
       </c>
       <c r="E108" s="6">
-        <v>28294</v>
+        <v>9144</v>
       </c>
       <c r="F108" s="6">
-        <v>1080</v>
+        <v>180</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109" ht="12.8">
       <c r="A109" s="6">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B109" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C109" s="6">
         <v>2</v>
       </c>
       <c r="D109" s="6">
-        <v>1812</v>
+        <v>1059</v>
       </c>
       <c r="E109" s="6">
-        <v>1133</v>
+        <v>1054</v>
       </c>
       <c r="F109" s="6">
-        <v>679</v>
+        <v>5</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110" ht="12.8">
       <c r="A110" s="6">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B110" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C110" s="6">
         <v>2</v>
       </c>
       <c r="D110" s="6">
-        <v>9324</v>
+        <v>926</v>
       </c>
       <c r="E110" s="6">
-        <v>9144</v>
+        <v>886</v>
       </c>
       <c r="F110" s="6">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="111" ht="12.8">
       <c r="A111" s="6">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B111" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C111" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D111" s="6">
-        <v>1059</v>
+        <v>4</v>
       </c>
       <c r="E111" s="6">
-        <v>1054</v>
+        <v>4</v>
       </c>
       <c r="F111" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112" ht="12.8">
       <c r="A112" s="6">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B112" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C112" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D112" s="6">
-        <v>926</v>
+        <v>125</v>
       </c>
       <c r="E112" s="6">
-        <v>886</v>
+        <v>0</v>
       </c>
       <c r="F112" s="6">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="113" ht="12.8">
       <c r="A113" s="6">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B113" s="6">
         <v>3</v>
@@ -4748,21 +4791,21 @@
         <v>1</v>
       </c>
       <c r="D113" s="6">
-        <v>4</v>
+        <v>3581</v>
       </c>
       <c r="E113" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F113" s="6">
-        <v>0</v>
+        <v>3581</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114" ht="12.8">
       <c r="A114" s="6">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B114" s="6">
         <v>3</v>
@@ -4771,21 +4814,21 @@
         <v>1</v>
       </c>
       <c r="D114" s="6">
-        <v>125</v>
+        <v>1095</v>
       </c>
       <c r="E114" s="6">
         <v>0</v>
       </c>
       <c r="F114" s="6">
-        <v>125</v>
+        <v>1095</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115" ht="12.8">
       <c r="A115" s="6">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B115" s="6">
         <v>3</v>
@@ -4794,21 +4837,21 @@
         <v>1</v>
       </c>
       <c r="D115" s="6">
-        <v>3581</v>
+        <v>3885</v>
       </c>
       <c r="E115" s="6">
         <v>0</v>
       </c>
       <c r="F115" s="6">
-        <v>3581</v>
+        <v>3885</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="116" ht="12.8">
       <c r="A116" s="6">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B116" s="6">
         <v>3</v>
@@ -4817,688 +4860,688 @@
         <v>1</v>
       </c>
       <c r="D116" s="6">
-        <v>1095</v>
+        <v>2011</v>
       </c>
       <c r="E116" s="6">
-        <v>0</v>
+        <v>2011</v>
       </c>
       <c r="F116" s="6">
-        <v>1095</v>
+        <v>0</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="117" ht="12.8">
       <c r="A117" s="6">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B117" s="6">
         <v>3</v>
       </c>
       <c r="C117" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D117" s="6">
-        <v>3885</v>
+        <v>2565</v>
       </c>
       <c r="E117" s="6">
-        <v>0</v>
+        <v>1793</v>
       </c>
       <c r="F117" s="6">
-        <v>3885</v>
+        <v>772</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="118" ht="12.8">
       <c r="A118" s="6">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B118" s="6">
         <v>3</v>
       </c>
       <c r="C118" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D118" s="6">
-        <v>2011</v>
+        <v>733</v>
       </c>
       <c r="E118" s="6">
-        <v>2011</v>
+        <v>727</v>
       </c>
       <c r="F118" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="119" ht="12.8">
       <c r="A119" s="6">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="B119" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C119" s="6">
         <v>2</v>
       </c>
       <c r="D119" s="6">
-        <v>2565</v>
+        <v>348</v>
       </c>
       <c r="E119" s="6">
-        <v>1793</v>
+        <v>334</v>
       </c>
       <c r="F119" s="6">
-        <v>772</v>
+        <v>14</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="120" ht="12.8">
       <c r="A120" s="6">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B120" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C120" s="6">
         <v>2</v>
       </c>
       <c r="D120" s="6">
-        <v>733</v>
+        <v>503</v>
       </c>
       <c r="E120" s="6">
-        <v>727</v>
+        <v>500</v>
       </c>
       <c r="F120" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="121" ht="12.8">
       <c r="A121" s="6">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B121" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C121" s="6">
         <v>2</v>
       </c>
       <c r="D121" s="6">
-        <v>348</v>
+        <v>444</v>
       </c>
       <c r="E121" s="6">
-        <v>334</v>
+        <v>441</v>
       </c>
       <c r="F121" s="6">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="122" ht="12.8">
       <c r="A122" s="6">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B122" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C122" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D122" s="6">
-        <v>503</v>
+        <v>6558</v>
       </c>
       <c r="E122" s="6">
-        <v>500</v>
+        <v>6485</v>
       </c>
       <c r="F122" s="6">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="123" ht="12.8">
       <c r="A123" s="6">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B123" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C123" s="6">
         <v>2</v>
       </c>
       <c r="D123" s="6">
-        <v>444</v>
+        <v>2252</v>
       </c>
       <c r="E123" s="6">
-        <v>441</v>
+        <v>2198</v>
       </c>
       <c r="F123" s="6">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="124" ht="12.8">
       <c r="A124" s="6">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B124" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C124" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D124" s="6">
-        <v>6558</v>
+        <v>5080</v>
       </c>
       <c r="E124" s="6">
-        <v>6485</v>
+        <v>4421</v>
       </c>
       <c r="F124" s="6">
-        <v>73</v>
+        <v>659</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="125" ht="12.8">
       <c r="A125" s="6">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B125" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C125" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D125" s="6">
-        <v>2252</v>
+        <v>491</v>
       </c>
       <c r="E125" s="6">
-        <v>2198</v>
+        <v>244</v>
       </c>
       <c r="F125" s="6">
-        <v>54</v>
+        <v>247</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="126" ht="12.8">
       <c r="A126" s="6">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B126" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C126" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D126" s="6">
-        <v>5080</v>
+        <v>98</v>
       </c>
       <c r="E126" s="6">
-        <v>4421</v>
+        <v>0</v>
       </c>
       <c r="F126" s="6">
-        <v>659</v>
+        <v>98</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="127" ht="12.8">
       <c r="A127" s="6">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B127" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C127" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D127" s="6">
-        <v>491</v>
+        <v>247</v>
       </c>
       <c r="E127" s="6">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="F127" s="6">
         <v>247</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="128" ht="12.8">
       <c r="A128" s="6">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B128" s="6">
         <v>3</v>
       </c>
       <c r="C128" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128" s="6">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="E128" s="6">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F128" s="6">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="129" ht="12.8">
       <c r="A129" s="6">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B129" s="6">
         <v>3</v>
       </c>
       <c r="C129" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D129" s="6">
-        <v>247</v>
+        <v>117</v>
       </c>
       <c r="E129" s="6">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="F129" s="6">
-        <v>247</v>
+        <v>1</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="130" ht="12.8">
       <c r="A130" s="6">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B130" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C130" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D130" s="6">
-        <v>61</v>
+        <v>484</v>
       </c>
       <c r="E130" s="6">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="F130" s="6">
-        <v>2</v>
+        <v>484</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="131" ht="12.8">
       <c r="A131" s="6">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B131" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C131" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131" s="6">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="E131" s="6">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="F131" s="6">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="132" ht="12.8">
       <c r="A132" s="6">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B132" s="6">
         <v>3</v>
       </c>
       <c r="C132" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D132" s="6">
-        <v>484</v>
+        <v>143</v>
       </c>
       <c r="E132" s="6">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="F132" s="6">
-        <v>484</v>
+        <v>5</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="133" ht="12.8">
       <c r="A133" s="6">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B133" s="6">
         <v>3</v>
       </c>
       <c r="C133" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D133" s="6">
-        <v>140</v>
+        <v>1663</v>
       </c>
       <c r="E133" s="6">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="F133" s="6">
-        <v>140</v>
+        <v>1250</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="134" ht="12.8">
       <c r="A134" s="6">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B134" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C134" s="6">
         <v>2</v>
       </c>
       <c r="D134" s="6">
-        <v>143</v>
+        <v>1845</v>
       </c>
       <c r="E134" s="6">
-        <v>138</v>
+        <v>224</v>
       </c>
       <c r="F134" s="6">
-        <v>5</v>
+        <v>1621</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="135" ht="12.8">
       <c r="A135" s="6">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B135" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C135" s="6">
         <v>2</v>
       </c>
       <c r="D135" s="6">
-        <v>1663</v>
+        <v>192</v>
       </c>
       <c r="E135" s="6">
-        <v>413</v>
+        <v>187</v>
       </c>
       <c r="F135" s="6">
-        <v>1250</v>
+        <v>5</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="136" ht="12.8">
       <c r="A136" s="6">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B136" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C136" s="6">
+        <v>1</v>
+      </c>
+      <c r="D136" s="6">
         <v>2</v>
       </c>
-      <c r="D136" s="6">
-        <v>1845</v>
-      </c>
       <c r="E136" s="6">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="F136" s="6">
-        <v>1631</v>
+        <v>2</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="137" ht="12.8">
       <c r="A137" s="6">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B137" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C137" s="6">
         <v>2</v>
       </c>
       <c r="D137" s="6">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="E137" s="6">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="F137" s="6">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="138" ht="12.8">
       <c r="A138" s="6">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B138" s="6">
         <v>3</v>
       </c>
       <c r="C138" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D138" s="6">
-        <v>2</v>
+        <v>3035</v>
       </c>
       <c r="E138" s="6">
-        <v>0</v>
+        <v>1815</v>
       </c>
       <c r="F138" s="6">
-        <v>2</v>
+        <v>1220</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="139" ht="12.8">
       <c r="A139" s="6">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B139" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C139" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D139" s="6">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="E139" s="6">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="F139" s="6">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="140" ht="12.8">
       <c r="A140" s="6">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B140" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C140" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D140" s="6">
-        <v>3035</v>
+        <v>217</v>
       </c>
       <c r="E140" s="6">
-        <v>1793</v>
+        <v>22</v>
       </c>
       <c r="F140" s="6">
-        <v>1242</v>
+        <v>195</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="141" ht="12.8">
       <c r="A141" s="6">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B141" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C141" s="6">
         <v>2</v>
       </c>
       <c r="D141" s="6">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E141" s="6">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F141" s="6">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="142" ht="12.8">
       <c r="A142" s="6">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B142" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C142" s="6">
         <v>2</v>
       </c>
       <c r="D142" s="6">
-        <v>217</v>
+        <v>933</v>
       </c>
       <c r="E142" s="6">
-        <v>22</v>
+        <v>706</v>
       </c>
       <c r="F142" s="6">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="143" ht="12.8">
       <c r="A143" s="6">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B143" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C143" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D143" s="6">
-        <v>168</v>
+        <v>1666</v>
       </c>
       <c r="E143" s="6">
-        <v>2</v>
+        <v>1217</v>
       </c>
       <c r="F143" s="6">
-        <v>166</v>
+        <v>449</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="144" ht="12.8">
       <c r="A144" s="6">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B144" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C144" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D144" s="6">
-        <v>933</v>
+        <v>0</v>
       </c>
       <c r="E144" s="6">
-        <v>674</v>
+        <v>0</v>
       </c>
       <c r="F144" s="6">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="145" ht="12.8">
       <c r="A145" s="6">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B145" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C145" s="6">
         <v>2</v>
       </c>
       <c r="D145" s="6">
-        <v>1666</v>
+        <v>38</v>
       </c>
       <c r="E145" s="6">
-        <v>1216</v>
+        <v>32</v>
       </c>
       <c r="F145" s="6">
-        <v>450</v>
+        <v>6</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="146" ht="12.8">
       <c r="A146" s="6">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B146" s="6">
         <v>3</v>
@@ -5516,35 +5559,35 @@
         <v>0</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="147" ht="12.8">
       <c r="A147" s="6">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B147" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C147" s="6">
         <v>2</v>
       </c>
       <c r="D147" s="6">
-        <v>38</v>
+        <v>1845</v>
       </c>
       <c r="E147" s="6">
-        <v>32</v>
+        <v>357</v>
       </c>
       <c r="F147" s="6">
-        <v>6</v>
+        <v>1488</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="148" ht="12.8">
       <c r="A148" s="6">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="B148" s="6">
         <v>3</v>
@@ -5553,44 +5596,44 @@
         <v>1</v>
       </c>
       <c r="D148" s="6">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E148" s="6">
         <v>0</v>
       </c>
       <c r="F148" s="6">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="149" ht="12.8">
       <c r="A149" s="6">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B149" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C149" s="6">
         <v>2</v>
       </c>
       <c r="D149" s="6">
-        <v>1845</v>
+        <v>1294</v>
       </c>
       <c r="E149" s="6">
-        <v>357</v>
+        <v>1269</v>
       </c>
       <c r="F149" s="6">
-        <v>1488</v>
+        <v>25</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="150" ht="12.8">
       <c r="A150" s="6">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="B150" s="6">
         <v>3</v>
@@ -5599,44 +5642,44 @@
         <v>1</v>
       </c>
       <c r="D150" s="6">
-        <v>54</v>
+        <v>186</v>
       </c>
       <c r="E150" s="6">
         <v>0</v>
       </c>
       <c r="F150" s="6">
-        <v>54</v>
+        <v>186</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="151" ht="12.8">
       <c r="A151" s="6">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B151" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C151" s="6">
         <v>2</v>
       </c>
       <c r="D151" s="6">
-        <v>1294</v>
+        <v>673</v>
       </c>
       <c r="E151" s="6">
-        <v>1269</v>
+        <v>671</v>
       </c>
       <c r="F151" s="6">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="152" ht="12.8">
       <c r="A152" s="6">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="B152" s="6">
         <v>3</v>
@@ -5645,628 +5688,628 @@
         <v>1</v>
       </c>
       <c r="D152" s="6">
-        <v>186</v>
+        <v>593</v>
       </c>
       <c r="E152" s="6">
         <v>0</v>
       </c>
       <c r="F152" s="6">
-        <v>186</v>
+        <v>593</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="153" ht="12.8">
       <c r="A153" s="6">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="B153" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C153" s="6">
         <v>2</v>
       </c>
       <c r="D153" s="6">
-        <v>673</v>
+        <v>278</v>
       </c>
       <c r="E153" s="6">
-        <v>671</v>
+        <v>273</v>
       </c>
       <c r="F153" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="154" ht="12.8">
       <c r="A154" s="6">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B154" s="6">
         <v>3</v>
       </c>
       <c r="C154" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154" s="6">
-        <v>593</v>
+        <v>445</v>
       </c>
       <c r="E154" s="6">
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="F154" s="6">
-        <v>593</v>
+        <v>6</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="155" ht="12.8">
       <c r="A155" s="6">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B155" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C155" s="6">
         <v>2</v>
       </c>
       <c r="D155" s="6">
-        <v>278</v>
+        <v>428</v>
       </c>
       <c r="E155" s="6">
-        <v>273</v>
+        <v>422</v>
       </c>
       <c r="F155" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="156" ht="12.8">
       <c r="A156" s="6">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B156" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C156" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D156" s="6">
-        <v>445</v>
+        <v>542</v>
       </c>
       <c r="E156" s="6">
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="F156" s="6">
-        <v>7</v>
+        <v>542</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="157" ht="12.8">
       <c r="A157" s="6">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="B157" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C157" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D157" s="6">
-        <v>428</v>
+        <v>646</v>
       </c>
       <c r="E157" s="6">
-        <v>422</v>
+        <v>143</v>
       </c>
       <c r="F157" s="6">
-        <v>6</v>
+        <v>503</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="158" ht="12.8">
       <c r="A158" s="6">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B158" s="6">
         <v>3</v>
       </c>
       <c r="C158" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D158" s="6">
-        <v>542</v>
+        <v>463</v>
       </c>
       <c r="E158" s="6">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="F158" s="6">
-        <v>542</v>
+        <v>8</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="159" ht="12.8">
       <c r="A159" s="6">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B159" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C159" s="6">
         <v>2</v>
       </c>
       <c r="D159" s="6">
-        <v>646</v>
+        <v>1470</v>
       </c>
       <c r="E159" s="6">
-        <v>143</v>
+        <v>1443</v>
       </c>
       <c r="F159" s="6">
-        <v>503</v>
+        <v>27</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="160" ht="12.8">
       <c r="A160" s="6">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B160" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C160" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D160" s="6">
-        <v>463</v>
+        <v>1824</v>
       </c>
       <c r="E160" s="6">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="F160" s="6">
-        <v>8</v>
+        <v>1824</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="161" ht="12.8">
       <c r="A161" s="6">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B161" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C161" s="6">
         <v>2</v>
       </c>
       <c r="D161" s="6">
-        <v>1470</v>
+        <v>1644</v>
       </c>
       <c r="E161" s="6">
-        <v>1443</v>
+        <v>2</v>
       </c>
       <c r="F161" s="6">
-        <v>27</v>
+        <v>1642</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="162" ht="12.8">
       <c r="A162" s="6">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B162" s="6">
         <v>3</v>
       </c>
       <c r="C162" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D162" s="6">
-        <v>1824</v>
+        <v>1644</v>
       </c>
       <c r="E162" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F162" s="6">
-        <v>1824</v>
+        <v>1641</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="163" ht="12.8">
       <c r="A163" s="6">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B163" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C163" s="6">
         <v>2</v>
       </c>
       <c r="D163" s="6">
-        <v>1644</v>
+        <v>1013</v>
       </c>
       <c r="E163" s="6">
-        <v>2</v>
+        <v>996</v>
       </c>
       <c r="F163" s="6">
-        <v>1642</v>
+        <v>17</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="164" ht="12.8">
       <c r="A164" s="6">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B164" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C164" s="6">
         <v>2</v>
       </c>
       <c r="D164" s="6">
-        <v>1644</v>
+        <v>309</v>
       </c>
       <c r="E164" s="6">
-        <v>3</v>
+        <v>303</v>
       </c>
       <c r="F164" s="6">
-        <v>1641</v>
+        <v>6</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="165" ht="12.8">
       <c r="A165" s="6">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B165" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C165" s="6">
         <v>2</v>
       </c>
       <c r="D165" s="6">
-        <v>1013</v>
+        <v>179</v>
       </c>
       <c r="E165" s="6">
-        <v>996</v>
+        <v>175</v>
       </c>
       <c r="F165" s="6">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="166" ht="12.8">
       <c r="A166" s="6">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B166" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C166" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D166" s="6">
-        <v>309</v>
+        <v>22436</v>
       </c>
       <c r="E166" s="6">
-        <v>303</v>
+        <v>21669</v>
       </c>
       <c r="F166" s="6">
-        <v>6</v>
+        <v>767</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="167" ht="12.8">
       <c r="A167" s="6">
+        <v>956</v>
+      </c>
+      <c r="B167" s="6">
+        <v>3</v>
+      </c>
+      <c r="C167" s="6">
+        <v>3</v>
+      </c>
+      <c r="D167" s="6">
+        <v>2033</v>
+      </c>
+      <c r="E167" s="6">
         <v>954</v>
       </c>
-      <c r="B167" s="6">
-        <v>0</v>
-      </c>
-      <c r="C167" s="6">
-        <v>2</v>
-      </c>
-      <c r="D167" s="6">
-        <v>179</v>
-      </c>
-      <c r="E167" s="6">
-        <v>175</v>
-      </c>
       <c r="F167" s="6">
-        <v>4</v>
+        <v>1079</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="168" ht="12.8">
       <c r="A168" s="6">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B168" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C168" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D168" s="6">
-        <v>22436</v>
+        <v>0</v>
       </c>
       <c r="E168" s="6">
-        <v>21669</v>
+        <v>0</v>
       </c>
       <c r="F168" s="6">
-        <v>767</v>
+        <v>0</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="169" ht="12.8">
       <c r="A169" s="6">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B169" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C169" s="6">
         <v>2</v>
       </c>
       <c r="D169" s="6">
-        <v>2033</v>
+        <v>1957</v>
       </c>
       <c r="E169" s="6">
-        <v>954</v>
+        <v>1947</v>
       </c>
       <c r="F169" s="6">
-        <v>1079</v>
+        <v>10</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="170" ht="12.8">
       <c r="A170" s="6">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B170" s="6">
         <v>3</v>
       </c>
       <c r="C170" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D170" s="6">
-        <v>0</v>
+        <v>2770</v>
       </c>
       <c r="E170" s="6">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="F170" s="6">
-        <v>0</v>
+        <v>1980</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="171" ht="12.8">
       <c r="A171" s="6">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B171" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C171" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D171" s="6">
-        <v>1957</v>
+        <v>67</v>
       </c>
       <c r="E171" s="6">
-        <v>1947</v>
+        <v>0</v>
       </c>
       <c r="F171" s="6">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="172" ht="12.8">
       <c r="A172" s="6">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B172" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C172" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D172" s="6">
-        <v>2770</v>
+        <v>346</v>
       </c>
       <c r="E172" s="6">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="F172" s="6">
-        <v>1980</v>
+        <v>346</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="173" ht="12.8">
       <c r="A173" s="6">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B173" s="6">
         <v>3</v>
       </c>
       <c r="C173" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D173" s="6">
-        <v>67</v>
+        <v>1528</v>
       </c>
       <c r="E173" s="6">
-        <v>0</v>
+        <v>1294</v>
       </c>
       <c r="F173" s="6">
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="174" ht="12.8">
       <c r="A174" s="6">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B174" s="6">
         <v>3</v>
       </c>
       <c r="C174" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D174" s="6">
-        <v>346</v>
+        <v>780</v>
       </c>
       <c r="E174" s="6">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="F174" s="6">
-        <v>346</v>
+        <v>445</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="175" ht="12.8">
       <c r="A175" s="6">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B175" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C175" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D175" s="6">
-        <v>1528</v>
+        <v>226</v>
       </c>
       <c r="E175" s="6">
-        <v>1284</v>
+        <v>222</v>
       </c>
       <c r="F175" s="6">
-        <v>244</v>
+        <v>4</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="176" ht="12.8">
       <c r="A176" s="6">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="B176" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C176" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D176" s="6">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="E176" s="6">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="F176" s="6">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="177" ht="12.8">
-      <c r="A177" s="6">
-        <v>964</v>
-      </c>
-      <c r="B177" s="6">
-        <v>3</v>
-      </c>
-      <c r="C177" s="6">
-        <v>1</v>
-      </c>
-      <c r="D177" s="6">
-        <v>226</v>
-      </c>
-      <c r="E177" s="6">
-        <v>222</v>
-      </c>
-      <c r="F177" s="6">
-        <v>4</v>
-      </c>
-      <c r="G177" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="177" ht="12.8" s="12" customFormat="1">
+      <c r="A177" s="12">
+        <v>967</v>
+      </c>
+      <c r="B177" s="12">
+        <v>3</v>
+      </c>
+      <c r="C177" s="12">
+        <v>1</v>
+      </c>
+      <c r="D177" s="12">
+        <v>375</v>
+      </c>
+      <c r="E177" s="12">
+        <v>0</v>
+      </c>
+      <c r="F177" s="12">
+        <v>375</v>
+      </c>
+      <c r="G177" s="12" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="178" ht="12.8">
       <c r="A178" s="6">
-        <v>965</v>
+        <v>985</v>
       </c>
       <c r="B178" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C178" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D178" s="6">
-        <v>3990</v>
+        <v>131282</v>
       </c>
       <c r="E178" s="6">
         <v>0</v>
       </c>
       <c r="F178" s="6">
-        <v>3990</v>
+        <v>24771</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="179" ht="12.8">
       <c r="A179" s="6">
-        <v>966</v>
+        <v>1007</v>
       </c>
       <c r="B179" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C179" s="6">
         <v>1</v>
       </c>
       <c r="D179" s="6">
-        <v>0</v>
+        <v>15688</v>
       </c>
       <c r="E179" s="6">
         <v>0</v>
@@ -6275,12 +6318,12 @@
         <v>0</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="180" ht="12.8">
       <c r="A180" s="6">
-        <v>967</v>
+        <v>707</v>
       </c>
       <c r="B180" s="6">
         <v>3</v>
@@ -6289,21 +6332,21 @@
         <v>1</v>
       </c>
       <c r="D180" s="6">
-        <v>375</v>
+        <v>28</v>
       </c>
       <c r="E180" s="6">
         <v>0</v>
       </c>
       <c r="F180" s="6">
-        <v>375</v>
+        <v>28</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="181" ht="12.8">
       <c r="A181" s="6">
-        <v>968</v>
+        <v>728</v>
       </c>
       <c r="B181" s="6">
         <v>3</v>
@@ -6312,40 +6355,1731 @@
         <v>1</v>
       </c>
       <c r="D181" s="6">
-        <v>1470</v>
+        <v>1606</v>
       </c>
       <c r="E181" s="6">
         <v>0</v>
       </c>
       <c r="F181" s="6">
-        <v>1470</v>
+        <v>1606</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="182" ht="12.8">
       <c r="A182" s="6">
+        <v>965</v>
+      </c>
+      <c r="B182" s="6">
+        <v>3</v>
+      </c>
+      <c r="C182" s="6">
+        <v>1</v>
+      </c>
+      <c r="D182" s="6">
+        <v>3990</v>
+      </c>
+      <c r="E182" s="6">
+        <v>0</v>
+      </c>
+      <c r="F182" s="6">
+        <v>3990</v>
+      </c>
+      <c r="G182" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="183" ht="12.8">
+      <c r="A183" s="6">
+        <v>968</v>
+      </c>
+      <c r="B183" s="6">
+        <v>3</v>
+      </c>
+      <c r="C183" s="6">
+        <v>1</v>
+      </c>
+      <c r="D183" s="6">
+        <v>1470</v>
+      </c>
+      <c r="E183" s="6">
+        <v>0</v>
+      </c>
+      <c r="F183" s="6">
+        <v>1470</v>
+      </c>
+      <c r="G183" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="184" ht="12.8">
+      <c r="A184" s="6">
         <v>969</v>
       </c>
-      <c r="B182" s="6">
-        <v>3</v>
-      </c>
-      <c r="C182" s="6">
-        <v>1</v>
-      </c>
-      <c r="D182" s="6">
+      <c r="B184" s="6">
+        <v>3</v>
+      </c>
+      <c r="C184" s="6">
+        <v>1</v>
+      </c>
+      <c r="D184" s="6">
         <v>634</v>
       </c>
-      <c r="E182" s="6">
-        <v>0</v>
-      </c>
-      <c r="F182" s="6">
+      <c r="E184" s="6">
+        <v>0</v>
+      </c>
+      <c r="F184" s="6">
         <v>634</v>
       </c>
-      <c r="G182" s="6" t="s">
+      <c r="G184" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="185" ht="12.8">
+      <c r="A185" s="6">
+        <v>1019</v>
+      </c>
+      <c r="B185" s="6">
+        <v>3</v>
+      </c>
+      <c r="C185" s="6">
+        <v>1</v>
+      </c>
+      <c r="D185" s="6">
+        <v>863</v>
+      </c>
+      <c r="E185" s="6">
+        <v>0</v>
+      </c>
+      <c r="F185" s="6">
+        <v>863</v>
+      </c>
+      <c r="G185" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="186" ht="12.8">
+      <c r="A186" s="6">
+        <v>1020</v>
+      </c>
+      <c r="B186" s="6">
+        <v>4</v>
+      </c>
+      <c r="C186" s="6">
+        <v>1</v>
+      </c>
+      <c r="D186" s="6">
+        <v>4217</v>
+      </c>
+      <c r="E186" s="6">
+        <v>0</v>
+      </c>
+      <c r="F186" s="6">
+        <v>4217</v>
+      </c>
+      <c r="G186" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="187" ht="12.8">
+      <c r="A187" s="6">
+        <v>1021</v>
+      </c>
+      <c r="B187" s="6">
+        <v>4</v>
+      </c>
+      <c r="C187" s="6">
+        <v>1</v>
+      </c>
+      <c r="D187" s="6">
+        <v>570</v>
+      </c>
+      <c r="E187" s="6">
+        <v>0</v>
+      </c>
+      <c r="F187" s="6">
+        <v>570</v>
+      </c>
+      <c r="G187" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="188" ht="12.8">
+      <c r="A188" s="6">
+        <v>1022</v>
+      </c>
+      <c r="B188" s="6">
+        <v>4</v>
+      </c>
+      <c r="C188" s="6">
+        <v>1</v>
+      </c>
+      <c r="D188" s="6">
+        <v>15194</v>
+      </c>
+      <c r="E188" s="6">
+        <v>436</v>
+      </c>
+      <c r="F188" s="6">
+        <v>14758</v>
+      </c>
+      <c r="G188" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="189" ht="12.8">
+      <c r="A189" s="6">
+        <v>1023</v>
+      </c>
+      <c r="B189" s="6">
+        <v>4</v>
+      </c>
+      <c r="C189" s="6">
+        <v>1</v>
+      </c>
+      <c r="D189" s="6">
+        <v>121</v>
+      </c>
+      <c r="E189" s="6">
+        <v>48</v>
+      </c>
+      <c r="F189" s="6">
+        <v>73</v>
+      </c>
+      <c r="G189" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="190" ht="12.8">
+      <c r="A190" s="6">
+        <v>1024</v>
+      </c>
+      <c r="B190" s="6">
+        <v>4</v>
+      </c>
+      <c r="C190" s="6">
+        <v>1</v>
+      </c>
+      <c r="D190" s="6">
+        <v>0</v>
+      </c>
+      <c r="E190" s="6">
+        <v>0</v>
+      </c>
+      <c r="F190" s="6">
+        <v>0</v>
+      </c>
+      <c r="G190" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="191" ht="12.8">
+      <c r="A191" s="6">
+        <v>1018</v>
+      </c>
+      <c r="B191" s="6">
+        <v>4</v>
+      </c>
+      <c r="C191" s="6">
+        <v>1</v>
+      </c>
+      <c r="D191" s="6">
+        <v>5009</v>
+      </c>
+      <c r="E191" s="6">
+        <v>258</v>
+      </c>
+      <c r="F191" s="6">
+        <v>4751</v>
+      </c>
+      <c r="G191" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="192" ht="12.8">
+      <c r="A192" s="6">
+        <v>1026</v>
+      </c>
+      <c r="B192" s="6">
+        <v>4</v>
+      </c>
+      <c r="C192" s="6">
+        <v>1</v>
+      </c>
+      <c r="D192" s="6">
+        <v>5116</v>
+      </c>
+      <c r="E192" s="6">
+        <v>0</v>
+      </c>
+      <c r="F192" s="6">
+        <v>5116</v>
+      </c>
+      <c r="G192" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="193" ht="12.8">
+      <c r="A193" s="6">
+        <v>1027</v>
+      </c>
+      <c r="B193" s="6">
+        <v>4</v>
+      </c>
+      <c r="C193" s="6">
+        <v>1</v>
+      </c>
+      <c r="D193" s="6">
+        <v>1111</v>
+      </c>
+      <c r="E193" s="6">
+        <v>0</v>
+      </c>
+      <c r="F193" s="6">
+        <v>1111</v>
+      </c>
+      <c r="G193" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="194" ht="12.8">
+      <c r="A194" s="6">
+        <v>1028</v>
+      </c>
+      <c r="B194" s="6">
+        <v>4</v>
+      </c>
+      <c r="C194" s="6">
+        <v>1</v>
+      </c>
+      <c r="D194" s="6">
+        <v>535</v>
+      </c>
+      <c r="E194" s="6">
+        <v>0</v>
+      </c>
+      <c r="F194" s="6">
+        <v>535</v>
+      </c>
+      <c r="G194" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="195" ht="12.8">
+      <c r="A195" s="6">
+        <v>1029</v>
+      </c>
+      <c r="B195" s="6">
+        <v>4</v>
+      </c>
+      <c r="C195" s="6">
+        <v>1</v>
+      </c>
+      <c r="D195" s="6">
+        <v>21952</v>
+      </c>
+      <c r="E195" s="6">
+        <v>3</v>
+      </c>
+      <c r="F195" s="6">
+        <v>21949</v>
+      </c>
+      <c r="G195" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="196" ht="12.8">
+      <c r="A196" s="6">
+        <v>1030</v>
+      </c>
+      <c r="B196" s="6">
+        <v>4</v>
+      </c>
+      <c r="C196" s="6">
+        <v>1</v>
+      </c>
+      <c r="D196" s="6">
+        <v>8802</v>
+      </c>
+      <c r="E196" s="6">
+        <v>0</v>
+      </c>
+      <c r="F196" s="6">
+        <v>8802</v>
+      </c>
+      <c r="G196" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="197" ht="12.8">
+      <c r="A197" s="6">
+        <v>1031</v>
+      </c>
+      <c r="B197" s="6">
+        <v>4</v>
+      </c>
+      <c r="C197" s="6">
+        <v>1</v>
+      </c>
+      <c r="D197" s="6">
+        <v>14297</v>
+      </c>
+      <c r="E197" s="6">
+        <v>0</v>
+      </c>
+      <c r="F197" s="6">
+        <v>14297</v>
+      </c>
+      <c r="G197" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="198" ht="12.8">
+      <c r="A198" s="6">
+        <v>1032</v>
+      </c>
+      <c r="B198" s="6">
+        <v>4</v>
+      </c>
+      <c r="C198" s="6">
+        <v>1</v>
+      </c>
+      <c r="D198" s="6">
+        <v>5010</v>
+      </c>
+      <c r="E198" s="6">
+        <v>1307</v>
+      </c>
+      <c r="F198" s="6">
+        <v>3703</v>
+      </c>
+      <c r="G198" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="199" ht="12.8">
+      <c r="A199" s="6">
+        <v>1033</v>
+      </c>
+      <c r="B199" s="6">
+        <v>4</v>
+      </c>
+      <c r="C199" s="6">
+        <v>1</v>
+      </c>
+      <c r="D199" s="6">
+        <v>11224</v>
+      </c>
+      <c r="E199" s="6">
+        <v>0</v>
+      </c>
+      <c r="F199" s="6">
+        <v>11224</v>
+      </c>
+      <c r="G199" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="200" ht="12.8">
+      <c r="A200" s="6">
+        <v>1034</v>
+      </c>
+      <c r="B200" s="6">
+        <v>4</v>
+      </c>
+      <c r="C200" s="6">
+        <v>1</v>
+      </c>
+      <c r="D200" s="6">
+        <v>3147</v>
+      </c>
+      <c r="E200" s="6">
+        <v>0</v>
+      </c>
+      <c r="F200" s="6">
+        <v>3147</v>
+      </c>
+      <c r="G200" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="201" ht="12.8">
+      <c r="A201" s="6">
+        <v>1035</v>
+      </c>
+      <c r="B201" s="6">
+        <v>4</v>
+      </c>
+      <c r="C201" s="6">
+        <v>1</v>
+      </c>
+      <c r="D201" s="6">
+        <v>0</v>
+      </c>
+      <c r="E201" s="6">
+        <v>0</v>
+      </c>
+      <c r="F201" s="6">
+        <v>0</v>
+      </c>
+      <c r="G201" s="6" t="s">
         <v>115</v>
       </c>
+    </row>
+    <row r="202" ht="12.8">
+      <c r="A202" s="6">
+        <v>1036</v>
+      </c>
+      <c r="B202" s="6">
+        <v>4</v>
+      </c>
+      <c r="C202" s="6">
+        <v>1</v>
+      </c>
+      <c r="D202" s="6">
+        <v>2965</v>
+      </c>
+      <c r="E202" s="6">
+        <v>0</v>
+      </c>
+      <c r="F202" s="6">
+        <v>2965</v>
+      </c>
+      <c r="G202" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="203" ht="12.8">
+      <c r="A203" s="6">
+        <v>1037</v>
+      </c>
+      <c r="B203" s="6">
+        <v>4</v>
+      </c>
+      <c r="C203" s="6">
+        <v>1</v>
+      </c>
+      <c r="D203" s="6">
+        <v>1474</v>
+      </c>
+      <c r="E203" s="6">
+        <v>0</v>
+      </c>
+      <c r="F203" s="6">
+        <v>1474</v>
+      </c>
+      <c r="G203" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="204" ht="12.8">
+      <c r="A204" s="6">
+        <v>1038</v>
+      </c>
+      <c r="B204" s="6">
+        <v>1</v>
+      </c>
+      <c r="C204" s="6">
+        <v>1</v>
+      </c>
+      <c r="D204" s="6">
+        <v>37753</v>
+      </c>
+      <c r="E204" s="6">
+        <v>0</v>
+      </c>
+      <c r="F204" s="6">
+        <v>0</v>
+      </c>
+      <c r="G204" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="205" ht="12.8">
+      <c r="A205" s="6">
+        <v>1039</v>
+      </c>
+      <c r="B205" s="6">
+        <v>4</v>
+      </c>
+      <c r="C205" s="6">
+        <v>1</v>
+      </c>
+      <c r="D205" s="6">
+        <v>7951</v>
+      </c>
+      <c r="E205" s="6">
+        <v>1091</v>
+      </c>
+      <c r="F205" s="6">
+        <v>6860</v>
+      </c>
+      <c r="G205" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="206" ht="12.8">
+      <c r="A206" s="6">
+        <v>1040</v>
+      </c>
+      <c r="B206" s="6">
+        <v>1</v>
+      </c>
+      <c r="C206" s="6">
+        <v>1</v>
+      </c>
+      <c r="D206" s="6">
+        <v>37803</v>
+      </c>
+      <c r="E206" s="6">
+        <v>129</v>
+      </c>
+      <c r="F206" s="6">
+        <v>6138</v>
+      </c>
+      <c r="G206" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="207" ht="12.8">
+      <c r="A207" s="6">
+        <v>1041</v>
+      </c>
+      <c r="B207" s="6">
+        <v>1</v>
+      </c>
+      <c r="C207" s="6">
+        <v>1</v>
+      </c>
+      <c r="D207" s="6">
+        <v>25065</v>
+      </c>
+      <c r="E207" s="6">
+        <v>0</v>
+      </c>
+      <c r="F207" s="6">
+        <v>5666</v>
+      </c>
+      <c r="G207" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="208" ht="12.8">
+      <c r="A208" s="6">
+        <v>1042</v>
+      </c>
+      <c r="B208" s="6">
+        <v>4</v>
+      </c>
+      <c r="C208" s="6">
+        <v>1</v>
+      </c>
+      <c r="D208" s="6">
+        <v>0</v>
+      </c>
+      <c r="E208" s="6">
+        <v>0</v>
+      </c>
+      <c r="F208" s="6">
+        <v>0</v>
+      </c>
+      <c r="G208" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="209" ht="12.8">
+      <c r="A209" s="6">
+        <v>1043</v>
+      </c>
+      <c r="B209" s="6">
+        <v>4</v>
+      </c>
+      <c r="C209" s="6">
+        <v>1</v>
+      </c>
+      <c r="D209" s="6">
+        <v>0</v>
+      </c>
+      <c r="E209" s="6">
+        <v>0</v>
+      </c>
+      <c r="F209" s="6">
+        <v>0</v>
+      </c>
+      <c r="G209" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="210" ht="12.8">
+      <c r="A210" s="6">
+        <v>1044</v>
+      </c>
+      <c r="B210" s="6">
+        <v>4</v>
+      </c>
+      <c r="C210" s="6">
+        <v>1</v>
+      </c>
+      <c r="D210" s="6">
+        <v>0</v>
+      </c>
+      <c r="E210" s="6">
+        <v>0</v>
+      </c>
+      <c r="F210" s="6">
+        <v>0</v>
+      </c>
+      <c r="G210" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="211" ht="12.8">
+      <c r="A211" s="6">
+        <v>1045</v>
+      </c>
+      <c r="B211" s="6">
+        <v>4</v>
+      </c>
+      <c r="C211" s="6">
+        <v>1</v>
+      </c>
+      <c r="D211" s="6">
+        <v>0</v>
+      </c>
+      <c r="E211" s="6">
+        <v>0</v>
+      </c>
+      <c r="F211" s="6">
+        <v>0</v>
+      </c>
+      <c r="G211" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="212" ht="12.8">
+      <c r="A212" s="6">
+        <v>1046</v>
+      </c>
+      <c r="B212" s="6">
+        <v>4</v>
+      </c>
+      <c r="C212" s="6">
+        <v>1</v>
+      </c>
+      <c r="D212" s="6">
+        <v>0</v>
+      </c>
+      <c r="E212" s="6">
+        <v>0</v>
+      </c>
+      <c r="F212" s="6">
+        <v>0</v>
+      </c>
+      <c r="G212" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="213" ht="12.8">
+      <c r="A213" s="6">
+        <v>1047</v>
+      </c>
+      <c r="B213" s="6">
+        <v>4</v>
+      </c>
+      <c r="C213" s="6">
+        <v>1</v>
+      </c>
+      <c r="D213" s="6">
+        <v>0</v>
+      </c>
+      <c r="E213" s="6">
+        <v>0</v>
+      </c>
+      <c r="F213" s="6">
+        <v>0</v>
+      </c>
+      <c r="G213" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="214" ht="12.8">
+      <c r="A214" s="6">
+        <v>1048</v>
+      </c>
+      <c r="B214" s="6">
+        <v>4</v>
+      </c>
+      <c r="C214" s="6">
+        <v>1</v>
+      </c>
+      <c r="D214" s="6">
+        <v>0</v>
+      </c>
+      <c r="E214" s="6">
+        <v>0</v>
+      </c>
+      <c r="F214" s="6">
+        <v>0</v>
+      </c>
+      <c r="G214" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="215" ht="12.8">
+      <c r="A215" s="6">
+        <v>1049</v>
+      </c>
+      <c r="B215" s="6">
+        <v>4</v>
+      </c>
+      <c r="C215" s="6">
+        <v>1</v>
+      </c>
+      <c r="D215" s="6">
+        <v>6113</v>
+      </c>
+      <c r="E215" s="6">
+        <v>0</v>
+      </c>
+      <c r="F215" s="6">
+        <v>6113</v>
+      </c>
+      <c r="G215" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="216" ht="12.8">
+      <c r="A216" s="6">
+        <v>1050</v>
+      </c>
+      <c r="B216" s="6">
+        <v>4</v>
+      </c>
+      <c r="C216" s="6">
+        <v>1</v>
+      </c>
+      <c r="D216" s="6">
+        <v>5203</v>
+      </c>
+      <c r="E216" s="6">
+        <v>0</v>
+      </c>
+      <c r="F216" s="6">
+        <v>5203</v>
+      </c>
+      <c r="G216" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="217" ht="12.8">
+      <c r="A217" s="6">
+        <v>1051</v>
+      </c>
+      <c r="B217" s="6">
+        <v>1</v>
+      </c>
+      <c r="C217" s="6">
+        <v>1</v>
+      </c>
+      <c r="D217" s="6">
+        <v>1989</v>
+      </c>
+      <c r="E217" s="6">
+        <v>18</v>
+      </c>
+      <c r="F217" s="6">
+        <v>222</v>
+      </c>
+      <c r="G217" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="218" ht="12.8">
+      <c r="A218" s="6">
+        <v>1052</v>
+      </c>
+      <c r="B218" s="6">
+        <v>1</v>
+      </c>
+      <c r="C218" s="6">
+        <v>1</v>
+      </c>
+      <c r="D218" s="6">
+        <v>307</v>
+      </c>
+      <c r="E218" s="6">
+        <v>17</v>
+      </c>
+      <c r="F218" s="6">
+        <v>85</v>
+      </c>
+      <c r="G218" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="219" ht="12.8">
+      <c r="A219" s="6">
+        <v>1053</v>
+      </c>
+      <c r="B219" s="6">
+        <v>1</v>
+      </c>
+      <c r="C219" s="6">
+        <v>1</v>
+      </c>
+      <c r="D219" s="6">
+        <v>3828</v>
+      </c>
+      <c r="E219" s="6">
+        <v>4</v>
+      </c>
+      <c r="F219" s="6">
+        <v>356</v>
+      </c>
+      <c r="G219" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="220" ht="12.8">
+      <c r="A220" s="6">
+        <v>1054</v>
+      </c>
+      <c r="B220" s="6">
+        <v>0</v>
+      </c>
+      <c r="C220" s="6">
+        <v>1</v>
+      </c>
+      <c r="D220" s="6">
+        <v>0</v>
+      </c>
+      <c r="E220" s="6">
+        <v>0</v>
+      </c>
+      <c r="F220" s="6">
+        <v>0</v>
+      </c>
+      <c r="G220" s="6"/>
+    </row>
+    <row r="221" ht="12.8">
+      <c r="A221" s="6">
+        <v>1055</v>
+      </c>
+      <c r="B221" s="6">
+        <v>0</v>
+      </c>
+      <c r="C221" s="6">
+        <v>1</v>
+      </c>
+      <c r="D221" s="6">
+        <v>0</v>
+      </c>
+      <c r="E221" s="6">
+        <v>0</v>
+      </c>
+      <c r="F221" s="6">
+        <v>0</v>
+      </c>
+      <c r="G221" s="6"/>
+    </row>
+    <row r="222" ht="12.8">
+      <c r="A222" s="6">
+        <v>1056</v>
+      </c>
+      <c r="B222" s="6">
+        <v>0</v>
+      </c>
+      <c r="C222" s="6">
+        <v>1</v>
+      </c>
+      <c r="D222" s="6">
+        <v>0</v>
+      </c>
+      <c r="E222" s="6">
+        <v>0</v>
+      </c>
+      <c r="F222" s="6">
+        <v>0</v>
+      </c>
+      <c r="G222" s="6"/>
+    </row>
+    <row r="223" ht="12.8">
+      <c r="A223" s="6">
+        <v>1057</v>
+      </c>
+      <c r="B223" s="6">
+        <v>0</v>
+      </c>
+      <c r="C223" s="6">
+        <v>1</v>
+      </c>
+      <c r="D223" s="6">
+        <v>0</v>
+      </c>
+      <c r="E223" s="6">
+        <v>0</v>
+      </c>
+      <c r="F223" s="6">
+        <v>0</v>
+      </c>
+      <c r="G223" s="6"/>
+    </row>
+    <row r="224" ht="12.8">
+      <c r="A224" s="6">
+        <v>1058</v>
+      </c>
+      <c r="B224" s="6">
+        <v>0</v>
+      </c>
+      <c r="C224" s="6">
+        <v>1</v>
+      </c>
+      <c r="D224" s="6">
+        <v>0</v>
+      </c>
+      <c r="E224" s="6">
+        <v>0</v>
+      </c>
+      <c r="F224" s="6">
+        <v>0</v>
+      </c>
+      <c r="G224" s="6"/>
+    </row>
+    <row r="225" ht="12.8">
+      <c r="A225" s="6">
+        <v>1059</v>
+      </c>
+      <c r="B225" s="6">
+        <v>0</v>
+      </c>
+      <c r="C225" s="6">
+        <v>1</v>
+      </c>
+      <c r="D225" s="6">
+        <v>0</v>
+      </c>
+      <c r="E225" s="6">
+        <v>0</v>
+      </c>
+      <c r="F225" s="6">
+        <v>0</v>
+      </c>
+      <c r="G225" s="6"/>
+    </row>
+    <row r="226" ht="12.8">
+      <c r="A226" s="6">
+        <v>1060</v>
+      </c>
+      <c r="B226" s="6">
+        <v>0</v>
+      </c>
+      <c r="C226" s="6">
+        <v>1</v>
+      </c>
+      <c r="D226" s="6">
+        <v>0</v>
+      </c>
+      <c r="E226" s="6">
+        <v>0</v>
+      </c>
+      <c r="F226" s="6">
+        <v>0</v>
+      </c>
+      <c r="G226" s="6"/>
+    </row>
+    <row r="227" ht="12.8">
+      <c r="A227" s="6">
+        <v>1061</v>
+      </c>
+      <c r="B227" s="6">
+        <v>0</v>
+      </c>
+      <c r="C227" s="6">
+        <v>1</v>
+      </c>
+      <c r="D227" s="6">
+        <v>0</v>
+      </c>
+      <c r="E227" s="6">
+        <v>0</v>
+      </c>
+      <c r="F227" s="6">
+        <v>0</v>
+      </c>
+      <c r="G227" s="6"/>
+    </row>
+    <row r="228" ht="12.8">
+      <c r="A228" s="6">
+        <v>1062</v>
+      </c>
+      <c r="B228" s="6">
+        <v>0</v>
+      </c>
+      <c r="C228" s="6">
+        <v>1</v>
+      </c>
+      <c r="D228" s="6">
+        <v>0</v>
+      </c>
+      <c r="E228" s="6">
+        <v>0</v>
+      </c>
+      <c r="F228" s="6">
+        <v>0</v>
+      </c>
+      <c r="G228" s="6"/>
+    </row>
+    <row r="229" ht="12.8">
+      <c r="A229" s="6">
+        <v>1063</v>
+      </c>
+      <c r="B229" s="6">
+        <v>0</v>
+      </c>
+      <c r="C229" s="6">
+        <v>1</v>
+      </c>
+      <c r="D229" s="6">
+        <v>0</v>
+      </c>
+      <c r="E229" s="6">
+        <v>0</v>
+      </c>
+      <c r="F229" s="6">
+        <v>0</v>
+      </c>
+      <c r="G229" s="6"/>
+    </row>
+    <row r="230" ht="12.8">
+      <c r="A230" s="6">
+        <v>1064</v>
+      </c>
+      <c r="B230" s="6">
+        <v>0</v>
+      </c>
+      <c r="C230" s="6">
+        <v>1</v>
+      </c>
+      <c r="D230" s="6">
+        <v>0</v>
+      </c>
+      <c r="E230" s="6">
+        <v>0</v>
+      </c>
+      <c r="F230" s="6">
+        <v>0</v>
+      </c>
+      <c r="G230" s="6"/>
+    </row>
+    <row r="231" ht="12.8">
+      <c r="A231" s="6">
+        <v>1065</v>
+      </c>
+      <c r="B231" s="6">
+        <v>0</v>
+      </c>
+      <c r="C231" s="6">
+        <v>1</v>
+      </c>
+      <c r="D231" s="6">
+        <v>0</v>
+      </c>
+      <c r="E231" s="6">
+        <v>0</v>
+      </c>
+      <c r="F231" s="6">
+        <v>0</v>
+      </c>
+      <c r="G231" s="6"/>
+    </row>
+    <row r="232" ht="12.8">
+      <c r="A232" s="6">
+        <v>1066</v>
+      </c>
+      <c r="B232" s="6">
+        <v>0</v>
+      </c>
+      <c r="C232" s="6">
+        <v>1</v>
+      </c>
+      <c r="D232" s="6">
+        <v>0</v>
+      </c>
+      <c r="E232" s="6">
+        <v>0</v>
+      </c>
+      <c r="F232" s="6">
+        <v>0</v>
+      </c>
+      <c r="G232" s="6"/>
+    </row>
+    <row r="233" ht="12.8">
+      <c r="A233" s="6">
+        <v>1067</v>
+      </c>
+      <c r="B233" s="6">
+        <v>0</v>
+      </c>
+      <c r="C233" s="6">
+        <v>1</v>
+      </c>
+      <c r="D233" s="6">
+        <v>0</v>
+      </c>
+      <c r="E233" s="6">
+        <v>0</v>
+      </c>
+      <c r="F233" s="6">
+        <v>0</v>
+      </c>
+      <c r="G233" s="6"/>
+    </row>
+    <row r="234" ht="12.8">
+      <c r="A234" s="6">
+        <v>1068</v>
+      </c>
+      <c r="B234" s="6">
+        <v>0</v>
+      </c>
+      <c r="C234" s="6">
+        <v>1</v>
+      </c>
+      <c r="D234" s="6">
+        <v>0</v>
+      </c>
+      <c r="E234" s="6">
+        <v>0</v>
+      </c>
+      <c r="F234" s="6">
+        <v>0</v>
+      </c>
+      <c r="G234" s="6"/>
+    </row>
+    <row r="235" ht="12.8">
+      <c r="A235" s="6">
+        <v>1069</v>
+      </c>
+      <c r="B235" s="6">
+        <v>0</v>
+      </c>
+      <c r="C235" s="6">
+        <v>1</v>
+      </c>
+      <c r="D235" s="6">
+        <v>0</v>
+      </c>
+      <c r="E235" s="6">
+        <v>0</v>
+      </c>
+      <c r="F235" s="6">
+        <v>0</v>
+      </c>
+      <c r="G235" s="6"/>
+    </row>
+    <row r="236" ht="12.8">
+      <c r="A236" s="6">
+        <v>1070</v>
+      </c>
+      <c r="B236" s="6">
+        <v>0</v>
+      </c>
+      <c r="C236" s="6">
+        <v>1</v>
+      </c>
+      <c r="D236" s="6">
+        <v>0</v>
+      </c>
+      <c r="E236" s="6">
+        <v>0</v>
+      </c>
+      <c r="F236" s="6">
+        <v>0</v>
+      </c>
+      <c r="G236" s="6"/>
+    </row>
+    <row r="237" ht="12.8">
+      <c r="A237" s="6">
+        <v>1071</v>
+      </c>
+      <c r="B237" s="6">
+        <v>0</v>
+      </c>
+      <c r="C237" s="6">
+        <v>1</v>
+      </c>
+      <c r="D237" s="6">
+        <v>0</v>
+      </c>
+      <c r="E237" s="6">
+        <v>0</v>
+      </c>
+      <c r="F237" s="6">
+        <v>0</v>
+      </c>
+      <c r="G237" s="6"/>
+    </row>
+    <row r="238" ht="12.8">
+      <c r="A238" s="6">
+        <v>1072</v>
+      </c>
+      <c r="B238" s="6">
+        <v>0</v>
+      </c>
+      <c r="C238" s="6">
+        <v>1</v>
+      </c>
+      <c r="D238" s="6">
+        <v>0</v>
+      </c>
+      <c r="E238" s="6">
+        <v>0</v>
+      </c>
+      <c r="F238" s="6">
+        <v>0</v>
+      </c>
+      <c r="G238" s="6"/>
+    </row>
+    <row r="239" ht="12.8">
+      <c r="A239" s="6">
+        <v>1073</v>
+      </c>
+      <c r="B239" s="6">
+        <v>0</v>
+      </c>
+      <c r="C239" s="6">
+        <v>1</v>
+      </c>
+      <c r="D239" s="6">
+        <v>0</v>
+      </c>
+      <c r="E239" s="6">
+        <v>0</v>
+      </c>
+      <c r="F239" s="6">
+        <v>0</v>
+      </c>
+      <c r="G239" s="6"/>
+    </row>
+    <row r="240" ht="12.8">
+      <c r="A240" s="6">
+        <v>1074</v>
+      </c>
+      <c r="B240" s="6">
+        <v>0</v>
+      </c>
+      <c r="C240" s="6">
+        <v>1</v>
+      </c>
+      <c r="D240" s="6">
+        <v>0</v>
+      </c>
+      <c r="E240" s="6">
+        <v>0</v>
+      </c>
+      <c r="F240" s="6">
+        <v>0</v>
+      </c>
+      <c r="G240" s="6"/>
+    </row>
+    <row r="241" ht="12.8">
+      <c r="A241" s="6">
+        <v>1075</v>
+      </c>
+      <c r="B241" s="6">
+        <v>0</v>
+      </c>
+      <c r="C241" s="6">
+        <v>1</v>
+      </c>
+      <c r="D241" s="6">
+        <v>0</v>
+      </c>
+      <c r="E241" s="6">
+        <v>0</v>
+      </c>
+      <c r="F241" s="6">
+        <v>0</v>
+      </c>
+      <c r="G241" s="6"/>
+    </row>
+    <row r="242" ht="12.8">
+      <c r="A242" s="6">
+        <v>1076</v>
+      </c>
+      <c r="B242" s="6">
+        <v>0</v>
+      </c>
+      <c r="C242" s="6">
+        <v>1</v>
+      </c>
+      <c r="D242" s="6">
+        <v>0</v>
+      </c>
+      <c r="E242" s="6">
+        <v>0</v>
+      </c>
+      <c r="F242" s="6">
+        <v>0</v>
+      </c>
+      <c r="G242" s="6"/>
+    </row>
+    <row r="243" ht="12.8">
+      <c r="A243" s="6">
+        <v>1077</v>
+      </c>
+      <c r="B243" s="6">
+        <v>0</v>
+      </c>
+      <c r="C243" s="6">
+        <v>1</v>
+      </c>
+      <c r="D243" s="6">
+        <v>0</v>
+      </c>
+      <c r="E243" s="6">
+        <v>0</v>
+      </c>
+      <c r="F243" s="6">
+        <v>0</v>
+      </c>
+      <c r="G243" s="6"/>
+    </row>
+    <row r="244" ht="12.8">
+      <c r="A244" s="6">
+        <v>1078</v>
+      </c>
+      <c r="B244" s="6">
+        <v>0</v>
+      </c>
+      <c r="C244" s="6">
+        <v>1</v>
+      </c>
+      <c r="D244" s="6">
+        <v>0</v>
+      </c>
+      <c r="E244" s="6">
+        <v>0</v>
+      </c>
+      <c r="F244" s="6">
+        <v>0</v>
+      </c>
+      <c r="G244" s="6"/>
+    </row>
+    <row r="245" ht="12.8">
+      <c r="A245" s="6">
+        <v>1079</v>
+      </c>
+      <c r="B245" s="6">
+        <v>0</v>
+      </c>
+      <c r="C245" s="6">
+        <v>1</v>
+      </c>
+      <c r="D245" s="6">
+        <v>0</v>
+      </c>
+      <c r="E245" s="6">
+        <v>0</v>
+      </c>
+      <c r="F245" s="6">
+        <v>0</v>
+      </c>
+      <c r="G245" s="6"/>
+    </row>
+    <row r="246" ht="12.8">
+      <c r="A246" s="6">
+        <v>1080</v>
+      </c>
+      <c r="B246" s="6">
+        <v>0</v>
+      </c>
+      <c r="C246" s="6">
+        <v>1</v>
+      </c>
+      <c r="D246" s="6">
+        <v>0</v>
+      </c>
+      <c r="E246" s="6">
+        <v>0</v>
+      </c>
+      <c r="F246" s="6">
+        <v>0</v>
+      </c>
+      <c r="G246" s="6"/>
+    </row>
+    <row r="247" ht="12.8">
+      <c r="A247" s="6">
+        <v>1081</v>
+      </c>
+      <c r="B247" s="6">
+        <v>0</v>
+      </c>
+      <c r="C247" s="6">
+        <v>1</v>
+      </c>
+      <c r="D247" s="6">
+        <v>0</v>
+      </c>
+      <c r="E247" s="6">
+        <v>0</v>
+      </c>
+      <c r="F247" s="6">
+        <v>0</v>
+      </c>
+      <c r="G247" s="6"/>
+    </row>
+    <row r="248" ht="12.8">
+      <c r="A248" s="6">
+        <v>1082</v>
+      </c>
+      <c r="B248" s="6">
+        <v>0</v>
+      </c>
+      <c r="C248" s="6">
+        <v>1</v>
+      </c>
+      <c r="D248" s="6">
+        <v>0</v>
+      </c>
+      <c r="E248" s="6">
+        <v>0</v>
+      </c>
+      <c r="F248" s="6">
+        <v>0</v>
+      </c>
+      <c r="G248" s="6"/>
+    </row>
+    <row r="249" ht="12.8">
+      <c r="A249" s="6">
+        <v>1083</v>
+      </c>
+      <c r="B249" s="6">
+        <v>0</v>
+      </c>
+      <c r="C249" s="6">
+        <v>1</v>
+      </c>
+      <c r="D249" s="6">
+        <v>0</v>
+      </c>
+      <c r="E249" s="6">
+        <v>0</v>
+      </c>
+      <c r="F249" s="6">
+        <v>0</v>
+      </c>
+      <c r="G249" s="6"/>
+    </row>
+    <row r="250" ht="12.8">
+      <c r="A250" s="6">
+        <v>1084</v>
+      </c>
+      <c r="B250" s="6">
+        <v>0</v>
+      </c>
+      <c r="C250" s="6">
+        <v>1</v>
+      </c>
+      <c r="D250" s="6">
+        <v>0</v>
+      </c>
+      <c r="E250" s="6">
+        <v>0</v>
+      </c>
+      <c r="F250" s="6">
+        <v>0</v>
+      </c>
+      <c r="G250" s="6"/>
+    </row>
+    <row r="251" ht="12.8">
+      <c r="A251" s="6">
+        <v>1085</v>
+      </c>
+      <c r="B251" s="6">
+        <v>0</v>
+      </c>
+      <c r="C251" s="6">
+        <v>1</v>
+      </c>
+      <c r="D251" s="6">
+        <v>0</v>
+      </c>
+      <c r="E251" s="6">
+        <v>0</v>
+      </c>
+      <c r="F251" s="6">
+        <v>0</v>
+      </c>
+      <c r="G251" s="6"/>
+    </row>
+    <row r="252" ht="12.8">
+      <c r="A252" s="6">
+        <v>1086</v>
+      </c>
+      <c r="B252" s="6">
+        <v>0</v>
+      </c>
+      <c r="C252" s="6">
+        <v>1</v>
+      </c>
+      <c r="D252" s="6">
+        <v>0</v>
+      </c>
+      <c r="E252" s="6">
+        <v>0</v>
+      </c>
+      <c r="F252" s="6">
+        <v>0</v>
+      </c>
+      <c r="G252" s="6"/>
+    </row>
+    <row r="253" ht="12.8">
+      <c r="A253" s="6">
+        <v>1087</v>
+      </c>
+      <c r="B253" s="6">
+        <v>0</v>
+      </c>
+      <c r="C253" s="6">
+        <v>1</v>
+      </c>
+      <c r="D253" s="6">
+        <v>0</v>
+      </c>
+      <c r="E253" s="6">
+        <v>0</v>
+      </c>
+      <c r="F253" s="6">
+        <v>0</v>
+      </c>
+      <c r="G253" s="6"/>
+    </row>
+    <row r="254" ht="12.8">
+      <c r="A254" s="6">
+        <v>1088</v>
+      </c>
+      <c r="B254" s="6">
+        <v>0</v>
+      </c>
+      <c r="C254" s="6">
+        <v>1</v>
+      </c>
+      <c r="D254" s="6">
+        <v>0</v>
+      </c>
+      <c r="E254" s="6">
+        <v>0</v>
+      </c>
+      <c r="F254" s="6">
+        <v>0</v>
+      </c>
+      <c r="G254" s="6"/>
+    </row>
+    <row r="255" ht="12.8">
+      <c r="A255" s="6">
+        <v>1089</v>
+      </c>
+      <c r="B255" s="6">
+        <v>0</v>
+      </c>
+      <c r="C255" s="6">
+        <v>1</v>
+      </c>
+      <c r="D255" s="6">
+        <v>0</v>
+      </c>
+      <c r="E255" s="6">
+        <v>0</v>
+      </c>
+      <c r="F255" s="6">
+        <v>0</v>
+      </c>
+      <c r="G255" s="6"/>
+    </row>
+    <row r="256" ht="12.8">
+      <c r="A256" s="6">
+        <v>1090</v>
+      </c>
+      <c r="B256" s="6">
+        <v>0</v>
+      </c>
+      <c r="C256" s="6">
+        <v>1</v>
+      </c>
+      <c r="D256" s="6">
+        <v>0</v>
+      </c>
+      <c r="E256" s="6">
+        <v>0</v>
+      </c>
+      <c r="F256" s="6">
+        <v>0</v>
+      </c>
+      <c r="G256" s="6"/>
+    </row>
+    <row r="257" ht="12.8">
+      <c r="A257" s="6">
+        <v>1091</v>
+      </c>
+      <c r="B257" s="6">
+        <v>0</v>
+      </c>
+      <c r="C257" s="6">
+        <v>1</v>
+      </c>
+      <c r="D257" s="6">
+        <v>0</v>
+      </c>
+      <c r="E257" s="6">
+        <v>0</v>
+      </c>
+      <c r="F257" s="6">
+        <v>0</v>
+      </c>
+      <c r="G257" s="6"/>
+    </row>
+    <row r="258" ht="12.8">
+      <c r="A258" s="6">
+        <v>1092</v>
+      </c>
+      <c r="B258" s="6">
+        <v>0</v>
+      </c>
+      <c r="C258" s="6">
+        <v>1</v>
+      </c>
+      <c r="D258" s="6">
+        <v>0</v>
+      </c>
+      <c r="E258" s="6">
+        <v>0</v>
+      </c>
+      <c r="F258" s="6">
+        <v>0</v>
+      </c>
+      <c r="G258" s="6"/>
+    </row>
+    <row r="259" ht="12.8">
+      <c r="A259" s="6">
+        <v>1093</v>
+      </c>
+      <c r="B259" s="6">
+        <v>0</v>
+      </c>
+      <c r="C259" s="6">
+        <v>1</v>
+      </c>
+      <c r="D259" s="6">
+        <v>0</v>
+      </c>
+      <c r="E259" s="6">
+        <v>0</v>
+      </c>
+      <c r="F259" s="6">
+        <v>0</v>
+      </c>
+      <c r="G259" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/RcOnline/base.xlsx
+++ b/RcOnline/base.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Компания</t>
   </si>
@@ -354,41 +354,43 @@
     <t>Выполняю выгрузку ПД в ГИС ЖКХ для компании ООО "УК "ГСЦ"</t>
   </si>
   <si>
+    <t>Выгрузка ПД завершена.</t>
+  </si>
+  <si>
+    <t>Выгрузка начислений завершена.</t>
+  </si>
+  <si>
+    <t>Не найдены реселлеры в Биллинг Онлайн</t>
+  </si>
+  <si>
+    <t>Выполняю выгрузку ПД в ГИС ЖКХ для компании ТСЖ Трехгорка</t>
+  </si>
+  <si>
+    <t>Выполняю выгрузку ПД в ГИС ЖКХ для компании ООО "Белокалитвинская УК"</t>
+  </si>
+  <si>
+    <t>Выполняю выгрузку ПД в ГИС ЖКХ для компании АО "Облкоммунэнерго"</t>
+  </si>
+  <si>
+    <t>Выгрузка ПД завершена с несколькими ошибками связи с ГИС.</t>
+  </si>
+  <si>
+    <t>Не загружен справочник НСИ 1 (Доп. услуги)</t>
+  </si>
+  <si>
     <t>Произошла одна или несколько ошибок.</t>
-  </si>
-  <si>
-    <t>Выгрузка начислений завершена.</t>
-  </si>
-  <si>
-    <t>Выгрузка ПД завершена.</t>
-  </si>
-  <si>
-    <t>Выгрузка ПД завершена с несколькими ошибками связи с ГИС.</t>
-  </si>
-  <si>
-    <t>Статус курсора на сервере Биллинг Онлайн:2006</t>
-  </si>
-  <si>
-    <t>Не найдены реселлеры в Биллинг Онлайн</t>
-  </si>
-  <si>
-    <t>Выполняю выгрузку ПД в ГИС ЖКХ для компании ТСЖ Трехгорка</t>
-  </si>
-  <si>
-    <t>Выполняю выгрузку ПД в ГИС ЖКХ для компании ООО "Белокалитвинская УК"</t>
-  </si>
-  <si>
-    <t>Выполняю выгрузку ПД в ГИС ЖКХ для компании ООО УК "УНИВЕРСАЛ"</t>
-  </si>
-  <si>
-    <t>Выполняю выгрузку ПД в ГИС ЖКХ для компании АО "Облкоммунэнерго"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="8">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
@@ -480,8 +482,8 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J81" activeCellId="0" sqref="J81"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D81" activeCellId="0" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2190,8 +2192,8 @@
   </sheetPr>
   <dimension ref="A1:H259"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G181" activeCellId="0" sqref="G181"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A201" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E255" activeCellId="0" sqref="E255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6292,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="F178" s="6">
-        <v>24771</v>
+        <v>33109</v>
       </c>
       <c r="G178" s="6" t="s">
         <v>109</v>
@@ -6303,10 +6305,10 @@
         <v>1007</v>
       </c>
       <c r="B179" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C179" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D179" s="6">
         <v>15688</v>
@@ -6315,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="F179" s="6">
-        <v>0</v>
+        <v>15688</v>
       </c>
       <c r="G179" s="6" t="s">
         <v>110</v>
@@ -6364,7 +6366,7 @@
         <v>1606</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="182" ht="12.8">
@@ -6387,7 +6389,7 @@
         <v>3990</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="183" ht="12.8">
@@ -6410,7 +6412,7 @@
         <v>1470</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="184" ht="12.8">
@@ -6433,7 +6435,7 @@
         <v>634</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="185" ht="12.8">
@@ -6456,7 +6458,7 @@
         <v>863</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="186" ht="12.8">
@@ -6464,10 +6466,10 @@
         <v>1020</v>
       </c>
       <c r="B186" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C186" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186" s="6">
         <v>4217</v>
@@ -6479,7 +6481,7 @@
         <v>4217</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="187" ht="12.8">
@@ -6487,10 +6489,10 @@
         <v>1021</v>
       </c>
       <c r="B187" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C187" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D187" s="6">
         <v>570</v>
@@ -6502,7 +6504,7 @@
         <v>570</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="188" ht="12.8">
@@ -6510,22 +6512,22 @@
         <v>1022</v>
       </c>
       <c r="B188" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C188" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D188" s="6">
         <v>15194</v>
       </c>
       <c r="E188" s="6">
-        <v>436</v>
+        <v>1390</v>
       </c>
       <c r="F188" s="6">
-        <v>14758</v>
+        <v>13804</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="189" ht="12.8">
@@ -6533,22 +6535,22 @@
         <v>1023</v>
       </c>
       <c r="B189" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C189" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189" s="6">
         <v>121</v>
       </c>
       <c r="E189" s="6">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="F189" s="6">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="190" ht="12.8">
@@ -6556,22 +6558,22 @@
         <v>1024</v>
       </c>
       <c r="B190" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C190" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190" s="6">
-        <v>0</v>
+        <v>54986</v>
       </c>
       <c r="E190" s="6">
         <v>0</v>
       </c>
       <c r="F190" s="6">
-        <v>0</v>
+        <v>54986</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="191" ht="12.8">
@@ -6579,7 +6581,7 @@
         <v>1018</v>
       </c>
       <c r="B191" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C191" s="6">
         <v>1</v>
@@ -6594,7 +6596,7 @@
         <v>4751</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="192" ht="12.8">
@@ -6602,10 +6604,10 @@
         <v>1026</v>
       </c>
       <c r="B192" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C192" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D192" s="6">
         <v>5116</v>
@@ -6617,7 +6619,7 @@
         <v>5116</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="193" ht="12.8">
@@ -6625,10 +6627,10 @@
         <v>1027</v>
       </c>
       <c r="B193" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C193" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193" s="6">
         <v>1111</v>
@@ -6640,7 +6642,7 @@
         <v>1111</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="194" ht="12.8">
@@ -6648,10 +6650,10 @@
         <v>1028</v>
       </c>
       <c r="B194" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C194" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D194" s="6">
         <v>535</v>
@@ -6663,7 +6665,7 @@
         <v>535</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="195" ht="12.8">
@@ -6671,22 +6673,22 @@
         <v>1029</v>
       </c>
       <c r="B195" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C195" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195" s="6">
         <v>21952</v>
       </c>
       <c r="E195" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F195" s="6">
-        <v>21949</v>
+        <v>21946</v>
       </c>
       <c r="G195" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="196" ht="12.8">
@@ -6694,10 +6696,10 @@
         <v>1030</v>
       </c>
       <c r="B196" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C196" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196" s="6">
         <v>8802</v>
@@ -6709,7 +6711,7 @@
         <v>8802</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="197" ht="12.8">
@@ -6717,10 +6719,10 @@
         <v>1031</v>
       </c>
       <c r="B197" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C197" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D197" s="6">
         <v>14297</v>
@@ -6732,7 +6734,7 @@
         <v>14297</v>
       </c>
       <c r="G197" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="198" ht="12.8">
@@ -6740,7 +6742,7 @@
         <v>1032</v>
       </c>
       <c r="B198" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C198" s="6">
         <v>1</v>
@@ -6755,7 +6757,7 @@
         <v>3703</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="199" ht="12.8">
@@ -6763,10 +6765,10 @@
         <v>1033</v>
       </c>
       <c r="B199" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C199" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D199" s="6">
         <v>11224</v>
@@ -6778,7 +6780,7 @@
         <v>11224</v>
       </c>
       <c r="G199" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="200" ht="12.8">
@@ -6786,10 +6788,10 @@
         <v>1034</v>
       </c>
       <c r="B200" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C200" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D200" s="6">
         <v>3147</v>
@@ -6801,7 +6803,7 @@
         <v>3147</v>
       </c>
       <c r="G200" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="201" ht="12.8">
@@ -6812,7 +6814,7 @@
         <v>4</v>
       </c>
       <c r="C201" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D201" s="6">
         <v>0</v>
@@ -6824,7 +6826,7 @@
         <v>0</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="202" ht="12.8">
@@ -6832,10 +6834,10 @@
         <v>1036</v>
       </c>
       <c r="B202" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C202" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D202" s="6">
         <v>2965</v>
@@ -6847,7 +6849,7 @@
         <v>2965</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="203" ht="12.8">
@@ -6855,10 +6857,10 @@
         <v>1037</v>
       </c>
       <c r="B203" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C203" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D203" s="6">
         <v>1474</v>
@@ -6870,7 +6872,7 @@
         <v>1474</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="204" ht="12.8">
@@ -6881,19 +6883,19 @@
         <v>1</v>
       </c>
       <c r="C204" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D204" s="6">
         <v>37753</v>
       </c>
       <c r="E204" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F204" s="6">
-        <v>0</v>
+        <v>37749</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="205" ht="12.8">
@@ -6901,7 +6903,7 @@
         <v>1039</v>
       </c>
       <c r="B205" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C205" s="6">
         <v>1</v>
@@ -6916,7 +6918,7 @@
         <v>6860</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="206" ht="12.8">
@@ -6927,19 +6929,19 @@
         <v>1</v>
       </c>
       <c r="C206" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D206" s="6">
         <v>37803</v>
       </c>
       <c r="E206" s="6">
-        <v>129</v>
+        <v>11773</v>
       </c>
       <c r="F206" s="6">
-        <v>6138</v>
+        <v>26030</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="207" ht="12.8">
@@ -6947,10 +6949,10 @@
         <v>1041</v>
       </c>
       <c r="B207" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C207" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D207" s="6">
         <v>25065</v>
@@ -6959,10 +6961,10 @@
         <v>0</v>
       </c>
       <c r="F207" s="6">
-        <v>5666</v>
+        <v>25065</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="208" ht="12.8">
@@ -6973,7 +6975,7 @@
         <v>4</v>
       </c>
       <c r="C208" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D208" s="6">
         <v>0</v>
@@ -6985,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="G208" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="209" ht="12.8">
@@ -6996,7 +6998,7 @@
         <v>4</v>
       </c>
       <c r="C209" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D209" s="6">
         <v>0</v>
@@ -7008,7 +7010,7 @@
         <v>0</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="210" ht="12.8">
@@ -7019,7 +7021,7 @@
         <v>4</v>
       </c>
       <c r="C210" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D210" s="6">
         <v>0</v>
@@ -7031,7 +7033,7 @@
         <v>0</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="211" ht="12.8">
@@ -7042,7 +7044,7 @@
         <v>4</v>
       </c>
       <c r="C211" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D211" s="6">
         <v>0</v>
@@ -7054,7 +7056,7 @@
         <v>0</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="212" ht="12.8">
@@ -7065,7 +7067,7 @@
         <v>4</v>
       </c>
       <c r="C212" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D212" s="6">
         <v>0</v>
@@ -7077,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="213" ht="12.8">
@@ -7088,7 +7090,7 @@
         <v>4</v>
       </c>
       <c r="C213" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D213" s="6">
         <v>0</v>
@@ -7100,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="214" ht="12.8">
@@ -7111,7 +7113,7 @@
         <v>4</v>
       </c>
       <c r="C214" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D214" s="6">
         <v>0</v>
@@ -7123,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="215" ht="12.8">
@@ -7131,10 +7133,10 @@
         <v>1049</v>
       </c>
       <c r="B215" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C215" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D215" s="6">
         <v>6113</v>
@@ -7146,7 +7148,7 @@
         <v>6113</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="216" ht="12.8">
@@ -7154,10 +7156,10 @@
         <v>1050</v>
       </c>
       <c r="B216" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C216" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D216" s="6">
         <v>5203</v>
@@ -7169,7 +7171,7 @@
         <v>5203</v>
       </c>
       <c r="G216" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="217" ht="12.8">
@@ -7177,7 +7179,7 @@
         <v>1051</v>
       </c>
       <c r="B217" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C217" s="6">
         <v>1</v>
@@ -7186,13 +7188,13 @@
         <v>1989</v>
       </c>
       <c r="E217" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F217" s="6">
-        <v>222</v>
+        <v>1969</v>
       </c>
       <c r="G217" s="6" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="218" ht="12.8">
@@ -7200,7 +7202,7 @@
         <v>1052</v>
       </c>
       <c r="B218" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C218" s="6">
         <v>1</v>
@@ -7212,10 +7214,10 @@
         <v>17</v>
       </c>
       <c r="F218" s="6">
-        <v>85</v>
+        <v>290</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="219" ht="12.8">
@@ -7223,22 +7225,22 @@
         <v>1053</v>
       </c>
       <c r="B219" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C219" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D219" s="6">
         <v>3828</v>
       </c>
       <c r="E219" s="6">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="F219" s="6">
-        <v>356</v>
+        <v>3655</v>
       </c>
       <c r="G219" s="6" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="220" ht="12.8">
@@ -7246,640 +7248,700 @@
         <v>1054</v>
       </c>
       <c r="B220" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D220" s="6">
-        <v>0</v>
+        <v>21119</v>
       </c>
       <c r="E220" s="6">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="F220" s="6">
-        <v>0</v>
-      </c>
-      <c r="G220" s="6"/>
+        <v>21011</v>
+      </c>
+      <c r="G220" s="6" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="221" ht="12.8">
       <c r="A221" s="6">
         <v>1055</v>
       </c>
       <c r="B221" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C221" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D221" s="6">
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="E221" s="6">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="F221" s="6">
-        <v>0</v>
-      </c>
-      <c r="G221" s="6"/>
+        <v>381</v>
+      </c>
+      <c r="G221" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="222" ht="12.8">
       <c r="A222" s="6">
         <v>1056</v>
       </c>
       <c r="B222" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C222" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D222" s="6">
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="E222" s="6">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="F222" s="6">
-        <v>0</v>
-      </c>
-      <c r="G222" s="6"/>
+        <v>92</v>
+      </c>
+      <c r="G222" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="223" ht="12.8">
       <c r="A223" s="6">
         <v>1057</v>
       </c>
       <c r="B223" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C223" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D223" s="6">
-        <v>0</v>
+        <v>754</v>
       </c>
       <c r="E223" s="6">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="F223" s="6">
-        <v>0</v>
-      </c>
-      <c r="G223" s="6"/>
+        <v>482</v>
+      </c>
+      <c r="G223" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="224" ht="12.8">
       <c r="A224" s="6">
         <v>1058</v>
       </c>
       <c r="B224" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D224" s="6">
-        <v>0</v>
+        <v>7828</v>
       </c>
       <c r="E224" s="6">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F224" s="6">
-        <v>0</v>
-      </c>
-      <c r="G224" s="6"/>
+        <v>7718</v>
+      </c>
+      <c r="G224" s="6" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="225" ht="12.8">
       <c r="A225" s="6">
         <v>1059</v>
       </c>
       <c r="B225" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D225" s="6">
-        <v>0</v>
+        <v>3973</v>
       </c>
       <c r="E225" s="6">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="F225" s="6">
-        <v>0</v>
-      </c>
-      <c r="G225" s="6"/>
+        <v>3672</v>
+      </c>
+      <c r="G225" s="6" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="226" ht="12.8">
       <c r="A226" s="6">
         <v>1060</v>
       </c>
       <c r="B226" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C226" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D226" s="6">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="E226" s="6">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F226" s="6">
-        <v>0</v>
-      </c>
-      <c r="G226" s="6"/>
+        <v>210</v>
+      </c>
+      <c r="G226" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="227" ht="12.8">
       <c r="A227" s="6">
         <v>1061</v>
       </c>
       <c r="B227" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C227" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D227" s="6">
-        <v>0</v>
+        <v>1520</v>
       </c>
       <c r="E227" s="6">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="F227" s="6">
-        <v>0</v>
-      </c>
-      <c r="G227" s="6"/>
+        <v>1371</v>
+      </c>
+      <c r="G227" s="6" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="228" ht="12.8">
       <c r="A228" s="6">
         <v>1062</v>
       </c>
       <c r="B228" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C228" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D228" s="6">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E228" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F228" s="6">
-        <v>0</v>
-      </c>
-      <c r="G228" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="G228" s="6" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="229" ht="12.8">
       <c r="A229" s="6">
         <v>1063</v>
       </c>
       <c r="B229" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C229" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D229" s="6">
-        <v>0</v>
+        <v>5203</v>
       </c>
       <c r="E229" s="6">
         <v>0</v>
       </c>
       <c r="F229" s="6">
-        <v>0</v>
-      </c>
-      <c r="G229" s="6"/>
+        <v>5203</v>
+      </c>
+      <c r="G229" s="6" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="230" ht="12.8">
       <c r="A230" s="6">
         <v>1064</v>
       </c>
       <c r="B230" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C230" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D230" s="6">
-        <v>0</v>
+        <v>1696</v>
       </c>
       <c r="E230" s="6">
         <v>0</v>
       </c>
       <c r="F230" s="6">
-        <v>0</v>
-      </c>
-      <c r="G230" s="6"/>
+        <v>1696</v>
+      </c>
+      <c r="G230" s="6" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="231" ht="12.8">
       <c r="A231" s="6">
         <v>1065</v>
       </c>
       <c r="B231" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C231" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D231" s="6">
-        <v>0</v>
+        <v>3212</v>
       </c>
       <c r="E231" s="6">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="F231" s="6">
-        <v>0</v>
-      </c>
-      <c r="G231" s="6"/>
+        <v>3081</v>
+      </c>
+      <c r="G231" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="232" ht="12.8">
       <c r="A232" s="6">
         <v>1066</v>
       </c>
       <c r="B232" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C232" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D232" s="6">
-        <v>0</v>
+        <v>904</v>
       </c>
       <c r="E232" s="6">
         <v>0</v>
       </c>
       <c r="F232" s="6">
-        <v>0</v>
-      </c>
-      <c r="G232" s="6"/>
+        <v>904</v>
+      </c>
+      <c r="G232" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="233" ht="12.8">
       <c r="A233" s="6">
         <v>1067</v>
       </c>
       <c r="B233" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C233" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D233" s="6">
-        <v>0</v>
+        <v>2172</v>
       </c>
       <c r="E233" s="6">
         <v>0</v>
       </c>
       <c r="F233" s="6">
-        <v>0</v>
-      </c>
-      <c r="G233" s="6"/>
+        <v>2172</v>
+      </c>
+      <c r="G233" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="234" ht="12.8">
       <c r="A234" s="6">
         <v>1068</v>
       </c>
       <c r="B234" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C234" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D234" s="6">
-        <v>0</v>
+        <v>2180</v>
       </c>
       <c r="E234" s="6">
         <v>0</v>
       </c>
       <c r="F234" s="6">
-        <v>0</v>
-      </c>
-      <c r="G234" s="6"/>
+        <v>2180</v>
+      </c>
+      <c r="G234" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="235" ht="12.8">
       <c r="A235" s="6">
         <v>1069</v>
       </c>
       <c r="B235" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C235" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D235" s="6">
-        <v>0</v>
+        <v>2095</v>
       </c>
       <c r="E235" s="6">
         <v>0</v>
       </c>
       <c r="F235" s="6">
-        <v>0</v>
-      </c>
-      <c r="G235" s="6"/>
+        <v>2095</v>
+      </c>
+      <c r="G235" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="236" ht="12.8">
       <c r="A236" s="6">
         <v>1070</v>
       </c>
       <c r="B236" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C236" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D236" s="6">
-        <v>0</v>
+        <v>1503</v>
       </c>
       <c r="E236" s="6">
         <v>0</v>
       </c>
       <c r="F236" s="6">
-        <v>0</v>
-      </c>
-      <c r="G236" s="6"/>
+        <v>1503</v>
+      </c>
+      <c r="G236" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="237" ht="12.8">
       <c r="A237" s="6">
         <v>1071</v>
       </c>
       <c r="B237" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C237" s="6">
         <v>1</v>
       </c>
       <c r="D237" s="6">
-        <v>0</v>
+        <v>3280</v>
       </c>
       <c r="E237" s="6">
         <v>0</v>
       </c>
       <c r="F237" s="6">
-        <v>0</v>
-      </c>
-      <c r="G237" s="6"/>
+        <v>3280</v>
+      </c>
+      <c r="G237" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="238" ht="12.8">
       <c r="A238" s="6">
         <v>1072</v>
       </c>
       <c r="B238" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C238" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D238" s="6">
-        <v>0</v>
+        <v>2765</v>
       </c>
       <c r="E238" s="6">
         <v>0</v>
       </c>
       <c r="F238" s="6">
-        <v>0</v>
-      </c>
-      <c r="G238" s="6"/>
+        <v>2765</v>
+      </c>
+      <c r="G238" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="239" ht="12.8">
       <c r="A239" s="6">
         <v>1073</v>
       </c>
       <c r="B239" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C239" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D239" s="6">
-        <v>0</v>
+        <v>3190</v>
       </c>
       <c r="E239" s="6">
         <v>0</v>
       </c>
       <c r="F239" s="6">
-        <v>0</v>
-      </c>
-      <c r="G239" s="6"/>
+        <v>3190</v>
+      </c>
+      <c r="G239" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="240" ht="12.8">
       <c r="A240" s="6">
         <v>1074</v>
       </c>
       <c r="B240" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C240" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D240" s="6">
-        <v>0</v>
+        <v>2315</v>
       </c>
       <c r="E240" s="6">
         <v>0</v>
       </c>
       <c r="F240" s="6">
-        <v>0</v>
-      </c>
-      <c r="G240" s="6"/>
+        <v>2315</v>
+      </c>
+      <c r="G240" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="241" ht="12.8">
       <c r="A241" s="6">
         <v>1075</v>
       </c>
       <c r="B241" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C241" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D241" s="6">
-        <v>0</v>
+        <v>3525</v>
       </c>
       <c r="E241" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F241" s="6">
-        <v>0</v>
-      </c>
-      <c r="G241" s="6"/>
+        <v>3517</v>
+      </c>
+      <c r="G241" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="242" ht="12.8">
       <c r="A242" s="6">
         <v>1076</v>
       </c>
       <c r="B242" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C242" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D242" s="6">
-        <v>0</v>
+        <v>5843</v>
       </c>
       <c r="E242" s="6">
         <v>0</v>
       </c>
       <c r="F242" s="6">
-        <v>0</v>
-      </c>
-      <c r="G242" s="6"/>
+        <v>5843</v>
+      </c>
+      <c r="G242" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="243" ht="12.8">
       <c r="A243" s="6">
         <v>1077</v>
       </c>
       <c r="B243" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C243" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D243" s="6">
-        <v>0</v>
+        <v>8807</v>
       </c>
       <c r="E243" s="6">
         <v>0</v>
       </c>
       <c r="F243" s="6">
-        <v>0</v>
-      </c>
-      <c r="G243" s="6"/>
+        <v>8807</v>
+      </c>
+      <c r="G243" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="244" ht="12.8">
       <c r="A244" s="6">
         <v>1078</v>
       </c>
       <c r="B244" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C244" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D244" s="6">
-        <v>0</v>
+        <v>8807</v>
       </c>
       <c r="E244" s="6">
         <v>0</v>
       </c>
       <c r="F244" s="6">
-        <v>0</v>
-      </c>
-      <c r="G244" s="6"/>
+        <v>8807</v>
+      </c>
+      <c r="G244" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="245" ht="12.8">
       <c r="A245" s="6">
         <v>1079</v>
       </c>
       <c r="B245" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C245" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D245" s="6">
-        <v>0</v>
+        <v>3913</v>
       </c>
       <c r="E245" s="6">
         <v>0</v>
       </c>
       <c r="F245" s="6">
-        <v>0</v>
-      </c>
-      <c r="G245" s="6"/>
+        <v>3913</v>
+      </c>
+      <c r="G245" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="246" ht="12.8">
       <c r="A246" s="6">
         <v>1080</v>
       </c>
       <c r="B246" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C246" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D246" s="6">
-        <v>0</v>
+        <v>1062</v>
       </c>
       <c r="E246" s="6">
         <v>0</v>
       </c>
       <c r="F246" s="6">
-        <v>0</v>
-      </c>
-      <c r="G246" s="6"/>
+        <v>1062</v>
+      </c>
+      <c r="G246" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="247" ht="12.8">
       <c r="A247" s="6">
         <v>1081</v>
       </c>
       <c r="B247" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C247" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D247" s="6">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="E247" s="6">
         <v>0</v>
       </c>
       <c r="F247" s="6">
-        <v>0</v>
-      </c>
-      <c r="G247" s="6"/>
+        <v>381</v>
+      </c>
+      <c r="G247" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="248" ht="12.8">
       <c r="A248" s="6">
         <v>1082</v>
       </c>
       <c r="B248" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C248" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D248" s="6">
-        <v>0</v>
+        <v>118418</v>
       </c>
       <c r="E248" s="6">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="F248" s="6">
-        <v>0</v>
-      </c>
-      <c r="G248" s="6"/>
+        <v>17634</v>
+      </c>
+      <c r="G248" s="6" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="249" ht="12.8">
       <c r="A249" s="6">
         <v>1083</v>
       </c>
       <c r="B249" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C249" s="6">
+        <v>3</v>
+      </c>
+      <c r="D249" s="6">
+        <v>30404</v>
+      </c>
+      <c r="E249" s="6">
         <v>1</v>
       </c>
-      <c r="D249" s="6">
-        <v>0</v>
-      </c>
-      <c r="E249" s="6">
-        <v>0</v>
-      </c>
       <c r="F249" s="6">
-        <v>0</v>
-      </c>
-      <c r="G249" s="6"/>
+        <v>12373</v>
+      </c>
+      <c r="G249" s="6" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="250" ht="12.8">
       <c r="A250" s="6">
         <v>1084</v>
       </c>
       <c r="B250" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C250" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D250" s="6">
         <v>0</v>
@@ -7890,125 +7952,137 @@
       <c r="F250" s="6">
         <v>0</v>
       </c>
-      <c r="G250" s="6"/>
+      <c r="G250" s="6" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="251" ht="12.8">
       <c r="A251" s="6">
         <v>1085</v>
       </c>
       <c r="B251" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C251" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D251" s="6">
-        <v>0</v>
+        <v>11827</v>
       </c>
       <c r="E251" s="6">
         <v>0</v>
       </c>
       <c r="F251" s="6">
-        <v>0</v>
-      </c>
-      <c r="G251" s="6"/>
+        <v>11827</v>
+      </c>
+      <c r="G251" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="252" ht="12.8">
       <c r="A252" s="6">
         <v>1086</v>
       </c>
       <c r="B252" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C252" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D252" s="6">
-        <v>0</v>
+        <v>3411</v>
       </c>
       <c r="E252" s="6">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F252" s="6">
-        <v>0</v>
-      </c>
-      <c r="G252" s="6"/>
+        <v>308</v>
+      </c>
+      <c r="G252" s="6" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="253" ht="12.8">
       <c r="A253" s="6">
         <v>1087</v>
       </c>
       <c r="B253" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C253" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D253" s="6">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="E253" s="6">
         <v>0</v>
       </c>
       <c r="F253" s="6">
-        <v>0</v>
-      </c>
-      <c r="G253" s="6"/>
+        <v>392</v>
+      </c>
+      <c r="G253" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="254" ht="12.8">
       <c r="A254" s="6">
         <v>1088</v>
       </c>
       <c r="B254" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C254" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D254" s="6">
-        <v>0</v>
+        <v>1293</v>
       </c>
       <c r="E254" s="6">
         <v>0</v>
       </c>
       <c r="F254" s="6">
-        <v>0</v>
-      </c>
-      <c r="G254" s="6"/>
+        <v>1293</v>
+      </c>
+      <c r="G254" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="255" ht="12.8">
       <c r="A255" s="6">
         <v>1089</v>
       </c>
       <c r="B255" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C255" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D255" s="6">
-        <v>0</v>
+        <v>9023</v>
       </c>
       <c r="E255" s="6">
         <v>0</v>
       </c>
       <c r="F255" s="6">
-        <v>0</v>
-      </c>
-      <c r="G255" s="6"/>
+        <v>9023</v>
+      </c>
+      <c r="G255" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="256" ht="12.8">
       <c r="A256" s="6">
         <v>1090</v>
       </c>
       <c r="B256" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C256" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D256" s="6">
-        <v>0</v>
+        <v>4110</v>
       </c>
       <c r="E256" s="6">
         <v>0</v>
@@ -8016,20 +8090,22 @@
       <c r="F256" s="6">
         <v>0</v>
       </c>
-      <c r="G256" s="6"/>
+      <c r="G256" s="6" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="257" ht="12.8">
       <c r="A257" s="6">
         <v>1091</v>
       </c>
       <c r="B257" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C257" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D257" s="6">
-        <v>0</v>
+        <v>8231</v>
       </c>
       <c r="E257" s="6">
         <v>0</v>
@@ -8037,14 +8113,16 @@
       <c r="F257" s="6">
         <v>0</v>
       </c>
-      <c r="G257" s="6"/>
+      <c r="G257" s="6" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="258" ht="12.8">
       <c r="A258" s="6">
         <v>1092</v>
       </c>
       <c r="B258" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C258" s="6">
         <v>1</v>
@@ -8058,20 +8136,22 @@
       <c r="F258" s="6">
         <v>0</v>
       </c>
-      <c r="G258" s="6"/>
+      <c r="G258" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="259" ht="12.8">
       <c r="A259" s="6">
         <v>1093</v>
       </c>
       <c r="B259" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C259" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D259" s="6">
-        <v>0</v>
+        <v>1735</v>
       </c>
       <c r="E259" s="6">
         <v>0</v>
@@ -8079,7 +8159,9 @@
       <c r="F259" s="6">
         <v>0</v>
       </c>
-      <c r="G259" s="6"/>
+      <c r="G259" s="6" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/RcOnline/base.xlsx
+++ b/RcOnline/base.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Компания</t>
   </si>
@@ -351,41 +351,29 @@
     <t>Выполняю выгрузку ЛС в ГИС ЖКХ для компании АО "Облкоммунэнерго"</t>
   </si>
   <si>
-    <t>Выполняю выгрузку ПД в ГИС ЖКХ для компании ООО "УК "ГСЦ"</t>
-  </si>
-  <si>
     <t>Выгрузка ПД завершена.</t>
   </si>
   <si>
     <t>Выгрузка начислений завершена.</t>
   </si>
   <si>
+    <t>Выгрузка ПД завершена с несколькими ошибками связи с ГИС.</t>
+  </si>
+  <si>
     <t>Не найдены реселлеры в Биллинг Онлайн</t>
   </si>
   <si>
-    <t>Выполняю выгрузку ПД в ГИС ЖКХ для компании ТСЖ Трехгорка</t>
-  </si>
-  <si>
-    <t>Выполняю выгрузку ПД в ГИС ЖКХ для компании ООО "Белокалитвинская УК"</t>
-  </si>
-  <si>
-    <t>Выполняю выгрузку ПД в ГИС ЖКХ для компании АО "Облкоммунэнерго"</t>
-  </si>
-  <si>
-    <t>Выгрузка ПД завершена с несколькими ошибками связи с ГИС.</t>
-  </si>
-  <si>
-    <t>Не загружен справочник НСИ 1 (Доп. услуги)</t>
-  </si>
-  <si>
-    <t>Произошла одна или несколько ошибок.</t>
+    <t>Выполняю выгрузку ПД в ГИС ЖКХ для компании ООО УК "СУХОЛОЖСКАЯ"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="11">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
@@ -2192,8 +2180,8 @@
   </sheetPr>
   <dimension ref="A1:H259"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A201" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E255" activeCellId="0" sqref="E255"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A171" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B251" activeCellId="0" sqref="B251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6282,19 +6270,19 @@
         <v>985</v>
       </c>
       <c r="B178" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C178" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D178" s="6">
         <v>131282</v>
       </c>
       <c r="E178" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178" s="6">
-        <v>33109</v>
+        <v>131281</v>
       </c>
       <c r="G178" s="6" t="s">
         <v>109</v>
@@ -6320,7 +6308,7 @@
         <v>15688</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="180" ht="12.8">
@@ -6343,7 +6331,7 @@
         <v>28</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="181" ht="12.8">
@@ -6366,7 +6354,7 @@
         <v>1606</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="182" ht="12.8">
@@ -6389,7 +6377,7 @@
         <v>3990</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="183" ht="12.8">
@@ -6412,7 +6400,7 @@
         <v>1470</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="184" ht="12.8">
@@ -6435,7 +6423,7 @@
         <v>634</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="185" ht="12.8">
@@ -6458,7 +6446,7 @@
         <v>863</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="186" ht="12.8">
@@ -6481,7 +6469,7 @@
         <v>4217</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="187" ht="12.8">
@@ -6504,7 +6492,7 @@
         <v>570</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="188" ht="12.8">
@@ -6527,7 +6515,7 @@
         <v>13804</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="189" ht="12.8">
@@ -6550,7 +6538,7 @@
         <v>9</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="190" ht="12.8">
@@ -6573,7 +6561,7 @@
         <v>54986</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="191" ht="12.8">
@@ -6581,22 +6569,22 @@
         <v>1018</v>
       </c>
       <c r="B191" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C191" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D191" s="6">
         <v>5009</v>
       </c>
       <c r="E191" s="6">
-        <v>258</v>
+        <v>341</v>
       </c>
       <c r="F191" s="6">
-        <v>4751</v>
+        <v>4668</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="192" ht="12.8">
@@ -6619,7 +6607,7 @@
         <v>5116</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="193" ht="12.8">
@@ -6642,7 +6630,7 @@
         <v>1111</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="194" ht="12.8">
@@ -6665,7 +6653,7 @@
         <v>535</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="195" ht="12.8">
@@ -6688,7 +6676,7 @@
         <v>21946</v>
       </c>
       <c r="G195" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="196" ht="12.8">
@@ -6711,7 +6699,7 @@
         <v>8802</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="197" ht="12.8">
@@ -6734,7 +6722,7 @@
         <v>14297</v>
       </c>
       <c r="G197" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="198" ht="12.8">
@@ -6742,22 +6730,22 @@
         <v>1032</v>
       </c>
       <c r="B198" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C198" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D198" s="6">
         <v>5010</v>
       </c>
       <c r="E198" s="6">
-        <v>1307</v>
+        <v>3260</v>
       </c>
       <c r="F198" s="6">
-        <v>3703</v>
+        <v>1750</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="199" ht="12.8">
@@ -6780,7 +6768,7 @@
         <v>11224</v>
       </c>
       <c r="G199" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="200" ht="12.8">
@@ -6803,7 +6791,7 @@
         <v>3147</v>
       </c>
       <c r="G200" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="201" ht="12.8">
@@ -6811,7 +6799,7 @@
         <v>1035</v>
       </c>
       <c r="B201" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C201" s="6">
         <v>3</v>
@@ -6849,7 +6837,7 @@
         <v>2965</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="203" ht="12.8">
@@ -6872,7 +6860,7 @@
         <v>1474</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="204" ht="12.8">
@@ -6880,7 +6868,7 @@
         <v>1038</v>
       </c>
       <c r="B204" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C204" s="6">
         <v>2</v>
@@ -6895,7 +6883,7 @@
         <v>37749</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="205" ht="12.8">
@@ -6903,22 +6891,22 @@
         <v>1039</v>
       </c>
       <c r="B205" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C205" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D205" s="6">
         <v>7951</v>
       </c>
       <c r="E205" s="6">
-        <v>1091</v>
+        <v>5417</v>
       </c>
       <c r="F205" s="6">
-        <v>6860</v>
+        <v>2534</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="206" ht="12.8">
@@ -6926,7 +6914,7 @@
         <v>1040</v>
       </c>
       <c r="B206" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C206" s="6">
         <v>3</v>
@@ -6935,13 +6923,13 @@
         <v>37803</v>
       </c>
       <c r="E206" s="6">
-        <v>11773</v>
+        <v>12876</v>
       </c>
       <c r="F206" s="6">
-        <v>26030</v>
+        <v>24927</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="207" ht="12.8">
@@ -6964,7 +6952,7 @@
         <v>25065</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="208" ht="12.8">
@@ -6972,7 +6960,7 @@
         <v>1042</v>
       </c>
       <c r="B208" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C208" s="6">
         <v>3</v>
@@ -6995,7 +6983,7 @@
         <v>1043</v>
       </c>
       <c r="B209" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C209" s="6">
         <v>3</v>
@@ -7018,7 +7006,7 @@
         <v>1044</v>
       </c>
       <c r="B210" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C210" s="6">
         <v>3</v>
@@ -7041,7 +7029,7 @@
         <v>1045</v>
       </c>
       <c r="B211" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C211" s="6">
         <v>3</v>
@@ -7064,7 +7052,7 @@
         <v>1046</v>
       </c>
       <c r="B212" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C212" s="6">
         <v>3</v>
@@ -7087,7 +7075,7 @@
         <v>1047</v>
       </c>
       <c r="B213" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C213" s="6">
         <v>3</v>
@@ -7110,7 +7098,7 @@
         <v>1048</v>
       </c>
       <c r="B214" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C214" s="6">
         <v>3</v>
@@ -7148,7 +7136,7 @@
         <v>6113</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="216" ht="12.8">
@@ -7171,7 +7159,7 @@
         <v>5203</v>
       </c>
       <c r="G216" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="217" ht="12.8">
@@ -7179,22 +7167,22 @@
         <v>1051</v>
       </c>
       <c r="B217" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C217" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D217" s="6">
         <v>1989</v>
       </c>
       <c r="E217" s="6">
-        <v>20</v>
+        <v>815</v>
       </c>
       <c r="F217" s="6">
-        <v>1969</v>
+        <v>1174</v>
       </c>
       <c r="G217" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="218" ht="12.8">
@@ -7202,22 +7190,22 @@
         <v>1052</v>
       </c>
       <c r="B218" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C218" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D218" s="6">
         <v>307</v>
       </c>
       <c r="E218" s="6">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="F218" s="6">
-        <v>290</v>
+        <v>98</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="219" ht="12.8">
@@ -7240,7 +7228,7 @@
         <v>3655</v>
       </c>
       <c r="G219" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="220" ht="12.8">
@@ -7248,7 +7236,7 @@
         <v>1054</v>
       </c>
       <c r="B220" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C220" s="6">
         <v>3</v>
@@ -7257,13 +7245,13 @@
         <v>21119</v>
       </c>
       <c r="E220" s="6">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="F220" s="6">
-        <v>21011</v>
+        <v>20962</v>
       </c>
       <c r="G220" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="221" ht="12.8">
@@ -7286,7 +7274,7 @@
         <v>381</v>
       </c>
       <c r="G221" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="222" ht="12.8">
@@ -7309,7 +7297,7 @@
         <v>92</v>
       </c>
       <c r="G222" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="223" ht="12.8">
@@ -7332,7 +7320,7 @@
         <v>482</v>
       </c>
       <c r="G223" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="224" ht="12.8">
@@ -7340,7 +7328,7 @@
         <v>1058</v>
       </c>
       <c r="B224" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C224" s="6">
         <v>3</v>
@@ -7349,13 +7337,13 @@
         <v>7828</v>
       </c>
       <c r="E224" s="6">
-        <v>110</v>
+        <v>194</v>
       </c>
       <c r="F224" s="6">
-        <v>7718</v>
+        <v>7634</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="225" ht="12.8">
@@ -7363,7 +7351,7 @@
         <v>1059</v>
       </c>
       <c r="B225" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C225" s="6">
         <v>3</v>
@@ -7372,13 +7360,13 @@
         <v>3973</v>
       </c>
       <c r="E225" s="6">
-        <v>301</v>
+        <v>448</v>
       </c>
       <c r="F225" s="6">
-        <v>3672</v>
+        <v>3525</v>
       </c>
       <c r="G225" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="226" ht="12.8">
@@ -7386,7 +7374,7 @@
         <v>1060</v>
       </c>
       <c r="B226" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C226" s="6">
         <v>3</v>
@@ -7395,13 +7383,13 @@
         <v>277</v>
       </c>
       <c r="E226" s="6">
-        <v>67</v>
+        <v>275</v>
       </c>
       <c r="F226" s="6">
-        <v>210</v>
+        <v>2</v>
       </c>
       <c r="G226" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="227" ht="12.8">
@@ -7409,7 +7397,7 @@
         <v>1061</v>
       </c>
       <c r="B227" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C227" s="6">
         <v>3</v>
@@ -7418,13 +7406,13 @@
         <v>1520</v>
       </c>
       <c r="E227" s="6">
-        <v>149</v>
+        <v>1017</v>
       </c>
       <c r="F227" s="6">
-        <v>1371</v>
+        <v>503</v>
       </c>
       <c r="G227" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="228" ht="12.8">
@@ -7432,7 +7420,7 @@
         <v>1062</v>
       </c>
       <c r="B228" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C228" s="6">
         <v>3</v>
@@ -7441,13 +7429,13 @@
         <v>56</v>
       </c>
       <c r="E228" s="6">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="F228" s="6">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G228" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="229" ht="12.8">
@@ -7455,7 +7443,7 @@
         <v>1063</v>
       </c>
       <c r="B229" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C229" s="6">
         <v>3</v>
@@ -7470,7 +7458,7 @@
         <v>5203</v>
       </c>
       <c r="G229" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="230" ht="12.8">
@@ -7478,7 +7466,7 @@
         <v>1064</v>
       </c>
       <c r="B230" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C230" s="6">
         <v>3</v>
@@ -7493,7 +7481,7 @@
         <v>1696</v>
       </c>
       <c r="G230" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="231" ht="12.8">
@@ -7501,7 +7489,7 @@
         <v>1065</v>
       </c>
       <c r="B231" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C231" s="6">
         <v>3</v>
@@ -7510,13 +7498,13 @@
         <v>3212</v>
       </c>
       <c r="E231" s="6">
-        <v>131</v>
+        <v>3212</v>
       </c>
       <c r="F231" s="6">
-        <v>3081</v>
+        <v>0</v>
       </c>
       <c r="G231" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="232" ht="12.8">
@@ -7539,7 +7527,7 @@
         <v>904</v>
       </c>
       <c r="G232" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="233" ht="12.8">
@@ -7562,7 +7550,7 @@
         <v>2172</v>
       </c>
       <c r="G233" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="234" ht="12.8">
@@ -7585,7 +7573,7 @@
         <v>2180</v>
       </c>
       <c r="G234" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="235" ht="12.8">
@@ -7608,7 +7596,7 @@
         <v>2095</v>
       </c>
       <c r="G235" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="236" ht="12.8">
@@ -7616,7 +7604,7 @@
         <v>1070</v>
       </c>
       <c r="B236" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C236" s="6">
         <v>3</v>
@@ -7631,7 +7619,7 @@
         <v>1503</v>
       </c>
       <c r="G236" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="237" ht="12.8">
@@ -7654,7 +7642,7 @@
         <v>3280</v>
       </c>
       <c r="G237" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="238" ht="12.8">
@@ -7662,7 +7650,7 @@
         <v>1072</v>
       </c>
       <c r="B238" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C238" s="6">
         <v>3</v>
@@ -7677,7 +7665,7 @@
         <v>2765</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="239" ht="12.8">
@@ -7685,7 +7673,7 @@
         <v>1073</v>
       </c>
       <c r="B239" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C239" s="6">
         <v>3</v>
@@ -7700,7 +7688,7 @@
         <v>3190</v>
       </c>
       <c r="G239" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="240" ht="12.8">
@@ -7708,7 +7696,7 @@
         <v>1074</v>
       </c>
       <c r="B240" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C240" s="6">
         <v>3</v>
@@ -7723,7 +7711,7 @@
         <v>2315</v>
       </c>
       <c r="G240" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="241" ht="12.8">
@@ -7731,7 +7719,7 @@
         <v>1075</v>
       </c>
       <c r="B241" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C241" s="6">
         <v>3</v>
@@ -7740,13 +7728,13 @@
         <v>3525</v>
       </c>
       <c r="E241" s="6">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="F241" s="6">
-        <v>3517</v>
+        <v>3424</v>
       </c>
       <c r="G241" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="242" ht="12.8">
@@ -7754,7 +7742,7 @@
         <v>1076</v>
       </c>
       <c r="B242" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C242" s="6">
         <v>3</v>
@@ -7769,7 +7757,7 @@
         <v>5843</v>
       </c>
       <c r="G242" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="243" ht="12.8">
@@ -7777,7 +7765,7 @@
         <v>1077</v>
       </c>
       <c r="B243" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C243" s="6">
         <v>3</v>
@@ -7792,7 +7780,7 @@
         <v>8807</v>
       </c>
       <c r="G243" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="244" ht="12.8">
@@ -7800,7 +7788,7 @@
         <v>1078</v>
       </c>
       <c r="B244" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C244" s="6">
         <v>3</v>
@@ -7815,7 +7803,7 @@
         <v>8807</v>
       </c>
       <c r="G244" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="245" ht="12.8">
@@ -7823,7 +7811,7 @@
         <v>1079</v>
       </c>
       <c r="B245" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C245" s="6">
         <v>3</v>
@@ -7838,7 +7826,7 @@
         <v>3913</v>
       </c>
       <c r="G245" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="246" ht="12.8">
@@ -7846,7 +7834,7 @@
         <v>1080</v>
       </c>
       <c r="B246" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C246" s="6">
         <v>3</v>
@@ -7861,7 +7849,7 @@
         <v>1062</v>
       </c>
       <c r="G246" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="247" ht="12.8">
@@ -7869,7 +7857,7 @@
         <v>1081</v>
       </c>
       <c r="B247" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C247" s="6">
         <v>3</v>
@@ -7878,13 +7866,13 @@
         <v>381</v>
       </c>
       <c r="E247" s="6">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="F247" s="6">
-        <v>381</v>
+        <v>313</v>
       </c>
       <c r="G247" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="248" ht="12.8">
@@ -7892,22 +7880,22 @@
         <v>1082</v>
       </c>
       <c r="B248" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C248" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D248" s="6">
         <v>118418</v>
       </c>
       <c r="E248" s="6">
-        <v>94</v>
+        <v>1729</v>
       </c>
       <c r="F248" s="6">
-        <v>17634</v>
+        <v>76192</v>
       </c>
       <c r="G248" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="249" ht="12.8">
@@ -7915,7 +7903,7 @@
         <v>1083</v>
       </c>
       <c r="B249" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C249" s="6">
         <v>3</v>
@@ -7924,13 +7912,13 @@
         <v>30404</v>
       </c>
       <c r="E249" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F249" s="6">
-        <v>12373</v>
+        <v>30394</v>
       </c>
       <c r="G249" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="250" ht="12.8">
@@ -7938,7 +7926,7 @@
         <v>1084</v>
       </c>
       <c r="B250" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C250" s="6">
         <v>3</v>
@@ -7976,7 +7964,7 @@
         <v>11827</v>
       </c>
       <c r="G251" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="252" ht="12.8">
@@ -7984,7 +7972,7 @@
         <v>1086</v>
       </c>
       <c r="B252" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C252" s="6">
         <v>3</v>
@@ -7993,13 +7981,13 @@
         <v>3411</v>
       </c>
       <c r="E252" s="6">
-        <v>58</v>
+        <v>2695</v>
       </c>
       <c r="F252" s="6">
-        <v>308</v>
+        <v>716</v>
       </c>
       <c r="G252" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="253" ht="12.8">
@@ -8022,7 +8010,7 @@
         <v>392</v>
       </c>
       <c r="G253" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="254" ht="12.8">
@@ -8045,7 +8033,7 @@
         <v>1293</v>
       </c>
       <c r="G254" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="255" ht="12.8">
@@ -8053,7 +8041,7 @@
         <v>1089</v>
       </c>
       <c r="B255" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C255" s="6">
         <v>3</v>
@@ -8068,7 +8056,7 @@
         <v>9023</v>
       </c>
       <c r="G255" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="256" ht="12.8">
@@ -8076,7 +8064,7 @@
         <v>1090</v>
       </c>
       <c r="B256" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C256" s="6">
         <v>3</v>
@@ -8085,13 +8073,13 @@
         <v>4110</v>
       </c>
       <c r="E256" s="6">
-        <v>0</v>
+        <v>1907</v>
       </c>
       <c r="F256" s="6">
-        <v>0</v>
+        <v>2203</v>
       </c>
       <c r="G256" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="257" ht="12.8">
@@ -8099,7 +8087,7 @@
         <v>1091</v>
       </c>
       <c r="B257" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C257" s="6">
         <v>3</v>
@@ -8108,13 +8096,13 @@
         <v>8231</v>
       </c>
       <c r="E257" s="6">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="F257" s="6">
-        <v>0</v>
+        <v>8162</v>
       </c>
       <c r="G257" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="258" ht="12.8">
@@ -8137,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="G258" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="259" ht="12.8">
@@ -8145,7 +8133,7 @@
         <v>1093</v>
       </c>
       <c r="B259" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C259" s="6">
         <v>3</v>
@@ -8157,10 +8145,10 @@
         <v>0</v>
       </c>
       <c r="F259" s="6">
-        <v>0</v>
+        <v>1735</v>
       </c>
       <c r="G259" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
